--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>TSM</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,206 +665,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9746700</v>
+        <v>10358400</v>
       </c>
       <c r="E8" s="3">
-        <v>8015600</v>
+        <v>10579900</v>
       </c>
       <c r="F8" s="3">
-        <v>7274100</v>
+        <v>9773100</v>
       </c>
       <c r="G8" s="3">
-        <v>9637800</v>
+        <v>8037300</v>
       </c>
       <c r="H8" s="3">
-        <v>8659200</v>
+        <v>7293800</v>
       </c>
       <c r="I8" s="3">
+        <v>9663800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8682600</v>
+      </c>
+      <c r="K8" s="3">
         <v>7758800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8251100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>8996100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8170800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6931000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7627900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8551200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5109200</v>
+        <v>4996300</v>
       </c>
       <c r="E9" s="3">
-        <v>4567400</v>
+        <v>5269200</v>
       </c>
       <c r="F9" s="3">
-        <v>4269000</v>
+        <v>5123000</v>
       </c>
       <c r="G9" s="3">
-        <v>5046500</v>
+        <v>4579800</v>
       </c>
       <c r="H9" s="3">
-        <v>4555500</v>
+        <v>4280600</v>
       </c>
       <c r="I9" s="3">
+        <v>5060100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4567900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4047400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4094400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4500300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4091100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3406400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3666300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4080100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4637500</v>
+        <v>5362200</v>
       </c>
       <c r="E10" s="3">
-        <v>3448200</v>
+        <v>5310700</v>
       </c>
       <c r="F10" s="3">
-        <v>3005100</v>
+        <v>4650100</v>
       </c>
       <c r="G10" s="3">
-        <v>4591300</v>
+        <v>3457500</v>
       </c>
       <c r="H10" s="3">
-        <v>4103600</v>
+        <v>3013200</v>
       </c>
       <c r="I10" s="3">
+        <v>4603700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4114800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3711400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4156700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4495800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4079700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3524700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3961600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4471200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>797300</v>
+        <v>832700</v>
       </c>
       <c r="E12" s="3">
-        <v>711600</v>
+        <v>854900</v>
       </c>
       <c r="F12" s="3">
-        <v>679100</v>
+        <v>799500</v>
       </c>
       <c r="G12" s="3">
-        <v>787900</v>
+        <v>713500</v>
       </c>
       <c r="H12" s="3">
-        <v>727900</v>
+        <v>680900</v>
       </c>
       <c r="I12" s="3">
+        <v>790000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>729900</v>
+      </c>
+      <c r="K12" s="3">
         <v>661600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>679500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>687600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>682100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>617700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>633000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>650900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -975,66 +1017,72 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-10100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1054,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6158500</v>
+        <v>6072300</v>
       </c>
       <c r="E17" s="3">
-        <v>5477900</v>
+        <v>6436300</v>
       </c>
       <c r="F17" s="3">
-        <v>5136600</v>
+        <v>6175100</v>
       </c>
       <c r="G17" s="3">
-        <v>6074800</v>
+        <v>5492700</v>
       </c>
       <c r="H17" s="3">
-        <v>5491300</v>
+        <v>5150500</v>
       </c>
       <c r="I17" s="3">
+        <v>6091300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5506100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4950700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5030600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5466600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4992900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4232700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4518900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4969300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3588200</v>
+        <v>4286100</v>
       </c>
       <c r="E18" s="3">
-        <v>2537700</v>
+        <v>4143600</v>
       </c>
       <c r="F18" s="3">
-        <v>2137500</v>
+        <v>3597900</v>
       </c>
       <c r="G18" s="3">
-        <v>3562900</v>
+        <v>2544600</v>
       </c>
       <c r="H18" s="3">
-        <v>3167900</v>
+        <v>2143300</v>
       </c>
       <c r="I18" s="3">
+        <v>3572600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3176500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2808100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3220500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3529400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3177900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2698300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3109000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3581900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>176100</v>
+        <v>138700</v>
       </c>
       <c r="E20" s="3">
-        <v>170000</v>
+        <v>172800</v>
       </c>
       <c r="F20" s="3">
-        <v>160100</v>
+        <v>176600</v>
       </c>
       <c r="G20" s="3">
-        <v>160800</v>
+        <v>170400</v>
       </c>
       <c r="H20" s="3">
-        <v>146000</v>
+        <v>160600</v>
       </c>
       <c r="I20" s="3">
+        <v>161200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>146400</v>
+      </c>
+      <c r="K20" s="3">
         <v>126000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>130500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>116900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>107200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>120000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>107600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>98400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5984700</v>
+        <v>6711100</v>
       </c>
       <c r="E21" s="3">
-        <v>5203800</v>
+        <v>6568500</v>
       </c>
       <c r="F21" s="3">
-        <v>4876900</v>
+        <v>6000900</v>
       </c>
       <c r="G21" s="3">
-        <v>6252500</v>
+        <v>5217900</v>
       </c>
       <c r="H21" s="3">
-        <v>5762200</v>
+        <v>4890100</v>
       </c>
       <c r="I21" s="3">
+        <v>6269400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5777700</v>
+      </c>
+      <c r="K21" s="3">
         <v>5309100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5729000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5941400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>5591600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4697800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>5178800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>5520800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F22" s="3">
         <v>28100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>28800</v>
       </c>
-      <c r="F22" s="3">
-        <v>29900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>29100</v>
-      </c>
       <c r="H22" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>29200</v>
+      </c>
+      <c r="J22" s="3">
         <v>24600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>20900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>26900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>26900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>27300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>27200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>26600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>26500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3736300</v>
+        <v>4407100</v>
       </c>
       <c r="E23" s="3">
-        <v>2678900</v>
+        <v>4294900</v>
       </c>
       <c r="F23" s="3">
-        <v>2267700</v>
+        <v>3746400</v>
       </c>
       <c r="G23" s="3">
-        <v>3694600</v>
+        <v>2686200</v>
       </c>
       <c r="H23" s="3">
-        <v>3289300</v>
+        <v>2273900</v>
       </c>
       <c r="I23" s="3">
+        <v>3704600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3298200</v>
+      </c>
+      <c r="K23" s="3">
         <v>2913200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3324100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3619400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3257800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2791100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3190000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3653900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>373600</v>
+        <v>503100</v>
       </c>
       <c r="E24" s="3">
-        <v>458000</v>
+        <v>423700</v>
       </c>
       <c r="F24" s="3">
-        <v>226000</v>
+        <v>374600</v>
       </c>
       <c r="G24" s="3">
-        <v>368400</v>
+        <v>459200</v>
       </c>
       <c r="H24" s="3">
-        <v>325900</v>
+        <v>226600</v>
       </c>
       <c r="I24" s="3">
+        <v>369400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>326800</v>
+      </c>
+      <c r="K24" s="3">
         <v>508700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>337800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>342500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>643200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>332700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>385400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1439,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>3362700</v>
+        <v>3904000</v>
       </c>
       <c r="E26" s="3">
-        <v>2221000</v>
+        <v>3871200</v>
       </c>
       <c r="F26" s="3">
-        <v>2041700</v>
+        <v>3371800</v>
       </c>
       <c r="G26" s="3">
-        <v>3326200</v>
+        <v>2227000</v>
       </c>
       <c r="H26" s="3">
-        <v>2963400</v>
+        <v>2047300</v>
       </c>
       <c r="I26" s="3">
+        <v>3335200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2971400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2404500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2986300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3218500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2915300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2147800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2857300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3268400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>3361600</v>
+        <v>3901500</v>
       </c>
       <c r="E27" s="3">
-        <v>2220600</v>
+        <v>3869800</v>
       </c>
       <c r="F27" s="3">
-        <v>2042000</v>
+        <v>3370700</v>
       </c>
       <c r="G27" s="3">
-        <v>3325500</v>
+        <v>2226600</v>
       </c>
       <c r="H27" s="3">
-        <v>2962500</v>
+        <v>2047500</v>
       </c>
       <c r="I27" s="3">
+        <v>3334500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2970500</v>
+      </c>
+      <c r="K27" s="3">
         <v>2404400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2986200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3217900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2914500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2147800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2857600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3267500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1615,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1703,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-176100</v>
+        <v>-138700</v>
       </c>
       <c r="E32" s="3">
-        <v>-170000</v>
+        <v>-172800</v>
       </c>
       <c r="F32" s="3">
-        <v>-160100</v>
+        <v>-176600</v>
       </c>
       <c r="G32" s="3">
-        <v>-160800</v>
+        <v>-170400</v>
       </c>
       <c r="H32" s="3">
-        <v>-146000</v>
+        <v>-160600</v>
       </c>
       <c r="I32" s="3">
+        <v>-161200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-126000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-130500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-116900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-107200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-120000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-107600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-98400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>3361600</v>
+        <v>3901500</v>
       </c>
       <c r="E33" s="3">
-        <v>2220600</v>
+        <v>3869800</v>
       </c>
       <c r="F33" s="3">
-        <v>2042000</v>
+        <v>3370700</v>
       </c>
       <c r="G33" s="3">
-        <v>3325500</v>
+        <v>2226600</v>
       </c>
       <c r="H33" s="3">
-        <v>2962500</v>
+        <v>2047500</v>
       </c>
       <c r="I33" s="3">
+        <v>3334500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2970500</v>
+      </c>
+      <c r="K33" s="3">
         <v>2404400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2986200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3217900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2914500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2147800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2857600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3267500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>3361600</v>
+        <v>3901500</v>
       </c>
       <c r="E35" s="3">
-        <v>2220600</v>
+        <v>3869800</v>
       </c>
       <c r="F35" s="3">
-        <v>2042000</v>
+        <v>3370700</v>
       </c>
       <c r="G35" s="3">
-        <v>3325500</v>
+        <v>2226600</v>
       </c>
       <c r="H35" s="3">
-        <v>2962500</v>
+        <v>2047500</v>
       </c>
       <c r="I35" s="3">
+        <v>3334500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2970500</v>
+      </c>
+      <c r="K35" s="3">
         <v>2404400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2986200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3217900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2914500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2147800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2857600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3267500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1946,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>15047800</v>
+        <v>14366400</v>
       </c>
       <c r="E41" s="3">
-        <v>21608900</v>
+        <v>15187600</v>
       </c>
       <c r="F41" s="3">
-        <v>21475000</v>
+        <v>15088600</v>
       </c>
       <c r="G41" s="3">
-        <v>19218100</v>
+        <v>21667400</v>
       </c>
       <c r="H41" s="3">
-        <v>16255200</v>
+        <v>21533100</v>
       </c>
       <c r="I41" s="3">
+        <v>19270100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>16299200</v>
+      </c>
+      <c r="K41" s="3">
         <v>21028000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>19217100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>17935400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13225800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>18488800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>18415700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>17650300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4989600</v>
+        <v>4677500</v>
       </c>
       <c r="E42" s="3">
-        <v>4312900</v>
+        <v>4628300</v>
       </c>
       <c r="F42" s="3">
-        <v>4157100</v>
+        <v>5003100</v>
       </c>
       <c r="G42" s="3">
-        <v>4518600</v>
+        <v>4324600</v>
       </c>
       <c r="H42" s="3">
-        <v>4330900</v>
+        <v>4168300</v>
       </c>
       <c r="I42" s="3">
+        <v>4530800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4342600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4313700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3928700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3325800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3200600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2937600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3206500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3091300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4838600</v>
+        <v>4885100</v>
       </c>
       <c r="E43" s="3">
-        <v>3913800</v>
+        <v>4663100</v>
       </c>
       <c r="F43" s="3">
-        <v>3551800</v>
+        <v>4851700</v>
       </c>
       <c r="G43" s="3">
-        <v>4299300</v>
+        <v>3924400</v>
       </c>
       <c r="H43" s="3">
-        <v>4310600</v>
+        <v>3561400</v>
       </c>
       <c r="I43" s="3">
+        <v>4310900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4322300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3039400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3589100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3969900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3853300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3625400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3559800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4221400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3215800</v>
+        <v>2610600</v>
       </c>
       <c r="E44" s="3">
-        <v>3599800</v>
+        <v>2767400</v>
       </c>
       <c r="F44" s="3">
-        <v>3614800</v>
+        <v>3224500</v>
       </c>
       <c r="G44" s="3">
-        <v>3433500</v>
+        <v>3609500</v>
       </c>
       <c r="H44" s="3">
-        <v>3503500</v>
+        <v>3624600</v>
       </c>
       <c r="I44" s="3">
+        <v>3442800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3513000</v>
+      </c>
+      <c r="K44" s="3">
         <v>3293800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2834300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2394500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2394900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1977400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1643200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1587500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>160200</v>
+        <v>222700</v>
       </c>
       <c r="E45" s="3">
-        <v>163100</v>
+        <v>187800</v>
       </c>
       <c r="F45" s="3">
-        <v>172800</v>
+        <v>160600</v>
       </c>
       <c r="G45" s="3">
-        <v>183400</v>
+        <v>163600</v>
       </c>
       <c r="H45" s="3">
-        <v>177600</v>
+        <v>173200</v>
       </c>
       <c r="I45" s="3">
+        <v>183900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>178000</v>
+      </c>
+      <c r="K45" s="3">
         <v>222900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1333300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>156400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>170000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>132000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>99600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>115600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>28252000</v>
+        <v>26762400</v>
       </c>
       <c r="E46" s="3">
-        <v>33598600</v>
+        <v>27434200</v>
       </c>
       <c r="F46" s="3">
-        <v>32971500</v>
+        <v>28328400</v>
       </c>
       <c r="G46" s="3">
-        <v>31652900</v>
+        <v>33689500</v>
       </c>
       <c r="H46" s="3">
-        <v>28577800</v>
+        <v>33060700</v>
       </c>
       <c r="I46" s="3">
+        <v>31738500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>28655100</v>
+      </c>
+      <c r="K46" s="3">
         <v>31897800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>30902400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>27782000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>22844600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>27161200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>26924800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>26666100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1002300</v>
+        <v>1035000</v>
       </c>
       <c r="E47" s="3">
-        <v>975000</v>
+        <v>1006200</v>
       </c>
       <c r="F47" s="3">
-        <v>999100</v>
+        <v>1005000</v>
       </c>
       <c r="G47" s="3">
-        <v>974700</v>
+        <v>977700</v>
       </c>
       <c r="H47" s="3">
-        <v>991200</v>
+        <v>1001800</v>
       </c>
       <c r="I47" s="3">
+        <v>977300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>993900</v>
+      </c>
+      <c r="K47" s="3">
         <v>959100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1143400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1347300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1325700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1420200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1451800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1505100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>40426300</v>
+        <v>48688900</v>
       </c>
       <c r="E48" s="3">
-        <v>38612000</v>
+        <v>45676500</v>
       </c>
       <c r="F48" s="3">
-        <v>37473900</v>
+        <v>40535700</v>
       </c>
       <c r="G48" s="3">
-        <v>35656400</v>
+        <v>38716500</v>
       </c>
       <c r="H48" s="3">
-        <v>34873700</v>
+        <v>37575300</v>
       </c>
       <c r="I48" s="3">
+        <v>35752900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>34968000</v>
+      </c>
+      <c r="K48" s="3">
         <v>34399800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>35101500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>34437000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>34541200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>34925900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>33828400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>32537500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>601800</v>
+        <v>908200</v>
       </c>
       <c r="E49" s="3">
-        <v>582100</v>
+        <v>688800</v>
       </c>
       <c r="F49" s="3">
-        <v>597800</v>
+        <v>603400</v>
       </c>
       <c r="G49" s="3">
-        <v>565500</v>
+        <v>583700</v>
       </c>
       <c r="H49" s="3">
-        <v>465300</v>
+        <v>599400</v>
       </c>
       <c r="I49" s="3">
+        <v>567000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>466500</v>
+      </c>
+      <c r="K49" s="3">
         <v>458700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>454800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>459400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>481000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>457600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>465600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>476600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2448,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>702300</v>
+        <v>754500</v>
       </c>
       <c r="E52" s="3">
-        <v>712900</v>
+        <v>725600</v>
       </c>
       <c r="F52" s="3">
-        <v>711900</v>
+        <v>704200</v>
       </c>
       <c r="G52" s="3">
-        <v>668200</v>
+        <v>714800</v>
       </c>
       <c r="H52" s="3">
-        <v>610500</v>
+        <v>713800</v>
       </c>
       <c r="I52" s="3">
+        <v>670000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>612200</v>
+      </c>
+      <c r="K52" s="3">
         <v>581200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>552800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>530600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>488100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>415500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>418700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>332000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2536,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>70984600</v>
+        <v>78148900</v>
       </c>
       <c r="E54" s="3">
-        <v>74480600</v>
+        <v>75531200</v>
       </c>
       <c r="F54" s="3">
-        <v>72754100</v>
+        <v>71176700</v>
       </c>
       <c r="G54" s="3">
-        <v>69517700</v>
+        <v>74682100</v>
       </c>
       <c r="H54" s="3">
-        <v>65518500</v>
+        <v>72951000</v>
       </c>
       <c r="I54" s="3">
+        <v>69705800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>65695800</v>
+      </c>
+      <c r="K54" s="3">
         <v>68296500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>68154900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>64556200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>59680600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>64380300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>63089400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>61517300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2598,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2616,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1229200</v>
+        <v>1326500</v>
       </c>
       <c r="E57" s="3">
-        <v>1083300</v>
+        <v>1340900</v>
       </c>
       <c r="F57" s="3">
-        <v>920000</v>
+        <v>1232600</v>
       </c>
       <c r="G57" s="3">
-        <v>1142700</v>
+        <v>1086200</v>
       </c>
       <c r="H57" s="3">
-        <v>1007900</v>
+        <v>922500</v>
       </c>
       <c r="I57" s="3">
+        <v>1145800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1010700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1019900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>965900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>974500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>939500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>830100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>790900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>891100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3903800</v>
+        <v>5250100</v>
       </c>
       <c r="E58" s="3">
-        <v>4202800</v>
+        <v>5089100</v>
       </c>
       <c r="F58" s="3">
-        <v>4147300</v>
+        <v>3914400</v>
       </c>
       <c r="G58" s="3">
-        <v>4112800</v>
+        <v>4214100</v>
       </c>
       <c r="H58" s="3">
-        <v>3621200</v>
+        <v>4158500</v>
       </c>
       <c r="I58" s="3">
+        <v>4123900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3631000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1554400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3528500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3959500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3678600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4362700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3247200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3132800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>11323300</v>
+        <v>13082200</v>
       </c>
       <c r="E59" s="3">
-        <v>15410200</v>
+        <v>13271000</v>
       </c>
       <c r="F59" s="3">
-        <v>7513900</v>
+        <v>11354000</v>
       </c>
       <c r="G59" s="3">
-        <v>6071000</v>
+        <v>15451900</v>
       </c>
       <c r="H59" s="3">
-        <v>6068300</v>
+        <v>7534200</v>
       </c>
       <c r="I59" s="3">
+        <v>6087400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>6084700</v>
+      </c>
+      <c r="K59" s="3">
         <v>12825000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6888300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6691700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5057000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>11774100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6448700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6354000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>16456400</v>
+        <v>19658800</v>
       </c>
       <c r="E60" s="3">
-        <v>20696200</v>
+        <v>19701000</v>
       </c>
       <c r="F60" s="3">
-        <v>12581200</v>
+        <v>16501000</v>
       </c>
       <c r="G60" s="3">
-        <v>11326400</v>
+        <v>20752300</v>
       </c>
       <c r="H60" s="3">
-        <v>10697400</v>
+        <v>12615200</v>
       </c>
       <c r="I60" s="3">
+        <v>11357100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>10726400</v>
+      </c>
+      <c r="K60" s="3">
         <v>15399300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11382700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11625700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9675100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>16966900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10486700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10377800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1334800</v>
+        <v>2200000</v>
       </c>
       <c r="E61" s="3">
-        <v>1686500</v>
+        <v>1338700</v>
       </c>
       <c r="F61" s="3">
-        <v>1736400</v>
+        <v>1338400</v>
       </c>
       <c r="G61" s="3">
-        <v>1892500</v>
+        <v>1691000</v>
       </c>
       <c r="H61" s="3">
-        <v>1892500</v>
+        <v>1741100</v>
       </c>
       <c r="I61" s="3">
+        <v>1897600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1897600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2773900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2773900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2975200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2975700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3218900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4376900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4993100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>393300</v>
+        <v>361300</v>
       </c>
       <c r="E62" s="3">
-        <v>397800</v>
+        <v>394600</v>
       </c>
       <c r="F62" s="3">
-        <v>447100</v>
+        <v>394400</v>
       </c>
       <c r="G62" s="3">
-        <v>505200</v>
+        <v>398900</v>
       </c>
       <c r="H62" s="3">
-        <v>516500</v>
+        <v>448400</v>
       </c>
       <c r="I62" s="3">
+        <v>506600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>517900</v>
+      </c>
+      <c r="K62" s="3">
         <v>544800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>562600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>602700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>637700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>688500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>735500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>816900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2924,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2968,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3012,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>18205800</v>
+        <v>22245400</v>
       </c>
       <c r="E66" s="3">
-        <v>22800700</v>
+        <v>21457200</v>
       </c>
       <c r="F66" s="3">
-        <v>14787100</v>
+        <v>18255100</v>
       </c>
       <c r="G66" s="3">
-        <v>13746700</v>
+        <v>22862400</v>
       </c>
       <c r="H66" s="3">
-        <v>13128300</v>
+        <v>14827100</v>
       </c>
       <c r="I66" s="3">
+        <v>13783900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>13163800</v>
+      </c>
+      <c r="K66" s="3">
         <v>18739100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14742700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15226400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13311000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>20896300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15625100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16213900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3074,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3118,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3162,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3206,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3250,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>42636200</v>
+        <v>46206300</v>
       </c>
       <c r="E72" s="3">
-        <v>41427900</v>
+        <v>44466700</v>
       </c>
       <c r="F72" s="3">
-        <v>47826100</v>
+        <v>42751600</v>
       </c>
       <c r="G72" s="3">
-        <v>45787300</v>
+        <v>41540000</v>
       </c>
       <c r="H72" s="3">
-        <v>42497600</v>
+        <v>47955500</v>
       </c>
       <c r="I72" s="3">
+        <v>45911200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>42612600</v>
+      </c>
+      <c r="K72" s="3">
         <v>39561800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>44059200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>39973300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>36763300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>33848900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>37815800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>34958200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3338,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3382,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3426,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>52778800</v>
+        <v>55903500</v>
       </c>
       <c r="E76" s="3">
-        <v>51679900</v>
+        <v>54074000</v>
       </c>
       <c r="F76" s="3">
-        <v>57967000</v>
+        <v>52921600</v>
       </c>
       <c r="G76" s="3">
-        <v>55771000</v>
+        <v>51819700</v>
       </c>
       <c r="H76" s="3">
-        <v>52390200</v>
+        <v>58123900</v>
       </c>
       <c r="I76" s="3">
+        <v>55921900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>52532000</v>
+      </c>
+      <c r="K76" s="3">
         <v>49557500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>53412200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>49329900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>46369500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>43484000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>47464300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>45303400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3514,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>3361600</v>
+        <v>3901500</v>
       </c>
       <c r="E81" s="3">
-        <v>2220600</v>
+        <v>3869800</v>
       </c>
       <c r="F81" s="3">
-        <v>2042000</v>
+        <v>3370700</v>
       </c>
       <c r="G81" s="3">
-        <v>3325500</v>
+        <v>2226600</v>
       </c>
       <c r="H81" s="3">
-        <v>2962500</v>
+        <v>2047500</v>
       </c>
       <c r="I81" s="3">
+        <v>3334500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2970500</v>
+      </c>
+      <c r="K81" s="3">
         <v>2404400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2986200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3217900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2914500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2147800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2857600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3267500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3625,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2220300</v>
+        <v>2286300</v>
       </c>
       <c r="E83" s="3">
-        <v>2496100</v>
+        <v>2252200</v>
       </c>
       <c r="F83" s="3">
-        <v>2579200</v>
+        <v>2226300</v>
       </c>
       <c r="G83" s="3">
-        <v>2528800</v>
+        <v>2502900</v>
       </c>
       <c r="H83" s="3">
-        <v>2448300</v>
+        <v>2586200</v>
       </c>
       <c r="I83" s="3">
+        <v>2535600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2454900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2375100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2378000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2295100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2306400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1879500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1962200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1840400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3713,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3757,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3801,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3845,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3889,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4714700</v>
+        <v>6771000</v>
       </c>
       <c r="E89" s="3">
-        <v>3916700</v>
+        <v>6768500</v>
       </c>
       <c r="F89" s="3">
-        <v>5077800</v>
+        <v>4727500</v>
       </c>
       <c r="G89" s="3">
-        <v>6298500</v>
+        <v>3927300</v>
       </c>
       <c r="H89" s="3">
-        <v>3129200</v>
+        <v>5091600</v>
       </c>
       <c r="I89" s="3">
+        <v>6315600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3137700</v>
+      </c>
+      <c r="K89" s="3">
         <v>4316300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>5345700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>6615700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3785000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3351200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>5250500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>6040000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-3263400</v>
+        <v>-6421900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3869900</v>
+        <v>-5669800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2525800</v>
+        <v>-3272200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3795100</v>
+        <v>-3880400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2326500</v>
+        <v>-2532700</v>
       </c>
       <c r="I91" s="3">
+        <v>-3805400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2332800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4083,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3601700</v>
+        <v>-6302900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3815500</v>
+        <v>-5723000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2134900</v>
+        <v>-3611500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3900100</v>
+        <v>-3825800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2111100</v>
+        <v>-2140700</v>
       </c>
       <c r="I94" s="3">
+        <v>-3910700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2116800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4145,16 +4613,18 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2161900</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1729600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4189,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4233,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4277,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4321,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-7620300</v>
+        <v>-1359300</v>
       </c>
       <c r="E100" s="3">
-        <v>-30900</v>
+        <v>-573000</v>
       </c>
       <c r="F100" s="3">
-        <v>-745400</v>
+        <v>-7640900</v>
       </c>
       <c r="G100" s="3">
-        <v>475100</v>
+        <v>-31000</v>
       </c>
       <c r="H100" s="3">
-        <v>-5735200</v>
+        <v>-747500</v>
       </c>
       <c r="I100" s="3">
+        <v>476400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-5750700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-976100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>312600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-20700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-388400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>792500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-53800</v>
+        <v>70000</v>
       </c>
       <c r="E101" s="3">
-        <v>63700</v>
+        <v>-373400</v>
       </c>
       <c r="F101" s="3">
-        <v>59400</v>
+        <v>-53900</v>
       </c>
       <c r="G101" s="3">
-        <v>89400</v>
+        <v>63800</v>
       </c>
       <c r="H101" s="3">
-        <v>-55600</v>
+        <v>59600</v>
       </c>
       <c r="I101" s="3">
+        <v>89600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="K101" s="3">
         <v>468800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-174600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-175200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-23200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>38900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-534700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>204200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-6561100</v>
+        <v>-821100</v>
       </c>
       <c r="E102" s="3">
-        <v>133900</v>
+        <v>99000</v>
       </c>
       <c r="F102" s="3">
-        <v>2256900</v>
+        <v>-6578900</v>
       </c>
       <c r="G102" s="3">
-        <v>2962900</v>
+        <v>134300</v>
       </c>
       <c r="H102" s="3">
-        <v>-4772700</v>
+        <v>2263000</v>
       </c>
       <c r="I102" s="3">
+        <v>2970900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-4785700</v>
+      </c>
+      <c r="K102" s="3">
         <v>1810900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>811300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4709600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>186100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>765400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2520200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5165000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>TSM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10358400</v>
+        <v>10585500</v>
       </c>
       <c r="E8" s="3">
-        <v>10579900</v>
+        <v>10582000</v>
       </c>
       <c r="F8" s="3">
-        <v>9773100</v>
+        <v>10808300</v>
       </c>
       <c r="G8" s="3">
-        <v>8037300</v>
+        <v>9984100</v>
       </c>
       <c r="H8" s="3">
-        <v>7293800</v>
+        <v>8210800</v>
       </c>
       <c r="I8" s="3">
-        <v>9663800</v>
+        <v>7451300</v>
       </c>
       <c r="J8" s="3">
+        <v>9872500</v>
+      </c>
+      <c r="K8" s="3">
         <v>8682600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7758800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8251100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8996100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8170800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6931000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7627900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8551200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4996300</v>
+        <v>4974400</v>
       </c>
       <c r="E9" s="3">
-        <v>5269200</v>
+        <v>5104100</v>
       </c>
       <c r="F9" s="3">
-        <v>5123000</v>
+        <v>5382900</v>
       </c>
       <c r="G9" s="3">
-        <v>4579800</v>
+        <v>5233600</v>
       </c>
       <c r="H9" s="3">
-        <v>4280600</v>
+        <v>4678700</v>
       </c>
       <c r="I9" s="3">
-        <v>5060100</v>
+        <v>4373000</v>
       </c>
       <c r="J9" s="3">
+        <v>5169400</v>
+      </c>
+      <c r="K9" s="3">
         <v>4567900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4047400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4094400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4500300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4091100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3406400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3666300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4080100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5362200</v>
+        <v>5611100</v>
       </c>
       <c r="E10" s="3">
-        <v>5310700</v>
+        <v>5477900</v>
       </c>
       <c r="F10" s="3">
-        <v>4650100</v>
+        <v>5425300</v>
       </c>
       <c r="G10" s="3">
-        <v>3457500</v>
+        <v>4750500</v>
       </c>
       <c r="H10" s="3">
-        <v>3013200</v>
+        <v>3532100</v>
       </c>
       <c r="I10" s="3">
-        <v>4603700</v>
+        <v>3078300</v>
       </c>
       <c r="J10" s="3">
+        <v>4703100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4114800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3711400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4156700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4495800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4079700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3524700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3961600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4471200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>832700</v>
+        <v>848100</v>
       </c>
       <c r="E12" s="3">
-        <v>854900</v>
+        <v>850700</v>
       </c>
       <c r="F12" s="3">
-        <v>799500</v>
+        <v>873400</v>
       </c>
       <c r="G12" s="3">
-        <v>713500</v>
+        <v>816700</v>
       </c>
       <c r="H12" s="3">
-        <v>680900</v>
+        <v>728900</v>
       </c>
       <c r="I12" s="3">
-        <v>790000</v>
+        <v>695600</v>
       </c>
       <c r="J12" s="3">
+        <v>807100</v>
+      </c>
+      <c r="K12" s="3">
         <v>729900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>661600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>679500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>687600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>682100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>617700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>633000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>650900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,28 +1025,31 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
       <c r="H14" s="3">
-        <v>-10100</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-10300</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1038,33 +1058,36 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>-100</v>
       </c>
       <c r="N14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>91</v>
+      <c r="D15" s="3">
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1079,14 +1102,14 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6072300</v>
+        <v>6119100</v>
       </c>
       <c r="E17" s="3">
-        <v>6436300</v>
+        <v>6203400</v>
       </c>
       <c r="F17" s="3">
-        <v>6175100</v>
+        <v>6575300</v>
       </c>
       <c r="G17" s="3">
-        <v>5492700</v>
+        <v>6308500</v>
       </c>
       <c r="H17" s="3">
-        <v>5150500</v>
+        <v>5611300</v>
       </c>
       <c r="I17" s="3">
-        <v>6091300</v>
+        <v>5261700</v>
       </c>
       <c r="J17" s="3">
+        <v>6222800</v>
+      </c>
+      <c r="K17" s="3">
         <v>5506100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4950700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5030600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5466600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4992900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4232700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4518900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4969300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>4286100</v>
+        <v>4466400</v>
       </c>
       <c r="E18" s="3">
-        <v>4143600</v>
+        <v>4378700</v>
       </c>
       <c r="F18" s="3">
-        <v>3597900</v>
+        <v>4233000</v>
       </c>
       <c r="G18" s="3">
-        <v>2544600</v>
+        <v>3675600</v>
       </c>
       <c r="H18" s="3">
-        <v>2143300</v>
+        <v>2599500</v>
       </c>
       <c r="I18" s="3">
-        <v>3572600</v>
+        <v>2189600</v>
       </c>
       <c r="J18" s="3">
+        <v>3649700</v>
+      </c>
+      <c r="K18" s="3">
         <v>3176500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2808100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3220500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3529400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3177900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2698300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3109000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3581900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>138700</v>
+        <v>194600</v>
       </c>
       <c r="E20" s="3">
-        <v>172800</v>
+        <v>141700</v>
       </c>
       <c r="F20" s="3">
-        <v>176600</v>
+        <v>176500</v>
       </c>
       <c r="G20" s="3">
-        <v>170400</v>
+        <v>180400</v>
       </c>
       <c r="H20" s="3">
-        <v>160600</v>
+        <v>174100</v>
       </c>
       <c r="I20" s="3">
-        <v>161200</v>
+        <v>164000</v>
       </c>
       <c r="J20" s="3">
+        <v>164700</v>
+      </c>
+      <c r="K20" s="3">
         <v>146400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>126000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>130500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>116900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>107200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>120000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>107600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>98400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6711100</v>
+        <v>7075800</v>
       </c>
       <c r="E21" s="3">
-        <v>6568500</v>
+        <v>6856000</v>
       </c>
       <c r="F21" s="3">
-        <v>6000900</v>
+        <v>6710300</v>
       </c>
       <c r="G21" s="3">
-        <v>5217900</v>
+        <v>6130400</v>
       </c>
       <c r="H21" s="3">
-        <v>4890100</v>
+        <v>5330500</v>
       </c>
       <c r="I21" s="3">
-        <v>6269400</v>
+        <v>4995600</v>
       </c>
       <c r="J21" s="3">
+        <v>6404700</v>
+      </c>
+      <c r="K21" s="3">
         <v>5777700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5309100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5729000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5941400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5591600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4697800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5178800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5520800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>17700</v>
+        <v>13900</v>
       </c>
       <c r="E22" s="3">
-        <v>21500</v>
+        <v>18100</v>
       </c>
       <c r="F22" s="3">
-        <v>28100</v>
+        <v>21900</v>
       </c>
       <c r="G22" s="3">
-        <v>28800</v>
+        <v>28700</v>
       </c>
       <c r="H22" s="3">
-        <v>30000</v>
+        <v>29500</v>
       </c>
       <c r="I22" s="3">
-        <v>29200</v>
+        <v>30600</v>
       </c>
       <c r="J22" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K22" s="3">
         <v>24600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>26900</v>
       </c>
       <c r="M22" s="3">
         <v>26900</v>
       </c>
       <c r="N22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="O22" s="3">
         <v>27300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>27200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>26600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>26500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>4407100</v>
+        <v>4647100</v>
       </c>
       <c r="E23" s="3">
-        <v>4294900</v>
+        <v>4502300</v>
       </c>
       <c r="F23" s="3">
-        <v>3746400</v>
+        <v>4387600</v>
       </c>
       <c r="G23" s="3">
-        <v>2686200</v>
+        <v>3827300</v>
       </c>
       <c r="H23" s="3">
-        <v>2273900</v>
+        <v>2744200</v>
       </c>
       <c r="I23" s="3">
-        <v>3704600</v>
+        <v>2322900</v>
       </c>
       <c r="J23" s="3">
+        <v>3784600</v>
+      </c>
+      <c r="K23" s="3">
         <v>3298200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2913200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3324100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3619400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3257800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2791100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3190000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3653900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>503100</v>
+        <v>528300</v>
       </c>
       <c r="E24" s="3">
-        <v>423700</v>
+        <v>513900</v>
       </c>
       <c r="F24" s="3">
-        <v>374600</v>
+        <v>432800</v>
       </c>
       <c r="G24" s="3">
-        <v>459200</v>
+        <v>382700</v>
       </c>
       <c r="H24" s="3">
-        <v>226600</v>
+        <v>469100</v>
       </c>
       <c r="I24" s="3">
-        <v>369400</v>
+        <v>231500</v>
       </c>
       <c r="J24" s="3">
+        <v>377400</v>
+      </c>
+      <c r="K24" s="3">
         <v>326800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>508700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>337800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>342500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>643200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>332700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>385400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>3904000</v>
+        <v>4118800</v>
       </c>
       <c r="E26" s="3">
-        <v>3871200</v>
+        <v>3988300</v>
       </c>
       <c r="F26" s="3">
-        <v>3371800</v>
+        <v>3954800</v>
       </c>
       <c r="G26" s="3">
-        <v>2227000</v>
+        <v>3444600</v>
       </c>
       <c r="H26" s="3">
-        <v>2047300</v>
+        <v>2275100</v>
       </c>
       <c r="I26" s="3">
-        <v>3335200</v>
+        <v>2091500</v>
       </c>
       <c r="J26" s="3">
+        <v>3407200</v>
+      </c>
+      <c r="K26" s="3">
         <v>2971400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2404500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2986300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3218500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2915300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2147800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2857300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3268400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>3901500</v>
+        <v>4116400</v>
       </c>
       <c r="E27" s="3">
-        <v>3869800</v>
+        <v>3985700</v>
       </c>
       <c r="F27" s="3">
-        <v>3370700</v>
+        <v>3953300</v>
       </c>
       <c r="G27" s="3">
-        <v>2226600</v>
+        <v>3443500</v>
       </c>
       <c r="H27" s="3">
-        <v>2047500</v>
+        <v>2274700</v>
       </c>
       <c r="I27" s="3">
-        <v>3334500</v>
+        <v>2091700</v>
       </c>
       <c r="J27" s="3">
+        <v>3406500</v>
+      </c>
+      <c r="K27" s="3">
         <v>2970500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2404400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2986200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3217900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2914500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2147800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2857600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3267500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-138700</v>
+        <v>-194600</v>
       </c>
       <c r="E32" s="3">
-        <v>-172800</v>
+        <v>-141700</v>
       </c>
       <c r="F32" s="3">
-        <v>-176600</v>
+        <v>-176500</v>
       </c>
       <c r="G32" s="3">
-        <v>-170400</v>
+        <v>-180400</v>
       </c>
       <c r="H32" s="3">
-        <v>-160600</v>
+        <v>-174100</v>
       </c>
       <c r="I32" s="3">
-        <v>-161200</v>
+        <v>-164000</v>
       </c>
       <c r="J32" s="3">
+        <v>-164700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-146400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-126000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-130500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-116900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-107200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-120000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-107600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-98400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>3901500</v>
+        <v>4116400</v>
       </c>
       <c r="E33" s="3">
-        <v>3869800</v>
+        <v>3985700</v>
       </c>
       <c r="F33" s="3">
-        <v>3370700</v>
+        <v>3953300</v>
       </c>
       <c r="G33" s="3">
-        <v>2226600</v>
+        <v>3443500</v>
       </c>
       <c r="H33" s="3">
-        <v>2047500</v>
+        <v>2274700</v>
       </c>
       <c r="I33" s="3">
-        <v>3334500</v>
+        <v>2091700</v>
       </c>
       <c r="J33" s="3">
+        <v>3406500</v>
+      </c>
+      <c r="K33" s="3">
         <v>2970500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2404400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2986200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3217900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2914500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2147800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2857600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3267500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>3901500</v>
+        <v>4116400</v>
       </c>
       <c r="E35" s="3">
-        <v>3869800</v>
+        <v>3985700</v>
       </c>
       <c r="F35" s="3">
-        <v>3370700</v>
+        <v>3953300</v>
       </c>
       <c r="G35" s="3">
-        <v>2226600</v>
+        <v>3443500</v>
       </c>
       <c r="H35" s="3">
-        <v>2047500</v>
+        <v>2274700</v>
       </c>
       <c r="I35" s="3">
-        <v>3334500</v>
+        <v>2091700</v>
       </c>
       <c r="J35" s="3">
+        <v>3406500</v>
+      </c>
+      <c r="K35" s="3">
         <v>2970500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2404400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2986200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3217900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2914500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2147800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2857600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3267500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>14366400</v>
+        <v>15931600</v>
       </c>
       <c r="E41" s="3">
-        <v>15187600</v>
+        <v>14676600</v>
       </c>
       <c r="F41" s="3">
-        <v>15088600</v>
+        <v>15515500</v>
       </c>
       <c r="G41" s="3">
-        <v>21667400</v>
+        <v>15414300</v>
       </c>
       <c r="H41" s="3">
-        <v>21533100</v>
+        <v>22135200</v>
       </c>
       <c r="I41" s="3">
-        <v>19270100</v>
+        <v>21998000</v>
       </c>
       <c r="J41" s="3">
+        <v>19686100</v>
+      </c>
+      <c r="K41" s="3">
         <v>16299200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21028000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19217100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17935400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13225800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18488800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18415700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17650300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4677500</v>
+        <v>5011200</v>
       </c>
       <c r="E42" s="3">
-        <v>4628300</v>
+        <v>4778500</v>
       </c>
       <c r="F42" s="3">
-        <v>5003100</v>
+        <v>4728200</v>
       </c>
       <c r="G42" s="3">
-        <v>4324600</v>
+        <v>5111100</v>
       </c>
       <c r="H42" s="3">
-        <v>4168300</v>
+        <v>4418000</v>
       </c>
       <c r="I42" s="3">
-        <v>4530800</v>
+        <v>4258300</v>
       </c>
       <c r="J42" s="3">
+        <v>4628600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4342600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4313700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3928700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3325800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3200600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2937600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3206500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3091300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4885100</v>
+        <v>5184800</v>
       </c>
       <c r="E43" s="3">
-        <v>4663100</v>
+        <v>4990600</v>
       </c>
       <c r="F43" s="3">
-        <v>4851700</v>
+        <v>4763700</v>
       </c>
       <c r="G43" s="3">
-        <v>3924400</v>
+        <v>4956400</v>
       </c>
       <c r="H43" s="3">
-        <v>3561400</v>
+        <v>4009100</v>
       </c>
       <c r="I43" s="3">
-        <v>4310900</v>
+        <v>3638300</v>
       </c>
       <c r="J43" s="3">
+        <v>4404000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4322300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3039400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3589100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3969900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3853300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3625400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3559800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4221400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2610600</v>
+        <v>2922800</v>
       </c>
       <c r="E44" s="3">
-        <v>2767400</v>
+        <v>2666900</v>
       </c>
       <c r="F44" s="3">
-        <v>3224500</v>
+        <v>2827200</v>
       </c>
       <c r="G44" s="3">
-        <v>3609500</v>
+        <v>3294100</v>
       </c>
       <c r="H44" s="3">
-        <v>3624600</v>
+        <v>3687500</v>
       </c>
       <c r="I44" s="3">
-        <v>3442800</v>
+        <v>3702800</v>
       </c>
       <c r="J44" s="3">
+        <v>3517100</v>
+      </c>
+      <c r="K44" s="3">
         <v>3513000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3293800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2834300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2394500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2394900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1977400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1643200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1587500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>222700</v>
+        <v>250900</v>
       </c>
       <c r="E45" s="3">
-        <v>187800</v>
+        <v>227500</v>
       </c>
       <c r="F45" s="3">
-        <v>160600</v>
+        <v>191900</v>
       </c>
       <c r="G45" s="3">
-        <v>163600</v>
+        <v>164100</v>
       </c>
       <c r="H45" s="3">
-        <v>173200</v>
+        <v>167100</v>
       </c>
       <c r="I45" s="3">
-        <v>183900</v>
+        <v>177000</v>
       </c>
       <c r="J45" s="3">
+        <v>187900</v>
+      </c>
+      <c r="K45" s="3">
         <v>178000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>222900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1333300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>156400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>170000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>132000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>99600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>115600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>26762400</v>
+        <v>29301300</v>
       </c>
       <c r="E46" s="3">
-        <v>27434200</v>
+        <v>27340200</v>
       </c>
       <c r="F46" s="3">
-        <v>28328400</v>
+        <v>28026500</v>
       </c>
       <c r="G46" s="3">
-        <v>33689500</v>
+        <v>28940000</v>
       </c>
       <c r="H46" s="3">
-        <v>33060700</v>
+        <v>34416800</v>
       </c>
       <c r="I46" s="3">
-        <v>31738500</v>
+        <v>33774400</v>
       </c>
       <c r="J46" s="3">
+        <v>32423700</v>
+      </c>
+      <c r="K46" s="3">
         <v>28655100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31897800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30902400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27782000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22844600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>27161200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>26924800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26666100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1035000</v>
+        <v>780800</v>
       </c>
       <c r="E47" s="3">
-        <v>1006200</v>
+        <v>1057300</v>
       </c>
       <c r="F47" s="3">
-        <v>1005000</v>
+        <v>1028000</v>
       </c>
       <c r="G47" s="3">
-        <v>977700</v>
+        <v>1026700</v>
       </c>
       <c r="H47" s="3">
-        <v>1001800</v>
+        <v>998800</v>
       </c>
       <c r="I47" s="3">
-        <v>977300</v>
+        <v>1023400</v>
       </c>
       <c r="J47" s="3">
+        <v>998400</v>
+      </c>
+      <c r="K47" s="3">
         <v>993900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>959100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1143400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1347300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1325700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1420200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1451800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1505100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>48688900</v>
+        <v>51602300</v>
       </c>
       <c r="E48" s="3">
-        <v>45676500</v>
+        <v>49740000</v>
       </c>
       <c r="F48" s="3">
-        <v>40535700</v>
+        <v>46662600</v>
       </c>
       <c r="G48" s="3">
-        <v>38716500</v>
+        <v>41410800</v>
       </c>
       <c r="H48" s="3">
-        <v>37575300</v>
+        <v>39552300</v>
       </c>
       <c r="I48" s="3">
-        <v>35752900</v>
+        <v>38386500</v>
       </c>
       <c r="J48" s="3">
+        <v>36524800</v>
+      </c>
+      <c r="K48" s="3">
         <v>34968000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34399800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35101500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34437000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34541200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34925900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33828400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32537500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>908200</v>
+        <v>933400</v>
       </c>
       <c r="E49" s="3">
-        <v>688800</v>
+        <v>927800</v>
       </c>
       <c r="F49" s="3">
-        <v>603400</v>
+        <v>703600</v>
       </c>
       <c r="G49" s="3">
-        <v>583700</v>
+        <v>616400</v>
       </c>
       <c r="H49" s="3">
-        <v>599400</v>
+        <v>596300</v>
       </c>
       <c r="I49" s="3">
-        <v>567000</v>
+        <v>612400</v>
       </c>
       <c r="J49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="K49" s="3">
         <v>466500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>458700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>454800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>459400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>481000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>457600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>465600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>476600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>754500</v>
+        <v>808200</v>
       </c>
       <c r="E52" s="3">
-        <v>725600</v>
+        <v>770800</v>
       </c>
       <c r="F52" s="3">
-        <v>704200</v>
+        <v>741200</v>
       </c>
       <c r="G52" s="3">
-        <v>714800</v>
+        <v>719400</v>
       </c>
       <c r="H52" s="3">
-        <v>713800</v>
+        <v>730300</v>
       </c>
       <c r="I52" s="3">
-        <v>670000</v>
+        <v>729200</v>
       </c>
       <c r="J52" s="3">
+        <v>684500</v>
+      </c>
+      <c r="K52" s="3">
         <v>612200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>581200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>552800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>530600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>488100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>415500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>418700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>332000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>78148900</v>
+        <v>83426000</v>
       </c>
       <c r="E54" s="3">
-        <v>75531200</v>
+        <v>79836100</v>
       </c>
       <c r="F54" s="3">
-        <v>71176700</v>
+        <v>77161900</v>
       </c>
       <c r="G54" s="3">
-        <v>74682100</v>
+        <v>72713400</v>
       </c>
       <c r="H54" s="3">
-        <v>72951000</v>
+        <v>76294400</v>
       </c>
       <c r="I54" s="3">
-        <v>69705800</v>
+        <v>74526000</v>
       </c>
       <c r="J54" s="3">
+        <v>71210700</v>
+      </c>
+      <c r="K54" s="3">
         <v>65695800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68296500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>68154900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>64556200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>59680600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>64380300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>63089400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61517300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1326500</v>
+        <v>1346900</v>
       </c>
       <c r="E57" s="3">
-        <v>1340900</v>
+        <v>1355100</v>
       </c>
       <c r="F57" s="3">
-        <v>1232600</v>
+        <v>1369800</v>
       </c>
       <c r="G57" s="3">
-        <v>1086200</v>
+        <v>1259200</v>
       </c>
       <c r="H57" s="3">
-        <v>922500</v>
+        <v>1109700</v>
       </c>
       <c r="I57" s="3">
-        <v>1145800</v>
+        <v>942400</v>
       </c>
       <c r="J57" s="3">
+        <v>1170600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1010700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1019900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>965900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>974500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>939500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>830100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>790900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>891100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>5250100</v>
+        <v>6501400</v>
       </c>
       <c r="E58" s="3">
-        <v>5089100</v>
+        <v>5363500</v>
       </c>
       <c r="F58" s="3">
-        <v>3914400</v>
+        <v>5199000</v>
       </c>
       <c r="G58" s="3">
-        <v>4214100</v>
+        <v>3998900</v>
       </c>
       <c r="H58" s="3">
-        <v>4158500</v>
+        <v>4305100</v>
       </c>
       <c r="I58" s="3">
-        <v>4123900</v>
+        <v>4248300</v>
       </c>
       <c r="J58" s="3">
+        <v>4212900</v>
+      </c>
+      <c r="K58" s="3">
         <v>3631000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1554400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3528500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3959500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3678600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4362700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3247200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3132800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>13082200</v>
+        <v>13097800</v>
       </c>
       <c r="E59" s="3">
-        <v>13271000</v>
+        <v>13364600</v>
       </c>
       <c r="F59" s="3">
-        <v>11354000</v>
+        <v>13557600</v>
       </c>
       <c r="G59" s="3">
-        <v>15451900</v>
+        <v>11599100</v>
       </c>
       <c r="H59" s="3">
-        <v>7534200</v>
+        <v>15785500</v>
       </c>
       <c r="I59" s="3">
-        <v>6087400</v>
+        <v>7696900</v>
       </c>
       <c r="J59" s="3">
+        <v>6218800</v>
+      </c>
+      <c r="K59" s="3">
         <v>6084700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12825000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6888300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6691700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5057000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11774100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6448700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6354000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>19658800</v>
+        <v>20946100</v>
       </c>
       <c r="E60" s="3">
-        <v>19701000</v>
+        <v>20083200</v>
       </c>
       <c r="F60" s="3">
-        <v>16501000</v>
+        <v>20126400</v>
       </c>
       <c r="G60" s="3">
-        <v>20752300</v>
+        <v>16857200</v>
       </c>
       <c r="H60" s="3">
-        <v>12615200</v>
+        <v>21200300</v>
       </c>
       <c r="I60" s="3">
-        <v>11357100</v>
+        <v>12887600</v>
       </c>
       <c r="J60" s="3">
+        <v>11602300</v>
+      </c>
+      <c r="K60" s="3">
         <v>10726400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15399300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11382700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11625700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9675100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16966900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10486700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10377800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2200000</v>
+        <v>3461700</v>
       </c>
       <c r="E61" s="3">
-        <v>1338700</v>
+        <v>2247500</v>
       </c>
       <c r="F61" s="3">
-        <v>1338400</v>
+        <v>1367600</v>
       </c>
       <c r="G61" s="3">
-        <v>1691000</v>
+        <v>1367300</v>
       </c>
       <c r="H61" s="3">
-        <v>1741100</v>
+        <v>1727500</v>
       </c>
       <c r="I61" s="3">
+        <v>1778700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1938600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1897600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1897600</v>
-      </c>
-      <c r="K61" s="3">
-        <v>2773900</v>
       </c>
       <c r="L61" s="3">
         <v>2773900</v>
       </c>
       <c r="M61" s="3">
+        <v>2773900</v>
+      </c>
+      <c r="N61" s="3">
         <v>2975200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2975700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3218900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4376900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4993100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>361300</v>
+        <v>376500</v>
       </c>
       <c r="E62" s="3">
-        <v>394600</v>
+        <v>369100</v>
       </c>
       <c r="F62" s="3">
-        <v>394400</v>
+        <v>403100</v>
       </c>
       <c r="G62" s="3">
-        <v>398900</v>
+        <v>402900</v>
       </c>
       <c r="H62" s="3">
-        <v>448400</v>
+        <v>407500</v>
       </c>
       <c r="I62" s="3">
-        <v>506600</v>
+        <v>458000</v>
       </c>
       <c r="J62" s="3">
+        <v>517500</v>
+      </c>
+      <c r="K62" s="3">
         <v>517900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>544800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>562600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>602700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>637700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>688500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>735500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>816900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>22245400</v>
+        <v>24812700</v>
       </c>
       <c r="E66" s="3">
-        <v>21457200</v>
+        <v>22725700</v>
       </c>
       <c r="F66" s="3">
-        <v>18255100</v>
+        <v>21920500</v>
       </c>
       <c r="G66" s="3">
-        <v>22862400</v>
+        <v>18649200</v>
       </c>
       <c r="H66" s="3">
-        <v>14827100</v>
+        <v>23356000</v>
       </c>
       <c r="I66" s="3">
-        <v>13783900</v>
+        <v>15147200</v>
       </c>
       <c r="J66" s="3">
+        <v>14081500</v>
+      </c>
+      <c r="K66" s="3">
         <v>13163800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18739100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14742700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15226400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13311000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20896300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15625100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16213900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>46206300</v>
+        <v>49111600</v>
       </c>
       <c r="E72" s="3">
-        <v>44466700</v>
+        <v>47203800</v>
       </c>
       <c r="F72" s="3">
-        <v>42751600</v>
+        <v>45426700</v>
       </c>
       <c r="G72" s="3">
-        <v>41540000</v>
+        <v>43674600</v>
       </c>
       <c r="H72" s="3">
-        <v>47955500</v>
+        <v>42436800</v>
       </c>
       <c r="I72" s="3">
-        <v>45911200</v>
+        <v>48990800</v>
       </c>
       <c r="J72" s="3">
+        <v>46902400</v>
+      </c>
+      <c r="K72" s="3">
         <v>42612600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39561800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>44059200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>39973300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>36763300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33848900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>37815800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>34958200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>55903500</v>
+        <v>58613300</v>
       </c>
       <c r="E76" s="3">
-        <v>54074000</v>
+        <v>57110400</v>
       </c>
       <c r="F76" s="3">
-        <v>52921600</v>
+        <v>55241400</v>
       </c>
       <c r="G76" s="3">
-        <v>51819700</v>
+        <v>54064200</v>
       </c>
       <c r="H76" s="3">
-        <v>58123900</v>
+        <v>52938500</v>
       </c>
       <c r="I76" s="3">
-        <v>55921900</v>
+        <v>59378800</v>
       </c>
       <c r="J76" s="3">
+        <v>57129200</v>
+      </c>
+      <c r="K76" s="3">
         <v>52532000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49557500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53412200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49329900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>46369500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>43484000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>47464300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>45303400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>3901500</v>
+        <v>4116400</v>
       </c>
       <c r="E81" s="3">
-        <v>3869800</v>
+        <v>3985700</v>
       </c>
       <c r="F81" s="3">
-        <v>3370700</v>
+        <v>3953300</v>
       </c>
       <c r="G81" s="3">
-        <v>2226600</v>
+        <v>3443500</v>
       </c>
       <c r="H81" s="3">
-        <v>2047500</v>
+        <v>2274700</v>
       </c>
       <c r="I81" s="3">
-        <v>3334500</v>
+        <v>2091700</v>
       </c>
       <c r="J81" s="3">
+        <v>3406500</v>
+      </c>
+      <c r="K81" s="3">
         <v>2970500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2404400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2986200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3217900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2914500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2147800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2857600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3267500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2286300</v>
+        <v>2414700</v>
       </c>
       <c r="E83" s="3">
-        <v>2252200</v>
+        <v>2335700</v>
       </c>
       <c r="F83" s="3">
-        <v>2226300</v>
+        <v>2300800</v>
       </c>
       <c r="G83" s="3">
-        <v>2502900</v>
+        <v>2274400</v>
       </c>
       <c r="H83" s="3">
-        <v>2586200</v>
+        <v>2556900</v>
       </c>
       <c r="I83" s="3">
-        <v>2535600</v>
+        <v>2642100</v>
       </c>
       <c r="J83" s="3">
+        <v>2590300</v>
+      </c>
+      <c r="K83" s="3">
         <v>2454900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2375100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2378000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2295100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2306400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1879500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1962200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1840400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>6771000</v>
+        <v>5803300</v>
       </c>
       <c r="E89" s="3">
-        <v>6768500</v>
+        <v>6917200</v>
       </c>
       <c r="F89" s="3">
-        <v>4727500</v>
+        <v>6914700</v>
       </c>
       <c r="G89" s="3">
-        <v>3927300</v>
+        <v>4829500</v>
       </c>
       <c r="H89" s="3">
-        <v>5091600</v>
+        <v>4012100</v>
       </c>
       <c r="I89" s="3">
-        <v>6315600</v>
+        <v>5201500</v>
       </c>
       <c r="J89" s="3">
+        <v>6451900</v>
+      </c>
+      <c r="K89" s="3">
         <v>3137700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4316300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5345700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6615700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3785000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3351200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5250500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6040000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-6421900</v>
+        <v>-4316600</v>
       </c>
       <c r="E91" s="3">
-        <v>-5669800</v>
+        <v>-6560500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3272200</v>
+        <v>-5792200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3880400</v>
+        <v>-3342900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2532700</v>
+        <v>-3964100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3805400</v>
+        <v>-2587300</v>
       </c>
       <c r="J91" s="3">
+        <v>-3887600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2332800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-6302900</v>
+        <v>-4420600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5723000</v>
+        <v>-6439000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3611500</v>
+        <v>-5846600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3825800</v>
+        <v>-3689400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2140700</v>
+        <v>-3908400</v>
       </c>
       <c r="I94" s="3">
-        <v>-3910700</v>
+        <v>-2186900</v>
       </c>
       <c r="J94" s="3">
+        <v>-3995100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2116800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4615,19 +4848,20 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2161900</v>
+        <v>-2208600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1729600</v>
+        <v>-2208600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1766900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1359300</v>
+        <v>201400</v>
       </c>
       <c r="E100" s="3">
-        <v>-573000</v>
+        <v>-1388600</v>
       </c>
       <c r="F100" s="3">
-        <v>-7640900</v>
+        <v>-585400</v>
       </c>
       <c r="G100" s="3">
-        <v>-31000</v>
+        <v>-7805900</v>
       </c>
       <c r="H100" s="3">
-        <v>-747500</v>
+        <v>-31700</v>
       </c>
       <c r="I100" s="3">
-        <v>476400</v>
+        <v>-763600</v>
       </c>
       <c r="J100" s="3">
+        <v>486600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5750700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-976100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>312600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-20700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-388400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>792500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>70000</v>
+        <v>-329100</v>
       </c>
       <c r="E101" s="3">
-        <v>-373400</v>
+        <v>71500</v>
       </c>
       <c r="F101" s="3">
-        <v>-53900</v>
+        <v>-381500</v>
       </c>
       <c r="G101" s="3">
-        <v>63800</v>
+        <v>-55100</v>
       </c>
       <c r="H101" s="3">
-        <v>59600</v>
+        <v>65200</v>
       </c>
       <c r="I101" s="3">
-        <v>89600</v>
+        <v>60900</v>
       </c>
       <c r="J101" s="3">
+        <v>91600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-55800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>468800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-174600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-175200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-23200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>38900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-534700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>204200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-821100</v>
+        <v>1255000</v>
       </c>
       <c r="E102" s="3">
-        <v>99000</v>
+        <v>-838900</v>
       </c>
       <c r="F102" s="3">
-        <v>-6578900</v>
+        <v>101200</v>
       </c>
       <c r="G102" s="3">
-        <v>134300</v>
+        <v>-6720900</v>
       </c>
       <c r="H102" s="3">
-        <v>2263000</v>
+        <v>137200</v>
       </c>
       <c r="I102" s="3">
-        <v>2970900</v>
+        <v>2311900</v>
       </c>
       <c r="J102" s="3">
+        <v>3035000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4785700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1810900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>811300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4709600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>186100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>765400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2520200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5165000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10585500</v>
+        <v>12503400</v>
       </c>
       <c r="E8" s="3">
-        <v>10582000</v>
+        <v>10899300</v>
       </c>
       <c r="F8" s="3">
-        <v>10808300</v>
+        <v>10895700</v>
       </c>
       <c r="G8" s="3">
-        <v>9984100</v>
+        <v>11128700</v>
       </c>
       <c r="H8" s="3">
-        <v>8210800</v>
+        <v>10280000</v>
       </c>
       <c r="I8" s="3">
-        <v>7451300</v>
+        <v>8454200</v>
       </c>
       <c r="J8" s="3">
+        <v>7672200</v>
+      </c>
+      <c r="K8" s="3">
         <v>9872500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8682600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7758800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8251100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8996100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8170800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6931000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7627900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8551200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4974400</v>
+        <v>5821400</v>
       </c>
       <c r="E9" s="3">
-        <v>5104100</v>
+        <v>5121900</v>
       </c>
       <c r="F9" s="3">
-        <v>5382900</v>
+        <v>5255400</v>
       </c>
       <c r="G9" s="3">
-        <v>5233600</v>
+        <v>5542500</v>
       </c>
       <c r="H9" s="3">
-        <v>4678700</v>
+        <v>5388800</v>
       </c>
       <c r="I9" s="3">
-        <v>4373000</v>
+        <v>4817400</v>
       </c>
       <c r="J9" s="3">
+        <v>4502600</v>
+      </c>
+      <c r="K9" s="3">
         <v>5169400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4567900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4047400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4094400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4500300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4091100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3406400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3666300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4080100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5611100</v>
+        <v>6682100</v>
       </c>
       <c r="E10" s="3">
-        <v>5477900</v>
+        <v>5777400</v>
       </c>
       <c r="F10" s="3">
-        <v>5425300</v>
+        <v>5640300</v>
       </c>
       <c r="G10" s="3">
-        <v>4750500</v>
+        <v>5586200</v>
       </c>
       <c r="H10" s="3">
-        <v>3532100</v>
+        <v>4891300</v>
       </c>
       <c r="I10" s="3">
-        <v>3078300</v>
+        <v>3636900</v>
       </c>
       <c r="J10" s="3">
+        <v>3169600</v>
+      </c>
+      <c r="K10" s="3">
         <v>4703100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4114800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3711400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4156700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4495800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4079700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3524700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3961600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4471200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>848100</v>
+        <v>1041300</v>
       </c>
       <c r="E12" s="3">
-        <v>850700</v>
+        <v>873200</v>
       </c>
       <c r="F12" s="3">
-        <v>873400</v>
+        <v>875900</v>
       </c>
       <c r="G12" s="3">
-        <v>816700</v>
+        <v>899300</v>
       </c>
       <c r="H12" s="3">
-        <v>728900</v>
+        <v>840900</v>
       </c>
       <c r="I12" s="3">
-        <v>695600</v>
+        <v>750500</v>
       </c>
       <c r="J12" s="3">
+        <v>716200</v>
+      </c>
+      <c r="K12" s="3">
         <v>807100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>729900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>661600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>679500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>687600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>682100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>617700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>633000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>650900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,31 +1045,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
       <c r="I14" s="3">
-        <v>-10300</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-10600</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1061,33 +1081,36 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>-100</v>
       </c>
       <c r="O14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1105,14 +1128,14 @@
         <v>200</v>
       </c>
       <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6119100</v>
+        <v>7239900</v>
       </c>
       <c r="E17" s="3">
-        <v>6203400</v>
+        <v>6300500</v>
       </c>
       <c r="F17" s="3">
-        <v>6575300</v>
+        <v>6387300</v>
       </c>
       <c r="G17" s="3">
-        <v>6308500</v>
+        <v>6770200</v>
       </c>
       <c r="H17" s="3">
-        <v>5611300</v>
+        <v>6495500</v>
       </c>
       <c r="I17" s="3">
-        <v>5261700</v>
+        <v>5777600</v>
       </c>
       <c r="J17" s="3">
+        <v>5417700</v>
+      </c>
+      <c r="K17" s="3">
         <v>6222800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5506100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4950700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5030600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5466600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4992900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4232700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4518900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4969300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>4466400</v>
+        <v>5263500</v>
       </c>
       <c r="E18" s="3">
-        <v>4378700</v>
+        <v>4598800</v>
       </c>
       <c r="F18" s="3">
-        <v>4233000</v>
+        <v>4508500</v>
       </c>
       <c r="G18" s="3">
-        <v>3675600</v>
+        <v>4358500</v>
       </c>
       <c r="H18" s="3">
-        <v>2599500</v>
+        <v>3784600</v>
       </c>
       <c r="I18" s="3">
-        <v>2189600</v>
+        <v>2676600</v>
       </c>
       <c r="J18" s="3">
+        <v>2254500</v>
+      </c>
+      <c r="K18" s="3">
         <v>3649700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3176500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2808100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3220500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3529400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3177900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2698300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3109000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3581900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>194600</v>
+        <v>191300</v>
       </c>
       <c r="E20" s="3">
-        <v>141700</v>
+        <v>200400</v>
       </c>
       <c r="F20" s="3">
-        <v>176500</v>
+        <v>145900</v>
       </c>
       <c r="G20" s="3">
-        <v>180400</v>
+        <v>181700</v>
       </c>
       <c r="H20" s="3">
-        <v>174100</v>
+        <v>185800</v>
       </c>
       <c r="I20" s="3">
-        <v>164000</v>
+        <v>179300</v>
       </c>
       <c r="J20" s="3">
+        <v>168900</v>
+      </c>
+      <c r="K20" s="3">
         <v>164700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>146400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>126000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>130500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>116900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>107200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>120000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>107600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>98400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>7075800</v>
+        <v>8778100</v>
       </c>
       <c r="E21" s="3">
-        <v>6856000</v>
+        <v>7285500</v>
       </c>
       <c r="F21" s="3">
-        <v>6710300</v>
+        <v>7059200</v>
       </c>
       <c r="G21" s="3">
-        <v>6130400</v>
+        <v>6909300</v>
       </c>
       <c r="H21" s="3">
-        <v>5330500</v>
+        <v>6312200</v>
       </c>
       <c r="I21" s="3">
-        <v>4995600</v>
+        <v>5488600</v>
       </c>
       <c r="J21" s="3">
+        <v>5143700</v>
+      </c>
+      <c r="K21" s="3">
         <v>6404700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5777700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5309100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5729000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5941400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5591600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4697800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5178800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5520800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>13900</v>
+        <v>13100</v>
       </c>
       <c r="E22" s="3">
-        <v>18100</v>
+        <v>14400</v>
       </c>
       <c r="F22" s="3">
-        <v>21900</v>
+        <v>18600</v>
       </c>
       <c r="G22" s="3">
-        <v>28700</v>
+        <v>22600</v>
       </c>
       <c r="H22" s="3">
-        <v>29500</v>
+        <v>29600</v>
       </c>
       <c r="I22" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="J22" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K22" s="3">
         <v>29800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>26900</v>
       </c>
       <c r="N22" s="3">
         <v>26900</v>
       </c>
       <c r="O22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="P22" s="3">
         <v>27300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>27200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>26600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>26500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>4647100</v>
+        <v>5441800</v>
       </c>
       <c r="E23" s="3">
-        <v>4502300</v>
+        <v>4784900</v>
       </c>
       <c r="F23" s="3">
-        <v>4387600</v>
+        <v>4635700</v>
       </c>
       <c r="G23" s="3">
-        <v>3827300</v>
+        <v>4517700</v>
       </c>
       <c r="H23" s="3">
-        <v>2744200</v>
+        <v>3940800</v>
       </c>
       <c r="I23" s="3">
-        <v>2322900</v>
+        <v>2825500</v>
       </c>
       <c r="J23" s="3">
+        <v>2391800</v>
+      </c>
+      <c r="K23" s="3">
         <v>3784600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3298200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2913200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3324100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3619400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3257800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2791100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3190000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3653900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>528300</v>
+        <v>622500</v>
       </c>
       <c r="E24" s="3">
-        <v>513900</v>
+        <v>544000</v>
       </c>
       <c r="F24" s="3">
-        <v>432800</v>
+        <v>529200</v>
       </c>
       <c r="G24" s="3">
-        <v>382700</v>
+        <v>445600</v>
       </c>
       <c r="H24" s="3">
-        <v>469100</v>
+        <v>394100</v>
       </c>
       <c r="I24" s="3">
-        <v>231500</v>
+        <v>483000</v>
       </c>
       <c r="J24" s="3">
+        <v>238300</v>
+      </c>
+      <c r="K24" s="3">
         <v>377400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>326800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>508700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>337800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>342500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>643200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>332700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>385400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4118800</v>
+        <v>4819200</v>
       </c>
       <c r="E26" s="3">
-        <v>3988300</v>
+        <v>4240900</v>
       </c>
       <c r="F26" s="3">
-        <v>3954800</v>
+        <v>4106600</v>
       </c>
       <c r="G26" s="3">
-        <v>3444600</v>
+        <v>4072000</v>
       </c>
       <c r="H26" s="3">
-        <v>2275100</v>
+        <v>3546700</v>
       </c>
       <c r="I26" s="3">
-        <v>2091500</v>
+        <v>2342500</v>
       </c>
       <c r="J26" s="3">
+        <v>2153500</v>
+      </c>
+      <c r="K26" s="3">
         <v>3407200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2971400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2404500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2986300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3218500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2915300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2147800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2857300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3268400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4116400</v>
+        <v>4816800</v>
       </c>
       <c r="E27" s="3">
-        <v>3985700</v>
+        <v>4238400</v>
       </c>
       <c r="F27" s="3">
-        <v>3953300</v>
+        <v>4103900</v>
       </c>
       <c r="G27" s="3">
-        <v>3443500</v>
+        <v>4070500</v>
       </c>
       <c r="H27" s="3">
-        <v>2274700</v>
+        <v>3545500</v>
       </c>
       <c r="I27" s="3">
-        <v>2091700</v>
+        <v>2342100</v>
       </c>
       <c r="J27" s="3">
+        <v>2153700</v>
+      </c>
+      <c r="K27" s="3">
         <v>3406500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2970500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2404400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2986200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3217900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2914500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2147800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2857600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3267500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-194600</v>
+        <v>-191300</v>
       </c>
       <c r="E32" s="3">
-        <v>-141700</v>
+        <v>-200400</v>
       </c>
       <c r="F32" s="3">
-        <v>-176500</v>
+        <v>-145900</v>
       </c>
       <c r="G32" s="3">
-        <v>-180400</v>
+        <v>-181700</v>
       </c>
       <c r="H32" s="3">
-        <v>-174100</v>
+        <v>-185800</v>
       </c>
       <c r="I32" s="3">
-        <v>-164000</v>
+        <v>-179300</v>
       </c>
       <c r="J32" s="3">
+        <v>-168900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-164700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-146400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-126000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-130500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-116900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-107200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-120000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-107600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-98400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4116400</v>
+        <v>4816800</v>
       </c>
       <c r="E33" s="3">
-        <v>3985700</v>
+        <v>4238400</v>
       </c>
       <c r="F33" s="3">
-        <v>3953300</v>
+        <v>4103900</v>
       </c>
       <c r="G33" s="3">
-        <v>3443500</v>
+        <v>4070500</v>
       </c>
       <c r="H33" s="3">
-        <v>2274700</v>
+        <v>3545500</v>
       </c>
       <c r="I33" s="3">
-        <v>2091700</v>
+        <v>2342100</v>
       </c>
       <c r="J33" s="3">
+        <v>2153700</v>
+      </c>
+      <c r="K33" s="3">
         <v>3406500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2970500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2404400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2986200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3217900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2914500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2147800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2857600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3267500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4116400</v>
+        <v>4816800</v>
       </c>
       <c r="E35" s="3">
-        <v>3985700</v>
+        <v>4238400</v>
       </c>
       <c r="F35" s="3">
-        <v>3953300</v>
+        <v>4103900</v>
       </c>
       <c r="G35" s="3">
-        <v>3443500</v>
+        <v>4070500</v>
       </c>
       <c r="H35" s="3">
-        <v>2274700</v>
+        <v>3545500</v>
       </c>
       <c r="I35" s="3">
-        <v>2091700</v>
+        <v>2342100</v>
       </c>
       <c r="J35" s="3">
+        <v>2153700</v>
+      </c>
+      <c r="K35" s="3">
         <v>3406500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2970500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2404400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2986200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3217900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2914500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2147800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2857600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3267500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>15931600</v>
+        <v>21195200</v>
       </c>
       <c r="E41" s="3">
-        <v>14676600</v>
+        <v>16403900</v>
       </c>
       <c r="F41" s="3">
-        <v>15515500</v>
+        <v>15111700</v>
       </c>
       <c r="G41" s="3">
-        <v>15414300</v>
+        <v>15975400</v>
       </c>
       <c r="H41" s="3">
-        <v>22135200</v>
+        <v>15871300</v>
       </c>
       <c r="I41" s="3">
-        <v>21998000</v>
+        <v>22791400</v>
       </c>
       <c r="J41" s="3">
+        <v>22650100</v>
+      </c>
+      <c r="K41" s="3">
         <v>19686100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16299200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21028000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19217100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17935400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13225800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18488800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18415700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17650300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>5011200</v>
+        <v>5099800</v>
       </c>
       <c r="E42" s="3">
-        <v>4778500</v>
+        <v>5159700</v>
       </c>
       <c r="F42" s="3">
-        <v>4728200</v>
+        <v>4920200</v>
       </c>
       <c r="G42" s="3">
-        <v>5111100</v>
+        <v>4868300</v>
       </c>
       <c r="H42" s="3">
-        <v>4418000</v>
+        <v>5262600</v>
       </c>
       <c r="I42" s="3">
-        <v>4258300</v>
+        <v>4548900</v>
       </c>
       <c r="J42" s="3">
+        <v>4384600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4628600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4342600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4313700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3928700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3325800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3200600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2937600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3206500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3091300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5184800</v>
+        <v>5704700</v>
       </c>
       <c r="E43" s="3">
-        <v>4990600</v>
+        <v>5338500</v>
       </c>
       <c r="F43" s="3">
-        <v>4763700</v>
+        <v>5138500</v>
       </c>
       <c r="G43" s="3">
-        <v>4956400</v>
+        <v>4905000</v>
       </c>
       <c r="H43" s="3">
-        <v>4009100</v>
+        <v>5103400</v>
       </c>
       <c r="I43" s="3">
-        <v>3638300</v>
+        <v>4127900</v>
       </c>
       <c r="J43" s="3">
+        <v>3746200</v>
+      </c>
+      <c r="K43" s="3">
         <v>4404000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4322300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3039400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3589100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3969900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3853300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3625400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3559800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4221400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2922800</v>
+        <v>3841600</v>
       </c>
       <c r="E44" s="3">
-        <v>2666900</v>
+        <v>3009400</v>
       </c>
       <c r="F44" s="3">
-        <v>2827200</v>
+        <v>2746000</v>
       </c>
       <c r="G44" s="3">
-        <v>3294100</v>
+        <v>2911000</v>
       </c>
       <c r="H44" s="3">
-        <v>3687500</v>
+        <v>3391700</v>
       </c>
       <c r="I44" s="3">
-        <v>3702800</v>
+        <v>3796800</v>
       </c>
       <c r="J44" s="3">
+        <v>3812600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3517100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3513000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3293800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2834300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2394500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2394900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1977400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1643200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1587500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>250900</v>
+        <v>279700</v>
       </c>
       <c r="E45" s="3">
-        <v>227500</v>
+        <v>258400</v>
       </c>
       <c r="F45" s="3">
-        <v>191900</v>
+        <v>234300</v>
       </c>
       <c r="G45" s="3">
-        <v>164100</v>
+        <v>197600</v>
       </c>
       <c r="H45" s="3">
-        <v>167100</v>
+        <v>168900</v>
       </c>
       <c r="I45" s="3">
-        <v>177000</v>
+        <v>172100</v>
       </c>
       <c r="J45" s="3">
+        <v>182200</v>
+      </c>
+      <c r="K45" s="3">
         <v>187900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>178000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>222900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1333300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>156400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>170000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>132000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>99600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>115600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>29301300</v>
+        <v>36121000</v>
       </c>
       <c r="E46" s="3">
-        <v>27340200</v>
+        <v>30169900</v>
       </c>
       <c r="F46" s="3">
-        <v>28026500</v>
+        <v>28150600</v>
       </c>
       <c r="G46" s="3">
-        <v>28940000</v>
+        <v>28857300</v>
       </c>
       <c r="H46" s="3">
-        <v>34416800</v>
+        <v>29797900</v>
       </c>
       <c r="I46" s="3">
-        <v>33774400</v>
+        <v>35437100</v>
       </c>
       <c r="J46" s="3">
+        <v>34775700</v>
+      </c>
+      <c r="K46" s="3">
         <v>32423700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28655100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31897800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30902400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>27782000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22844600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27161200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26924800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26666100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>780800</v>
+        <v>930100</v>
       </c>
       <c r="E47" s="3">
-        <v>1057300</v>
+        <v>803900</v>
       </c>
       <c r="F47" s="3">
-        <v>1028000</v>
+        <v>1088600</v>
       </c>
       <c r="G47" s="3">
-        <v>1026700</v>
+        <v>1058400</v>
       </c>
       <c r="H47" s="3">
-        <v>998800</v>
+        <v>1057100</v>
       </c>
       <c r="I47" s="3">
-        <v>1023400</v>
+        <v>1028400</v>
       </c>
       <c r="J47" s="3">
+        <v>1053800</v>
+      </c>
+      <c r="K47" s="3">
         <v>998400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>993900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>959100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1143400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1347300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1325700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1420200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1451800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1505100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>51602300</v>
+        <v>53506200</v>
       </c>
       <c r="E48" s="3">
-        <v>49740000</v>
+        <v>53132100</v>
       </c>
       <c r="F48" s="3">
-        <v>46662600</v>
+        <v>51214600</v>
       </c>
       <c r="G48" s="3">
-        <v>41410800</v>
+        <v>48045900</v>
       </c>
       <c r="H48" s="3">
-        <v>39552300</v>
+        <v>42638400</v>
       </c>
       <c r="I48" s="3">
-        <v>38386500</v>
+        <v>40724800</v>
       </c>
       <c r="J48" s="3">
+        <v>39524500</v>
+      </c>
+      <c r="K48" s="3">
         <v>36524800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34968000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34399800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35101500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34437000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34541200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34925900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33828400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32537500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>933400</v>
+        <v>924000</v>
       </c>
       <c r="E49" s="3">
-        <v>927800</v>
+        <v>961000</v>
       </c>
       <c r="F49" s="3">
-        <v>703600</v>
+        <v>955300</v>
       </c>
       <c r="G49" s="3">
-        <v>616400</v>
+        <v>724500</v>
       </c>
       <c r="H49" s="3">
-        <v>596300</v>
+        <v>634700</v>
       </c>
       <c r="I49" s="3">
-        <v>612400</v>
+        <v>613900</v>
       </c>
       <c r="J49" s="3">
+        <v>630500</v>
+      </c>
+      <c r="K49" s="3">
         <v>579300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>466500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>458700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>454800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>459400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>481000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>457600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>465600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>476600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>808200</v>
+        <v>974600</v>
       </c>
       <c r="E52" s="3">
-        <v>770800</v>
+        <v>832200</v>
       </c>
       <c r="F52" s="3">
-        <v>741200</v>
+        <v>793700</v>
       </c>
       <c r="G52" s="3">
-        <v>719400</v>
+        <v>763200</v>
       </c>
       <c r="H52" s="3">
-        <v>730300</v>
+        <v>740800</v>
       </c>
       <c r="I52" s="3">
-        <v>729200</v>
+        <v>751900</v>
       </c>
       <c r="J52" s="3">
+        <v>750900</v>
+      </c>
+      <c r="K52" s="3">
         <v>684500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>612200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>581200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>552800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>530600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>488100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>415500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>418700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>332000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>83426000</v>
+        <v>92455900</v>
       </c>
       <c r="E54" s="3">
-        <v>79836100</v>
+        <v>85899200</v>
       </c>
       <c r="F54" s="3">
-        <v>77161900</v>
+        <v>82202800</v>
       </c>
       <c r="G54" s="3">
-        <v>72713400</v>
+        <v>79449400</v>
       </c>
       <c r="H54" s="3">
-        <v>76294400</v>
+        <v>74868900</v>
       </c>
       <c r="I54" s="3">
-        <v>74526000</v>
+        <v>78556200</v>
       </c>
       <c r="J54" s="3">
+        <v>76735300</v>
+      </c>
+      <c r="K54" s="3">
         <v>71210700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65695800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>68296500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68154900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>64556200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>59680600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>64380300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>63089400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>61517300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1346900</v>
+        <v>1434500</v>
       </c>
       <c r="E57" s="3">
-        <v>1355100</v>
+        <v>1386800</v>
       </c>
       <c r="F57" s="3">
-        <v>1369800</v>
+        <v>1395300</v>
       </c>
       <c r="G57" s="3">
-        <v>1259200</v>
+        <v>1410400</v>
       </c>
       <c r="H57" s="3">
-        <v>1109700</v>
+        <v>1296500</v>
       </c>
       <c r="I57" s="3">
-        <v>942400</v>
+        <v>1142600</v>
       </c>
       <c r="J57" s="3">
+        <v>970400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1170600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1010700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1019900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>965900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>974500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>939500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>830100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>790900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>891100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>6501400</v>
+        <v>5602200</v>
       </c>
       <c r="E58" s="3">
-        <v>5363500</v>
+        <v>6694100</v>
       </c>
       <c r="F58" s="3">
-        <v>5199000</v>
+        <v>5522500</v>
       </c>
       <c r="G58" s="3">
-        <v>3998900</v>
+        <v>5353100</v>
       </c>
       <c r="H58" s="3">
-        <v>4305100</v>
+        <v>4208000</v>
       </c>
       <c r="I58" s="3">
-        <v>4248300</v>
+        <v>4526900</v>
       </c>
       <c r="J58" s="3">
+        <v>4468900</v>
+      </c>
+      <c r="K58" s="3">
         <v>4212900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3631000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1554400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3528500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3959500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3678600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4362700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3247200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3132800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>13097800</v>
+        <v>13598800</v>
       </c>
       <c r="E59" s="3">
-        <v>13364600</v>
+        <v>13486000</v>
       </c>
       <c r="F59" s="3">
-        <v>13557600</v>
+        <v>13760800</v>
       </c>
       <c r="G59" s="3">
-        <v>11599100</v>
+        <v>13959500</v>
       </c>
       <c r="H59" s="3">
-        <v>15785500</v>
+        <v>11852400</v>
       </c>
       <c r="I59" s="3">
-        <v>7696900</v>
+        <v>16159200</v>
       </c>
       <c r="J59" s="3">
+        <v>7830300</v>
+      </c>
+      <c r="K59" s="3">
         <v>6218800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6084700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12825000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6888300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6691700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5057000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11774100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6448700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6354000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>20946100</v>
+        <v>20635500</v>
       </c>
       <c r="E60" s="3">
-        <v>20083200</v>
+        <v>21567000</v>
       </c>
       <c r="F60" s="3">
-        <v>20126400</v>
+        <v>20678500</v>
       </c>
       <c r="G60" s="3">
-        <v>16857200</v>
+        <v>20723000</v>
       </c>
       <c r="H60" s="3">
-        <v>21200300</v>
+        <v>17356900</v>
       </c>
       <c r="I60" s="3">
-        <v>12887600</v>
+        <v>21828800</v>
       </c>
       <c r="J60" s="3">
+        <v>13269600</v>
+      </c>
+      <c r="K60" s="3">
         <v>11602300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10726400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15399300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11382700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11625700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9675100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16966900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10486700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10377800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3461700</v>
+        <v>8672100</v>
       </c>
       <c r="E61" s="3">
-        <v>2247500</v>
+        <v>3564300</v>
       </c>
       <c r="F61" s="3">
-        <v>1367600</v>
+        <v>2314100</v>
       </c>
       <c r="G61" s="3">
-        <v>1367300</v>
+        <v>1408200</v>
       </c>
       <c r="H61" s="3">
-        <v>1727500</v>
+        <v>1407800</v>
       </c>
       <c r="I61" s="3">
         <v>1778700</v>
       </c>
       <c r="J61" s="3">
+        <v>1831400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1938600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1897600</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2773900</v>
       </c>
       <c r="M61" s="3">
         <v>2773900</v>
       </c>
       <c r="N61" s="3">
+        <v>2773900</v>
+      </c>
+      <c r="O61" s="3">
         <v>2975200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2975700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3218900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4376900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4993100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>376500</v>
+        <v>415900</v>
       </c>
       <c r="E62" s="3">
-        <v>369100</v>
+        <v>387700</v>
       </c>
       <c r="F62" s="3">
-        <v>403100</v>
+        <v>380000</v>
       </c>
       <c r="G62" s="3">
-        <v>402900</v>
+        <v>415100</v>
       </c>
       <c r="H62" s="3">
-        <v>407500</v>
+        <v>414800</v>
       </c>
       <c r="I62" s="3">
-        <v>458000</v>
+        <v>419600</v>
       </c>
       <c r="J62" s="3">
+        <v>471600</v>
+      </c>
+      <c r="K62" s="3">
         <v>517500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>517900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>544800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>562600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>602700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>637700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>688500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>735500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>816900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>24812700</v>
+        <v>29755200</v>
       </c>
       <c r="E66" s="3">
-        <v>22725700</v>
+        <v>25548300</v>
       </c>
       <c r="F66" s="3">
-        <v>21920500</v>
+        <v>23399400</v>
       </c>
       <c r="G66" s="3">
-        <v>18649200</v>
+        <v>22570300</v>
       </c>
       <c r="H66" s="3">
-        <v>23356000</v>
+        <v>19202000</v>
       </c>
       <c r="I66" s="3">
-        <v>15147200</v>
+        <v>24048400</v>
       </c>
       <c r="J66" s="3">
+        <v>15596300</v>
+      </c>
+      <c r="K66" s="3">
         <v>14081500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13163800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18739100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14742700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15226400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13311000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20896300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15625100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16213900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>49111600</v>
+        <v>53110300</v>
       </c>
       <c r="E72" s="3">
-        <v>47203800</v>
+        <v>50567500</v>
       </c>
       <c r="F72" s="3">
-        <v>45426700</v>
+        <v>48603200</v>
       </c>
       <c r="G72" s="3">
-        <v>43674600</v>
+        <v>46773400</v>
       </c>
       <c r="H72" s="3">
-        <v>42436800</v>
+        <v>44969300</v>
       </c>
       <c r="I72" s="3">
-        <v>48990800</v>
+        <v>43694800</v>
       </c>
       <c r="J72" s="3">
+        <v>50443200</v>
+      </c>
+      <c r="K72" s="3">
         <v>46902400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42612600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39561800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>44059200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>39973300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>36763300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33848900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>37815800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>34958200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>58613300</v>
+        <v>62700600</v>
       </c>
       <c r="E76" s="3">
-        <v>57110400</v>
+        <v>60350900</v>
       </c>
       <c r="F76" s="3">
-        <v>55241400</v>
+        <v>58803400</v>
       </c>
       <c r="G76" s="3">
-        <v>54064200</v>
+        <v>56879100</v>
       </c>
       <c r="H76" s="3">
-        <v>52938500</v>
+        <v>55666900</v>
       </c>
       <c r="I76" s="3">
-        <v>59378800</v>
+        <v>54507800</v>
       </c>
       <c r="J76" s="3">
+        <v>61139000</v>
+      </c>
+      <c r="K76" s="3">
         <v>57129200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52532000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49557500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53412200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49329900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46369500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>43484000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>47464300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>45303400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4116400</v>
+        <v>4816800</v>
       </c>
       <c r="E81" s="3">
-        <v>3985700</v>
+        <v>4238400</v>
       </c>
       <c r="F81" s="3">
-        <v>3953300</v>
+        <v>4103900</v>
       </c>
       <c r="G81" s="3">
-        <v>3443500</v>
+        <v>4070500</v>
       </c>
       <c r="H81" s="3">
-        <v>2274700</v>
+        <v>3545500</v>
       </c>
       <c r="I81" s="3">
-        <v>2091700</v>
+        <v>2342100</v>
       </c>
       <c r="J81" s="3">
+        <v>2153700</v>
+      </c>
+      <c r="K81" s="3">
         <v>3406500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2970500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2404400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2986200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3217900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2914500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2147800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2857600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3267500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2414700</v>
+        <v>3323200</v>
       </c>
       <c r="E83" s="3">
-        <v>2335700</v>
+        <v>2486300</v>
       </c>
       <c r="F83" s="3">
-        <v>2300800</v>
+        <v>2404900</v>
       </c>
       <c r="G83" s="3">
-        <v>2274400</v>
+        <v>2369000</v>
       </c>
       <c r="H83" s="3">
-        <v>2556900</v>
+        <v>2341800</v>
       </c>
       <c r="I83" s="3">
-        <v>2642100</v>
+        <v>2632700</v>
       </c>
       <c r="J83" s="3">
+        <v>2720400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2590300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2454900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2375100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2378000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2295100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2306400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1879500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1962200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1840400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>5803300</v>
+        <v>6671200</v>
       </c>
       <c r="E89" s="3">
-        <v>6917200</v>
+        <v>5975400</v>
       </c>
       <c r="F89" s="3">
-        <v>6914700</v>
+        <v>7122300</v>
       </c>
       <c r="G89" s="3">
-        <v>4829500</v>
+        <v>7119600</v>
       </c>
       <c r="H89" s="3">
-        <v>4012100</v>
+        <v>4972700</v>
       </c>
       <c r="I89" s="3">
-        <v>5201500</v>
+        <v>4131100</v>
       </c>
       <c r="J89" s="3">
+        <v>5355700</v>
+      </c>
+      <c r="K89" s="3">
         <v>6451900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3137700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4316300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5345700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6615700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3785000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3351200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5250500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6040000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-4316600</v>
+        <v>-3483600</v>
       </c>
       <c r="E91" s="3">
-        <v>-6560500</v>
+        <v>-4444600</v>
       </c>
       <c r="F91" s="3">
-        <v>-5792200</v>
+        <v>-6755000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3342900</v>
+        <v>-5963900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3964100</v>
+        <v>-3442000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2587300</v>
+        <v>-4081700</v>
       </c>
       <c r="J91" s="3">
+        <v>-2664000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3887600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2332800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-4420600</v>
+        <v>-3370500</v>
       </c>
       <c r="E94" s="3">
-        <v>-6439000</v>
+        <v>-4551600</v>
       </c>
       <c r="F94" s="3">
-        <v>-5846600</v>
+        <v>-6629900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3689400</v>
+        <v>-6019900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3908400</v>
+        <v>-3798800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2186900</v>
+        <v>-4024300</v>
       </c>
       <c r="J94" s="3">
+        <v>-2251700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3995100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2116800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4849,22 +5082,23 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2208600</v>
+        <v>-2274100</v>
       </c>
       <c r="E96" s="3">
-        <v>-2208600</v>
+        <v>-2274100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1766900</v>
+        <v>-2274100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1819300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>201400</v>
+        <v>1664000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1388600</v>
+        <v>207400</v>
       </c>
       <c r="F100" s="3">
-        <v>-585400</v>
+        <v>-1429800</v>
       </c>
       <c r="G100" s="3">
-        <v>-7805900</v>
+        <v>-602800</v>
       </c>
       <c r="H100" s="3">
-        <v>-31700</v>
+        <v>-8037300</v>
       </c>
       <c r="I100" s="3">
-        <v>-763600</v>
+        <v>-32600</v>
       </c>
       <c r="J100" s="3">
+        <v>-786200</v>
+      </c>
+      <c r="K100" s="3">
         <v>486600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5750700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-976100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>312600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-388400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>792500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-329100</v>
+        <v>-173400</v>
       </c>
       <c r="E101" s="3">
-        <v>71500</v>
+        <v>-338900</v>
       </c>
       <c r="F101" s="3">
-        <v>-381500</v>
+        <v>73600</v>
       </c>
       <c r="G101" s="3">
-        <v>-55100</v>
+        <v>-392800</v>
       </c>
       <c r="H101" s="3">
-        <v>65200</v>
+        <v>-56700</v>
       </c>
       <c r="I101" s="3">
-        <v>60900</v>
+        <v>67100</v>
       </c>
       <c r="J101" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K101" s="3">
         <v>91600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-55800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>468800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-174600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-175200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-23200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>38900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-534700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>204200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1255000</v>
+        <v>4791300</v>
       </c>
       <c r="E102" s="3">
-        <v>-838900</v>
+        <v>1292200</v>
       </c>
       <c r="F102" s="3">
-        <v>101200</v>
+        <v>-863700</v>
       </c>
       <c r="G102" s="3">
-        <v>-6720900</v>
+        <v>104200</v>
       </c>
       <c r="H102" s="3">
-        <v>137200</v>
+        <v>-6920100</v>
       </c>
       <c r="I102" s="3">
-        <v>2311900</v>
+        <v>141300</v>
       </c>
       <c r="J102" s="3">
+        <v>2380400</v>
+      </c>
+      <c r="K102" s="3">
         <v>3035000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4785700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1810900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>811300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4709600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>186100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>765400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2520200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5165000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12503400</v>
+        <v>12635600</v>
       </c>
       <c r="E8" s="3">
-        <v>10899300</v>
+        <v>12457100</v>
       </c>
       <c r="F8" s="3">
-        <v>10895700</v>
+        <v>10858900</v>
       </c>
       <c r="G8" s="3">
-        <v>11128700</v>
+        <v>10855400</v>
       </c>
       <c r="H8" s="3">
-        <v>10280000</v>
+        <v>11087400</v>
       </c>
       <c r="I8" s="3">
-        <v>8454200</v>
+        <v>10241900</v>
       </c>
       <c r="J8" s="3">
+        <v>8422900</v>
+      </c>
+      <c r="K8" s="3">
         <v>7672200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9872500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8682600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7758800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8251100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8996100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8170800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6931000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7627900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8551200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5821400</v>
+        <v>5813700</v>
       </c>
       <c r="E9" s="3">
-        <v>5121900</v>
+        <v>5799800</v>
       </c>
       <c r="F9" s="3">
-        <v>5255400</v>
+        <v>5102900</v>
       </c>
       <c r="G9" s="3">
-        <v>5542500</v>
+        <v>5236000</v>
       </c>
       <c r="H9" s="3">
-        <v>5388800</v>
+        <v>5522000</v>
       </c>
       <c r="I9" s="3">
-        <v>4817400</v>
+        <v>5368800</v>
       </c>
       <c r="J9" s="3">
+        <v>4799500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4502600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5169400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4567900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4047400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4094400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4500300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4091100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3406400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3666300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4080100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6682100</v>
+        <v>6821900</v>
       </c>
       <c r="E10" s="3">
-        <v>5777400</v>
+        <v>6657300</v>
       </c>
       <c r="F10" s="3">
-        <v>5640300</v>
+        <v>5756000</v>
       </c>
       <c r="G10" s="3">
-        <v>5586200</v>
+        <v>5619400</v>
       </c>
       <c r="H10" s="3">
-        <v>4891300</v>
+        <v>5565500</v>
       </c>
       <c r="I10" s="3">
-        <v>3636900</v>
+        <v>4873200</v>
       </c>
       <c r="J10" s="3">
+        <v>3623400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3169600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4703100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4114800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3711400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4156700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4495800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4079700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3524700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3961600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4471200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1041300</v>
+        <v>1046400</v>
       </c>
       <c r="E12" s="3">
-        <v>873200</v>
+        <v>1037400</v>
       </c>
       <c r="F12" s="3">
-        <v>875900</v>
+        <v>870000</v>
       </c>
       <c r="G12" s="3">
-        <v>899300</v>
+        <v>872700</v>
       </c>
       <c r="H12" s="3">
-        <v>840900</v>
+        <v>896000</v>
       </c>
       <c r="I12" s="3">
-        <v>750500</v>
+        <v>837800</v>
       </c>
       <c r="J12" s="3">
+        <v>747700</v>
+      </c>
+      <c r="K12" s="3">
         <v>716200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>807100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>729900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>661600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>679500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>687600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>682100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>617700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>633000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>650900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,35 +1064,38 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-10600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1084,36 +1103,39 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>-100</v>
       </c>
       <c r="P14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>700</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1131,14 +1153,14 @@
         <v>200</v>
       </c>
       <c r="K15" s="3">
+        <v>200</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7239900</v>
+        <v>7144200</v>
       </c>
       <c r="E17" s="3">
-        <v>6300500</v>
+        <v>7213100</v>
       </c>
       <c r="F17" s="3">
-        <v>6387300</v>
+        <v>6277100</v>
       </c>
       <c r="G17" s="3">
-        <v>6770200</v>
+        <v>6363600</v>
       </c>
       <c r="H17" s="3">
-        <v>6495500</v>
+        <v>6745100</v>
       </c>
       <c r="I17" s="3">
-        <v>5777600</v>
+        <v>6471400</v>
       </c>
       <c r="J17" s="3">
+        <v>5756200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5417700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6222800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5506100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4950700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5030600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5466600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4992900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4232700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4518900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4969300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5263500</v>
+        <v>5491400</v>
       </c>
       <c r="E18" s="3">
-        <v>4598800</v>
+        <v>5244000</v>
       </c>
       <c r="F18" s="3">
-        <v>4508500</v>
+        <v>4581800</v>
       </c>
       <c r="G18" s="3">
-        <v>4358500</v>
+        <v>4491800</v>
       </c>
       <c r="H18" s="3">
-        <v>3784600</v>
+        <v>4342400</v>
       </c>
       <c r="I18" s="3">
-        <v>2676600</v>
+        <v>3770500</v>
       </c>
       <c r="J18" s="3">
+        <v>2666700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2254500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3649700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3176500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2808100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3220500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3529400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3177900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2698300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3109000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3581900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>191300</v>
+        <v>166200</v>
       </c>
       <c r="E20" s="3">
-        <v>200400</v>
+        <v>190600</v>
       </c>
       <c r="F20" s="3">
-        <v>145900</v>
+        <v>199600</v>
       </c>
       <c r="G20" s="3">
-        <v>181700</v>
+        <v>145300</v>
       </c>
       <c r="H20" s="3">
-        <v>185800</v>
+        <v>181100</v>
       </c>
       <c r="I20" s="3">
-        <v>179300</v>
+        <v>185100</v>
       </c>
       <c r="J20" s="3">
+        <v>178600</v>
+      </c>
+      <c r="K20" s="3">
         <v>168900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>164700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>146400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>126000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>130500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>116900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>107200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>120000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>107600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>98400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>8778100</v>
+        <v>9067400</v>
       </c>
       <c r="E21" s="3">
-        <v>7285500</v>
+        <v>8745500</v>
       </c>
       <c r="F21" s="3">
-        <v>7059200</v>
+        <v>7258500</v>
       </c>
       <c r="G21" s="3">
-        <v>6909300</v>
+        <v>7033100</v>
       </c>
       <c r="H21" s="3">
-        <v>6312200</v>
+        <v>6883700</v>
       </c>
       <c r="I21" s="3">
-        <v>5488600</v>
+        <v>6288800</v>
       </c>
       <c r="J21" s="3">
+        <v>5468200</v>
+      </c>
+      <c r="K21" s="3">
         <v>5143700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6404700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5777700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5309100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5729000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5941400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5591600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4697800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5178800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5520800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>13100</v>
+        <v>26900</v>
       </c>
       <c r="E22" s="3">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="F22" s="3">
-        <v>18600</v>
+        <v>14300</v>
       </c>
       <c r="G22" s="3">
-        <v>22600</v>
+        <v>18500</v>
       </c>
       <c r="H22" s="3">
-        <v>29600</v>
+        <v>22500</v>
       </c>
       <c r="I22" s="3">
-        <v>30300</v>
+        <v>29500</v>
       </c>
       <c r="J22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K22" s="3">
         <v>31500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>26900</v>
       </c>
       <c r="O22" s="3">
         <v>26900</v>
       </c>
       <c r="P22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="Q22" s="3">
         <v>27300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>27200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>26600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>26500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>5441800</v>
+        <v>5630700</v>
       </c>
       <c r="E23" s="3">
-        <v>4784900</v>
+        <v>5421600</v>
       </c>
       <c r="F23" s="3">
-        <v>4635700</v>
+        <v>4767100</v>
       </c>
       <c r="G23" s="3">
-        <v>4517700</v>
+        <v>4618500</v>
       </c>
       <c r="H23" s="3">
-        <v>3940800</v>
+        <v>4500900</v>
       </c>
       <c r="I23" s="3">
-        <v>2825500</v>
+        <v>3926200</v>
       </c>
       <c r="J23" s="3">
+        <v>2815100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2391800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3784600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3298200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2913200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3324100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3619400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3257800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2791100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3190000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3653900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>622500</v>
+        <v>639000</v>
       </c>
       <c r="E24" s="3">
-        <v>544000</v>
+        <v>620200</v>
       </c>
       <c r="F24" s="3">
-        <v>529200</v>
+        <v>541900</v>
       </c>
       <c r="G24" s="3">
-        <v>445600</v>
+        <v>527200</v>
       </c>
       <c r="H24" s="3">
-        <v>394100</v>
+        <v>444000</v>
       </c>
       <c r="I24" s="3">
-        <v>483000</v>
+        <v>392600</v>
       </c>
       <c r="J24" s="3">
+        <v>481200</v>
+      </c>
+      <c r="K24" s="3">
         <v>238300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>377400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>326800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>508700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>337800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>342500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>643200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>332700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>385400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4819200</v>
+        <v>4991700</v>
       </c>
       <c r="E26" s="3">
-        <v>4240900</v>
+        <v>4801400</v>
       </c>
       <c r="F26" s="3">
-        <v>4106600</v>
+        <v>4225200</v>
       </c>
       <c r="G26" s="3">
-        <v>4072000</v>
+        <v>4091300</v>
       </c>
       <c r="H26" s="3">
-        <v>3546700</v>
+        <v>4056900</v>
       </c>
       <c r="I26" s="3">
-        <v>2342500</v>
+        <v>3533500</v>
       </c>
       <c r="J26" s="3">
+        <v>2333800</v>
+      </c>
+      <c r="K26" s="3">
         <v>2153500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3407200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2971400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2404500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2986300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3218500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2915300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2147800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2857300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3268400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4816800</v>
+        <v>4989700</v>
       </c>
       <c r="E27" s="3">
-        <v>4238400</v>
+        <v>4799000</v>
       </c>
       <c r="F27" s="3">
-        <v>4103900</v>
+        <v>4222700</v>
       </c>
       <c r="G27" s="3">
-        <v>4070500</v>
+        <v>4088700</v>
       </c>
       <c r="H27" s="3">
-        <v>3545500</v>
+        <v>4055400</v>
       </c>
       <c r="I27" s="3">
-        <v>2342100</v>
+        <v>3532400</v>
       </c>
       <c r="J27" s="3">
+        <v>2333400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2153700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3406500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2970500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2404400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2986200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3217900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2914500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2147800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2857600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3267500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-191300</v>
+        <v>-166200</v>
       </c>
       <c r="E32" s="3">
-        <v>-200400</v>
+        <v>-190600</v>
       </c>
       <c r="F32" s="3">
-        <v>-145900</v>
+        <v>-199600</v>
       </c>
       <c r="G32" s="3">
-        <v>-181700</v>
+        <v>-145300</v>
       </c>
       <c r="H32" s="3">
-        <v>-185800</v>
+        <v>-181100</v>
       </c>
       <c r="I32" s="3">
-        <v>-179300</v>
+        <v>-185100</v>
       </c>
       <c r="J32" s="3">
+        <v>-178600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-168900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-164700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-146400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-126000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-130500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-116900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-107200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-120000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-107600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-98400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4816800</v>
+        <v>4989700</v>
       </c>
       <c r="E33" s="3">
-        <v>4238400</v>
+        <v>4799000</v>
       </c>
       <c r="F33" s="3">
-        <v>4103900</v>
+        <v>4222700</v>
       </c>
       <c r="G33" s="3">
-        <v>4070500</v>
+        <v>4088700</v>
       </c>
       <c r="H33" s="3">
-        <v>3545500</v>
+        <v>4055400</v>
       </c>
       <c r="I33" s="3">
-        <v>2342100</v>
+        <v>3532400</v>
       </c>
       <c r="J33" s="3">
+        <v>2333400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2153700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3406500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2970500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2404400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2986200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3217900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2914500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2147800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2857600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3267500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4816800</v>
+        <v>4989700</v>
       </c>
       <c r="E35" s="3">
-        <v>4238400</v>
+        <v>4799000</v>
       </c>
       <c r="F35" s="3">
-        <v>4103900</v>
+        <v>4222700</v>
       </c>
       <c r="G35" s="3">
-        <v>4070500</v>
+        <v>4088700</v>
       </c>
       <c r="H35" s="3">
-        <v>3545500</v>
+        <v>4055400</v>
       </c>
       <c r="I35" s="3">
-        <v>2342100</v>
+        <v>3532400</v>
       </c>
       <c r="J35" s="3">
+        <v>2333400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2153700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3406500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2970500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2404400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2986200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3217900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2914500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2147800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2857600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3267500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>21195200</v>
+        <v>23073000</v>
       </c>
       <c r="E41" s="3">
-        <v>16403900</v>
+        <v>21116600</v>
       </c>
       <c r="F41" s="3">
-        <v>15111700</v>
+        <v>16343100</v>
       </c>
       <c r="G41" s="3">
-        <v>15975400</v>
+        <v>15055700</v>
       </c>
       <c r="H41" s="3">
-        <v>15871300</v>
+        <v>15916200</v>
       </c>
       <c r="I41" s="3">
-        <v>22791400</v>
+        <v>15812400</v>
       </c>
       <c r="J41" s="3">
+        <v>22706900</v>
+      </c>
+      <c r="K41" s="3">
         <v>22650100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19686100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16299200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21028000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19217100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17935400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13225800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18488800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18415700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17650300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>5099800</v>
+        <v>4883300</v>
       </c>
       <c r="E42" s="3">
-        <v>5159700</v>
+        <v>5080900</v>
       </c>
       <c r="F42" s="3">
-        <v>4920200</v>
+        <v>5140600</v>
       </c>
       <c r="G42" s="3">
-        <v>4868300</v>
+        <v>4902000</v>
       </c>
       <c r="H42" s="3">
-        <v>5262600</v>
+        <v>4850300</v>
       </c>
       <c r="I42" s="3">
-        <v>4548900</v>
+        <v>5243100</v>
       </c>
       <c r="J42" s="3">
+        <v>4532100</v>
+      </c>
+      <c r="K42" s="3">
         <v>4384600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4628600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4342600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4313700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3928700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3325800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3200600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2937600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3206500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3091300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5704700</v>
+        <v>5105800</v>
       </c>
       <c r="E43" s="3">
-        <v>5338500</v>
+        <v>5683500</v>
       </c>
       <c r="F43" s="3">
-        <v>5138500</v>
+        <v>5318700</v>
       </c>
       <c r="G43" s="3">
-        <v>4905000</v>
+        <v>5119500</v>
       </c>
       <c r="H43" s="3">
-        <v>5103400</v>
+        <v>4886800</v>
       </c>
       <c r="I43" s="3">
-        <v>4127900</v>
+        <v>5084500</v>
       </c>
       <c r="J43" s="3">
+        <v>4112700</v>
+      </c>
+      <c r="K43" s="3">
         <v>3746200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4404000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4322300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3039400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3589100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3969900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3853300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3625400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3559800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4221400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3841600</v>
+        <v>4800500</v>
       </c>
       <c r="E44" s="3">
-        <v>3009400</v>
+        <v>3827400</v>
       </c>
       <c r="F44" s="3">
-        <v>2746000</v>
+        <v>2998300</v>
       </c>
       <c r="G44" s="3">
-        <v>2911000</v>
+        <v>2735800</v>
       </c>
       <c r="H44" s="3">
-        <v>3391700</v>
+        <v>2900200</v>
       </c>
       <c r="I44" s="3">
-        <v>3796800</v>
+        <v>3379200</v>
       </c>
       <c r="J44" s="3">
+        <v>3782700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3812600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3517100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3513000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3293800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2834300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2394500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2394900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1977400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1643200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1587500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>279700</v>
+        <v>309300</v>
       </c>
       <c r="E45" s="3">
-        <v>258400</v>
+        <v>278700</v>
       </c>
       <c r="F45" s="3">
-        <v>234300</v>
+        <v>257400</v>
       </c>
       <c r="G45" s="3">
-        <v>197600</v>
+        <v>233400</v>
       </c>
       <c r="H45" s="3">
-        <v>168900</v>
+        <v>196900</v>
       </c>
       <c r="I45" s="3">
-        <v>172100</v>
+        <v>168300</v>
       </c>
       <c r="J45" s="3">
+        <v>171400</v>
+      </c>
+      <c r="K45" s="3">
         <v>182200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>187900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>178000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>222900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1333300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>156400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>170000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>132000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>99600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>115600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>36121000</v>
+        <v>38171900</v>
       </c>
       <c r="E46" s="3">
-        <v>30169900</v>
+        <v>35987100</v>
       </c>
       <c r="F46" s="3">
-        <v>28150600</v>
+        <v>30058100</v>
       </c>
       <c r="G46" s="3">
-        <v>28857300</v>
+        <v>28046300</v>
       </c>
       <c r="H46" s="3">
-        <v>29797900</v>
+        <v>28750400</v>
       </c>
       <c r="I46" s="3">
-        <v>35437100</v>
+        <v>29687500</v>
       </c>
       <c r="J46" s="3">
+        <v>35305800</v>
+      </c>
+      <c r="K46" s="3">
         <v>34775700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32423700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28655100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31897800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30902400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>27782000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22844600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27161200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26924800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>26666100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>930100</v>
+        <v>969100</v>
       </c>
       <c r="E47" s="3">
-        <v>803900</v>
+        <v>926700</v>
       </c>
       <c r="F47" s="3">
-        <v>1088600</v>
+        <v>800900</v>
       </c>
       <c r="G47" s="3">
-        <v>1058400</v>
+        <v>1084600</v>
       </c>
       <c r="H47" s="3">
-        <v>1057100</v>
+        <v>1054500</v>
       </c>
       <c r="I47" s="3">
-        <v>1028400</v>
+        <v>1053200</v>
       </c>
       <c r="J47" s="3">
+        <v>1024600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1053800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>998400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>993900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>959100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1143400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1347300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1325700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1420200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1451800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1505100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>53506200</v>
+        <v>55336900</v>
       </c>
       <c r="E48" s="3">
-        <v>53132100</v>
+        <v>53307900</v>
       </c>
       <c r="F48" s="3">
-        <v>51214600</v>
+        <v>52935200</v>
       </c>
       <c r="G48" s="3">
-        <v>48045900</v>
+        <v>51024800</v>
       </c>
       <c r="H48" s="3">
-        <v>42638400</v>
+        <v>47867900</v>
       </c>
       <c r="I48" s="3">
-        <v>40724800</v>
+        <v>42480400</v>
       </c>
       <c r="J48" s="3">
+        <v>40573900</v>
+      </c>
+      <c r="K48" s="3">
         <v>39524500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36524800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34968000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34399800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35101500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34437000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34541200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34925900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>33828400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32537500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>924000</v>
+        <v>900600</v>
       </c>
       <c r="E49" s="3">
-        <v>961000</v>
+        <v>920600</v>
       </c>
       <c r="F49" s="3">
-        <v>955300</v>
+        <v>957500</v>
       </c>
       <c r="G49" s="3">
-        <v>724500</v>
+        <v>951800</v>
       </c>
       <c r="H49" s="3">
-        <v>634700</v>
+        <v>721800</v>
       </c>
       <c r="I49" s="3">
-        <v>613900</v>
+        <v>632400</v>
       </c>
       <c r="J49" s="3">
+        <v>611700</v>
+      </c>
+      <c r="K49" s="3">
         <v>630500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>579300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>466500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>458700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>454800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>459400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>481000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>457600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>465600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>476600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>974600</v>
+        <v>1108300</v>
       </c>
       <c r="E52" s="3">
-        <v>832200</v>
+        <v>971000</v>
       </c>
       <c r="F52" s="3">
-        <v>793700</v>
+        <v>829100</v>
       </c>
       <c r="G52" s="3">
-        <v>763200</v>
+        <v>790700</v>
       </c>
       <c r="H52" s="3">
-        <v>740800</v>
+        <v>760400</v>
       </c>
       <c r="I52" s="3">
-        <v>751900</v>
+        <v>738000</v>
       </c>
       <c r="J52" s="3">
+        <v>749100</v>
+      </c>
+      <c r="K52" s="3">
         <v>750900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>684500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>612200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>581200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>552800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>530600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>488100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>415500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>418700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>332000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>92455900</v>
+        <v>96486900</v>
       </c>
       <c r="E54" s="3">
-        <v>85899200</v>
+        <v>92113200</v>
       </c>
       <c r="F54" s="3">
-        <v>82202800</v>
+        <v>85580800</v>
       </c>
       <c r="G54" s="3">
-        <v>79449400</v>
+        <v>81898200</v>
       </c>
       <c r="H54" s="3">
-        <v>74868900</v>
+        <v>79154900</v>
       </c>
       <c r="I54" s="3">
-        <v>78556200</v>
+        <v>74591500</v>
       </c>
       <c r="J54" s="3">
+        <v>78265100</v>
+      </c>
+      <c r="K54" s="3">
         <v>76735300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71210700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65695800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68296500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68154900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>64556200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>59680600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>64380300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>63089400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>61517300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1434500</v>
+        <v>1436300</v>
       </c>
       <c r="E57" s="3">
-        <v>1386800</v>
+        <v>1429200</v>
       </c>
       <c r="F57" s="3">
-        <v>1395300</v>
+        <v>1381700</v>
       </c>
       <c r="G57" s="3">
-        <v>1410400</v>
+        <v>1390100</v>
       </c>
       <c r="H57" s="3">
-        <v>1296500</v>
+        <v>1405200</v>
       </c>
       <c r="I57" s="3">
-        <v>1142600</v>
+        <v>1291700</v>
       </c>
       <c r="J57" s="3">
+        <v>1138300</v>
+      </c>
+      <c r="K57" s="3">
         <v>970400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1170600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1010700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1019900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>965900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>974500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>939500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>830100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>790900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>891100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>5602200</v>
+        <v>3249900</v>
       </c>
       <c r="E58" s="3">
-        <v>6694100</v>
+        <v>5581500</v>
       </c>
       <c r="F58" s="3">
-        <v>5522500</v>
+        <v>6669300</v>
       </c>
       <c r="G58" s="3">
-        <v>5353100</v>
+        <v>5502000</v>
       </c>
       <c r="H58" s="3">
-        <v>4208000</v>
+        <v>5333300</v>
       </c>
       <c r="I58" s="3">
-        <v>4526900</v>
+        <v>4192400</v>
       </c>
       <c r="J58" s="3">
+        <v>4510200</v>
+      </c>
+      <c r="K58" s="3">
         <v>4468900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4212900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3631000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1554400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3528500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3959500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3678600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4362700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3247200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3132800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>13598800</v>
+        <v>16883300</v>
       </c>
       <c r="E59" s="3">
-        <v>13486000</v>
+        <v>13548400</v>
       </c>
       <c r="F59" s="3">
-        <v>13760800</v>
+        <v>13436100</v>
       </c>
       <c r="G59" s="3">
-        <v>13959500</v>
+        <v>13709800</v>
       </c>
       <c r="H59" s="3">
-        <v>11852400</v>
+        <v>13907700</v>
       </c>
       <c r="I59" s="3">
-        <v>16159200</v>
+        <v>11808500</v>
       </c>
       <c r="J59" s="3">
+        <v>16099400</v>
+      </c>
+      <c r="K59" s="3">
         <v>7830300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6218800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6084700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12825000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6888300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6691700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5057000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11774100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6448700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6354000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>20635500</v>
+        <v>21569400</v>
       </c>
       <c r="E60" s="3">
-        <v>21567000</v>
+        <v>20559000</v>
       </c>
       <c r="F60" s="3">
-        <v>20678500</v>
+        <v>21487100</v>
       </c>
       <c r="G60" s="3">
-        <v>20723000</v>
+        <v>20601900</v>
       </c>
       <c r="H60" s="3">
-        <v>17356900</v>
+        <v>20646200</v>
       </c>
       <c r="I60" s="3">
-        <v>21828800</v>
+        <v>17292600</v>
       </c>
       <c r="J60" s="3">
+        <v>21747900</v>
+      </c>
+      <c r="K60" s="3">
         <v>13269600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11602300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10726400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15399300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11382700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11625700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9675100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16966900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10486700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10377800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>8672100</v>
+        <v>9668300</v>
       </c>
       <c r="E61" s="3">
-        <v>3564300</v>
+        <v>8639900</v>
       </c>
       <c r="F61" s="3">
-        <v>2314100</v>
+        <v>3551100</v>
       </c>
       <c r="G61" s="3">
-        <v>1408200</v>
+        <v>2305500</v>
       </c>
       <c r="H61" s="3">
-        <v>1407800</v>
+        <v>1403000</v>
       </c>
       <c r="I61" s="3">
-        <v>1778700</v>
+        <v>1402600</v>
       </c>
       <c r="J61" s="3">
+        <v>1772200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1831400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1938600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1897600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>2773900</v>
       </c>
       <c r="N61" s="3">
         <v>2773900</v>
       </c>
       <c r="O61" s="3">
+        <v>2773900</v>
+      </c>
+      <c r="P61" s="3">
         <v>2975200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2975700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3218900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4376900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4993100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>415900</v>
+        <v>569900</v>
       </c>
       <c r="E62" s="3">
-        <v>387700</v>
+        <v>414300</v>
       </c>
       <c r="F62" s="3">
-        <v>380000</v>
+        <v>386200</v>
       </c>
       <c r="G62" s="3">
-        <v>415100</v>
+        <v>378600</v>
       </c>
       <c r="H62" s="3">
-        <v>414800</v>
+        <v>413500</v>
       </c>
       <c r="I62" s="3">
-        <v>419600</v>
+        <v>413300</v>
       </c>
       <c r="J62" s="3">
+        <v>418000</v>
+      </c>
+      <c r="K62" s="3">
         <v>471600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>517500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>517900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>544800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>562600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>602700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>637700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>688500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>735500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>816900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>29755200</v>
+        <v>31841300</v>
       </c>
       <c r="E66" s="3">
-        <v>25548300</v>
+        <v>29645000</v>
       </c>
       <c r="F66" s="3">
-        <v>23399400</v>
+        <v>25453600</v>
       </c>
       <c r="G66" s="3">
-        <v>22570300</v>
+        <v>23312700</v>
       </c>
       <c r="H66" s="3">
-        <v>19202000</v>
+        <v>22486700</v>
       </c>
       <c r="I66" s="3">
-        <v>24048400</v>
+        <v>19130900</v>
       </c>
       <c r="J66" s="3">
+        <v>23959200</v>
+      </c>
+      <c r="K66" s="3">
         <v>15596300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14081500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13163800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18739100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14742700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15226400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13311000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20896300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15625100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16213900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>53110300</v>
+        <v>55524600</v>
       </c>
       <c r="E72" s="3">
-        <v>50567500</v>
+        <v>52913500</v>
       </c>
       <c r="F72" s="3">
-        <v>48603200</v>
+        <v>50380100</v>
       </c>
       <c r="G72" s="3">
-        <v>46773400</v>
+        <v>48423100</v>
       </c>
       <c r="H72" s="3">
-        <v>44969300</v>
+        <v>46600100</v>
       </c>
       <c r="I72" s="3">
-        <v>43694800</v>
+        <v>44802600</v>
       </c>
       <c r="J72" s="3">
+        <v>43532900</v>
+      </c>
+      <c r="K72" s="3">
         <v>50443200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46902400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42612600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>39561800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>44059200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39973300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36763300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33848900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>37815800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>34958200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>62700600</v>
+        <v>64645500</v>
       </c>
       <c r="E76" s="3">
-        <v>60350900</v>
+        <v>62468300</v>
       </c>
       <c r="F76" s="3">
-        <v>58803400</v>
+        <v>60127200</v>
       </c>
       <c r="G76" s="3">
-        <v>56879100</v>
+        <v>58585500</v>
       </c>
       <c r="H76" s="3">
-        <v>55666900</v>
+        <v>56668300</v>
       </c>
       <c r="I76" s="3">
-        <v>54507800</v>
+        <v>55460600</v>
       </c>
       <c r="J76" s="3">
+        <v>54305800</v>
+      </c>
+      <c r="K76" s="3">
         <v>61139000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57129200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52532000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49557500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53412200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49329900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46369500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43484000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>47464300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>45303400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4816800</v>
+        <v>4989700</v>
       </c>
       <c r="E81" s="3">
-        <v>4238400</v>
+        <v>4799000</v>
       </c>
       <c r="F81" s="3">
-        <v>4103900</v>
+        <v>4222700</v>
       </c>
       <c r="G81" s="3">
-        <v>4070500</v>
+        <v>4088700</v>
       </c>
       <c r="H81" s="3">
-        <v>3545500</v>
+        <v>4055400</v>
       </c>
       <c r="I81" s="3">
-        <v>2342100</v>
+        <v>3532400</v>
       </c>
       <c r="J81" s="3">
+        <v>2333400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2153700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3406500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2970500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2404400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2986200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3217900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2914500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2147800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2857600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3267500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3323200</v>
+        <v>3409800</v>
       </c>
       <c r="E83" s="3">
-        <v>2486300</v>
+        <v>3310900</v>
       </c>
       <c r="F83" s="3">
-        <v>2404900</v>
+        <v>2477100</v>
       </c>
       <c r="G83" s="3">
-        <v>2369000</v>
+        <v>2396000</v>
       </c>
       <c r="H83" s="3">
-        <v>2341800</v>
+        <v>2360200</v>
       </c>
       <c r="I83" s="3">
-        <v>2632700</v>
+        <v>2333100</v>
       </c>
       <c r="J83" s="3">
+        <v>2622900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2720400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2590300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2454900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2375100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2378000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2295100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2306400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1879500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1962200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1840400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>6671200</v>
+        <v>9056600</v>
       </c>
       <c r="E89" s="3">
-        <v>5975400</v>
+        <v>6646500</v>
       </c>
       <c r="F89" s="3">
-        <v>7122300</v>
+        <v>5953200</v>
       </c>
       <c r="G89" s="3">
-        <v>7119600</v>
+        <v>7095900</v>
       </c>
       <c r="H89" s="3">
-        <v>4972700</v>
+        <v>7093300</v>
       </c>
       <c r="I89" s="3">
-        <v>4131100</v>
+        <v>4954300</v>
       </c>
       <c r="J89" s="3">
+        <v>4115700</v>
+      </c>
+      <c r="K89" s="3">
         <v>5355700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6451900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3137700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4316300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5345700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6615700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3785000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3351200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5250500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6040000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-3483600</v>
+        <v>-3099200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4444600</v>
+        <v>-3470700</v>
       </c>
       <c r="F91" s="3">
-        <v>-6755000</v>
+        <v>-4428100</v>
       </c>
       <c r="G91" s="3">
-        <v>-5963900</v>
+        <v>-6730000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3442000</v>
+        <v>-5941800</v>
       </c>
       <c r="I91" s="3">
-        <v>-4081700</v>
+        <v>-3429200</v>
       </c>
       <c r="J91" s="3">
+        <v>-4066500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2664000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3887600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2332800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3370500</v>
+        <v>-3179000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4551600</v>
+        <v>-3358000</v>
       </c>
       <c r="F94" s="3">
-        <v>-6629900</v>
+        <v>-4534800</v>
       </c>
       <c r="G94" s="3">
-        <v>-6019900</v>
+        <v>-6605300</v>
       </c>
       <c r="H94" s="3">
-        <v>-3798800</v>
+        <v>-5997600</v>
       </c>
       <c r="I94" s="3">
-        <v>-4024300</v>
+        <v>-3784700</v>
       </c>
       <c r="J94" s="3">
+        <v>-4009400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2251700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3995100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2116800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5083,25 +5315,26 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2274100</v>
+        <v>-2265700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2274100</v>
+        <v>-2265700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2274100</v>
+        <v>-2265700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1819300</v>
+        <v>-2265700</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1812500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>1664000</v>
+        <v>-3537100</v>
       </c>
       <c r="E100" s="3">
-        <v>207400</v>
+        <v>1657800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1429800</v>
+        <v>206600</v>
       </c>
       <c r="G100" s="3">
-        <v>-602800</v>
+        <v>-1424500</v>
       </c>
       <c r="H100" s="3">
-        <v>-8037300</v>
+        <v>-600500</v>
       </c>
       <c r="I100" s="3">
-        <v>-32600</v>
+        <v>-8007500</v>
       </c>
       <c r="J100" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-786200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>486600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5750700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-976100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>312600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-388400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>792500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-173400</v>
+        <v>-384200</v>
       </c>
       <c r="E101" s="3">
-        <v>-338900</v>
+        <v>-172800</v>
       </c>
       <c r="F101" s="3">
-        <v>73600</v>
+        <v>-337600</v>
       </c>
       <c r="G101" s="3">
-        <v>-392800</v>
+        <v>73400</v>
       </c>
       <c r="H101" s="3">
-        <v>-56700</v>
+        <v>-391400</v>
       </c>
       <c r="I101" s="3">
-        <v>67100</v>
+        <v>-56500</v>
       </c>
       <c r="J101" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K101" s="3">
         <v>62700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>91600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-55800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>468800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-174600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-175200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>38900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-534700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>204200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>4791300</v>
+        <v>1956300</v>
       </c>
       <c r="E102" s="3">
-        <v>1292200</v>
+        <v>4773500</v>
       </c>
       <c r="F102" s="3">
-        <v>-863700</v>
+        <v>1287400</v>
       </c>
       <c r="G102" s="3">
-        <v>104200</v>
+        <v>-860500</v>
       </c>
       <c r="H102" s="3">
-        <v>-6920100</v>
+        <v>103800</v>
       </c>
       <c r="I102" s="3">
-        <v>141300</v>
+        <v>-6894500</v>
       </c>
       <c r="J102" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K102" s="3">
         <v>2380400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3035000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4785700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1810900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>811300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4709600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>186100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>765400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2520200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5165000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12635600</v>
+        <v>12996000</v>
       </c>
       <c r="E8" s="3">
-        <v>12457100</v>
+        <v>12964600</v>
       </c>
       <c r="F8" s="3">
-        <v>10858900</v>
+        <v>12781400</v>
       </c>
       <c r="G8" s="3">
-        <v>10855400</v>
+        <v>11141600</v>
       </c>
       <c r="H8" s="3">
-        <v>11087400</v>
+        <v>11138000</v>
       </c>
       <c r="I8" s="3">
-        <v>10241900</v>
+        <v>11376100</v>
       </c>
       <c r="J8" s="3">
+        <v>10508600</v>
+      </c>
+      <c r="K8" s="3">
         <v>8422900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7672200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9872500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8682600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7758800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8251100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8996100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8170800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6931000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7627900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8551200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5813700</v>
+        <v>6190700</v>
       </c>
       <c r="E9" s="3">
-        <v>5799800</v>
+        <v>5965100</v>
       </c>
       <c r="F9" s="3">
-        <v>5102900</v>
+        <v>5950800</v>
       </c>
       <c r="G9" s="3">
-        <v>5236000</v>
+        <v>5235800</v>
       </c>
       <c r="H9" s="3">
-        <v>5522000</v>
+        <v>5372300</v>
       </c>
       <c r="I9" s="3">
-        <v>5368800</v>
+        <v>5665700</v>
       </c>
       <c r="J9" s="3">
+        <v>5508600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4799500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4502600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5169400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4567900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4047400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4094400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4500300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4091100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3406400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3666300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4080100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6821900</v>
+        <v>6805300</v>
       </c>
       <c r="E10" s="3">
-        <v>6657300</v>
+        <v>6999500</v>
       </c>
       <c r="F10" s="3">
-        <v>5756000</v>
+        <v>6830600</v>
       </c>
       <c r="G10" s="3">
-        <v>5619400</v>
+        <v>5905900</v>
       </c>
       <c r="H10" s="3">
-        <v>5565500</v>
+        <v>5765700</v>
       </c>
       <c r="I10" s="3">
-        <v>4873200</v>
+        <v>5710400</v>
       </c>
       <c r="J10" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="K10" s="3">
         <v>3623400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3169600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4703100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4114800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3711400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4156700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4495800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4079700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3524700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3961600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4471200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1046400</v>
+        <v>1102900</v>
       </c>
       <c r="E12" s="3">
-        <v>1037400</v>
+        <v>1073700</v>
       </c>
       <c r="F12" s="3">
-        <v>870000</v>
+        <v>1064500</v>
       </c>
       <c r="G12" s="3">
-        <v>872700</v>
+        <v>892700</v>
       </c>
       <c r="H12" s="3">
-        <v>896000</v>
+        <v>895400</v>
       </c>
       <c r="I12" s="3">
-        <v>837800</v>
+        <v>919300</v>
       </c>
       <c r="J12" s="3">
+        <v>859600</v>
+      </c>
+      <c r="K12" s="3">
         <v>747700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>716200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>807100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>729900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>661600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>679500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>687600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>682100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>617700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>633000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>650900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1076,29 +1096,29 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
         <v>-10600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1106,39 +1126,42 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>-100</v>
       </c>
       <c r="Q14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>700</v>
+        <v>2600</v>
       </c>
       <c r="E15" s="3">
+        <v>800</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1156,14 +1179,14 @@
         <v>200</v>
       </c>
       <c r="L15" s="3">
+        <v>200</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7144200</v>
+        <v>7597700</v>
       </c>
       <c r="E17" s="3">
-        <v>7213100</v>
+        <v>7330200</v>
       </c>
       <c r="F17" s="3">
-        <v>6277100</v>
+        <v>7400900</v>
       </c>
       <c r="G17" s="3">
-        <v>6363600</v>
+        <v>6440500</v>
       </c>
       <c r="H17" s="3">
-        <v>6745100</v>
+        <v>6529300</v>
       </c>
       <c r="I17" s="3">
-        <v>6471400</v>
+        <v>6920700</v>
       </c>
       <c r="J17" s="3">
+        <v>6639900</v>
+      </c>
+      <c r="K17" s="3">
         <v>5756200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5417700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6222800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5506100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4950700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5030600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5466600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4992900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4232700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4518900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4969300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5491400</v>
+        <v>5398300</v>
       </c>
       <c r="E18" s="3">
-        <v>5244000</v>
+        <v>5634400</v>
       </c>
       <c r="F18" s="3">
-        <v>4581800</v>
+        <v>5380600</v>
       </c>
       <c r="G18" s="3">
-        <v>4491800</v>
+        <v>4701100</v>
       </c>
       <c r="H18" s="3">
-        <v>4342400</v>
+        <v>4608700</v>
       </c>
       <c r="I18" s="3">
-        <v>3770500</v>
+        <v>4455400</v>
       </c>
       <c r="J18" s="3">
+        <v>3868700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2666700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2254500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3649700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3176500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2808100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3220500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3529400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3177900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2698300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3109000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3581900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>166200</v>
+        <v>190000</v>
       </c>
       <c r="E20" s="3">
-        <v>190600</v>
+        <v>170500</v>
       </c>
       <c r="F20" s="3">
-        <v>199600</v>
+        <v>195600</v>
       </c>
       <c r="G20" s="3">
-        <v>145300</v>
+        <v>204800</v>
       </c>
       <c r="H20" s="3">
-        <v>181100</v>
+        <v>149100</v>
       </c>
       <c r="I20" s="3">
-        <v>185100</v>
+        <v>185800</v>
       </c>
       <c r="J20" s="3">
+        <v>189900</v>
+      </c>
+      <c r="K20" s="3">
         <v>178600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>168900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>164700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>146400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>126000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>130500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>116900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>107200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>120000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>107600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>98400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>9067400</v>
+        <v>9206600</v>
       </c>
       <c r="E21" s="3">
-        <v>8745500</v>
+        <v>9303400</v>
       </c>
       <c r="F21" s="3">
-        <v>7258500</v>
+        <v>8973300</v>
       </c>
       <c r="G21" s="3">
-        <v>7033100</v>
+        <v>7447500</v>
       </c>
       <c r="H21" s="3">
-        <v>6883700</v>
+        <v>7216200</v>
       </c>
       <c r="I21" s="3">
-        <v>6288800</v>
+        <v>7062900</v>
       </c>
       <c r="J21" s="3">
+        <v>6452500</v>
+      </c>
+      <c r="K21" s="3">
         <v>5468200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5143700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6404700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5777700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5309100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5729000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5941400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5591600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4697800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5178800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5520800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>26900</v>
+        <v>27700</v>
       </c>
       <c r="E22" s="3">
-        <v>13000</v>
+        <v>27600</v>
       </c>
       <c r="F22" s="3">
-        <v>14300</v>
+        <v>13400</v>
       </c>
       <c r="G22" s="3">
-        <v>18500</v>
+        <v>14700</v>
       </c>
       <c r="H22" s="3">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="I22" s="3">
-        <v>29500</v>
+        <v>23100</v>
       </c>
       <c r="J22" s="3">
         <v>30200</v>
       </c>
       <c r="K22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="L22" s="3">
         <v>31500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>29800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>26900</v>
       </c>
       <c r="P22" s="3">
         <v>26900</v>
       </c>
       <c r="Q22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="R22" s="3">
         <v>27300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>27200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>26600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>26500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>5630700</v>
+        <v>5560600</v>
       </c>
       <c r="E23" s="3">
-        <v>5421600</v>
+        <v>5777300</v>
       </c>
       <c r="F23" s="3">
-        <v>4767100</v>
+        <v>5562700</v>
       </c>
       <c r="G23" s="3">
-        <v>4618500</v>
+        <v>4891300</v>
       </c>
       <c r="H23" s="3">
-        <v>4500900</v>
+        <v>4738800</v>
       </c>
       <c r="I23" s="3">
-        <v>3926200</v>
+        <v>4618100</v>
       </c>
       <c r="J23" s="3">
+        <v>4028400</v>
+      </c>
+      <c r="K23" s="3">
         <v>2815100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2391800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3784600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3298200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2913200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3324100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3619400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3257800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2791100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3190000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3653900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>639000</v>
+        <v>549600</v>
       </c>
       <c r="E24" s="3">
-        <v>620200</v>
+        <v>655600</v>
       </c>
       <c r="F24" s="3">
-        <v>541900</v>
+        <v>636400</v>
       </c>
       <c r="G24" s="3">
-        <v>527200</v>
+        <v>556000</v>
       </c>
       <c r="H24" s="3">
-        <v>444000</v>
+        <v>540900</v>
       </c>
       <c r="I24" s="3">
-        <v>392600</v>
+        <v>455600</v>
       </c>
       <c r="J24" s="3">
+        <v>402800</v>
+      </c>
+      <c r="K24" s="3">
         <v>481200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>238300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>377400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>326800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>508700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>337800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>342500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>643200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>332700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>385400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4991700</v>
+        <v>5011000</v>
       </c>
       <c r="E26" s="3">
-        <v>4801400</v>
+        <v>5121700</v>
       </c>
       <c r="F26" s="3">
-        <v>4225200</v>
+        <v>4926400</v>
       </c>
       <c r="G26" s="3">
-        <v>4091300</v>
+        <v>4335200</v>
       </c>
       <c r="H26" s="3">
-        <v>4056900</v>
+        <v>4197900</v>
       </c>
       <c r="I26" s="3">
-        <v>3533500</v>
+        <v>4162600</v>
       </c>
       <c r="J26" s="3">
+        <v>3625500</v>
+      </c>
+      <c r="K26" s="3">
         <v>2333800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2153500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3407200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2971400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2404500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2986300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3218500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2915300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2147800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2857300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3268400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4989700</v>
+        <v>5009300</v>
       </c>
       <c r="E27" s="3">
-        <v>4799000</v>
+        <v>5119600</v>
       </c>
       <c r="F27" s="3">
-        <v>4222700</v>
+        <v>4923900</v>
       </c>
       <c r="G27" s="3">
-        <v>4088700</v>
+        <v>4332700</v>
       </c>
       <c r="H27" s="3">
-        <v>4055400</v>
+        <v>4195100</v>
       </c>
       <c r="I27" s="3">
-        <v>3532400</v>
+        <v>4161000</v>
       </c>
       <c r="J27" s="3">
+        <v>3624400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2333400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2153700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3406500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2970500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2404400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2986200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3217900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2914500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2147800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2857600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3267500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-166200</v>
+        <v>-190000</v>
       </c>
       <c r="E32" s="3">
-        <v>-190600</v>
+        <v>-170500</v>
       </c>
       <c r="F32" s="3">
-        <v>-199600</v>
+        <v>-195600</v>
       </c>
       <c r="G32" s="3">
-        <v>-145300</v>
+        <v>-204800</v>
       </c>
       <c r="H32" s="3">
-        <v>-181100</v>
+        <v>-149100</v>
       </c>
       <c r="I32" s="3">
-        <v>-185100</v>
+        <v>-185800</v>
       </c>
       <c r="J32" s="3">
+        <v>-189900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-178600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-168900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-164700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-146400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-126000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-130500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-116900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-107200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-120000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-107600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-98400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4989700</v>
+        <v>5009300</v>
       </c>
       <c r="E33" s="3">
-        <v>4799000</v>
+        <v>5119600</v>
       </c>
       <c r="F33" s="3">
-        <v>4222700</v>
+        <v>4923900</v>
       </c>
       <c r="G33" s="3">
-        <v>4088700</v>
+        <v>4332700</v>
       </c>
       <c r="H33" s="3">
-        <v>4055400</v>
+        <v>4195100</v>
       </c>
       <c r="I33" s="3">
-        <v>3532400</v>
+        <v>4161000</v>
       </c>
       <c r="J33" s="3">
+        <v>3624400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2333400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2153700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3406500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2970500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2404400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2986200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3217900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2914500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2147800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2857600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3267500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4989700</v>
+        <v>5009300</v>
       </c>
       <c r="E35" s="3">
-        <v>4799000</v>
+        <v>5119600</v>
       </c>
       <c r="F35" s="3">
-        <v>4222700</v>
+        <v>4923900</v>
       </c>
       <c r="G35" s="3">
-        <v>4088700</v>
+        <v>4332700</v>
       </c>
       <c r="H35" s="3">
-        <v>4055400</v>
+        <v>4195100</v>
       </c>
       <c r="I35" s="3">
-        <v>3532400</v>
+        <v>4161000</v>
       </c>
       <c r="J35" s="3">
+        <v>3624400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2333400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2153700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3406500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2970500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2404400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2986200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3217900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2914500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2147800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2857600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3267500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>23073000</v>
+        <v>23837100</v>
       </c>
       <c r="E41" s="3">
-        <v>21116600</v>
+        <v>23673700</v>
       </c>
       <c r="F41" s="3">
-        <v>16343100</v>
+        <v>21666400</v>
       </c>
       <c r="G41" s="3">
-        <v>15055700</v>
+        <v>16768600</v>
       </c>
       <c r="H41" s="3">
-        <v>15916200</v>
+        <v>15447700</v>
       </c>
       <c r="I41" s="3">
-        <v>15812400</v>
+        <v>16330600</v>
       </c>
       <c r="J41" s="3">
+        <v>16224200</v>
+      </c>
+      <c r="K41" s="3">
         <v>22706900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22650100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19686100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16299200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21028000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19217100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17935400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13225800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18488800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18415700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17650300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4883300</v>
+        <v>5272600</v>
       </c>
       <c r="E42" s="3">
-        <v>5080900</v>
+        <v>5010500</v>
       </c>
       <c r="F42" s="3">
-        <v>5140600</v>
+        <v>5213200</v>
       </c>
       <c r="G42" s="3">
-        <v>4902000</v>
+        <v>5274400</v>
       </c>
       <c r="H42" s="3">
-        <v>4850300</v>
+        <v>5029600</v>
       </c>
       <c r="I42" s="3">
-        <v>5243100</v>
+        <v>4976600</v>
       </c>
       <c r="J42" s="3">
+        <v>5379600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4532100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4384600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4628600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4342600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4313700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3928700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3325800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3200600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2937600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3206500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3091300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5105800</v>
+        <v>6007700</v>
       </c>
       <c r="E43" s="3">
-        <v>5683500</v>
+        <v>5238800</v>
       </c>
       <c r="F43" s="3">
-        <v>5318700</v>
+        <v>5831500</v>
       </c>
       <c r="G43" s="3">
-        <v>5119500</v>
+        <v>5457200</v>
       </c>
       <c r="H43" s="3">
-        <v>4886800</v>
+        <v>5252800</v>
       </c>
       <c r="I43" s="3">
-        <v>5084500</v>
+        <v>5014000</v>
       </c>
       <c r="J43" s="3">
+        <v>5216800</v>
+      </c>
+      <c r="K43" s="3">
         <v>4112700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3746200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4404000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4322300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3039400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3589100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3969900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3853300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3625400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3559800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4221400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>4800500</v>
+        <v>5542800</v>
       </c>
       <c r="E44" s="3">
-        <v>3827400</v>
+        <v>4925500</v>
       </c>
       <c r="F44" s="3">
-        <v>2998300</v>
+        <v>3927000</v>
       </c>
       <c r="G44" s="3">
-        <v>2735800</v>
+        <v>3076400</v>
       </c>
       <c r="H44" s="3">
-        <v>2900200</v>
+        <v>2807000</v>
       </c>
       <c r="I44" s="3">
-        <v>3379200</v>
+        <v>2975700</v>
       </c>
       <c r="J44" s="3">
+        <v>3467200</v>
+      </c>
+      <c r="K44" s="3">
         <v>3782700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3812600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3517100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3513000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3293800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2834300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2394500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2394900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1977400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1643200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1587500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>309300</v>
+        <v>212500</v>
       </c>
       <c r="E45" s="3">
-        <v>278700</v>
+        <v>317300</v>
       </c>
       <c r="F45" s="3">
-        <v>257400</v>
+        <v>285900</v>
       </c>
       <c r="G45" s="3">
-        <v>233400</v>
+        <v>264100</v>
       </c>
       <c r="H45" s="3">
-        <v>196900</v>
+        <v>239500</v>
       </c>
       <c r="I45" s="3">
-        <v>168300</v>
+        <v>202000</v>
       </c>
       <c r="J45" s="3">
+        <v>172700</v>
+      </c>
+      <c r="K45" s="3">
         <v>171400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>182200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>187900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>178000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>222900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1333300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>156400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>170000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>132000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>99600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>115600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>38171900</v>
+        <v>40872800</v>
       </c>
       <c r="E46" s="3">
-        <v>35987100</v>
+        <v>39165800</v>
       </c>
       <c r="F46" s="3">
-        <v>30058100</v>
+        <v>36924100</v>
       </c>
       <c r="G46" s="3">
-        <v>28046300</v>
+        <v>30840700</v>
       </c>
       <c r="H46" s="3">
-        <v>28750400</v>
+        <v>28776600</v>
       </c>
       <c r="I46" s="3">
-        <v>29687500</v>
+        <v>29498900</v>
       </c>
       <c r="J46" s="3">
+        <v>30460500</v>
+      </c>
+      <c r="K46" s="3">
         <v>35305800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34775700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32423700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28655100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31897800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30902400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27782000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22844600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>27161200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>26924800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>26666100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>969100</v>
+        <v>1044600</v>
       </c>
       <c r="E47" s="3">
-        <v>926700</v>
+        <v>994300</v>
       </c>
       <c r="F47" s="3">
-        <v>800900</v>
+        <v>950800</v>
       </c>
       <c r="G47" s="3">
-        <v>1084600</v>
+        <v>821800</v>
       </c>
       <c r="H47" s="3">
-        <v>1054500</v>
+        <v>1112900</v>
       </c>
       <c r="I47" s="3">
-        <v>1053200</v>
+        <v>1082000</v>
       </c>
       <c r="J47" s="3">
+        <v>1080600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1024600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1053800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>998400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>993900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>959100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1143400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1347300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1325700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1420200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1451800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1505100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>55336900</v>
+        <v>60633300</v>
       </c>
       <c r="E48" s="3">
-        <v>53307900</v>
+        <v>56777800</v>
       </c>
       <c r="F48" s="3">
-        <v>52935200</v>
+        <v>54695900</v>
       </c>
       <c r="G48" s="3">
-        <v>51024800</v>
+        <v>54313500</v>
       </c>
       <c r="H48" s="3">
-        <v>47867900</v>
+        <v>52353300</v>
       </c>
       <c r="I48" s="3">
-        <v>42480400</v>
+        <v>49114200</v>
       </c>
       <c r="J48" s="3">
+        <v>43586500</v>
+      </c>
+      <c r="K48" s="3">
         <v>40573900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>39524500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36524800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34968000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34399800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35101500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34437000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34541200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34925900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>33828400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32537500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>900600</v>
+        <v>897000</v>
       </c>
       <c r="E49" s="3">
-        <v>920600</v>
+        <v>924000</v>
       </c>
       <c r="F49" s="3">
-        <v>957500</v>
+        <v>944500</v>
       </c>
       <c r="G49" s="3">
-        <v>951800</v>
+        <v>982400</v>
       </c>
       <c r="H49" s="3">
-        <v>721800</v>
+        <v>976500</v>
       </c>
       <c r="I49" s="3">
-        <v>632400</v>
+        <v>740600</v>
       </c>
       <c r="J49" s="3">
+        <v>648800</v>
+      </c>
+      <c r="K49" s="3">
         <v>611700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>630500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>579300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>466500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>458700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>454800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>459400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>481000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>457600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>465600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>476600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1108300</v>
+        <v>1232400</v>
       </c>
       <c r="E52" s="3">
-        <v>971000</v>
+        <v>1137200</v>
       </c>
       <c r="F52" s="3">
-        <v>829100</v>
+        <v>996300</v>
       </c>
       <c r="G52" s="3">
-        <v>790700</v>
+        <v>850700</v>
       </c>
       <c r="H52" s="3">
-        <v>760400</v>
+        <v>811300</v>
       </c>
       <c r="I52" s="3">
-        <v>738000</v>
+        <v>780200</v>
       </c>
       <c r="J52" s="3">
+        <v>757200</v>
+      </c>
+      <c r="K52" s="3">
         <v>749100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>750900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>684500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>612200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>581200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>552800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>530600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>488100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>415500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>418700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>332000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>96486900</v>
+        <v>104680100</v>
       </c>
       <c r="E54" s="3">
-        <v>92113200</v>
+        <v>98999100</v>
       </c>
       <c r="F54" s="3">
-        <v>85580800</v>
+        <v>94511600</v>
       </c>
       <c r="G54" s="3">
-        <v>81898200</v>
+        <v>87809100</v>
       </c>
       <c r="H54" s="3">
-        <v>79154900</v>
+        <v>84030600</v>
       </c>
       <c r="I54" s="3">
-        <v>74591500</v>
+        <v>81215900</v>
       </c>
       <c r="J54" s="3">
+        <v>76533600</v>
+      </c>
+      <c r="K54" s="3">
         <v>78265100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>76735300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71210700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65695800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68296500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>68154900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>64556200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>59680600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>64380300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>63089400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>61517300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1436300</v>
+        <v>1384100</v>
       </c>
       <c r="E57" s="3">
-        <v>1429200</v>
+        <v>1473700</v>
       </c>
       <c r="F57" s="3">
-        <v>1381700</v>
+        <v>1466400</v>
       </c>
       <c r="G57" s="3">
-        <v>1390100</v>
+        <v>1417700</v>
       </c>
       <c r="H57" s="3">
-        <v>1405200</v>
+        <v>1426300</v>
       </c>
       <c r="I57" s="3">
-        <v>1291700</v>
+        <v>1441800</v>
       </c>
       <c r="J57" s="3">
+        <v>1325300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1138300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>970400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1170600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1010700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1019900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>965900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>974500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>939500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>830100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>790900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>891100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3249900</v>
+        <v>4985300</v>
       </c>
       <c r="E58" s="3">
-        <v>5581500</v>
+        <v>3334500</v>
       </c>
       <c r="F58" s="3">
-        <v>6669300</v>
+        <v>5726800</v>
       </c>
       <c r="G58" s="3">
-        <v>5502000</v>
+        <v>6843000</v>
       </c>
       <c r="H58" s="3">
-        <v>5333300</v>
+        <v>5645200</v>
       </c>
       <c r="I58" s="3">
-        <v>4192400</v>
+        <v>5472100</v>
       </c>
       <c r="J58" s="3">
+        <v>4301600</v>
+      </c>
+      <c r="K58" s="3">
         <v>4510200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4468900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4212900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3631000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1554400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3528500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3959500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3678600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4362700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3247200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3132800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>16883300</v>
+        <v>17357300</v>
       </c>
       <c r="E59" s="3">
-        <v>13548400</v>
+        <v>17322900</v>
       </c>
       <c r="F59" s="3">
-        <v>13436100</v>
+        <v>13901200</v>
       </c>
       <c r="G59" s="3">
-        <v>13709800</v>
+        <v>13785900</v>
       </c>
       <c r="H59" s="3">
-        <v>13907700</v>
+        <v>14066800</v>
       </c>
       <c r="I59" s="3">
-        <v>11808500</v>
+        <v>14269900</v>
       </c>
       <c r="J59" s="3">
+        <v>12116000</v>
+      </c>
+      <c r="K59" s="3">
         <v>16099400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7830300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6218800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6084700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12825000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6888300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6691700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5057000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11774100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6448700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6354000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>21569400</v>
+        <v>23726700</v>
       </c>
       <c r="E60" s="3">
-        <v>20559000</v>
+        <v>22131000</v>
       </c>
       <c r="F60" s="3">
-        <v>21487100</v>
+        <v>21094300</v>
       </c>
       <c r="G60" s="3">
-        <v>20601900</v>
+        <v>22046600</v>
       </c>
       <c r="H60" s="3">
-        <v>20646200</v>
+        <v>21138300</v>
       </c>
       <c r="I60" s="3">
-        <v>17292600</v>
+        <v>21183800</v>
       </c>
       <c r="J60" s="3">
+        <v>17742900</v>
+      </c>
+      <c r="K60" s="3">
         <v>21747900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13269600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11602300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10726400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15399300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11382700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11625700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9675100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16966900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10486700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10377800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9668300</v>
+        <v>10777300</v>
       </c>
       <c r="E61" s="3">
-        <v>8639900</v>
+        <v>9920100</v>
       </c>
       <c r="F61" s="3">
-        <v>3551100</v>
+        <v>8864900</v>
       </c>
       <c r="G61" s="3">
-        <v>2305500</v>
+        <v>3643500</v>
       </c>
       <c r="H61" s="3">
-        <v>1403000</v>
+        <v>2365500</v>
       </c>
       <c r="I61" s="3">
-        <v>1402600</v>
+        <v>1439500</v>
       </c>
       <c r="J61" s="3">
+        <v>1439100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1772200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1831400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1938600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1897600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>2773900</v>
       </c>
       <c r="O61" s="3">
         <v>2773900</v>
       </c>
       <c r="P61" s="3">
+        <v>2773900</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2975200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2975700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3218900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4376900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4993100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>569900</v>
+        <v>571900</v>
       </c>
       <c r="E62" s="3">
-        <v>414300</v>
+        <v>584700</v>
       </c>
       <c r="F62" s="3">
-        <v>386200</v>
+        <v>425100</v>
       </c>
       <c r="G62" s="3">
-        <v>378600</v>
+        <v>396300</v>
       </c>
       <c r="H62" s="3">
-        <v>413500</v>
+        <v>388500</v>
       </c>
       <c r="I62" s="3">
-        <v>413300</v>
+        <v>424300</v>
       </c>
       <c r="J62" s="3">
+        <v>424000</v>
+      </c>
+      <c r="K62" s="3">
         <v>418000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>471600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>517500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>517900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>544800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>562600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>602700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>637700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>688500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>735500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>816900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>31841300</v>
+        <v>35149800</v>
       </c>
       <c r="E66" s="3">
-        <v>29645000</v>
+        <v>32670400</v>
       </c>
       <c r="F66" s="3">
-        <v>25453600</v>
+        <v>30416900</v>
       </c>
       <c r="G66" s="3">
-        <v>23312700</v>
+        <v>26116400</v>
       </c>
       <c r="H66" s="3">
-        <v>22486700</v>
+        <v>23919700</v>
       </c>
       <c r="I66" s="3">
-        <v>19130900</v>
+        <v>23072100</v>
       </c>
       <c r="J66" s="3">
+        <v>19629000</v>
+      </c>
+      <c r="K66" s="3">
         <v>23959200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15596300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14081500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13163800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18739100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14742700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15226400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13311000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20896300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15625100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16213900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>55524600</v>
+        <v>59644900</v>
       </c>
       <c r="E72" s="3">
-        <v>52913500</v>
+        <v>56970300</v>
       </c>
       <c r="F72" s="3">
-        <v>50380100</v>
+        <v>54291200</v>
       </c>
       <c r="G72" s="3">
-        <v>48423100</v>
+        <v>51691900</v>
       </c>
       <c r="H72" s="3">
-        <v>46600100</v>
+        <v>49683900</v>
       </c>
       <c r="I72" s="3">
-        <v>44802600</v>
+        <v>47813400</v>
       </c>
       <c r="J72" s="3">
+        <v>45969200</v>
+      </c>
+      <c r="K72" s="3">
         <v>43532900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50443200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46902400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42612600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>39561800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44059200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>39973300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36763300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33848900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>37815800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>34958200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>64645500</v>
+        <v>69530300</v>
       </c>
       <c r="E76" s="3">
-        <v>62468300</v>
+        <v>66328700</v>
       </c>
       <c r="F76" s="3">
-        <v>60127200</v>
+        <v>64094800</v>
       </c>
       <c r="G76" s="3">
-        <v>58585500</v>
+        <v>61692800</v>
       </c>
       <c r="H76" s="3">
-        <v>56668300</v>
+        <v>60110900</v>
       </c>
       <c r="I76" s="3">
-        <v>55460600</v>
+        <v>58143800</v>
       </c>
       <c r="J76" s="3">
+        <v>56904700</v>
+      </c>
+      <c r="K76" s="3">
         <v>54305800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>61139000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>57129200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52532000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49557500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>53412200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>49329900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>46369500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43484000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>47464300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>45303400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4989700</v>
+        <v>5009300</v>
       </c>
       <c r="E81" s="3">
-        <v>4799000</v>
+        <v>5119600</v>
       </c>
       <c r="F81" s="3">
-        <v>4222700</v>
+        <v>4923900</v>
       </c>
       <c r="G81" s="3">
-        <v>4088700</v>
+        <v>4332700</v>
       </c>
       <c r="H81" s="3">
-        <v>4055400</v>
+        <v>4195100</v>
       </c>
       <c r="I81" s="3">
-        <v>3532400</v>
+        <v>4161000</v>
       </c>
       <c r="J81" s="3">
+        <v>3624400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2333400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2153700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3406500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2970500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2404400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2986200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3217900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2914500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2147800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2857600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3267500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3409800</v>
+        <v>3618300</v>
       </c>
       <c r="E83" s="3">
-        <v>3310900</v>
+        <v>3498600</v>
       </c>
       <c r="F83" s="3">
-        <v>2477100</v>
+        <v>3397100</v>
       </c>
       <c r="G83" s="3">
-        <v>2396000</v>
+        <v>2541600</v>
       </c>
       <c r="H83" s="3">
-        <v>2360200</v>
+        <v>2458400</v>
       </c>
       <c r="I83" s="3">
-        <v>2333100</v>
+        <v>2421700</v>
       </c>
       <c r="J83" s="3">
+        <v>2393900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2622900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2720400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2590300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2454900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2375100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2378000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2295100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2306400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1879500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1962200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1840400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>9056600</v>
+        <v>8169500</v>
       </c>
       <c r="E89" s="3">
-        <v>6646500</v>
+        <v>9292400</v>
       </c>
       <c r="F89" s="3">
-        <v>5953200</v>
+        <v>6819500</v>
       </c>
       <c r="G89" s="3">
-        <v>7095900</v>
+        <v>6108200</v>
       </c>
       <c r="H89" s="3">
-        <v>7093300</v>
+        <v>7280600</v>
       </c>
       <c r="I89" s="3">
-        <v>4954300</v>
+        <v>7277900</v>
       </c>
       <c r="J89" s="3">
+        <v>5083300</v>
+      </c>
+      <c r="K89" s="3">
         <v>4115700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5355700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6451900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3137700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4316300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5345700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6615700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3785000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3351200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5250500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6040000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-3099200</v>
+        <v>-8894300</v>
       </c>
       <c r="E91" s="3">
-        <v>-3470700</v>
+        <v>-3179900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4428100</v>
+        <v>-3561100</v>
       </c>
       <c r="G91" s="3">
-        <v>-6730000</v>
+        <v>-4543400</v>
       </c>
       <c r="H91" s="3">
-        <v>-5941800</v>
+        <v>-6905200</v>
       </c>
       <c r="I91" s="3">
-        <v>-3429200</v>
+        <v>-6096500</v>
       </c>
       <c r="J91" s="3">
+        <v>-3518500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4066500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2664000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3887600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2332800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3179000</v>
+        <v>-8758900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3358000</v>
+        <v>-3261800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4534800</v>
+        <v>-3445400</v>
       </c>
       <c r="G94" s="3">
-        <v>-6605300</v>
+        <v>-4652800</v>
       </c>
       <c r="H94" s="3">
-        <v>-5997600</v>
+        <v>-6777300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3784700</v>
+        <v>-6153800</v>
       </c>
       <c r="J94" s="3">
+        <v>-3883300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4009400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2251700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3995100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2116800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5316,28 +5549,29 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2265700</v>
+        <v>-2324700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2265700</v>
+        <v>-2324700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2265700</v>
+        <v>-2324700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2265700</v>
+        <v>-2324700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1812500</v>
+        <v>-2324700</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1859700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-3537100</v>
+        <v>524200</v>
       </c>
       <c r="E100" s="3">
-        <v>1657800</v>
+        <v>-3629200</v>
       </c>
       <c r="F100" s="3">
-        <v>206600</v>
+        <v>1701000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1424500</v>
+        <v>212000</v>
       </c>
       <c r="H100" s="3">
-        <v>-600500</v>
+        <v>-1461600</v>
       </c>
       <c r="I100" s="3">
-        <v>-8007500</v>
+        <v>-616200</v>
       </c>
       <c r="J100" s="3">
+        <v>-8216000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-32500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-786200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>486600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5750700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-976100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>312600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-388400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>792500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-384200</v>
+        <v>228600</v>
       </c>
       <c r="E101" s="3">
-        <v>-172800</v>
+        <v>-394200</v>
       </c>
       <c r="F101" s="3">
-        <v>-337600</v>
+        <v>-177300</v>
       </c>
       <c r="G101" s="3">
-        <v>73400</v>
+        <v>-346400</v>
       </c>
       <c r="H101" s="3">
-        <v>-391400</v>
+        <v>75300</v>
       </c>
       <c r="I101" s="3">
-        <v>-56500</v>
+        <v>-401500</v>
       </c>
       <c r="J101" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="K101" s="3">
         <v>66900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>62700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>91600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-55800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>468800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-174600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-175200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-23200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>38900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-534700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>204200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1956300</v>
+        <v>163400</v>
       </c>
       <c r="E102" s="3">
-        <v>4773500</v>
+        <v>2007300</v>
       </c>
       <c r="F102" s="3">
-        <v>1287400</v>
+        <v>4897800</v>
       </c>
       <c r="G102" s="3">
-        <v>-860500</v>
+        <v>1320900</v>
       </c>
       <c r="H102" s="3">
-        <v>103800</v>
+        <v>-882900</v>
       </c>
       <c r="I102" s="3">
-        <v>-6894500</v>
+        <v>106500</v>
       </c>
       <c r="J102" s="3">
+        <v>-7074000</v>
+      </c>
+      <c r="K102" s="3">
         <v>140700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2380400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3035000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4785700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1810900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>811300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4709600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>186100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>765400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2520200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5165000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,294 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12996000</v>
+        <v>13278100</v>
       </c>
       <c r="E8" s="3">
-        <v>12964600</v>
+        <v>12930800</v>
       </c>
       <c r="F8" s="3">
-        <v>12781400</v>
+        <v>12899500</v>
       </c>
       <c r="G8" s="3">
-        <v>11141600</v>
+        <v>12717300</v>
       </c>
       <c r="H8" s="3">
-        <v>11138000</v>
+        <v>11085700</v>
       </c>
       <c r="I8" s="3">
-        <v>11376100</v>
+        <v>11082100</v>
       </c>
       <c r="J8" s="3">
+        <v>11319000</v>
+      </c>
+      <c r="K8" s="3">
         <v>10508600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8422900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7672200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9872500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8682600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7758800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8251100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8996100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8170800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6931000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7627900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8551200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6190700</v>
+        <v>6633300</v>
       </c>
       <c r="E9" s="3">
-        <v>5965100</v>
+        <v>6159600</v>
       </c>
       <c r="F9" s="3">
-        <v>5950800</v>
+        <v>5935200</v>
       </c>
       <c r="G9" s="3">
-        <v>5235800</v>
+        <v>5920900</v>
       </c>
       <c r="H9" s="3">
-        <v>5372300</v>
+        <v>5209500</v>
       </c>
       <c r="I9" s="3">
-        <v>5665700</v>
+        <v>5345300</v>
       </c>
       <c r="J9" s="3">
+        <v>5637300</v>
+      </c>
+      <c r="K9" s="3">
         <v>5508600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4799500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4502600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5169400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4567900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4047400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4094400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4500300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4091100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3406400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3666300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4080100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6805300</v>
+        <v>6644800</v>
       </c>
       <c r="E10" s="3">
-        <v>6999500</v>
+        <v>6771200</v>
       </c>
       <c r="F10" s="3">
-        <v>6830600</v>
+        <v>6964300</v>
       </c>
       <c r="G10" s="3">
-        <v>5905900</v>
+        <v>6796400</v>
       </c>
       <c r="H10" s="3">
-        <v>5765700</v>
+        <v>5876200</v>
       </c>
       <c r="I10" s="3">
-        <v>5710400</v>
+        <v>5736800</v>
       </c>
       <c r="J10" s="3">
+        <v>5681700</v>
+      </c>
+      <c r="K10" s="3">
         <v>5000000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3623400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3169600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4703100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4114800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3711400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4156700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4495800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4079700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3524700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3961600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4471200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +975,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1102900</v>
+        <v>1101600</v>
       </c>
       <c r="E12" s="3">
-        <v>1073700</v>
+        <v>1097400</v>
       </c>
       <c r="F12" s="3">
-        <v>1064500</v>
+        <v>1068300</v>
       </c>
       <c r="G12" s="3">
-        <v>892700</v>
+        <v>1059100</v>
       </c>
       <c r="H12" s="3">
-        <v>895400</v>
+        <v>888200</v>
       </c>
       <c r="I12" s="3">
-        <v>919300</v>
+        <v>890900</v>
       </c>
       <c r="J12" s="3">
+        <v>914700</v>
+      </c>
+      <c r="K12" s="3">
         <v>859600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>747700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>716200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>807100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>729900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>661600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>679500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>687600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>682100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>617700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>633000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>650900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,41 +1103,44 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
       </c>
       <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>-10600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1129,42 +1148,45 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>-100</v>
       </c>
       <c r="R14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E15" s="3">
         <v>2600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1182,14 +1204,14 @@
         <v>200</v>
       </c>
       <c r="M15" s="3">
+        <v>200</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1211,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7597700</v>
+        <v>8080600</v>
       </c>
       <c r="E17" s="3">
-        <v>7330200</v>
+        <v>7559600</v>
       </c>
       <c r="F17" s="3">
-        <v>7400900</v>
+        <v>7293400</v>
       </c>
       <c r="G17" s="3">
-        <v>6440500</v>
+        <v>7363700</v>
       </c>
       <c r="H17" s="3">
-        <v>6529300</v>
+        <v>6408200</v>
       </c>
       <c r="I17" s="3">
-        <v>6920700</v>
+        <v>6496500</v>
       </c>
       <c r="J17" s="3">
+        <v>6886000</v>
+      </c>
+      <c r="K17" s="3">
         <v>6639900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5756200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5417700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6222800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5506100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4950700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5030600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5466600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4992900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4232700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4518900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4969300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5398300</v>
+        <v>5197500</v>
       </c>
       <c r="E18" s="3">
-        <v>5634400</v>
+        <v>5371200</v>
       </c>
       <c r="F18" s="3">
-        <v>5380600</v>
+        <v>5606100</v>
       </c>
       <c r="G18" s="3">
-        <v>4701100</v>
+        <v>5353500</v>
       </c>
       <c r="H18" s="3">
-        <v>4608700</v>
+        <v>4677500</v>
       </c>
       <c r="I18" s="3">
-        <v>4455400</v>
+        <v>4585600</v>
       </c>
       <c r="J18" s="3">
+        <v>4433100</v>
+      </c>
+      <c r="K18" s="3">
         <v>3868700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2666700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2254500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3649700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3176500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2808100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3220500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3529400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3177900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2698300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3109000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3581900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,318 +1412,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>190000</v>
+        <v>173200</v>
       </c>
       <c r="E20" s="3">
-        <v>170500</v>
+        <v>189000</v>
       </c>
       <c r="F20" s="3">
-        <v>195600</v>
+        <v>169700</v>
       </c>
       <c r="G20" s="3">
-        <v>204800</v>
+        <v>194600</v>
       </c>
       <c r="H20" s="3">
-        <v>149100</v>
+        <v>203800</v>
       </c>
       <c r="I20" s="3">
-        <v>185800</v>
+        <v>148300</v>
       </c>
       <c r="J20" s="3">
+        <v>184900</v>
+      </c>
+      <c r="K20" s="3">
         <v>189900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>178600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>168900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>164700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>146400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>126000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>130500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>116900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>107200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>120000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>107600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>98400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>9206600</v>
+        <v>9074500</v>
       </c>
       <c r="E21" s="3">
-        <v>9303400</v>
+        <v>9160400</v>
       </c>
       <c r="F21" s="3">
-        <v>8973300</v>
+        <v>9256700</v>
       </c>
       <c r="G21" s="3">
-        <v>7447500</v>
+        <v>8928200</v>
       </c>
       <c r="H21" s="3">
-        <v>7216200</v>
+        <v>7410100</v>
       </c>
       <c r="I21" s="3">
-        <v>7062900</v>
+        <v>7180000</v>
       </c>
       <c r="J21" s="3">
+        <v>7027400</v>
+      </c>
+      <c r="K21" s="3">
         <v>6452500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5468200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5143700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6404700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5777700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5309100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5729000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5941400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5591600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4697800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5178800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5520800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>27700</v>
+        <v>40500</v>
       </c>
       <c r="E22" s="3">
-        <v>27600</v>
+        <v>27500</v>
       </c>
       <c r="F22" s="3">
-        <v>13400</v>
+        <v>27400</v>
       </c>
       <c r="G22" s="3">
-        <v>14700</v>
+        <v>13300</v>
       </c>
       <c r="H22" s="3">
-        <v>19000</v>
+        <v>14600</v>
       </c>
       <c r="I22" s="3">
-        <v>23100</v>
+        <v>18900</v>
       </c>
       <c r="J22" s="3">
-        <v>30200</v>
+        <v>23000</v>
       </c>
       <c r="K22" s="3">
         <v>30200</v>
       </c>
       <c r="L22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="M22" s="3">
         <v>31500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>29800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>26900</v>
       </c>
       <c r="Q22" s="3">
         <v>26900</v>
       </c>
       <c r="R22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="S22" s="3">
         <v>27300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>27200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>26600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>26500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>5560600</v>
+        <v>5330300</v>
       </c>
       <c r="E23" s="3">
-        <v>5777300</v>
+        <v>5532700</v>
       </c>
       <c r="F23" s="3">
-        <v>5562700</v>
+        <v>5748300</v>
       </c>
       <c r="G23" s="3">
-        <v>4891300</v>
+        <v>5534800</v>
       </c>
       <c r="H23" s="3">
-        <v>4738800</v>
+        <v>4866700</v>
       </c>
       <c r="I23" s="3">
-        <v>4618100</v>
+        <v>4715000</v>
       </c>
       <c r="J23" s="3">
+        <v>4594900</v>
+      </c>
+      <c r="K23" s="3">
         <v>4028400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2815100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2391800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3784600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3298200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2913200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3324100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3619400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3257800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2791100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3190000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3653900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>549600</v>
+        <v>532000</v>
       </c>
       <c r="E24" s="3">
-        <v>655600</v>
+        <v>546800</v>
       </c>
       <c r="F24" s="3">
-        <v>636400</v>
+        <v>652300</v>
       </c>
       <c r="G24" s="3">
-        <v>556000</v>
+        <v>633200</v>
       </c>
       <c r="H24" s="3">
-        <v>540900</v>
+        <v>553300</v>
       </c>
       <c r="I24" s="3">
-        <v>455600</v>
+        <v>538200</v>
       </c>
       <c r="J24" s="3">
+        <v>453300</v>
+      </c>
+      <c r="K24" s="3">
         <v>402800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>481200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>238300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>377400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>326800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>508700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>337800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>342500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>643200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>332700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>385400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5011000</v>
+        <v>4798300</v>
       </c>
       <c r="E26" s="3">
-        <v>5121700</v>
+        <v>4985900</v>
       </c>
       <c r="F26" s="3">
-        <v>4926400</v>
+        <v>5096000</v>
       </c>
       <c r="G26" s="3">
-        <v>4335200</v>
+        <v>4901700</v>
       </c>
       <c r="H26" s="3">
-        <v>4197900</v>
+        <v>4313400</v>
       </c>
       <c r="I26" s="3">
-        <v>4162600</v>
+        <v>4176800</v>
       </c>
       <c r="J26" s="3">
+        <v>4141700</v>
+      </c>
+      <c r="K26" s="3">
         <v>3625500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2333800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2153500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3407200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2971400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2404500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2986300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3218500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2915300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2147800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2857300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3268400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5009300</v>
+        <v>4793900</v>
       </c>
       <c r="E27" s="3">
-        <v>5119600</v>
+        <v>4984200</v>
       </c>
       <c r="F27" s="3">
-        <v>4923900</v>
+        <v>5093900</v>
       </c>
       <c r="G27" s="3">
-        <v>4332700</v>
+        <v>4899200</v>
       </c>
       <c r="H27" s="3">
-        <v>4195100</v>
+        <v>4310900</v>
       </c>
       <c r="I27" s="3">
-        <v>4161000</v>
+        <v>4174100</v>
       </c>
       <c r="J27" s="3">
+        <v>4140100</v>
+      </c>
+      <c r="K27" s="3">
         <v>3624400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2333400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2153700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3406500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2970500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2404400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2986200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3217900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2914500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2147800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2857600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3267500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-190000</v>
+        <v>-173200</v>
       </c>
       <c r="E32" s="3">
-        <v>-170500</v>
+        <v>-189000</v>
       </c>
       <c r="F32" s="3">
-        <v>-195600</v>
+        <v>-169700</v>
       </c>
       <c r="G32" s="3">
-        <v>-204800</v>
+        <v>-194600</v>
       </c>
       <c r="H32" s="3">
-        <v>-149100</v>
+        <v>-203800</v>
       </c>
       <c r="I32" s="3">
-        <v>-185800</v>
+        <v>-148300</v>
       </c>
       <c r="J32" s="3">
+        <v>-184900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-189900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-178600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-168900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-164700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-146400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-126000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-130500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-116900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-107200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-120000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-107600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-98400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5009300</v>
+        <v>4793900</v>
       </c>
       <c r="E33" s="3">
-        <v>5119600</v>
+        <v>4984200</v>
       </c>
       <c r="F33" s="3">
-        <v>4923900</v>
+        <v>5093900</v>
       </c>
       <c r="G33" s="3">
-        <v>4332700</v>
+        <v>4899200</v>
       </c>
       <c r="H33" s="3">
-        <v>4195100</v>
+        <v>4310900</v>
       </c>
       <c r="I33" s="3">
-        <v>4161000</v>
+        <v>4174100</v>
       </c>
       <c r="J33" s="3">
+        <v>4140100</v>
+      </c>
+      <c r="K33" s="3">
         <v>3624400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2333400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2153700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3406500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2970500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2404400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2986200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3217900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2914500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2147800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2857600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3267500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5009300</v>
+        <v>4793900</v>
       </c>
       <c r="E35" s="3">
-        <v>5119600</v>
+        <v>4984200</v>
       </c>
       <c r="F35" s="3">
-        <v>4923900</v>
+        <v>5093900</v>
       </c>
       <c r="G35" s="3">
-        <v>4332700</v>
+        <v>4899200</v>
       </c>
       <c r="H35" s="3">
-        <v>4195100</v>
+        <v>4310900</v>
       </c>
       <c r="I35" s="3">
-        <v>4161000</v>
+        <v>4174100</v>
       </c>
       <c r="J35" s="3">
+        <v>4140100</v>
+      </c>
+      <c r="K35" s="3">
         <v>3624400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2333400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2153700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3406500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2970500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2404400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2986200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3217900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2914500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2147800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2857600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3267500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,566 +2572,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>23837100</v>
+        <v>26688000</v>
       </c>
       <c r="E41" s="3">
-        <v>23673700</v>
+        <v>23717500</v>
       </c>
       <c r="F41" s="3">
-        <v>21666400</v>
+        <v>23554900</v>
       </c>
       <c r="G41" s="3">
-        <v>16768600</v>
+        <v>21557700</v>
       </c>
       <c r="H41" s="3">
-        <v>15447700</v>
+        <v>16684400</v>
       </c>
       <c r="I41" s="3">
-        <v>16330600</v>
+        <v>15370100</v>
       </c>
       <c r="J41" s="3">
+        <v>16248600</v>
+      </c>
+      <c r="K41" s="3">
         <v>16224200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22706900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22650100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19686100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16299200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21028000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19217100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17935400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13225800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18488800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18415700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17650300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>5272600</v>
+        <v>4825500</v>
       </c>
       <c r="E42" s="3">
-        <v>5010500</v>
+        <v>5246200</v>
       </c>
       <c r="F42" s="3">
-        <v>5213200</v>
+        <v>4985300</v>
       </c>
       <c r="G42" s="3">
-        <v>5274400</v>
+        <v>5187000</v>
       </c>
       <c r="H42" s="3">
-        <v>5029600</v>
+        <v>5248000</v>
       </c>
       <c r="I42" s="3">
-        <v>4976600</v>
+        <v>5004300</v>
       </c>
       <c r="J42" s="3">
+        <v>4951600</v>
+      </c>
+      <c r="K42" s="3">
         <v>5379600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4532100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4384600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4628600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4342600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4313700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3928700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3325800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3200600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2937600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3206500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3091300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6007700</v>
+        <v>6421400</v>
       </c>
       <c r="E43" s="3">
-        <v>5238800</v>
+        <v>5977500</v>
       </c>
       <c r="F43" s="3">
-        <v>5831500</v>
+        <v>5212500</v>
       </c>
       <c r="G43" s="3">
-        <v>5457200</v>
+        <v>5802200</v>
       </c>
       <c r="H43" s="3">
-        <v>5252800</v>
+        <v>5429800</v>
       </c>
       <c r="I43" s="3">
-        <v>5014000</v>
+        <v>5226400</v>
       </c>
       <c r="J43" s="3">
+        <v>4988900</v>
+      </c>
+      <c r="K43" s="3">
         <v>5216800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4112700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3746200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4404000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4322300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3039400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3589100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3969900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3853300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3625400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3559800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4221400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>5542800</v>
+        <v>6081300</v>
       </c>
       <c r="E44" s="3">
-        <v>4925500</v>
+        <v>5515000</v>
       </c>
       <c r="F44" s="3">
-        <v>3927000</v>
+        <v>4900800</v>
       </c>
       <c r="G44" s="3">
-        <v>3076400</v>
+        <v>3907300</v>
       </c>
       <c r="H44" s="3">
-        <v>2807000</v>
+        <v>3060900</v>
       </c>
       <c r="I44" s="3">
-        <v>2975700</v>
+        <v>2793000</v>
       </c>
       <c r="J44" s="3">
+        <v>2960800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3467200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3782700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3812600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3517100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3513000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3293800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2834300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2394500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2394900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1977400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1643200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1587500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>212500</v>
+        <v>266400</v>
       </c>
       <c r="E45" s="3">
-        <v>317300</v>
+        <v>211400</v>
       </c>
       <c r="F45" s="3">
-        <v>285900</v>
+        <v>315800</v>
       </c>
       <c r="G45" s="3">
-        <v>264100</v>
+        <v>284500</v>
       </c>
       <c r="H45" s="3">
-        <v>239500</v>
+        <v>262800</v>
       </c>
       <c r="I45" s="3">
-        <v>202000</v>
+        <v>238300</v>
       </c>
       <c r="J45" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K45" s="3">
         <v>172700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>171400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>182200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>187900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>178000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>222900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1333300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>156400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>170000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>132000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>99600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>115600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>40872800</v>
+        <v>44282600</v>
       </c>
       <c r="E46" s="3">
-        <v>39165800</v>
+        <v>40667600</v>
       </c>
       <c r="F46" s="3">
-        <v>36924100</v>
+        <v>38969200</v>
       </c>
       <c r="G46" s="3">
-        <v>30840700</v>
+        <v>36738800</v>
       </c>
       <c r="H46" s="3">
-        <v>28776600</v>
+        <v>30685900</v>
       </c>
       <c r="I46" s="3">
-        <v>29498900</v>
+        <v>28632100</v>
       </c>
       <c r="J46" s="3">
+        <v>29350900</v>
+      </c>
+      <c r="K46" s="3">
         <v>30460500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35305800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34775700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32423700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28655100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31897800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30902400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27782000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22844600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27161200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>26924800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>26666100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1044600</v>
+        <v>1037000</v>
       </c>
       <c r="E47" s="3">
-        <v>994300</v>
+        <v>1039400</v>
       </c>
       <c r="F47" s="3">
-        <v>950800</v>
+        <v>989300</v>
       </c>
       <c r="G47" s="3">
-        <v>821800</v>
+        <v>946000</v>
       </c>
       <c r="H47" s="3">
-        <v>1112900</v>
+        <v>817700</v>
       </c>
       <c r="I47" s="3">
-        <v>1082000</v>
+        <v>1107300</v>
       </c>
       <c r="J47" s="3">
+        <v>1076500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1080600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1024600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1053800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>998400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>993900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>959100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1143400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1347300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1325700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1420200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1451800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1505100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>60633300</v>
+        <v>62629000</v>
       </c>
       <c r="E48" s="3">
-        <v>56777800</v>
+        <v>60328900</v>
       </c>
       <c r="F48" s="3">
-        <v>54695900</v>
+        <v>56492800</v>
       </c>
       <c r="G48" s="3">
-        <v>54313500</v>
+        <v>54421400</v>
       </c>
       <c r="H48" s="3">
-        <v>52353300</v>
+        <v>54040900</v>
       </c>
       <c r="I48" s="3">
-        <v>49114200</v>
+        <v>52090500</v>
       </c>
       <c r="J48" s="3">
+        <v>48867700</v>
+      </c>
+      <c r="K48" s="3">
         <v>43586500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>40573900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>39524500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36524800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34968000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34399800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35101500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34437000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34541200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34925900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33828400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>32537500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>897000</v>
+        <v>946800</v>
       </c>
       <c r="E49" s="3">
-        <v>924000</v>
+        <v>892500</v>
       </c>
       <c r="F49" s="3">
-        <v>944500</v>
+        <v>919400</v>
       </c>
       <c r="G49" s="3">
-        <v>982400</v>
+        <v>939800</v>
       </c>
       <c r="H49" s="3">
-        <v>976500</v>
+        <v>977500</v>
       </c>
       <c r="I49" s="3">
-        <v>740600</v>
+        <v>971600</v>
       </c>
       <c r="J49" s="3">
+        <v>736900</v>
+      </c>
+      <c r="K49" s="3">
         <v>648800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>611700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>630500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>579300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>466500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>458700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>454800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>459400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>481000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>457600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>465600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>476600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3107,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3169,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1232400</v>
+        <v>1456300</v>
       </c>
       <c r="E52" s="3">
-        <v>1137200</v>
+        <v>1226200</v>
       </c>
       <c r="F52" s="3">
-        <v>996300</v>
+        <v>1131500</v>
       </c>
       <c r="G52" s="3">
-        <v>850700</v>
+        <v>991300</v>
       </c>
       <c r="H52" s="3">
-        <v>811300</v>
+        <v>846400</v>
       </c>
       <c r="I52" s="3">
-        <v>780200</v>
+        <v>807200</v>
       </c>
       <c r="J52" s="3">
+        <v>776300</v>
+      </c>
+      <c r="K52" s="3">
         <v>757200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>749100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>750900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>684500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>612200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>581200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>552800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>530600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>488100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>415500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>418700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>332000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3293,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>104680100</v>
+        <v>110351600</v>
       </c>
       <c r="E54" s="3">
-        <v>98999100</v>
+        <v>104154600</v>
       </c>
       <c r="F54" s="3">
-        <v>94511600</v>
+        <v>98502200</v>
       </c>
       <c r="G54" s="3">
-        <v>87809100</v>
+        <v>94037200</v>
       </c>
       <c r="H54" s="3">
-        <v>84030600</v>
+        <v>87368400</v>
       </c>
       <c r="I54" s="3">
-        <v>81215900</v>
+        <v>83608800</v>
       </c>
       <c r="J54" s="3">
+        <v>80808200</v>
+      </c>
+      <c r="K54" s="3">
         <v>76533600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78265100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>76735300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71210700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65695800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>68296500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>68154900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>64556200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>59680600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>64380300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>63089400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>61517300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3379,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3403,380 +3532,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1384100</v>
+        <v>1471100</v>
       </c>
       <c r="E57" s="3">
-        <v>1473700</v>
+        <v>1377200</v>
       </c>
       <c r="F57" s="3">
-        <v>1466400</v>
+        <v>1466300</v>
       </c>
       <c r="G57" s="3">
-        <v>1417700</v>
+        <v>1459000</v>
       </c>
       <c r="H57" s="3">
-        <v>1426300</v>
+        <v>1410600</v>
       </c>
       <c r="I57" s="3">
-        <v>1441800</v>
+        <v>1419100</v>
       </c>
       <c r="J57" s="3">
+        <v>1434500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1325300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1138300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>970400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1170600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1010700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1019900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>965900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>974500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>939500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>830100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>790900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>891100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4985300</v>
+        <v>5039500</v>
       </c>
       <c r="E58" s="3">
-        <v>3334500</v>
+        <v>4960300</v>
       </c>
       <c r="F58" s="3">
-        <v>5726800</v>
+        <v>3317800</v>
       </c>
       <c r="G58" s="3">
-        <v>6843000</v>
+        <v>5698000</v>
       </c>
       <c r="H58" s="3">
-        <v>5645200</v>
+        <v>6808600</v>
       </c>
       <c r="I58" s="3">
-        <v>5472100</v>
+        <v>5616900</v>
       </c>
       <c r="J58" s="3">
+        <v>5444700</v>
+      </c>
+      <c r="K58" s="3">
         <v>4301600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4510200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4468900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4212900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3631000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1554400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3528500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3959500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3678600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4362700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3247200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3132800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>17357300</v>
+        <v>16601100</v>
       </c>
       <c r="E59" s="3">
-        <v>17322900</v>
+        <v>17270200</v>
       </c>
       <c r="F59" s="3">
-        <v>13901200</v>
+        <v>17235900</v>
       </c>
       <c r="G59" s="3">
-        <v>13785900</v>
+        <v>13831400</v>
       </c>
       <c r="H59" s="3">
-        <v>14066800</v>
+        <v>13716700</v>
       </c>
       <c r="I59" s="3">
-        <v>14269900</v>
+        <v>13996200</v>
       </c>
       <c r="J59" s="3">
+        <v>14198200</v>
+      </c>
+      <c r="K59" s="3">
         <v>12116000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16099400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7830300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6218800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6084700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12825000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6888300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6691700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5057000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11774100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6448700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6354000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>23726700</v>
+        <v>23111700</v>
       </c>
       <c r="E60" s="3">
-        <v>22131000</v>
+        <v>23607600</v>
       </c>
       <c r="F60" s="3">
-        <v>21094300</v>
+        <v>22019900</v>
       </c>
       <c r="G60" s="3">
-        <v>22046600</v>
+        <v>20988500</v>
       </c>
       <c r="H60" s="3">
-        <v>21138300</v>
+        <v>21935900</v>
       </c>
       <c r="I60" s="3">
-        <v>21183800</v>
+        <v>21032200</v>
       </c>
       <c r="J60" s="3">
+        <v>21077400</v>
+      </c>
+      <c r="K60" s="3">
         <v>17742900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21747900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13269600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11602300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10726400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15399300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11382700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11625700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9675100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16966900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10486700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10377800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10777300</v>
+        <v>15508900</v>
       </c>
       <c r="E61" s="3">
-        <v>9920100</v>
+        <v>10723200</v>
       </c>
       <c r="F61" s="3">
-        <v>8864900</v>
+        <v>9870300</v>
       </c>
       <c r="G61" s="3">
-        <v>3643500</v>
+        <v>8820400</v>
       </c>
       <c r="H61" s="3">
-        <v>2365500</v>
+        <v>3625300</v>
       </c>
       <c r="I61" s="3">
-        <v>1439500</v>
+        <v>2353700</v>
       </c>
       <c r="J61" s="3">
+        <v>1432300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1439100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1772200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1831400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1938600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1897600</v>
-      </c>
-      <c r="O61" s="3">
-        <v>2773900</v>
       </c>
       <c r="P61" s="3">
         <v>2773900</v>
       </c>
       <c r="Q61" s="3">
+        <v>2773900</v>
+      </c>
+      <c r="R61" s="3">
         <v>2975200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2975700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3218900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4376900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4993100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>571900</v>
+        <v>586200</v>
       </c>
       <c r="E62" s="3">
-        <v>584700</v>
+        <v>569100</v>
       </c>
       <c r="F62" s="3">
-        <v>425100</v>
+        <v>581800</v>
       </c>
       <c r="G62" s="3">
-        <v>396300</v>
+        <v>423000</v>
       </c>
       <c r="H62" s="3">
-        <v>388500</v>
+        <v>394300</v>
       </c>
       <c r="I62" s="3">
-        <v>424300</v>
+        <v>386500</v>
       </c>
       <c r="J62" s="3">
+        <v>422200</v>
+      </c>
+      <c r="K62" s="3">
         <v>424000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>418000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>471600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>517500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>517900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>544800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>562600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>602700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>637700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>688500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>735500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>816900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3837,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3961,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>35149800</v>
+        <v>39284700</v>
       </c>
       <c r="E66" s="3">
-        <v>32670400</v>
+        <v>34973400</v>
       </c>
       <c r="F66" s="3">
-        <v>30416900</v>
+        <v>32506400</v>
       </c>
       <c r="G66" s="3">
-        <v>26116400</v>
+        <v>30264200</v>
       </c>
       <c r="H66" s="3">
-        <v>23919700</v>
+        <v>25985300</v>
       </c>
       <c r="I66" s="3">
-        <v>23072100</v>
+        <v>23799600</v>
       </c>
       <c r="J66" s="3">
+        <v>22956300</v>
+      </c>
+      <c r="K66" s="3">
         <v>19629000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23959200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15596300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14081500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13163800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18739100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14742700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15226400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13311000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20896300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15625100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16213900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4047,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4109,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4171,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4233,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4295,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>59644900</v>
+        <v>61595200</v>
       </c>
       <c r="E72" s="3">
-        <v>56970300</v>
+        <v>59345500</v>
       </c>
       <c r="F72" s="3">
-        <v>54291200</v>
+        <v>56684300</v>
       </c>
       <c r="G72" s="3">
-        <v>51691900</v>
+        <v>54018700</v>
       </c>
       <c r="H72" s="3">
-        <v>49683900</v>
+        <v>51432400</v>
       </c>
       <c r="I72" s="3">
-        <v>47813400</v>
+        <v>49434500</v>
       </c>
       <c r="J72" s="3">
+        <v>47573400</v>
+      </c>
+      <c r="K72" s="3">
         <v>45969200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43532900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50443200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46902400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42612600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39561800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>44059200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>39973300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>36763300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>33848900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>37815800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>34958200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4481,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4543,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>69530300</v>
+        <v>71066900</v>
       </c>
       <c r="E76" s="3">
-        <v>66328700</v>
+        <v>69181300</v>
       </c>
       <c r="F76" s="3">
-        <v>64094800</v>
+        <v>65995800</v>
       </c>
       <c r="G76" s="3">
-        <v>61692800</v>
+        <v>63773000</v>
       </c>
       <c r="H76" s="3">
-        <v>60110900</v>
+        <v>61383100</v>
       </c>
       <c r="I76" s="3">
-        <v>58143800</v>
+        <v>59809200</v>
       </c>
       <c r="J76" s="3">
+        <v>57851900</v>
+      </c>
+      <c r="K76" s="3">
         <v>56904700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54305800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>61139000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>57129200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52532000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49557500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>53412200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>49329900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>46369500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43484000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>47464300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>45303400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4667,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5009300</v>
+        <v>4793900</v>
       </c>
       <c r="E81" s="3">
-        <v>5119600</v>
+        <v>4984200</v>
       </c>
       <c r="F81" s="3">
-        <v>4923900</v>
+        <v>5093900</v>
       </c>
       <c r="G81" s="3">
-        <v>4332700</v>
+        <v>4899200</v>
       </c>
       <c r="H81" s="3">
-        <v>4195100</v>
+        <v>4310900</v>
       </c>
       <c r="I81" s="3">
-        <v>4161000</v>
+        <v>4174100</v>
       </c>
       <c r="J81" s="3">
+        <v>4140100</v>
+      </c>
+      <c r="K81" s="3">
         <v>3624400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2333400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2153700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3406500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2970500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2404400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2986200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3217900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2914500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2147800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2857600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3267500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4820,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3618300</v>
+        <v>3703800</v>
       </c>
       <c r="E83" s="3">
-        <v>3498600</v>
+        <v>3600100</v>
       </c>
       <c r="F83" s="3">
-        <v>3397100</v>
+        <v>3481000</v>
       </c>
       <c r="G83" s="3">
-        <v>2541600</v>
+        <v>3380100</v>
       </c>
       <c r="H83" s="3">
-        <v>2458400</v>
+        <v>2528800</v>
       </c>
       <c r="I83" s="3">
-        <v>2421700</v>
+        <v>2446000</v>
       </c>
       <c r="J83" s="3">
+        <v>2409500</v>
+      </c>
+      <c r="K83" s="3">
         <v>2393900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2622900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2720400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2590300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2454900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2375100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2378000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2295100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2306400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1879500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1962200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1840400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5006,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5068,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5130,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5192,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>8169500</v>
+        <v>6687800</v>
       </c>
       <c r="E89" s="3">
-        <v>9292400</v>
+        <v>8128500</v>
       </c>
       <c r="F89" s="3">
-        <v>6819500</v>
+        <v>9245800</v>
       </c>
       <c r="G89" s="3">
-        <v>6108200</v>
+        <v>6785300</v>
       </c>
       <c r="H89" s="3">
-        <v>7280600</v>
+        <v>6077600</v>
       </c>
       <c r="I89" s="3">
-        <v>7277900</v>
+        <v>7244100</v>
       </c>
       <c r="J89" s="3">
+        <v>7241400</v>
+      </c>
+      <c r="K89" s="3">
         <v>5083300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4115700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5355700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6451900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3137700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4316300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5345700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6615700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3785000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3351200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5250500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6040000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5278,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-8894300</v>
+        <v>-5957500</v>
       </c>
       <c r="E91" s="3">
-        <v>-3179900</v>
+        <v>-8849700</v>
       </c>
       <c r="F91" s="3">
-        <v>-3561100</v>
+        <v>-3163900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4543400</v>
+        <v>-3543200</v>
       </c>
       <c r="H91" s="3">
-        <v>-6905200</v>
+        <v>-4520600</v>
       </c>
       <c r="I91" s="3">
-        <v>-6096500</v>
+        <v>-6870500</v>
       </c>
       <c r="J91" s="3">
+        <v>-6065900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3518500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4066500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2664000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3887600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2332800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5402,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5464,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-8758900</v>
+        <v>-6056700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3261800</v>
+        <v>-8714900</v>
       </c>
       <c r="F94" s="3">
-        <v>-3445400</v>
+        <v>-3245400</v>
       </c>
       <c r="G94" s="3">
-        <v>-4652800</v>
+        <v>-3428100</v>
       </c>
       <c r="H94" s="3">
-        <v>-6777300</v>
+        <v>-4629500</v>
       </c>
       <c r="I94" s="3">
-        <v>-6153800</v>
+        <v>-6743300</v>
       </c>
       <c r="J94" s="3">
+        <v>-6122900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3883300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4009400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2251700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3995100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2116800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5550,31 +5782,32 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2324700</v>
+        <v>-2313000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2324700</v>
+        <v>-2313000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2324700</v>
+        <v>-2313000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2324700</v>
+        <v>-2313000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2324700</v>
+        <v>-2313000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1859700</v>
+        <v>-2313000</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1850400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5612,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5674,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5736,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5798,190 +6040,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>524200</v>
+        <v>2677100</v>
       </c>
       <c r="E100" s="3">
-        <v>-3629200</v>
+        <v>521600</v>
       </c>
       <c r="F100" s="3">
-        <v>1701000</v>
+        <v>-3611000</v>
       </c>
       <c r="G100" s="3">
-        <v>212000</v>
+        <v>1692400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1461600</v>
+        <v>210900</v>
       </c>
       <c r="I100" s="3">
-        <v>-616200</v>
+        <v>-1454200</v>
       </c>
       <c r="J100" s="3">
+        <v>-613100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-8216000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-786200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>486600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5750700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-976100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>312600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-20700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-388400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>792500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>228600</v>
+        <v>-337700</v>
       </c>
       <c r="E101" s="3">
-        <v>-394200</v>
+        <v>227400</v>
       </c>
       <c r="F101" s="3">
-        <v>-177300</v>
+        <v>-392200</v>
       </c>
       <c r="G101" s="3">
-        <v>-346400</v>
+        <v>-176400</v>
       </c>
       <c r="H101" s="3">
-        <v>75300</v>
+        <v>-344700</v>
       </c>
       <c r="I101" s="3">
-        <v>-401500</v>
+        <v>74900</v>
       </c>
       <c r="J101" s="3">
+        <v>-399500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-58000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>66900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>62700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>91600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-55800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>468800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-174600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-175200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-23200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>38900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-534700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>204200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>163400</v>
+        <v>2970500</v>
       </c>
       <c r="E102" s="3">
-        <v>2007300</v>
+        <v>162600</v>
       </c>
       <c r="F102" s="3">
-        <v>4897800</v>
+        <v>1997200</v>
       </c>
       <c r="G102" s="3">
-        <v>1320900</v>
+        <v>4873200</v>
       </c>
       <c r="H102" s="3">
-        <v>-882900</v>
+        <v>1314300</v>
       </c>
       <c r="I102" s="3">
-        <v>106500</v>
+        <v>-878500</v>
       </c>
       <c r="J102" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-7074000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>140700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2380400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3035000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4785700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1810900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>811300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4709600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>186100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>765400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2520200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5165000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,306 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13278100</v>
+        <v>14936400</v>
       </c>
       <c r="E8" s="3">
-        <v>12930800</v>
+        <v>13404700</v>
       </c>
       <c r="F8" s="3">
-        <v>12899500</v>
+        <v>13054000</v>
       </c>
       <c r="G8" s="3">
-        <v>12717300</v>
+        <v>13022400</v>
       </c>
       <c r="H8" s="3">
-        <v>11085700</v>
+        <v>12838500</v>
       </c>
       <c r="I8" s="3">
-        <v>11082100</v>
+        <v>11191400</v>
       </c>
       <c r="J8" s="3">
+        <v>11187700</v>
+      </c>
+      <c r="K8" s="3">
         <v>11319000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10508600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8422900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7672200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9872500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8682600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7758800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8251100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8996100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8170800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6931000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7627900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8551200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6633300</v>
+        <v>7269600</v>
       </c>
       <c r="E9" s="3">
-        <v>6159600</v>
+        <v>6696500</v>
       </c>
       <c r="F9" s="3">
-        <v>5935200</v>
+        <v>6218300</v>
       </c>
       <c r="G9" s="3">
-        <v>5920900</v>
+        <v>5991700</v>
       </c>
       <c r="H9" s="3">
-        <v>5209500</v>
+        <v>5977400</v>
       </c>
       <c r="I9" s="3">
-        <v>5345300</v>
+        <v>5259100</v>
       </c>
       <c r="J9" s="3">
+        <v>5396300</v>
+      </c>
+      <c r="K9" s="3">
         <v>5637300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5508600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4799500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4502600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5169400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4567900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4047400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4094400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4500300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4091100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3406400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3666300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4080100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6644800</v>
+        <v>7666800</v>
       </c>
       <c r="E10" s="3">
-        <v>6771200</v>
+        <v>6708200</v>
       </c>
       <c r="F10" s="3">
-        <v>6964300</v>
+        <v>6835700</v>
       </c>
       <c r="G10" s="3">
-        <v>6796400</v>
+        <v>7030700</v>
       </c>
       <c r="H10" s="3">
-        <v>5876200</v>
+        <v>6861100</v>
       </c>
       <c r="I10" s="3">
-        <v>5736800</v>
+        <v>5932200</v>
       </c>
       <c r="J10" s="3">
+        <v>5791400</v>
+      </c>
+      <c r="K10" s="3">
         <v>5681700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5000000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3623400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3169600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4703100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4114800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3711400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4156700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4495800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4079700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3524700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3961600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4471200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,73 +988,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1101600</v>
+        <v>1111800</v>
       </c>
       <c r="E12" s="3">
-        <v>1097400</v>
+        <v>1112100</v>
       </c>
       <c r="F12" s="3">
-        <v>1068300</v>
+        <v>1107800</v>
       </c>
       <c r="G12" s="3">
-        <v>1059100</v>
+        <v>1078500</v>
       </c>
       <c r="H12" s="3">
-        <v>888200</v>
+        <v>1069200</v>
       </c>
       <c r="I12" s="3">
-        <v>890900</v>
+        <v>896600</v>
       </c>
       <c r="J12" s="3">
+        <v>899400</v>
+      </c>
+      <c r="K12" s="3">
         <v>914700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>859600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>747700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>716200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>807100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>729900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>661600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>679500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>687600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>682100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>617700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>633000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>650900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,8 +1122,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1115,35 +1134,35 @@
         <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
       </c>
       <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
         <v>-10600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1151,45 +1170,48 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>-100</v>
       </c>
       <c r="S14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>500</v>
+      </c>
+      <c r="E15" s="3">
         <v>2200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -1207,14 +1229,14 @@
         <v>200</v>
       </c>
       <c r="N15" s="3">
+        <v>200</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1236,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8080600</v>
+        <v>8776800</v>
       </c>
       <c r="E17" s="3">
-        <v>7559600</v>
+        <v>8157600</v>
       </c>
       <c r="F17" s="3">
-        <v>7293400</v>
+        <v>7631600</v>
       </c>
       <c r="G17" s="3">
-        <v>7363700</v>
+        <v>7362900</v>
       </c>
       <c r="H17" s="3">
-        <v>6408200</v>
+        <v>7433900</v>
       </c>
       <c r="I17" s="3">
-        <v>6496500</v>
+        <v>6469300</v>
       </c>
       <c r="J17" s="3">
+        <v>6558400</v>
+      </c>
+      <c r="K17" s="3">
         <v>6886000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6639900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5756200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5417700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6222800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5506100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4950700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5030600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5466600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4992900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4232700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4518900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4969300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5197500</v>
+        <v>6159600</v>
       </c>
       <c r="E18" s="3">
-        <v>5371200</v>
+        <v>5247000</v>
       </c>
       <c r="F18" s="3">
-        <v>5606100</v>
+        <v>5422400</v>
       </c>
       <c r="G18" s="3">
-        <v>5353500</v>
+        <v>5659500</v>
       </c>
       <c r="H18" s="3">
-        <v>4677500</v>
+        <v>5404600</v>
       </c>
       <c r="I18" s="3">
-        <v>4585600</v>
+        <v>4722100</v>
       </c>
       <c r="J18" s="3">
+        <v>4629300</v>
+      </c>
+      <c r="K18" s="3">
         <v>4433100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3868700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2666700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2254500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3649700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3176500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2808100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3220500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3529400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3177900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2698300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3109000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3581900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1413,333 +1445,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>173200</v>
+        <v>150600</v>
       </c>
       <c r="E20" s="3">
-        <v>189000</v>
+        <v>174900</v>
       </c>
       <c r="F20" s="3">
-        <v>169700</v>
+        <v>190800</v>
       </c>
       <c r="G20" s="3">
-        <v>194600</v>
+        <v>171300</v>
       </c>
       <c r="H20" s="3">
-        <v>203800</v>
+        <v>196400</v>
       </c>
       <c r="I20" s="3">
-        <v>148300</v>
+        <v>205700</v>
       </c>
       <c r="J20" s="3">
+        <v>149800</v>
+      </c>
+      <c r="K20" s="3">
         <v>184900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>189900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>178600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>168900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>164700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>146400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>126000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>130500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>116900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>107200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>120000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>107600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>98400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>9074500</v>
+        <v>10165300</v>
       </c>
       <c r="E21" s="3">
-        <v>9160400</v>
+        <v>9161000</v>
       </c>
       <c r="F21" s="3">
-        <v>9256700</v>
+        <v>9247700</v>
       </c>
       <c r="G21" s="3">
-        <v>8928200</v>
+        <v>9345000</v>
       </c>
       <c r="H21" s="3">
-        <v>7410100</v>
+        <v>9013300</v>
       </c>
       <c r="I21" s="3">
-        <v>7180000</v>
+        <v>7480700</v>
       </c>
       <c r="J21" s="3">
+        <v>7248400</v>
+      </c>
+      <c r="K21" s="3">
         <v>7027400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6452500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5468200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5143700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6404700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5777700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5309100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5729000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5941400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5591600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4697800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5178800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5520800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>40500</v>
+        <v>48100</v>
       </c>
       <c r="E22" s="3">
-        <v>27500</v>
+        <v>40900</v>
       </c>
       <c r="F22" s="3">
-        <v>27400</v>
+        <v>27800</v>
       </c>
       <c r="G22" s="3">
-        <v>13300</v>
+        <v>27700</v>
       </c>
       <c r="H22" s="3">
-        <v>14600</v>
+        <v>13400</v>
       </c>
       <c r="I22" s="3">
-        <v>18900</v>
+        <v>14700</v>
       </c>
       <c r="J22" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K22" s="3">
         <v>23000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>30200</v>
       </c>
       <c r="L22" s="3">
         <v>30200</v>
       </c>
       <c r="M22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="N22" s="3">
         <v>31500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>29800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20900</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>26900</v>
       </c>
       <c r="R22" s="3">
         <v>26900</v>
       </c>
       <c r="S22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="T22" s="3">
         <v>27300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>27200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>26600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>26500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>5330300</v>
+        <v>6262100</v>
       </c>
       <c r="E23" s="3">
-        <v>5532700</v>
+        <v>5381100</v>
       </c>
       <c r="F23" s="3">
-        <v>5748300</v>
+        <v>5585400</v>
       </c>
       <c r="G23" s="3">
-        <v>5534800</v>
+        <v>5803100</v>
       </c>
       <c r="H23" s="3">
-        <v>4866700</v>
+        <v>5587600</v>
       </c>
       <c r="I23" s="3">
-        <v>4715000</v>
+        <v>4913100</v>
       </c>
       <c r="J23" s="3">
+        <v>4759900</v>
+      </c>
+      <c r="K23" s="3">
         <v>4594900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4028400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2815100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2391800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3784600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3298200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2913200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3324100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3619400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3257800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2791100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3190000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3653900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>532000</v>
+        <v>625800</v>
       </c>
       <c r="E24" s="3">
-        <v>546800</v>
+        <v>537000</v>
       </c>
       <c r="F24" s="3">
-        <v>652300</v>
+        <v>552000</v>
       </c>
       <c r="G24" s="3">
-        <v>633200</v>
+        <v>658500</v>
       </c>
       <c r="H24" s="3">
-        <v>553300</v>
+        <v>639200</v>
       </c>
       <c r="I24" s="3">
-        <v>538200</v>
+        <v>558500</v>
       </c>
       <c r="J24" s="3">
+        <v>543300</v>
+      </c>
+      <c r="K24" s="3">
         <v>453300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>402800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>481200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>238300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>377400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>326800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>508700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>337800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>342500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>643200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>332700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>385400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1803,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4798300</v>
+        <v>5636400</v>
       </c>
       <c r="E26" s="3">
-        <v>4985900</v>
+        <v>4844000</v>
       </c>
       <c r="F26" s="3">
-        <v>5096000</v>
+        <v>5033400</v>
       </c>
       <c r="G26" s="3">
-        <v>4901700</v>
+        <v>5144500</v>
       </c>
       <c r="H26" s="3">
-        <v>4313400</v>
+        <v>4948400</v>
       </c>
       <c r="I26" s="3">
-        <v>4176800</v>
+        <v>4354500</v>
       </c>
       <c r="J26" s="3">
+        <v>4216600</v>
+      </c>
+      <c r="K26" s="3">
         <v>4141700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3625500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2333800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2153500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3407200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2971400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2404500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2986300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3218500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2915300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2147800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2857300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3268400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4793900</v>
+        <v>5628400</v>
       </c>
       <c r="E27" s="3">
-        <v>4984200</v>
+        <v>4839600</v>
       </c>
       <c r="F27" s="3">
-        <v>5093900</v>
+        <v>5031700</v>
       </c>
       <c r="G27" s="3">
-        <v>4899200</v>
+        <v>5142400</v>
       </c>
       <c r="H27" s="3">
-        <v>4310900</v>
+        <v>4945900</v>
       </c>
       <c r="I27" s="3">
-        <v>4174100</v>
+        <v>4352000</v>
       </c>
       <c r="J27" s="3">
+        <v>4213900</v>
+      </c>
+      <c r="K27" s="3">
         <v>4140100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3624400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2333400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2153700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3406500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2970500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2404400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2986200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3217900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2914500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2147800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2857600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3267500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1998,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2063,8 +2123,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2193,138 +2259,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-173200</v>
+        <v>-150600</v>
       </c>
       <c r="E32" s="3">
-        <v>-189000</v>
+        <v>-174900</v>
       </c>
       <c r="F32" s="3">
-        <v>-169700</v>
+        <v>-190800</v>
       </c>
       <c r="G32" s="3">
-        <v>-194600</v>
+        <v>-171300</v>
       </c>
       <c r="H32" s="3">
-        <v>-203800</v>
+        <v>-196400</v>
       </c>
       <c r="I32" s="3">
-        <v>-148300</v>
+        <v>-205700</v>
       </c>
       <c r="J32" s="3">
+        <v>-149800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-184900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-189900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-178600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-168900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-164700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-146400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-126000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-130500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-116900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-107200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-120000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-107600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-98400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4793900</v>
+        <v>5628400</v>
       </c>
       <c r="E33" s="3">
-        <v>4984200</v>
+        <v>4839600</v>
       </c>
       <c r="F33" s="3">
-        <v>5093900</v>
+        <v>5031700</v>
       </c>
       <c r="G33" s="3">
-        <v>4899200</v>
+        <v>5142400</v>
       </c>
       <c r="H33" s="3">
-        <v>4310900</v>
+        <v>4945900</v>
       </c>
       <c r="I33" s="3">
-        <v>4174100</v>
+        <v>4352000</v>
       </c>
       <c r="J33" s="3">
+        <v>4213900</v>
+      </c>
+      <c r="K33" s="3">
         <v>4140100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3624400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2333400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2153700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3406500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2970500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2404400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2986200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3217900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2914500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2147800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2857600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3267500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2388,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4793900</v>
+        <v>5628400</v>
       </c>
       <c r="E35" s="3">
-        <v>4984200</v>
+        <v>4839600</v>
       </c>
       <c r="F35" s="3">
-        <v>5093900</v>
+        <v>5031700</v>
       </c>
       <c r="G35" s="3">
-        <v>4899200</v>
+        <v>5142400</v>
       </c>
       <c r="H35" s="3">
-        <v>4310900</v>
+        <v>4945900</v>
       </c>
       <c r="I35" s="3">
-        <v>4174100</v>
+        <v>4352000</v>
       </c>
       <c r="J35" s="3">
+        <v>4213900</v>
+      </c>
+      <c r="K35" s="3">
         <v>4140100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3624400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2333400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2153700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3406500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2970500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2404400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2986200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3217900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2914500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2147800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2857600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3267500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2548,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2573,593 +2658,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>26688000</v>
+        <v>30754300</v>
       </c>
       <c r="E41" s="3">
-        <v>23717500</v>
+        <v>26942300</v>
       </c>
       <c r="F41" s="3">
-        <v>23554900</v>
+        <v>23943500</v>
       </c>
       <c r="G41" s="3">
-        <v>21557700</v>
+        <v>23779300</v>
       </c>
       <c r="H41" s="3">
-        <v>16684400</v>
+        <v>21763100</v>
       </c>
       <c r="I41" s="3">
-        <v>15370100</v>
+        <v>16843400</v>
       </c>
       <c r="J41" s="3">
+        <v>15516600</v>
+      </c>
+      <c r="K41" s="3">
         <v>16248600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16224200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22706900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22650100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19686100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16299200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21028000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19217100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17935400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13225800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18488800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>18415700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17650300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4825500</v>
+        <v>4896700</v>
       </c>
       <c r="E42" s="3">
-        <v>5246200</v>
+        <v>4871500</v>
       </c>
       <c r="F42" s="3">
-        <v>4985300</v>
+        <v>5296200</v>
       </c>
       <c r="G42" s="3">
-        <v>5187000</v>
+        <v>5032800</v>
       </c>
       <c r="H42" s="3">
-        <v>5248000</v>
+        <v>5236500</v>
       </c>
       <c r="I42" s="3">
-        <v>5004300</v>
+        <v>5298000</v>
       </c>
       <c r="J42" s="3">
+        <v>5052000</v>
+      </c>
+      <c r="K42" s="3">
         <v>4951600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5379600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4532100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4384600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4628600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4342600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4313700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3928700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3325800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3200600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2937600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3206500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3091300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6421400</v>
+        <v>6744400</v>
       </c>
       <c r="E43" s="3">
-        <v>5977500</v>
+        <v>6482600</v>
       </c>
       <c r="F43" s="3">
-        <v>5212500</v>
+        <v>6034500</v>
       </c>
       <c r="G43" s="3">
-        <v>5802200</v>
+        <v>5262100</v>
       </c>
       <c r="H43" s="3">
-        <v>5429800</v>
+        <v>5857500</v>
       </c>
       <c r="I43" s="3">
-        <v>5226400</v>
+        <v>5481600</v>
       </c>
       <c r="J43" s="3">
+        <v>5276200</v>
+      </c>
+      <c r="K43" s="3">
         <v>4988900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5216800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4112700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3746200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4404000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4322300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3039400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3589100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3969900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3853300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3625400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3559800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4221400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>6081300</v>
+        <v>6564100</v>
       </c>
       <c r="E44" s="3">
-        <v>5515000</v>
+        <v>6139200</v>
       </c>
       <c r="F44" s="3">
-        <v>4900800</v>
+        <v>5567500</v>
       </c>
       <c r="G44" s="3">
-        <v>3907300</v>
+        <v>4947500</v>
       </c>
       <c r="H44" s="3">
-        <v>3060900</v>
+        <v>3944500</v>
       </c>
       <c r="I44" s="3">
-        <v>2793000</v>
+        <v>3090100</v>
       </c>
       <c r="J44" s="3">
+        <v>2819600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2960800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3467200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3782700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3812600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3517100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3513000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3293800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2834300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2394500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2394900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1977400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1643200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1587500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>266400</v>
+        <v>410900</v>
       </c>
       <c r="E45" s="3">
-        <v>211400</v>
+        <v>269000</v>
       </c>
       <c r="F45" s="3">
-        <v>315800</v>
+        <v>213400</v>
       </c>
       <c r="G45" s="3">
-        <v>284500</v>
+        <v>318800</v>
       </c>
       <c r="H45" s="3">
-        <v>262800</v>
+        <v>287200</v>
       </c>
       <c r="I45" s="3">
-        <v>238300</v>
+        <v>265300</v>
       </c>
       <c r="J45" s="3">
+        <v>240500</v>
+      </c>
+      <c r="K45" s="3">
         <v>201000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>172700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>171400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>182200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>187900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>178000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>222900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1333300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>156400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>170000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>132000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>99600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>115600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>44282600</v>
+        <v>49370400</v>
       </c>
       <c r="E46" s="3">
-        <v>40667600</v>
+        <v>44704600</v>
       </c>
       <c r="F46" s="3">
-        <v>38969200</v>
+        <v>41055100</v>
       </c>
       <c r="G46" s="3">
-        <v>36738800</v>
+        <v>39340500</v>
       </c>
       <c r="H46" s="3">
-        <v>30685900</v>
+        <v>37088900</v>
       </c>
       <c r="I46" s="3">
-        <v>28632100</v>
+        <v>30978300</v>
       </c>
       <c r="J46" s="3">
+        <v>28905000</v>
+      </c>
+      <c r="K46" s="3">
         <v>29350900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30460500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35305800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34775700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32423700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28655100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>31897800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30902400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>27782000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22844600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>27161200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>26924800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>26666100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1037000</v>
+        <v>998900</v>
       </c>
       <c r="E47" s="3">
-        <v>1039400</v>
+        <v>1046900</v>
       </c>
       <c r="F47" s="3">
-        <v>989300</v>
+        <v>1049300</v>
       </c>
       <c r="G47" s="3">
-        <v>946000</v>
+        <v>998800</v>
       </c>
       <c r="H47" s="3">
-        <v>817700</v>
+        <v>955100</v>
       </c>
       <c r="I47" s="3">
-        <v>1107300</v>
+        <v>825500</v>
       </c>
       <c r="J47" s="3">
+        <v>1117800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1076500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1080600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1024600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1053800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>998400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>993900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>959100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1143400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1347300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1325700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1420200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1451800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1505100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>62629000</v>
+        <v>67064000</v>
       </c>
       <c r="E48" s="3">
-        <v>60328900</v>
+        <v>63225800</v>
       </c>
       <c r="F48" s="3">
-        <v>56492800</v>
+        <v>60903800</v>
       </c>
       <c r="G48" s="3">
-        <v>54421400</v>
+        <v>57031100</v>
       </c>
       <c r="H48" s="3">
-        <v>54040900</v>
+        <v>54939900</v>
       </c>
       <c r="I48" s="3">
-        <v>52090500</v>
+        <v>54555800</v>
       </c>
       <c r="J48" s="3">
+        <v>52586900</v>
+      </c>
+      <c r="K48" s="3">
         <v>48867700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43586500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>40573900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>39524500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36524800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34968000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34399800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35101500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34437000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34541200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34925900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>33828400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32537500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>946800</v>
+        <v>923700</v>
       </c>
       <c r="E49" s="3">
-        <v>892500</v>
+        <v>955800</v>
       </c>
       <c r="F49" s="3">
-        <v>919400</v>
+        <v>901000</v>
       </c>
       <c r="G49" s="3">
-        <v>939800</v>
+        <v>928200</v>
       </c>
       <c r="H49" s="3">
-        <v>977500</v>
+        <v>948700</v>
       </c>
       <c r="I49" s="3">
-        <v>971600</v>
+        <v>986800</v>
       </c>
       <c r="J49" s="3">
+        <v>980900</v>
+      </c>
+      <c r="K49" s="3">
         <v>736900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>648800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>611700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>630500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>579300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>466500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>458700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>454800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>459400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>481000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>457600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>465600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>476600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3223,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3288,73 +3404,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1456300</v>
+        <v>1672900</v>
       </c>
       <c r="E52" s="3">
-        <v>1226200</v>
+        <v>1470100</v>
       </c>
       <c r="F52" s="3">
-        <v>1131500</v>
+        <v>1237900</v>
       </c>
       <c r="G52" s="3">
-        <v>991300</v>
+        <v>1142300</v>
       </c>
       <c r="H52" s="3">
-        <v>846400</v>
+        <v>1000700</v>
       </c>
       <c r="I52" s="3">
-        <v>807200</v>
+        <v>854500</v>
       </c>
       <c r="J52" s="3">
+        <v>814900</v>
+      </c>
+      <c r="K52" s="3">
         <v>776300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>757200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>749100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>750900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>684500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>612200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>581200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>552800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>530600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>488100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>415500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>418700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>332000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,73 +3540,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>110351600</v>
+        <v>120029900</v>
       </c>
       <c r="E54" s="3">
-        <v>104154600</v>
+        <v>111403200</v>
       </c>
       <c r="F54" s="3">
-        <v>98502200</v>
+        <v>105147100</v>
       </c>
       <c r="G54" s="3">
-        <v>94037200</v>
+        <v>99440800</v>
       </c>
       <c r="H54" s="3">
-        <v>87368400</v>
+        <v>94933300</v>
       </c>
       <c r="I54" s="3">
-        <v>83608800</v>
+        <v>88200900</v>
       </c>
       <c r="J54" s="3">
+        <v>84405500</v>
+      </c>
+      <c r="K54" s="3">
         <v>80808200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>76533600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78265100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>76735300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71210700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>65695800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>68296500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68154900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>64556200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>59680600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>64380300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>63089400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>61517300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3508,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3533,398 +3662,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1471100</v>
+        <v>1580900</v>
       </c>
       <c r="E57" s="3">
-        <v>1377200</v>
+        <v>1485100</v>
       </c>
       <c r="F57" s="3">
-        <v>1466300</v>
+        <v>1390300</v>
       </c>
       <c r="G57" s="3">
-        <v>1459000</v>
+        <v>1480200</v>
       </c>
       <c r="H57" s="3">
-        <v>1410600</v>
+        <v>1472900</v>
       </c>
       <c r="I57" s="3">
-        <v>1419100</v>
+        <v>1424000</v>
       </c>
       <c r="J57" s="3">
+        <v>1432700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1434500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1325300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1138300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>970400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1170600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1010700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1019900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>965900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>974500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>939500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>830100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>790900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>891100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>5039500</v>
+        <v>4355500</v>
       </c>
       <c r="E58" s="3">
-        <v>4960300</v>
+        <v>5087500</v>
       </c>
       <c r="F58" s="3">
-        <v>3317800</v>
+        <v>5007500</v>
       </c>
       <c r="G58" s="3">
-        <v>5698000</v>
+        <v>3349400</v>
       </c>
       <c r="H58" s="3">
-        <v>6808600</v>
+        <v>5752300</v>
       </c>
       <c r="I58" s="3">
-        <v>5616900</v>
+        <v>6873500</v>
       </c>
       <c r="J58" s="3">
+        <v>5670400</v>
+      </c>
+      <c r="K58" s="3">
         <v>5444700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4301600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4510200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4468900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4212900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3631000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1554400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3528500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3959500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3678600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4362700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3247200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3132800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>16601100</v>
+        <v>17679100</v>
       </c>
       <c r="E59" s="3">
-        <v>17270200</v>
+        <v>16759300</v>
       </c>
       <c r="F59" s="3">
-        <v>17235900</v>
+        <v>17434700</v>
       </c>
       <c r="G59" s="3">
-        <v>13831400</v>
+        <v>17400100</v>
       </c>
       <c r="H59" s="3">
-        <v>13716700</v>
+        <v>13963200</v>
       </c>
       <c r="I59" s="3">
-        <v>13996200</v>
+        <v>13847400</v>
       </c>
       <c r="J59" s="3">
+        <v>14129500</v>
+      </c>
+      <c r="K59" s="3">
         <v>14198200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12116000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16099400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7830300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6218800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6084700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12825000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6888300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6691700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5057000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11774100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6448700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6354000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>23111700</v>
+        <v>23615500</v>
       </c>
       <c r="E60" s="3">
-        <v>23607600</v>
+        <v>23331900</v>
       </c>
       <c r="F60" s="3">
-        <v>22019900</v>
+        <v>23832600</v>
       </c>
       <c r="G60" s="3">
-        <v>20988500</v>
+        <v>22229800</v>
       </c>
       <c r="H60" s="3">
-        <v>21935900</v>
+        <v>21188500</v>
       </c>
       <c r="I60" s="3">
-        <v>21032200</v>
+        <v>22144900</v>
       </c>
       <c r="J60" s="3">
+        <v>21232600</v>
+      </c>
+      <c r="K60" s="3">
         <v>21077400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17742900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21747900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13269600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11602300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10726400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15399300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11382700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11625700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9675100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16966900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10486700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10377800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>15508900</v>
+        <v>17443000</v>
       </c>
       <c r="E61" s="3">
-        <v>10723200</v>
+        <v>15656700</v>
       </c>
       <c r="F61" s="3">
-        <v>9870300</v>
+        <v>10825300</v>
       </c>
       <c r="G61" s="3">
-        <v>8820400</v>
+        <v>9964300</v>
       </c>
       <c r="H61" s="3">
-        <v>3625300</v>
+        <v>8904500</v>
       </c>
       <c r="I61" s="3">
-        <v>2353700</v>
+        <v>3659800</v>
       </c>
       <c r="J61" s="3">
+        <v>2376100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1432300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1439100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1772200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1831400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1938600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1897600</v>
-      </c>
-      <c r="P61" s="3">
-        <v>2773900</v>
       </c>
       <c r="Q61" s="3">
         <v>2773900</v>
       </c>
       <c r="R61" s="3">
+        <v>2773900</v>
+      </c>
+      <c r="S61" s="3">
         <v>2975200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2975700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3218900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4376900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4993100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>586200</v>
+        <v>4110300</v>
       </c>
       <c r="E62" s="3">
-        <v>569100</v>
+        <v>591800</v>
       </c>
       <c r="F62" s="3">
-        <v>581800</v>
+        <v>574500</v>
       </c>
       <c r="G62" s="3">
-        <v>423000</v>
+        <v>587300</v>
       </c>
       <c r="H62" s="3">
-        <v>394300</v>
+        <v>427000</v>
       </c>
       <c r="I62" s="3">
-        <v>386500</v>
+        <v>398100</v>
       </c>
       <c r="J62" s="3">
+        <v>390200</v>
+      </c>
+      <c r="K62" s="3">
         <v>422200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>424000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>418000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>471600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>517500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>517900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>544800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>562600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>602700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>637700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>688500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>735500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>816900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3988,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4053,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4118,73 +4272,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>39284700</v>
+        <v>45251600</v>
       </c>
       <c r="E66" s="3">
-        <v>34973400</v>
+        <v>39659100</v>
       </c>
       <c r="F66" s="3">
-        <v>32506400</v>
+        <v>35306600</v>
       </c>
       <c r="G66" s="3">
-        <v>30264200</v>
+        <v>32816200</v>
       </c>
       <c r="H66" s="3">
-        <v>25985300</v>
+        <v>30552600</v>
       </c>
       <c r="I66" s="3">
-        <v>23799600</v>
+        <v>26232900</v>
       </c>
       <c r="J66" s="3">
+        <v>24026400</v>
+      </c>
+      <c r="K66" s="3">
         <v>22956300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19629000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23959200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15596300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14081500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13163800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18739100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14742700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15226400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13311000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20896300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15625100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16213900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4208,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4273,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4338,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4403,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4468,73 +4638,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>61595200</v>
+        <v>65242100</v>
       </c>
       <c r="E72" s="3">
-        <v>59345500</v>
+        <v>62182100</v>
       </c>
       <c r="F72" s="3">
-        <v>56684300</v>
+        <v>59911100</v>
       </c>
       <c r="G72" s="3">
-        <v>54018700</v>
+        <v>57224500</v>
       </c>
       <c r="H72" s="3">
-        <v>51432400</v>
+        <v>54533400</v>
       </c>
       <c r="I72" s="3">
-        <v>49434500</v>
+        <v>51922500</v>
       </c>
       <c r="J72" s="3">
+        <v>49905600</v>
+      </c>
+      <c r="K72" s="3">
         <v>47573400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>45969200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43532900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50443200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46902400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>42612600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>39561800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>44059200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>39973300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>36763300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>33848900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>37815800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>34958200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4598,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4663,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4728,73 +4910,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>71066900</v>
+        <v>74778200</v>
       </c>
       <c r="E76" s="3">
-        <v>69181300</v>
+        <v>71744100</v>
       </c>
       <c r="F76" s="3">
-        <v>65995800</v>
+        <v>69840500</v>
       </c>
       <c r="G76" s="3">
-        <v>63773000</v>
+        <v>66624700</v>
       </c>
       <c r="H76" s="3">
-        <v>61383100</v>
+        <v>64380700</v>
       </c>
       <c r="I76" s="3">
-        <v>59809200</v>
+        <v>61968000</v>
       </c>
       <c r="J76" s="3">
+        <v>60379100</v>
+      </c>
+      <c r="K76" s="3">
         <v>57851900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56904700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54305800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>61139000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>57129200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52532000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>49557500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>53412200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>49329900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>46369500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43484000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>47464300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>45303400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4858,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4793900</v>
+        <v>5628400</v>
       </c>
       <c r="E81" s="3">
-        <v>4984200</v>
+        <v>4839600</v>
       </c>
       <c r="F81" s="3">
-        <v>5093900</v>
+        <v>5031700</v>
       </c>
       <c r="G81" s="3">
-        <v>4899200</v>
+        <v>5142400</v>
       </c>
       <c r="H81" s="3">
-        <v>4310900</v>
+        <v>4945900</v>
       </c>
       <c r="I81" s="3">
-        <v>4174100</v>
+        <v>4352000</v>
       </c>
       <c r="J81" s="3">
+        <v>4213900</v>
+      </c>
+      <c r="K81" s="3">
         <v>4140100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3624400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2333400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2153700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3406500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2970500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2404400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2986200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3217900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2914500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2147800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2857600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3267500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5018,73 +5215,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3703800</v>
+        <v>3855100</v>
       </c>
       <c r="E83" s="3">
-        <v>3600100</v>
+        <v>3739100</v>
       </c>
       <c r="F83" s="3">
-        <v>3481000</v>
+        <v>3634400</v>
       </c>
       <c r="G83" s="3">
-        <v>3380100</v>
+        <v>3514200</v>
       </c>
       <c r="H83" s="3">
-        <v>2528800</v>
+        <v>3412300</v>
       </c>
       <c r="I83" s="3">
-        <v>2446000</v>
+        <v>2552900</v>
       </c>
       <c r="J83" s="3">
+        <v>2469300</v>
+      </c>
+      <c r="K83" s="3">
         <v>2409500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2393900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2622900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2720400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2590300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2454900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2375100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2378000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2295100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2306400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1879500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1962200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1840400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5148,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5213,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5278,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5343,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5408,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>6687800</v>
+        <v>11479800</v>
       </c>
       <c r="E89" s="3">
-        <v>8128500</v>
+        <v>6751600</v>
       </c>
       <c r="F89" s="3">
-        <v>9245800</v>
+        <v>8205900</v>
       </c>
       <c r="G89" s="3">
-        <v>6785300</v>
+        <v>9333900</v>
       </c>
       <c r="H89" s="3">
-        <v>6077600</v>
+        <v>6850000</v>
       </c>
       <c r="I89" s="3">
-        <v>7244100</v>
+        <v>6135500</v>
       </c>
       <c r="J89" s="3">
+        <v>7313100</v>
+      </c>
+      <c r="K89" s="3">
         <v>7241400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5083300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4115700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5355700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6451900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3137700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4316300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5345700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6615700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3785000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3351200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5250500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6040000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5498,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-5957500</v>
+        <v>-6794800</v>
       </c>
       <c r="E91" s="3">
-        <v>-8849700</v>
+        <v>-6014300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3163900</v>
+        <v>-8934000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3543200</v>
+        <v>-3194100</v>
       </c>
       <c r="H91" s="3">
-        <v>-4520600</v>
+        <v>-3577000</v>
       </c>
       <c r="I91" s="3">
-        <v>-6870500</v>
+        <v>-4563700</v>
       </c>
       <c r="J91" s="3">
+        <v>-6936000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6065900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3518500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4066500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2664000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3887600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2332800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5628,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5693,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-6056700</v>
+        <v>-6376300</v>
       </c>
       <c r="E94" s="3">
-        <v>-8714900</v>
+        <v>-6114400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3245400</v>
+        <v>-8797900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3428100</v>
+        <v>-3276300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4629500</v>
+        <v>-3460800</v>
       </c>
       <c r="I94" s="3">
-        <v>-6743300</v>
+        <v>-4673600</v>
       </c>
       <c r="J94" s="3">
+        <v>-6807500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6122900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3883300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4009400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2251700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3995100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2116800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5783,35 +6015,36 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2313000</v>
+        <v>-2335000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2313000</v>
+        <v>-2335000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2313000</v>
+        <v>-2335000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2313000</v>
+        <v>-2335000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2313000</v>
+        <v>-2335000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2313000</v>
+        <v>-2335000</v>
       </c>
       <c r="J96" s="3">
+        <v>-2335000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1850400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5848,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5913,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5978,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6043,199 +6285,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>2677100</v>
+        <v>-1272400</v>
       </c>
       <c r="E100" s="3">
-        <v>521600</v>
+        <v>2702600</v>
       </c>
       <c r="F100" s="3">
-        <v>-3611000</v>
+        <v>526600</v>
       </c>
       <c r="G100" s="3">
-        <v>1692400</v>
+        <v>-3645400</v>
       </c>
       <c r="H100" s="3">
-        <v>210900</v>
+        <v>1708600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1454200</v>
+        <v>213000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1468100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-613100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8216000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-32500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-786200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>486600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5750700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-976100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>312600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-20700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-388400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>792500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-337700</v>
+        <v>-19100</v>
       </c>
       <c r="E101" s="3">
-        <v>227400</v>
+        <v>-340900</v>
       </c>
       <c r="F101" s="3">
-        <v>-392200</v>
+        <v>229600</v>
       </c>
       <c r="G101" s="3">
-        <v>-176400</v>
+        <v>-396000</v>
       </c>
       <c r="H101" s="3">
-        <v>-344700</v>
+        <v>-178100</v>
       </c>
       <c r="I101" s="3">
-        <v>74900</v>
+        <v>-348000</v>
       </c>
       <c r="J101" s="3">
+        <v>75600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-399500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-58000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>66900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>62700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>91600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-55800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>468800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-174600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-175200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-23200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>38900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-534700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>204200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>2970500</v>
+        <v>3812000</v>
       </c>
       <c r="E102" s="3">
-        <v>162600</v>
+        <v>2998800</v>
       </c>
       <c r="F102" s="3">
-        <v>1997200</v>
+        <v>164200</v>
       </c>
       <c r="G102" s="3">
-        <v>4873200</v>
+        <v>2016200</v>
       </c>
       <c r="H102" s="3">
-        <v>1314300</v>
+        <v>4919700</v>
       </c>
       <c r="I102" s="3">
-        <v>-878500</v>
+        <v>1326800</v>
       </c>
       <c r="J102" s="3">
+        <v>-886900</v>
+      </c>
+      <c r="K102" s="3">
         <v>105900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7074000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>140700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2380400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3035000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4785700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1810900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>811300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4709600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>186100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>765400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2520200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5165000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,318 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14936400</v>
+        <v>15428600</v>
       </c>
       <c r="E8" s="3">
-        <v>13404700</v>
+        <v>14600500</v>
       </c>
       <c r="F8" s="3">
-        <v>13054000</v>
+        <v>13103200</v>
       </c>
       <c r="G8" s="3">
-        <v>13022400</v>
+        <v>12760500</v>
       </c>
       <c r="H8" s="3">
-        <v>12838500</v>
+        <v>12729600</v>
       </c>
       <c r="I8" s="3">
-        <v>11191400</v>
+        <v>12549800</v>
       </c>
       <c r="J8" s="3">
+        <v>10939700</v>
+      </c>
+      <c r="K8" s="3">
         <v>11187700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11319000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10508600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8422900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7672200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9872500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8682600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7758800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8251100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8996100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8170800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6931000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7627900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8551200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7269600</v>
+        <v>7306400</v>
       </c>
       <c r="E9" s="3">
-        <v>6696500</v>
+        <v>7106100</v>
       </c>
       <c r="F9" s="3">
-        <v>6218300</v>
+        <v>6545900</v>
       </c>
       <c r="G9" s="3">
-        <v>5991700</v>
+        <v>6078500</v>
       </c>
       <c r="H9" s="3">
-        <v>5977400</v>
+        <v>5857000</v>
       </c>
       <c r="I9" s="3">
-        <v>5259100</v>
+        <v>5842900</v>
       </c>
       <c r="J9" s="3">
+        <v>5140900</v>
+      </c>
+      <c r="K9" s="3">
         <v>5396300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5637300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5508600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4799500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4502600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5169400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4567900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4047400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4094400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4500300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4091100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3406400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3666300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4080100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7666800</v>
+        <v>8122200</v>
       </c>
       <c r="E10" s="3">
-        <v>6708200</v>
+        <v>7494400</v>
       </c>
       <c r="F10" s="3">
-        <v>6835700</v>
+        <v>6557300</v>
       </c>
       <c r="G10" s="3">
-        <v>7030700</v>
+        <v>6682000</v>
       </c>
       <c r="H10" s="3">
-        <v>6861100</v>
+        <v>6872600</v>
       </c>
       <c r="I10" s="3">
-        <v>5932200</v>
+        <v>6706800</v>
       </c>
       <c r="J10" s="3">
+        <v>5798800</v>
+      </c>
+      <c r="K10" s="3">
         <v>5791400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5681700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5000000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3623400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3169600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4703100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4114800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3711400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4156700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4495800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4079700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3524700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3961600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4471200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,76 +1001,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1111800</v>
+        <v>1135100</v>
       </c>
       <c r="E12" s="3">
-        <v>1112100</v>
+        <v>1086800</v>
       </c>
       <c r="F12" s="3">
-        <v>1107800</v>
+        <v>1087100</v>
       </c>
       <c r="G12" s="3">
-        <v>1078500</v>
+        <v>1082900</v>
       </c>
       <c r="H12" s="3">
-        <v>1069200</v>
+        <v>1054200</v>
       </c>
       <c r="I12" s="3">
-        <v>896600</v>
+        <v>1045200</v>
       </c>
       <c r="J12" s="3">
+        <v>876500</v>
+      </c>
+      <c r="K12" s="3">
         <v>899400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>914700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>859600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>747700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>716200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>807100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>729900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>661600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>679500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>687600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>682100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>617700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>633000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>650900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,47 +1141,50 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
       <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>-10600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1173,48 +1192,51 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>-100</v>
       </c>
       <c r="T14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2600</v>
       </c>
-      <c r="G15" s="3">
-        <v>800</v>
-      </c>
       <c r="H15" s="3">
+        <v>700</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
@@ -1232,14 +1254,14 @@
         <v>200</v>
       </c>
       <c r="O15" s="3">
+        <v>200</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
@@ -1261,8 +1283,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1309,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8776800</v>
+        <v>8993300</v>
       </c>
       <c r="E17" s="3">
-        <v>8157600</v>
+        <v>8579400</v>
       </c>
       <c r="F17" s="3">
-        <v>7631600</v>
+        <v>7974200</v>
       </c>
       <c r="G17" s="3">
-        <v>7362900</v>
+        <v>7460000</v>
       </c>
       <c r="H17" s="3">
-        <v>7433900</v>
+        <v>7197400</v>
       </c>
       <c r="I17" s="3">
-        <v>6469300</v>
+        <v>7266700</v>
       </c>
       <c r="J17" s="3">
+        <v>6323800</v>
+      </c>
+      <c r="K17" s="3">
         <v>6558400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6886000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6639900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5756200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5417700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6222800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5506100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4950700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5030600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5466600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4992900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4232700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4518900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4969300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6159600</v>
+        <v>6435300</v>
       </c>
       <c r="E18" s="3">
-        <v>5247000</v>
+        <v>6021100</v>
       </c>
       <c r="F18" s="3">
-        <v>5422400</v>
+        <v>5129000</v>
       </c>
       <c r="G18" s="3">
-        <v>5659500</v>
+        <v>5300500</v>
       </c>
       <c r="H18" s="3">
-        <v>5404600</v>
+        <v>5532200</v>
       </c>
       <c r="I18" s="3">
-        <v>4722100</v>
+        <v>5283000</v>
       </c>
       <c r="J18" s="3">
+        <v>4615900</v>
+      </c>
+      <c r="K18" s="3">
         <v>4629300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4433100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3868700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2666700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2254500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3649700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3176500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2808100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3220500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3529400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3177900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2698300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3109000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3581900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1446,348 +1478,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>150600</v>
+        <v>148700</v>
       </c>
       <c r="E20" s="3">
-        <v>174900</v>
+        <v>147200</v>
       </c>
       <c r="F20" s="3">
-        <v>190800</v>
+        <v>171000</v>
       </c>
       <c r="G20" s="3">
-        <v>171300</v>
+        <v>186500</v>
       </c>
       <c r="H20" s="3">
-        <v>196400</v>
+        <v>167400</v>
       </c>
       <c r="I20" s="3">
-        <v>205700</v>
+        <v>192000</v>
       </c>
       <c r="J20" s="3">
+        <v>201100</v>
+      </c>
+      <c r="K20" s="3">
         <v>149800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>184900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>189900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>178600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>168900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>164700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>146400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>126000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>130500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>116900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>107200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>120000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>107600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>98400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>10165300</v>
+        <v>10480500</v>
       </c>
       <c r="E21" s="3">
-        <v>9161000</v>
+        <v>9936700</v>
       </c>
       <c r="F21" s="3">
-        <v>9247700</v>
+        <v>8955000</v>
       </c>
       <c r="G21" s="3">
-        <v>9345000</v>
+        <v>9039700</v>
       </c>
       <c r="H21" s="3">
-        <v>9013300</v>
+        <v>9134800</v>
       </c>
       <c r="I21" s="3">
-        <v>7480700</v>
+        <v>8810600</v>
       </c>
       <c r="J21" s="3">
+        <v>7312500</v>
+      </c>
+      <c r="K21" s="3">
         <v>7248400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7027400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6452500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5468200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5143700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6404700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5777700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5309100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5729000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5941400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5591600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4697800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5178800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5520800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>48100</v>
+        <v>76500</v>
       </c>
       <c r="E22" s="3">
-        <v>40900</v>
+        <v>47000</v>
       </c>
       <c r="F22" s="3">
-        <v>27800</v>
+        <v>39900</v>
       </c>
       <c r="G22" s="3">
-        <v>27700</v>
+        <v>27200</v>
       </c>
       <c r="H22" s="3">
-        <v>13400</v>
+        <v>27100</v>
       </c>
       <c r="I22" s="3">
-        <v>14700</v>
+        <v>13100</v>
       </c>
       <c r="J22" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K22" s="3">
         <v>19100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>30200</v>
       </c>
       <c r="M22" s="3">
         <v>30200</v>
       </c>
       <c r="N22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="O22" s="3">
         <v>31500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>29800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20900</v>
-      </c>
-      <c r="R22" s="3">
-        <v>26900</v>
       </c>
       <c r="S22" s="3">
         <v>26900</v>
       </c>
       <c r="T22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="U22" s="3">
         <v>27300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>27200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>26600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>26500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>6262100</v>
+        <v>6507500</v>
       </c>
       <c r="E23" s="3">
-        <v>5381100</v>
+        <v>6121300</v>
       </c>
       <c r="F23" s="3">
-        <v>5585400</v>
+        <v>5260100</v>
       </c>
       <c r="G23" s="3">
-        <v>5803100</v>
+        <v>5459800</v>
       </c>
       <c r="H23" s="3">
-        <v>5587600</v>
+        <v>5672600</v>
       </c>
       <c r="I23" s="3">
-        <v>4913100</v>
+        <v>5461900</v>
       </c>
       <c r="J23" s="3">
+        <v>4802600</v>
+      </c>
+      <c r="K23" s="3">
         <v>4759900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4594900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4028400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2815100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2391800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3784600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3298200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2913200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3324100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3619400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3257800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2791100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3190000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3653900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>625800</v>
+        <v>649500</v>
       </c>
       <c r="E24" s="3">
-        <v>537000</v>
+        <v>611700</v>
       </c>
       <c r="F24" s="3">
-        <v>552000</v>
+        <v>525000</v>
       </c>
       <c r="G24" s="3">
-        <v>658500</v>
+        <v>539600</v>
       </c>
       <c r="H24" s="3">
-        <v>639200</v>
+        <v>643700</v>
       </c>
       <c r="I24" s="3">
-        <v>558500</v>
+        <v>624800</v>
       </c>
       <c r="J24" s="3">
+        <v>546000</v>
+      </c>
+      <c r="K24" s="3">
         <v>543300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>453300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>402800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>481200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>238300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>377400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>326800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>508700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>337800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>342500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>643200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>332700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>385400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1854,144 +1902,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5636400</v>
+        <v>5858000</v>
       </c>
       <c r="E26" s="3">
-        <v>4844000</v>
+        <v>5509600</v>
       </c>
       <c r="F26" s="3">
-        <v>5033400</v>
+        <v>4735100</v>
       </c>
       <c r="G26" s="3">
-        <v>5144500</v>
+        <v>4920200</v>
       </c>
       <c r="H26" s="3">
-        <v>4948400</v>
+        <v>5028900</v>
       </c>
       <c r="I26" s="3">
-        <v>4354500</v>
+        <v>4837100</v>
       </c>
       <c r="J26" s="3">
+        <v>4256600</v>
+      </c>
+      <c r="K26" s="3">
         <v>4216600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4141700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3625500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2333800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2153500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3407200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2971400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2404500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2986300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3218500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2915300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2147800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2857300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3268400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5628400</v>
+        <v>5853000</v>
       </c>
       <c r="E27" s="3">
-        <v>4839600</v>
+        <v>5501900</v>
       </c>
       <c r="F27" s="3">
-        <v>5031700</v>
+        <v>4730800</v>
       </c>
       <c r="G27" s="3">
-        <v>5142400</v>
+        <v>4918500</v>
       </c>
       <c r="H27" s="3">
-        <v>4945900</v>
+        <v>5026800</v>
       </c>
       <c r="I27" s="3">
-        <v>4352000</v>
+        <v>4834700</v>
       </c>
       <c r="J27" s="3">
+        <v>4254100</v>
+      </c>
+      <c r="K27" s="3">
         <v>4213900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4140100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3624400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2333400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2153700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3406500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2970500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2404400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2986200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3217900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2914500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2147800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2857600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3267500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2058,8 +2115,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2126,8 +2186,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2194,8 +2257,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,144 +2328,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-150600</v>
+        <v>-148700</v>
       </c>
       <c r="E32" s="3">
-        <v>-174900</v>
+        <v>-147200</v>
       </c>
       <c r="F32" s="3">
-        <v>-190800</v>
+        <v>-171000</v>
       </c>
       <c r="G32" s="3">
-        <v>-171300</v>
+        <v>-186500</v>
       </c>
       <c r="H32" s="3">
-        <v>-196400</v>
+        <v>-167400</v>
       </c>
       <c r="I32" s="3">
-        <v>-205700</v>
+        <v>-192000</v>
       </c>
       <c r="J32" s="3">
+        <v>-201100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-149800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-184900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-189900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-178600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-168900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-164700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-146400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-126000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-130500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-116900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-107200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-120000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-107600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-98400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5628400</v>
+        <v>5853000</v>
       </c>
       <c r="E33" s="3">
-        <v>4839600</v>
+        <v>5501900</v>
       </c>
       <c r="F33" s="3">
-        <v>5031700</v>
+        <v>4730800</v>
       </c>
       <c r="G33" s="3">
-        <v>5142400</v>
+        <v>4918500</v>
       </c>
       <c r="H33" s="3">
-        <v>4945900</v>
+        <v>5026800</v>
       </c>
       <c r="I33" s="3">
-        <v>4352000</v>
+        <v>4834700</v>
       </c>
       <c r="J33" s="3">
+        <v>4254100</v>
+      </c>
+      <c r="K33" s="3">
         <v>4213900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4140100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3624400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2333400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2153700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3406500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2970500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2404400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2986200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3217900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2914500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2147800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2857600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3267500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2466,149 +2541,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5628400</v>
+        <v>5853000</v>
       </c>
       <c r="E35" s="3">
-        <v>4839600</v>
+        <v>5501900</v>
       </c>
       <c r="F35" s="3">
-        <v>5031700</v>
+        <v>4730800</v>
       </c>
       <c r="G35" s="3">
-        <v>5142400</v>
+        <v>4918500</v>
       </c>
       <c r="H35" s="3">
-        <v>4945900</v>
+        <v>5026800</v>
       </c>
       <c r="I35" s="3">
-        <v>4352000</v>
+        <v>4834700</v>
       </c>
       <c r="J35" s="3">
+        <v>4254100</v>
+      </c>
+      <c r="K35" s="3">
         <v>4213900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4140100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3624400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2333400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2153700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3406500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2970500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2404400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2986200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3217900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2914500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2147800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2857600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3267500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2633,8 +2717,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2659,620 +2744,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>30754300</v>
+        <v>37498300</v>
       </c>
       <c r="E41" s="3">
-        <v>26942300</v>
+        <v>30062700</v>
       </c>
       <c r="F41" s="3">
-        <v>23943500</v>
+        <v>26336400</v>
       </c>
       <c r="G41" s="3">
-        <v>23779300</v>
+        <v>23405100</v>
       </c>
       <c r="H41" s="3">
-        <v>21763100</v>
+        <v>23244600</v>
       </c>
       <c r="I41" s="3">
-        <v>16843400</v>
+        <v>21273700</v>
       </c>
       <c r="J41" s="3">
+        <v>16464700</v>
+      </c>
+      <c r="K41" s="3">
         <v>15516600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16248600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16224200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22706900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22650100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19686100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16299200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21028000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19217100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17935400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13225800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>18488800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>18415700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>17650300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4896700</v>
+        <v>4341100</v>
       </c>
       <c r="E42" s="3">
-        <v>4871500</v>
+        <v>4786600</v>
       </c>
       <c r="F42" s="3">
-        <v>5296200</v>
+        <v>4762000</v>
       </c>
       <c r="G42" s="3">
-        <v>5032800</v>
+        <v>5177100</v>
       </c>
       <c r="H42" s="3">
-        <v>5236500</v>
+        <v>4919600</v>
       </c>
       <c r="I42" s="3">
-        <v>5298000</v>
+        <v>5118700</v>
       </c>
       <c r="J42" s="3">
+        <v>5178800</v>
+      </c>
+      <c r="K42" s="3">
         <v>5052000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4951600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5379600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4532100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4384600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4628600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4342600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4313700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3928700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3325800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3200600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2937600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3206500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3091300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6744400</v>
+        <v>6984400</v>
       </c>
       <c r="E43" s="3">
-        <v>6482600</v>
+        <v>6592800</v>
       </c>
       <c r="F43" s="3">
-        <v>6034500</v>
+        <v>6336800</v>
       </c>
       <c r="G43" s="3">
-        <v>5262100</v>
+        <v>5898800</v>
       </c>
       <c r="H43" s="3">
-        <v>5857500</v>
+        <v>5143800</v>
       </c>
       <c r="I43" s="3">
-        <v>5481600</v>
+        <v>5725800</v>
       </c>
       <c r="J43" s="3">
+        <v>5358300</v>
+      </c>
+      <c r="K43" s="3">
         <v>5276200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4988900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5216800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4112700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3746200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4404000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4322300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3039400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3589100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3969900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3853300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3625400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3559800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4221400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>6564100</v>
+        <v>6799100</v>
       </c>
       <c r="E44" s="3">
-        <v>6139200</v>
+        <v>6416500</v>
       </c>
       <c r="F44" s="3">
-        <v>5567500</v>
+        <v>6001100</v>
       </c>
       <c r="G44" s="3">
-        <v>4947500</v>
+        <v>5442300</v>
       </c>
       <c r="H44" s="3">
-        <v>3944500</v>
+        <v>4836200</v>
       </c>
       <c r="I44" s="3">
-        <v>3090100</v>
+        <v>3855800</v>
       </c>
       <c r="J44" s="3">
+        <v>3020600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2819600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2960800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3467200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3782700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3812600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3517100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3513000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3293800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2834300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2394500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2394900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1977400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1643200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1587500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>410900</v>
+        <v>962100</v>
       </c>
       <c r="E45" s="3">
-        <v>269000</v>
+        <v>401700</v>
       </c>
       <c r="F45" s="3">
-        <v>213400</v>
+        <v>262900</v>
       </c>
       <c r="G45" s="3">
-        <v>318800</v>
+        <v>208600</v>
       </c>
       <c r="H45" s="3">
-        <v>287200</v>
+        <v>311600</v>
       </c>
       <c r="I45" s="3">
-        <v>265300</v>
+        <v>280800</v>
       </c>
       <c r="J45" s="3">
+        <v>259300</v>
+      </c>
+      <c r="K45" s="3">
         <v>240500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>201000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>172700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>171400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>182200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>187900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>178000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>222900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1333300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>156400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>170000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>132000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>99600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>115600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>49370400</v>
+        <v>56585000</v>
       </c>
       <c r="E46" s="3">
-        <v>44704600</v>
+        <v>48260200</v>
       </c>
       <c r="F46" s="3">
-        <v>41055100</v>
+        <v>43699300</v>
       </c>
       <c r="G46" s="3">
-        <v>39340500</v>
+        <v>40131900</v>
       </c>
       <c r="H46" s="3">
-        <v>37088900</v>
+        <v>38455800</v>
       </c>
       <c r="I46" s="3">
-        <v>30978300</v>
+        <v>36254800</v>
       </c>
       <c r="J46" s="3">
+        <v>30281700</v>
+      </c>
+      <c r="K46" s="3">
         <v>28905000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29350900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30460500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35305800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34775700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32423700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28655100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>31897800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30902400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27782000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22844600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>27161200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>26924800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>26666100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>998900</v>
+        <v>1034600</v>
       </c>
       <c r="E47" s="3">
-        <v>1046900</v>
+        <v>976400</v>
       </c>
       <c r="F47" s="3">
-        <v>1049300</v>
+        <v>1023300</v>
       </c>
       <c r="G47" s="3">
-        <v>998800</v>
+        <v>1025700</v>
       </c>
       <c r="H47" s="3">
-        <v>955100</v>
+        <v>976300</v>
       </c>
       <c r="I47" s="3">
-        <v>825500</v>
+        <v>933600</v>
       </c>
       <c r="J47" s="3">
+        <v>806900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1117800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1076500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1080600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1024600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1053800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>998400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>993900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>959100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1143400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1347300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1325700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1420200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1451800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1505100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>67064000</v>
+        <v>70696500</v>
       </c>
       <c r="E48" s="3">
-        <v>63225800</v>
+        <v>65555900</v>
       </c>
       <c r="F48" s="3">
-        <v>60903800</v>
+        <v>61804100</v>
       </c>
       <c r="G48" s="3">
-        <v>57031100</v>
+        <v>59534300</v>
       </c>
       <c r="H48" s="3">
-        <v>54939900</v>
+        <v>55748600</v>
       </c>
       <c r="I48" s="3">
-        <v>54555800</v>
+        <v>53704500</v>
       </c>
       <c r="J48" s="3">
+        <v>53329000</v>
+      </c>
+      <c r="K48" s="3">
         <v>52586900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48867700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43586500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>40573900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>39524500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36524800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34968000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34399800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35101500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34437000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34541200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34925900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>33828400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32537500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>923700</v>
+        <v>944400</v>
       </c>
       <c r="E49" s="3">
-        <v>955800</v>
+        <v>902900</v>
       </c>
       <c r="F49" s="3">
-        <v>901000</v>
+        <v>934300</v>
       </c>
       <c r="G49" s="3">
-        <v>928200</v>
+        <v>880700</v>
       </c>
       <c r="H49" s="3">
-        <v>948700</v>
+        <v>907300</v>
       </c>
       <c r="I49" s="3">
-        <v>986800</v>
+        <v>927400</v>
       </c>
       <c r="J49" s="3">
+        <v>964600</v>
+      </c>
+      <c r="K49" s="3">
         <v>980900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>736900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>648800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>611700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>630500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>579300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>466500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>458700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>454800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>459400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>481000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>457600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>465600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>476600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3339,8 +3452,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3407,76 +3523,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1672900</v>
+        <v>1914400</v>
       </c>
       <c r="E52" s="3">
-        <v>1470100</v>
+        <v>1635200</v>
       </c>
       <c r="F52" s="3">
-        <v>1237900</v>
+        <v>1437100</v>
       </c>
       <c r="G52" s="3">
-        <v>1142300</v>
+        <v>1210100</v>
       </c>
       <c r="H52" s="3">
-        <v>1000700</v>
+        <v>1116600</v>
       </c>
       <c r="I52" s="3">
-        <v>854500</v>
+        <v>978200</v>
       </c>
       <c r="J52" s="3">
+        <v>835300</v>
+      </c>
+      <c r="K52" s="3">
         <v>814900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>776300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>757200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>749100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>750900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>684500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>612200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>581200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>552800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>530600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>488100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>415500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>418700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>332000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3543,76 +3665,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>120029900</v>
+        <v>131175000</v>
       </c>
       <c r="E54" s="3">
-        <v>111403200</v>
+        <v>117330700</v>
       </c>
       <c r="F54" s="3">
-        <v>105147100</v>
+        <v>108898000</v>
       </c>
       <c r="G54" s="3">
-        <v>99440800</v>
+        <v>102782600</v>
       </c>
       <c r="H54" s="3">
-        <v>94933300</v>
+        <v>97204600</v>
       </c>
       <c r="I54" s="3">
-        <v>88200900</v>
+        <v>92798500</v>
       </c>
       <c r="J54" s="3">
+        <v>86217500</v>
+      </c>
+      <c r="K54" s="3">
         <v>84405500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>80808200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>76533600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78265100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>76735300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71210700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>65695800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68296500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>68154900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>64556200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>59680600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>64380300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>63089400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>61517300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3637,8 +3765,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3663,416 +3792,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1580900</v>
+        <v>1715500</v>
       </c>
       <c r="E57" s="3">
-        <v>1485100</v>
+        <v>1545300</v>
       </c>
       <c r="F57" s="3">
-        <v>1390300</v>
+        <v>1451700</v>
       </c>
       <c r="G57" s="3">
-        <v>1480200</v>
+        <v>1359000</v>
       </c>
       <c r="H57" s="3">
-        <v>1472900</v>
+        <v>1447000</v>
       </c>
       <c r="I57" s="3">
-        <v>1424000</v>
+        <v>1439800</v>
       </c>
       <c r="J57" s="3">
+        <v>1392000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1432700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1434500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1325300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1138300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>970400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1170600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1010700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1019900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>965900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>974500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>939500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>830100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>790900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>891100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4355500</v>
+        <v>4283800</v>
       </c>
       <c r="E58" s="3">
-        <v>5087500</v>
+        <v>4257600</v>
       </c>
       <c r="F58" s="3">
-        <v>5007500</v>
+        <v>4973100</v>
       </c>
       <c r="G58" s="3">
-        <v>3349400</v>
+        <v>4894900</v>
       </c>
       <c r="H58" s="3">
-        <v>5752300</v>
+        <v>3274100</v>
       </c>
       <c r="I58" s="3">
-        <v>6873500</v>
+        <v>5623000</v>
       </c>
       <c r="J58" s="3">
+        <v>6719000</v>
+      </c>
+      <c r="K58" s="3">
         <v>5670400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5444700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4301600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4510200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4468900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4212900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3631000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1554400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3528500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3959500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3678600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4362700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3247200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3132800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>17679100</v>
+        <v>20038600</v>
       </c>
       <c r="E59" s="3">
-        <v>16759300</v>
+        <v>17281500</v>
       </c>
       <c r="F59" s="3">
-        <v>17434700</v>
+        <v>16382400</v>
       </c>
       <c r="G59" s="3">
-        <v>17400100</v>
+        <v>17042700</v>
       </c>
       <c r="H59" s="3">
-        <v>13963200</v>
+        <v>17008900</v>
       </c>
       <c r="I59" s="3">
-        <v>13847400</v>
+        <v>13649200</v>
       </c>
       <c r="J59" s="3">
+        <v>13536000</v>
+      </c>
+      <c r="K59" s="3">
         <v>14129500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14198200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12116000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16099400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7830300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6218800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6084700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12825000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6888300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6691700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5057000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11774100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6448700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6354000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>23615500</v>
+        <v>26037900</v>
       </c>
       <c r="E60" s="3">
-        <v>23331900</v>
+        <v>23084400</v>
       </c>
       <c r="F60" s="3">
-        <v>23832600</v>
+        <v>22807200</v>
       </c>
       <c r="G60" s="3">
-        <v>22229800</v>
+        <v>23296600</v>
       </c>
       <c r="H60" s="3">
-        <v>21188500</v>
+        <v>21729900</v>
       </c>
       <c r="I60" s="3">
-        <v>22144900</v>
+        <v>20712000</v>
       </c>
       <c r="J60" s="3">
+        <v>21647000</v>
+      </c>
+      <c r="K60" s="3">
         <v>21232600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21077400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17742900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21747900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13269600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11602300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10726400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15399300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11382700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11625700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9675100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16966900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10486700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10377800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>17443000</v>
+        <v>22328200</v>
       </c>
       <c r="E61" s="3">
-        <v>15656700</v>
+        <v>17050700</v>
       </c>
       <c r="F61" s="3">
-        <v>10825300</v>
+        <v>15304600</v>
       </c>
       <c r="G61" s="3">
-        <v>9964300</v>
+        <v>10581900</v>
       </c>
       <c r="H61" s="3">
-        <v>8904500</v>
+        <v>9740300</v>
       </c>
       <c r="I61" s="3">
-        <v>3659800</v>
+        <v>8704200</v>
       </c>
       <c r="J61" s="3">
+        <v>3577500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2376100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1432300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1439100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1772200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1831400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1938600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1897600</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>2773900</v>
       </c>
       <c r="R61" s="3">
         <v>2773900</v>
       </c>
       <c r="S61" s="3">
+        <v>2773900</v>
+      </c>
+      <c r="T61" s="3">
         <v>2975200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2975700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3218900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4376900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4993100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4110300</v>
+        <v>6377300</v>
       </c>
       <c r="E62" s="3">
-        <v>591800</v>
+        <v>4017900</v>
       </c>
       <c r="F62" s="3">
-        <v>574500</v>
+        <v>578500</v>
       </c>
       <c r="G62" s="3">
-        <v>587300</v>
+        <v>561600</v>
       </c>
       <c r="H62" s="3">
-        <v>427000</v>
+        <v>574100</v>
       </c>
       <c r="I62" s="3">
-        <v>398100</v>
+        <v>417400</v>
       </c>
       <c r="J62" s="3">
+        <v>389100</v>
+      </c>
+      <c r="K62" s="3">
         <v>390200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>422200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>424000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>418000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>471600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>517500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>517900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>544800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>562600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>602700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>637700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>688500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>735500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>816900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4139,8 +4287,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4207,8 +4358,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4275,76 +4429,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>45251600</v>
+        <v>54829600</v>
       </c>
       <c r="E66" s="3">
-        <v>39659100</v>
+        <v>44234000</v>
       </c>
       <c r="F66" s="3">
-        <v>35306600</v>
+        <v>38767200</v>
       </c>
       <c r="G66" s="3">
-        <v>32816200</v>
+        <v>34512700</v>
       </c>
       <c r="H66" s="3">
-        <v>30552600</v>
+        <v>32078200</v>
       </c>
       <c r="I66" s="3">
-        <v>26232900</v>
+        <v>29865500</v>
       </c>
       <c r="J66" s="3">
+        <v>25643000</v>
+      </c>
+      <c r="K66" s="3">
         <v>24026400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22956300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19629000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23959200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15596300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14081500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13163800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18739100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14742700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15226400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13311000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20896300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15625100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16213900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4369,8 +4529,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4437,8 +4598,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4505,8 +4669,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4573,8 +4740,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4641,76 +4811,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>65242100</v>
+        <v>67139500</v>
       </c>
       <c r="E72" s="3">
-        <v>62182100</v>
+        <v>63774900</v>
       </c>
       <c r="F72" s="3">
-        <v>59911100</v>
+        <v>60783800</v>
       </c>
       <c r="G72" s="3">
-        <v>57224500</v>
+        <v>58563800</v>
       </c>
       <c r="H72" s="3">
-        <v>54533400</v>
+        <v>55937600</v>
       </c>
       <c r="I72" s="3">
-        <v>51922500</v>
+        <v>53307100</v>
       </c>
       <c r="J72" s="3">
+        <v>50754900</v>
+      </c>
+      <c r="K72" s="3">
         <v>49905600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47573400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>45969200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43532900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50443200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46902400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>42612600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>39561800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>44059200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>39973300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>36763300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>33848900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>37815800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>34958200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4777,8 +4953,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4845,8 +5024,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4913,76 +5095,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>74778200</v>
+        <v>76345400</v>
       </c>
       <c r="E76" s="3">
-        <v>71744100</v>
+        <v>73096700</v>
       </c>
       <c r="F76" s="3">
-        <v>69840500</v>
+        <v>70130800</v>
       </c>
       <c r="G76" s="3">
-        <v>66624700</v>
+        <v>68270000</v>
       </c>
       <c r="H76" s="3">
-        <v>64380700</v>
+        <v>65126400</v>
       </c>
       <c r="I76" s="3">
-        <v>61968000</v>
+        <v>62933000</v>
       </c>
       <c r="J76" s="3">
+        <v>60574500</v>
+      </c>
+      <c r="K76" s="3">
         <v>60379100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57851900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56904700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54305800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>61139000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>57129200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52532000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>49557500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>53412200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>49329900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>46369500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43484000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>47464300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>45303400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5049,149 +5237,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5628400</v>
+        <v>5853000</v>
       </c>
       <c r="E81" s="3">
-        <v>4839600</v>
+        <v>5501900</v>
       </c>
       <c r="F81" s="3">
-        <v>5031700</v>
+        <v>4730800</v>
       </c>
       <c r="G81" s="3">
-        <v>5142400</v>
+        <v>4918500</v>
       </c>
       <c r="H81" s="3">
-        <v>4945900</v>
+        <v>5026800</v>
       </c>
       <c r="I81" s="3">
-        <v>4352000</v>
+        <v>4834700</v>
       </c>
       <c r="J81" s="3">
+        <v>4254100</v>
+      </c>
+      <c r="K81" s="3">
         <v>4213900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4140100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3624400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2333400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2153700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3406500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2970500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2404400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2986200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3217900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2914500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2147800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2857600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3267500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5216,76 +5413,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3855100</v>
+        <v>3896400</v>
       </c>
       <c r="E83" s="3">
-        <v>3739100</v>
+        <v>3768400</v>
       </c>
       <c r="F83" s="3">
-        <v>3634400</v>
+        <v>3655000</v>
       </c>
       <c r="G83" s="3">
-        <v>3514200</v>
+        <v>3552700</v>
       </c>
       <c r="H83" s="3">
-        <v>3412300</v>
+        <v>3435200</v>
       </c>
       <c r="I83" s="3">
-        <v>2552900</v>
+        <v>3335600</v>
       </c>
       <c r="J83" s="3">
+        <v>2495500</v>
+      </c>
+      <c r="K83" s="3">
         <v>2469300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2409500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2393900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2622900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2720400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2590300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2454900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2375100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2378000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2295100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2306400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1879500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1962200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1840400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5352,8 +5553,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5420,8 +5624,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5488,8 +5695,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5556,8 +5766,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5624,76 +5837,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>11479800</v>
+        <v>13316400</v>
       </c>
       <c r="E89" s="3">
-        <v>6751600</v>
+        <v>11221600</v>
       </c>
       <c r="F89" s="3">
-        <v>8205900</v>
+        <v>6599700</v>
       </c>
       <c r="G89" s="3">
-        <v>9333900</v>
+        <v>8021400</v>
       </c>
       <c r="H89" s="3">
-        <v>6850000</v>
+        <v>9124000</v>
       </c>
       <c r="I89" s="3">
-        <v>6135500</v>
+        <v>6695900</v>
       </c>
       <c r="J89" s="3">
+        <v>5997500</v>
+      </c>
+      <c r="K89" s="3">
         <v>7313100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7241400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5083300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4115700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5355700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6451900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3137700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4316300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5345700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6615700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3785000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3351200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5250500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6040000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5718,76 +5937,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-6794800</v>
+        <v>-8293900</v>
       </c>
       <c r="E91" s="3">
-        <v>-6014300</v>
+        <v>-6642000</v>
       </c>
       <c r="F91" s="3">
-        <v>-8934000</v>
+        <v>-5879100</v>
       </c>
       <c r="G91" s="3">
-        <v>-3194100</v>
+        <v>-8733100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3577000</v>
+        <v>-3122200</v>
       </c>
       <c r="I91" s="3">
-        <v>-4563700</v>
+        <v>-3496600</v>
       </c>
       <c r="J91" s="3">
+        <v>-4461100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6936000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6065900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3518500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4066500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2664000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3887600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2332800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5854,8 +6077,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5922,76 +6148,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-6376300</v>
+        <v>-8638500</v>
       </c>
       <c r="E94" s="3">
-        <v>-6114400</v>
+        <v>-6232900</v>
       </c>
       <c r="F94" s="3">
-        <v>-8797900</v>
+        <v>-5976900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3276300</v>
+        <v>-8600100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3460800</v>
+        <v>-3202700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4673600</v>
+        <v>-3383000</v>
       </c>
       <c r="J94" s="3">
+        <v>-4568500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6807500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6122900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3883300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4009400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2251700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3995100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2116800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6016,38 +6248,39 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-2510800</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-2282500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-2282500</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-2282500</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-2282500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-2282500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-2282500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2335000</v>
       </c>
-      <c r="E96" s="3">
-        <v>-2335000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-2335000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-2335000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2335000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2335000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2335000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1850400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6084,8 +6317,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6152,8 +6388,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6220,8 +6459,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6288,208 +6530,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1272400</v>
+        <v>2897200</v>
       </c>
       <c r="E100" s="3">
-        <v>2702600</v>
+        <v>-1243800</v>
       </c>
       <c r="F100" s="3">
-        <v>526600</v>
+        <v>2641800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3645400</v>
+        <v>514700</v>
       </c>
       <c r="H100" s="3">
-        <v>1708600</v>
+        <v>-3563400</v>
       </c>
       <c r="I100" s="3">
-        <v>213000</v>
+        <v>1670200</v>
       </c>
       <c r="J100" s="3">
+        <v>208200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1468100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-613100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8216000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-32500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-786200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>486600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5750700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-976100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>312600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-20700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-388400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>792500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-19100</v>
+        <v>-139500</v>
       </c>
       <c r="E101" s="3">
-        <v>-340900</v>
+        <v>-18700</v>
       </c>
       <c r="F101" s="3">
-        <v>229600</v>
+        <v>-333300</v>
       </c>
       <c r="G101" s="3">
-        <v>-396000</v>
+        <v>224400</v>
       </c>
       <c r="H101" s="3">
-        <v>-178100</v>
+        <v>-387100</v>
       </c>
       <c r="I101" s="3">
-        <v>-348000</v>
+        <v>-174100</v>
       </c>
       <c r="J101" s="3">
+        <v>-340200</v>
+      </c>
+      <c r="K101" s="3">
         <v>75600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-399500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-58000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>66900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>62700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>91600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-55800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>468800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-174600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-175200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-23200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>38900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-534700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>204200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>3812000</v>
+        <v>7435600</v>
       </c>
       <c r="E102" s="3">
-        <v>2998800</v>
+        <v>3726300</v>
       </c>
       <c r="F102" s="3">
-        <v>164200</v>
+        <v>2931400</v>
       </c>
       <c r="G102" s="3">
-        <v>2016200</v>
+        <v>160500</v>
       </c>
       <c r="H102" s="3">
-        <v>4919700</v>
+        <v>1970900</v>
       </c>
       <c r="I102" s="3">
-        <v>1326800</v>
+        <v>4809000</v>
       </c>
       <c r="J102" s="3">
+        <v>1297000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-886900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>105900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7074000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>140700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2380400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3035000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4785700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1810900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>811300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4709600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>186100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>765400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2520200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5165000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -665,7 +665,8 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -768,25 +769,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15428600</v>
+        <v>14670600</v>
       </c>
       <c r="E8" s="3">
-        <v>14600500</v>
+        <v>13883200</v>
       </c>
       <c r="F8" s="3">
-        <v>13103200</v>
+        <v>12459400</v>
       </c>
       <c r="G8" s="3">
-        <v>12760500</v>
+        <v>12133500</v>
       </c>
       <c r="H8" s="3">
-        <v>12729600</v>
+        <v>12104100</v>
       </c>
       <c r="I8" s="3">
-        <v>12549800</v>
+        <v>11933100</v>
       </c>
       <c r="J8" s="3">
-        <v>10939700</v>
+        <v>10402200</v>
       </c>
       <c r="K8" s="3">
         <v>11187700</v>
@@ -839,25 +840,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7306400</v>
+        <v>6947400</v>
       </c>
       <c r="E9" s="3">
-        <v>7106100</v>
+        <v>6757000</v>
       </c>
       <c r="F9" s="3">
-        <v>6545900</v>
+        <v>6224300</v>
       </c>
       <c r="G9" s="3">
-        <v>6078500</v>
+        <v>5779800</v>
       </c>
       <c r="H9" s="3">
-        <v>5857000</v>
+        <v>5569200</v>
       </c>
       <c r="I9" s="3">
-        <v>5842900</v>
+        <v>5555900</v>
       </c>
       <c r="J9" s="3">
-        <v>5140900</v>
+        <v>4888300</v>
       </c>
       <c r="K9" s="3">
         <v>5396300</v>
@@ -910,25 +911,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8122200</v>
+        <v>7723100</v>
       </c>
       <c r="E10" s="3">
-        <v>7494400</v>
+        <v>7126200</v>
       </c>
       <c r="F10" s="3">
-        <v>6557300</v>
+        <v>6235100</v>
       </c>
       <c r="G10" s="3">
-        <v>6682000</v>
+        <v>6353700</v>
       </c>
       <c r="H10" s="3">
-        <v>6872600</v>
+        <v>6534900</v>
       </c>
       <c r="I10" s="3">
-        <v>6706800</v>
+        <v>6377300</v>
       </c>
       <c r="J10" s="3">
-        <v>5798800</v>
+        <v>5513900</v>
       </c>
       <c r="K10" s="3">
         <v>5791400</v>
@@ -1008,25 +1009,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1135100</v>
+        <v>1079300</v>
       </c>
       <c r="E12" s="3">
-        <v>1086800</v>
+        <v>1033400</v>
       </c>
       <c r="F12" s="3">
-        <v>1087100</v>
+        <v>1033600</v>
       </c>
       <c r="G12" s="3">
-        <v>1082900</v>
+        <v>1029700</v>
       </c>
       <c r="H12" s="3">
-        <v>1054200</v>
+        <v>1002400</v>
       </c>
       <c r="I12" s="3">
-        <v>1045200</v>
+        <v>993800</v>
       </c>
       <c r="J12" s="3">
-        <v>876500</v>
+        <v>833400</v>
       </c>
       <c r="K12" s="3">
         <v>899400</v>
@@ -1168,7 +1169,7 @@
         <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
@@ -1224,13 +1225,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G15" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="H15" s="3">
         <v>700</v>
@@ -1316,25 +1317,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8993300</v>
+        <v>8551500</v>
       </c>
       <c r="E17" s="3">
-        <v>8579400</v>
+        <v>8157900</v>
       </c>
       <c r="F17" s="3">
-        <v>7974200</v>
+        <v>7582400</v>
       </c>
       <c r="G17" s="3">
-        <v>7460000</v>
+        <v>7093500</v>
       </c>
       <c r="H17" s="3">
-        <v>7197400</v>
+        <v>6843700</v>
       </c>
       <c r="I17" s="3">
-        <v>7266700</v>
+        <v>6909700</v>
       </c>
       <c r="J17" s="3">
-        <v>6323800</v>
+        <v>6013100</v>
       </c>
       <c r="K17" s="3">
         <v>6558400</v>
@@ -1387,25 +1388,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6435300</v>
+        <v>6119100</v>
       </c>
       <c r="E18" s="3">
-        <v>6021100</v>
+        <v>5725300</v>
       </c>
       <c r="F18" s="3">
-        <v>5129000</v>
+        <v>4877000</v>
       </c>
       <c r="G18" s="3">
-        <v>5300500</v>
+        <v>5040000</v>
       </c>
       <c r="H18" s="3">
-        <v>5532200</v>
+        <v>5260400</v>
       </c>
       <c r="I18" s="3">
-        <v>5283000</v>
+        <v>5023500</v>
       </c>
       <c r="J18" s="3">
-        <v>4615900</v>
+        <v>4389100</v>
       </c>
       <c r="K18" s="3">
         <v>4629300</v>
@@ -1485,25 +1486,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>148700</v>
+        <v>141400</v>
       </c>
       <c r="E20" s="3">
-        <v>147200</v>
+        <v>140000</v>
       </c>
       <c r="F20" s="3">
-        <v>171000</v>
+        <v>162600</v>
       </c>
       <c r="G20" s="3">
-        <v>186500</v>
+        <v>177400</v>
       </c>
       <c r="H20" s="3">
-        <v>167400</v>
+        <v>159200</v>
       </c>
       <c r="I20" s="3">
-        <v>192000</v>
+        <v>182600</v>
       </c>
       <c r="J20" s="3">
-        <v>201100</v>
+        <v>191200</v>
       </c>
       <c r="K20" s="3">
         <v>149800</v>
@@ -1556,25 +1557,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>10480500</v>
+        <v>9965500</v>
       </c>
       <c r="E21" s="3">
-        <v>9936700</v>
+        <v>9448500</v>
       </c>
       <c r="F21" s="3">
-        <v>8955000</v>
+        <v>8515000</v>
       </c>
       <c r="G21" s="3">
-        <v>9039700</v>
+        <v>8595500</v>
       </c>
       <c r="H21" s="3">
-        <v>9134800</v>
+        <v>8686000</v>
       </c>
       <c r="I21" s="3">
-        <v>8810600</v>
+        <v>8377700</v>
       </c>
       <c r="J21" s="3">
-        <v>7312500</v>
+        <v>6953200</v>
       </c>
       <c r="K21" s="3">
         <v>7248400</v>
@@ -1627,25 +1628,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>76500</v>
+        <v>72800</v>
       </c>
       <c r="E22" s="3">
-        <v>47000</v>
+        <v>44700</v>
       </c>
       <c r="F22" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="G22" s="3">
-        <v>27200</v>
+        <v>25800</v>
       </c>
       <c r="H22" s="3">
-        <v>27100</v>
+        <v>25700</v>
       </c>
       <c r="I22" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="J22" s="3">
-        <v>14400</v>
+        <v>13700</v>
       </c>
       <c r="K22" s="3">
         <v>19100</v>
@@ -1698,25 +1699,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>6507500</v>
+        <v>6187700</v>
       </c>
       <c r="E23" s="3">
-        <v>6121300</v>
+        <v>5820600</v>
       </c>
       <c r="F23" s="3">
-        <v>5260100</v>
+        <v>5001600</v>
       </c>
       <c r="G23" s="3">
-        <v>5459800</v>
+        <v>5191600</v>
       </c>
       <c r="H23" s="3">
-        <v>5672600</v>
+        <v>5393900</v>
       </c>
       <c r="I23" s="3">
-        <v>5461900</v>
+        <v>5193600</v>
       </c>
       <c r="J23" s="3">
-        <v>4802600</v>
+        <v>4566600</v>
       </c>
       <c r="K23" s="3">
         <v>4759900</v>
@@ -1769,25 +1770,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>649500</v>
+        <v>617600</v>
       </c>
       <c r="E24" s="3">
-        <v>611700</v>
+        <v>581600</v>
       </c>
       <c r="F24" s="3">
-        <v>525000</v>
+        <v>499200</v>
       </c>
       <c r="G24" s="3">
-        <v>539600</v>
+        <v>513100</v>
       </c>
       <c r="H24" s="3">
-        <v>643700</v>
+        <v>612100</v>
       </c>
       <c r="I24" s="3">
-        <v>624800</v>
+        <v>594100</v>
       </c>
       <c r="J24" s="3">
-        <v>546000</v>
+        <v>519100</v>
       </c>
       <c r="K24" s="3">
         <v>543300</v>
@@ -1911,25 +1912,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5858000</v>
+        <v>5570200</v>
       </c>
       <c r="E26" s="3">
-        <v>5509600</v>
+        <v>5238900</v>
       </c>
       <c r="F26" s="3">
-        <v>4735100</v>
+        <v>4502400</v>
       </c>
       <c r="G26" s="3">
-        <v>4920200</v>
+        <v>4678500</v>
       </c>
       <c r="H26" s="3">
-        <v>5028900</v>
+        <v>4781800</v>
       </c>
       <c r="I26" s="3">
-        <v>4837100</v>
+        <v>4599400</v>
       </c>
       <c r="J26" s="3">
-        <v>4256600</v>
+        <v>4047500</v>
       </c>
       <c r="K26" s="3">
         <v>4216600</v>
@@ -1982,25 +1983,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5853000</v>
+        <v>5565500</v>
       </c>
       <c r="E27" s="3">
-        <v>5501900</v>
+        <v>5231500</v>
       </c>
       <c r="F27" s="3">
-        <v>4730800</v>
+        <v>4498300</v>
       </c>
       <c r="G27" s="3">
-        <v>4918500</v>
+        <v>4676800</v>
       </c>
       <c r="H27" s="3">
-        <v>5026800</v>
+        <v>4779800</v>
       </c>
       <c r="I27" s="3">
-        <v>4834700</v>
+        <v>4597100</v>
       </c>
       <c r="J27" s="3">
-        <v>4254100</v>
+        <v>4045100</v>
       </c>
       <c r="K27" s="3">
         <v>4213900</v>
@@ -2337,25 +2338,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-148700</v>
+        <v>-141400</v>
       </c>
       <c r="E32" s="3">
-        <v>-147200</v>
+        <v>-140000</v>
       </c>
       <c r="F32" s="3">
-        <v>-171000</v>
+        <v>-162600</v>
       </c>
       <c r="G32" s="3">
-        <v>-186500</v>
+        <v>-177400</v>
       </c>
       <c r="H32" s="3">
-        <v>-167400</v>
+        <v>-159200</v>
       </c>
       <c r="I32" s="3">
-        <v>-192000</v>
+        <v>-182600</v>
       </c>
       <c r="J32" s="3">
-        <v>-201100</v>
+        <v>-191200</v>
       </c>
       <c r="K32" s="3">
         <v>-149800</v>
@@ -2408,25 +2409,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5853000</v>
+        <v>5565500</v>
       </c>
       <c r="E33" s="3">
-        <v>5501900</v>
+        <v>5231500</v>
       </c>
       <c r="F33" s="3">
-        <v>4730800</v>
+        <v>4498300</v>
       </c>
       <c r="G33" s="3">
-        <v>4918500</v>
+        <v>4676800</v>
       </c>
       <c r="H33" s="3">
-        <v>5026800</v>
+        <v>4779800</v>
       </c>
       <c r="I33" s="3">
-        <v>4834700</v>
+        <v>4597100</v>
       </c>
       <c r="J33" s="3">
-        <v>4254100</v>
+        <v>4045100</v>
       </c>
       <c r="K33" s="3">
         <v>4213900</v>
@@ -2550,25 +2551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5853000</v>
+        <v>5565500</v>
       </c>
       <c r="E35" s="3">
-        <v>5501900</v>
+        <v>5231500</v>
       </c>
       <c r="F35" s="3">
-        <v>4730800</v>
+        <v>4498300</v>
       </c>
       <c r="G35" s="3">
-        <v>4918500</v>
+        <v>4676800</v>
       </c>
       <c r="H35" s="3">
-        <v>5026800</v>
+        <v>4779800</v>
       </c>
       <c r="I35" s="3">
-        <v>4834700</v>
+        <v>4597100</v>
       </c>
       <c r="J35" s="3">
-        <v>4254100</v>
+        <v>4045100</v>
       </c>
       <c r="K35" s="3">
         <v>4213900</v>
@@ -2751,25 +2752,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>37498300</v>
+        <v>35655900</v>
       </c>
       <c r="E41" s="3">
-        <v>30062700</v>
+        <v>28585600</v>
       </c>
       <c r="F41" s="3">
-        <v>26336400</v>
+        <v>25042400</v>
       </c>
       <c r="G41" s="3">
-        <v>23405100</v>
+        <v>22255100</v>
       </c>
       <c r="H41" s="3">
-        <v>23244600</v>
+        <v>22102500</v>
       </c>
       <c r="I41" s="3">
-        <v>21273700</v>
+        <v>20228500</v>
       </c>
       <c r="J41" s="3">
-        <v>16464700</v>
+        <v>15655700</v>
       </c>
       <c r="K41" s="3">
         <v>15516600</v>
@@ -2822,25 +2823,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4341100</v>
+        <v>4127800</v>
       </c>
       <c r="E42" s="3">
-        <v>4786600</v>
+        <v>4551400</v>
       </c>
       <c r="F42" s="3">
-        <v>4762000</v>
+        <v>4528000</v>
       </c>
       <c r="G42" s="3">
-        <v>5177100</v>
+        <v>4922700</v>
       </c>
       <c r="H42" s="3">
-        <v>4919600</v>
+        <v>4677900</v>
       </c>
       <c r="I42" s="3">
-        <v>5118700</v>
+        <v>4867200</v>
       </c>
       <c r="J42" s="3">
-        <v>5178800</v>
+        <v>4924400</v>
       </c>
       <c r="K42" s="3">
         <v>5052000</v>
@@ -2893,25 +2894,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6984400</v>
+        <v>6641200</v>
       </c>
       <c r="E43" s="3">
-        <v>6592800</v>
+        <v>6268800</v>
       </c>
       <c r="F43" s="3">
-        <v>6336800</v>
+        <v>6025400</v>
       </c>
       <c r="G43" s="3">
-        <v>5898800</v>
+        <v>5609000</v>
       </c>
       <c r="H43" s="3">
-        <v>5143800</v>
+        <v>4891100</v>
       </c>
       <c r="I43" s="3">
-        <v>5725800</v>
+        <v>5444500</v>
       </c>
       <c r="J43" s="3">
-        <v>5358300</v>
+        <v>5095000</v>
       </c>
       <c r="K43" s="3">
         <v>5276200</v>
@@ -2964,25 +2965,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>6799100</v>
+        <v>6465100</v>
       </c>
       <c r="E44" s="3">
-        <v>6416500</v>
+        <v>6101200</v>
       </c>
       <c r="F44" s="3">
-        <v>6001100</v>
+        <v>5706300</v>
       </c>
       <c r="G44" s="3">
-        <v>5442300</v>
+        <v>5174900</v>
       </c>
       <c r="H44" s="3">
-        <v>4836200</v>
+        <v>4598600</v>
       </c>
       <c r="I44" s="3">
-        <v>3855800</v>
+        <v>3666400</v>
       </c>
       <c r="J44" s="3">
-        <v>3020600</v>
+        <v>2872200</v>
       </c>
       <c r="K44" s="3">
         <v>2819600</v>
@@ -3035,25 +3036,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>962100</v>
+        <v>914800</v>
       </c>
       <c r="E45" s="3">
-        <v>401700</v>
+        <v>382000</v>
       </c>
       <c r="F45" s="3">
-        <v>262900</v>
+        <v>250000</v>
       </c>
       <c r="G45" s="3">
-        <v>208600</v>
+        <v>198400</v>
       </c>
       <c r="H45" s="3">
-        <v>311600</v>
+        <v>296300</v>
       </c>
       <c r="I45" s="3">
-        <v>280800</v>
+        <v>267000</v>
       </c>
       <c r="J45" s="3">
-        <v>259300</v>
+        <v>246600</v>
       </c>
       <c r="K45" s="3">
         <v>240500</v>
@@ -3106,25 +3107,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>56585000</v>
+        <v>53804800</v>
       </c>
       <c r="E46" s="3">
-        <v>48260200</v>
+        <v>45889000</v>
       </c>
       <c r="F46" s="3">
-        <v>43699300</v>
+        <v>41552200</v>
       </c>
       <c r="G46" s="3">
-        <v>40131900</v>
+        <v>38160100</v>
       </c>
       <c r="H46" s="3">
-        <v>38455800</v>
+        <v>36566400</v>
       </c>
       <c r="I46" s="3">
-        <v>36254800</v>
+        <v>34473500</v>
       </c>
       <c r="J46" s="3">
-        <v>30281700</v>
+        <v>28793900</v>
       </c>
       <c r="K46" s="3">
         <v>28905000</v>
@@ -3177,25 +3178,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1034600</v>
+        <v>983800</v>
       </c>
       <c r="E47" s="3">
-        <v>976400</v>
+        <v>928400</v>
       </c>
       <c r="F47" s="3">
-        <v>1023300</v>
+        <v>973000</v>
       </c>
       <c r="G47" s="3">
-        <v>1025700</v>
+        <v>975300</v>
       </c>
       <c r="H47" s="3">
-        <v>976300</v>
+        <v>928300</v>
       </c>
       <c r="I47" s="3">
-        <v>933600</v>
+        <v>887700</v>
       </c>
       <c r="J47" s="3">
-        <v>806900</v>
+        <v>767300</v>
       </c>
       <c r="K47" s="3">
         <v>1117800</v>
@@ -3248,25 +3249,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>70696500</v>
+        <v>67222900</v>
       </c>
       <c r="E48" s="3">
-        <v>65555900</v>
+        <v>62334900</v>
       </c>
       <c r="F48" s="3">
-        <v>61804100</v>
+        <v>58767400</v>
       </c>
       <c r="G48" s="3">
-        <v>59534300</v>
+        <v>56609100</v>
       </c>
       <c r="H48" s="3">
-        <v>55748600</v>
+        <v>53009500</v>
       </c>
       <c r="I48" s="3">
-        <v>53704500</v>
+        <v>51065800</v>
       </c>
       <c r="J48" s="3">
-        <v>53329000</v>
+        <v>50708700</v>
       </c>
       <c r="K48" s="3">
         <v>52586900</v>
@@ -3319,25 +3320,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>944400</v>
+        <v>898000</v>
       </c>
       <c r="E49" s="3">
-        <v>902900</v>
+        <v>858600</v>
       </c>
       <c r="F49" s="3">
-        <v>934300</v>
+        <v>888400</v>
       </c>
       <c r="G49" s="3">
-        <v>880700</v>
+        <v>837400</v>
       </c>
       <c r="H49" s="3">
-        <v>907300</v>
+        <v>862700</v>
       </c>
       <c r="I49" s="3">
-        <v>927400</v>
+        <v>881800</v>
       </c>
       <c r="J49" s="3">
-        <v>964600</v>
+        <v>917200</v>
       </c>
       <c r="K49" s="3">
         <v>980900</v>
@@ -3532,25 +3533,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1914400</v>
+        <v>1820300</v>
       </c>
       <c r="E52" s="3">
-        <v>1635200</v>
+        <v>1554900</v>
       </c>
       <c r="F52" s="3">
-        <v>1437100</v>
+        <v>1366500</v>
       </c>
       <c r="G52" s="3">
-        <v>1210100</v>
+        <v>1150600</v>
       </c>
       <c r="H52" s="3">
-        <v>1116600</v>
+        <v>1061700</v>
       </c>
       <c r="I52" s="3">
-        <v>978200</v>
+        <v>930100</v>
       </c>
       <c r="J52" s="3">
-        <v>835300</v>
+        <v>794200</v>
       </c>
       <c r="K52" s="3">
         <v>814900</v>
@@ -3674,25 +3675,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>131175000</v>
+        <v>124729900</v>
       </c>
       <c r="E54" s="3">
-        <v>117330700</v>
+        <v>111565800</v>
       </c>
       <c r="F54" s="3">
-        <v>108898000</v>
+        <v>103547500</v>
       </c>
       <c r="G54" s="3">
-        <v>102782600</v>
+        <v>97732500</v>
       </c>
       <c r="H54" s="3">
-        <v>97204600</v>
+        <v>92428600</v>
       </c>
       <c r="I54" s="3">
-        <v>92798500</v>
+        <v>88239000</v>
       </c>
       <c r="J54" s="3">
-        <v>86217500</v>
+        <v>81981300</v>
       </c>
       <c r="K54" s="3">
         <v>84405500</v>
@@ -3799,25 +3800,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1715500</v>
+        <v>1631200</v>
       </c>
       <c r="E57" s="3">
-        <v>1545300</v>
+        <v>1469400</v>
       </c>
       <c r="F57" s="3">
-        <v>1451700</v>
+        <v>1380400</v>
       </c>
       <c r="G57" s="3">
-        <v>1359000</v>
+        <v>1292300</v>
       </c>
       <c r="H57" s="3">
-        <v>1447000</v>
+        <v>1375900</v>
       </c>
       <c r="I57" s="3">
-        <v>1439800</v>
+        <v>1369100</v>
       </c>
       <c r="J57" s="3">
-        <v>1392000</v>
+        <v>1323600</v>
       </c>
       <c r="K57" s="3">
         <v>1432700</v>
@@ -3870,25 +3871,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4283800</v>
+        <v>4073300</v>
       </c>
       <c r="E58" s="3">
-        <v>4257600</v>
+        <v>4048400</v>
       </c>
       <c r="F58" s="3">
-        <v>4973100</v>
+        <v>4728800</v>
       </c>
       <c r="G58" s="3">
-        <v>4894900</v>
+        <v>4654400</v>
       </c>
       <c r="H58" s="3">
-        <v>3274100</v>
+        <v>3113200</v>
       </c>
       <c r="I58" s="3">
-        <v>5623000</v>
+        <v>5346700</v>
       </c>
       <c r="J58" s="3">
-        <v>6719000</v>
+        <v>6388800</v>
       </c>
       <c r="K58" s="3">
         <v>5670400</v>
@@ -3941,25 +3942,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>20038600</v>
+        <v>19054000</v>
       </c>
       <c r="E59" s="3">
-        <v>17281500</v>
+        <v>16432400</v>
       </c>
       <c r="F59" s="3">
-        <v>16382400</v>
+        <v>15577500</v>
       </c>
       <c r="G59" s="3">
-        <v>17042700</v>
+        <v>16205300</v>
       </c>
       <c r="H59" s="3">
-        <v>17008900</v>
+        <v>16173100</v>
       </c>
       <c r="I59" s="3">
-        <v>13649200</v>
+        <v>12978600</v>
       </c>
       <c r="J59" s="3">
-        <v>13536000</v>
+        <v>12870900</v>
       </c>
       <c r="K59" s="3">
         <v>14129500</v>
@@ -4012,25 +4013,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>26037900</v>
+        <v>24758600</v>
       </c>
       <c r="E60" s="3">
-        <v>23084400</v>
+        <v>21950200</v>
       </c>
       <c r="F60" s="3">
-        <v>22807200</v>
+        <v>21686600</v>
       </c>
       <c r="G60" s="3">
-        <v>23296600</v>
+        <v>22152000</v>
       </c>
       <c r="H60" s="3">
-        <v>21729900</v>
+        <v>20662200</v>
       </c>
       <c r="I60" s="3">
-        <v>20712000</v>
+        <v>19694300</v>
       </c>
       <c r="J60" s="3">
-        <v>21647000</v>
+        <v>20583400</v>
       </c>
       <c r="K60" s="3">
         <v>21232600</v>
@@ -4083,25 +4084,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>22328200</v>
+        <v>21231100</v>
       </c>
       <c r="E61" s="3">
-        <v>17050700</v>
+        <v>16213000</v>
       </c>
       <c r="F61" s="3">
-        <v>15304600</v>
+        <v>14552600</v>
       </c>
       <c r="G61" s="3">
-        <v>10581900</v>
+        <v>10062000</v>
       </c>
       <c r="H61" s="3">
-        <v>9740300</v>
+        <v>9261700</v>
       </c>
       <c r="I61" s="3">
-        <v>8704200</v>
+        <v>8276500</v>
       </c>
       <c r="J61" s="3">
-        <v>3577500</v>
+        <v>3401700</v>
       </c>
       <c r="K61" s="3">
         <v>2376100</v>
@@ -4154,25 +4155,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>6377300</v>
+        <v>6064000</v>
       </c>
       <c r="E62" s="3">
-        <v>4017900</v>
+        <v>3820500</v>
       </c>
       <c r="F62" s="3">
-        <v>578500</v>
+        <v>550000</v>
       </c>
       <c r="G62" s="3">
-        <v>561600</v>
+        <v>534000</v>
       </c>
       <c r="H62" s="3">
-        <v>574100</v>
+        <v>545900</v>
       </c>
       <c r="I62" s="3">
-        <v>417400</v>
+        <v>396900</v>
       </c>
       <c r="J62" s="3">
-        <v>389100</v>
+        <v>370000</v>
       </c>
       <c r="K62" s="3">
         <v>390200</v>
@@ -4438,25 +4439,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>54829600</v>
+        <v>52135600</v>
       </c>
       <c r="E66" s="3">
-        <v>44234000</v>
+        <v>42060700</v>
       </c>
       <c r="F66" s="3">
-        <v>38767200</v>
+        <v>36862500</v>
       </c>
       <c r="G66" s="3">
-        <v>34512700</v>
+        <v>32816900</v>
       </c>
       <c r="H66" s="3">
-        <v>32078200</v>
+        <v>30502100</v>
       </c>
       <c r="I66" s="3">
-        <v>29865500</v>
+        <v>28398100</v>
       </c>
       <c r="J66" s="3">
-        <v>25643000</v>
+        <v>24383000</v>
       </c>
       <c r="K66" s="3">
         <v>24026400</v>
@@ -4820,25 +4821,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>67139500</v>
+        <v>63840700</v>
       </c>
       <c r="E72" s="3">
-        <v>63774900</v>
+        <v>60641400</v>
       </c>
       <c r="F72" s="3">
-        <v>60783800</v>
+        <v>57797300</v>
       </c>
       <c r="G72" s="3">
-        <v>58563800</v>
+        <v>55686300</v>
       </c>
       <c r="H72" s="3">
-        <v>55937600</v>
+        <v>53189200</v>
       </c>
       <c r="I72" s="3">
-        <v>53307100</v>
+        <v>50687900</v>
       </c>
       <c r="J72" s="3">
-        <v>50754900</v>
+        <v>48261200</v>
       </c>
       <c r="K72" s="3">
         <v>49905600</v>
@@ -5104,25 +5105,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>76345400</v>
+        <v>72594200</v>
       </c>
       <c r="E76" s="3">
-        <v>73096700</v>
+        <v>69505200</v>
       </c>
       <c r="F76" s="3">
-        <v>70130800</v>
+        <v>66685000</v>
       </c>
       <c r="G76" s="3">
-        <v>68270000</v>
+        <v>64915600</v>
       </c>
       <c r="H76" s="3">
-        <v>65126400</v>
+        <v>61926500</v>
       </c>
       <c r="I76" s="3">
-        <v>62933000</v>
+        <v>59840800</v>
       </c>
       <c r="J76" s="3">
-        <v>60574500</v>
+        <v>57598300</v>
       </c>
       <c r="K76" s="3">
         <v>60379100</v>
@@ -5322,25 +5323,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5853000</v>
+        <v>5565500</v>
       </c>
       <c r="E81" s="3">
-        <v>5501900</v>
+        <v>5231500</v>
       </c>
       <c r="F81" s="3">
-        <v>4730800</v>
+        <v>4498300</v>
       </c>
       <c r="G81" s="3">
-        <v>4918500</v>
+        <v>4676800</v>
       </c>
       <c r="H81" s="3">
-        <v>5026800</v>
+        <v>4779800</v>
       </c>
       <c r="I81" s="3">
-        <v>4834700</v>
+        <v>4597100</v>
       </c>
       <c r="J81" s="3">
-        <v>4254100</v>
+        <v>4045100</v>
       </c>
       <c r="K81" s="3">
         <v>4213900</v>
@@ -5420,25 +5421,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3896400</v>
+        <v>3705000</v>
       </c>
       <c r="E83" s="3">
-        <v>3768400</v>
+        <v>3583300</v>
       </c>
       <c r="F83" s="3">
-        <v>3655000</v>
+        <v>3475400</v>
       </c>
       <c r="G83" s="3">
-        <v>3552700</v>
+        <v>3378100</v>
       </c>
       <c r="H83" s="3">
-        <v>3435200</v>
+        <v>3266400</v>
       </c>
       <c r="I83" s="3">
-        <v>3335600</v>
+        <v>3171700</v>
       </c>
       <c r="J83" s="3">
-        <v>2495500</v>
+        <v>2372900</v>
       </c>
       <c r="K83" s="3">
         <v>2469300</v>
@@ -5846,25 +5847,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>13316400</v>
+        <v>12662100</v>
       </c>
       <c r="E89" s="3">
-        <v>11221600</v>
+        <v>10670300</v>
       </c>
       <c r="F89" s="3">
-        <v>6599700</v>
+        <v>6275500</v>
       </c>
       <c r="G89" s="3">
-        <v>8021400</v>
+        <v>7627300</v>
       </c>
       <c r="H89" s="3">
-        <v>9124000</v>
+        <v>8675700</v>
       </c>
       <c r="I89" s="3">
-        <v>6695900</v>
+        <v>6366900</v>
       </c>
       <c r="J89" s="3">
-        <v>5997500</v>
+        <v>5702800</v>
       </c>
       <c r="K89" s="3">
         <v>7313100</v>
@@ -5944,25 +5945,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-8293900</v>
+        <v>-7886400</v>
       </c>
       <c r="E91" s="3">
-        <v>-6642000</v>
+        <v>-6315700</v>
       </c>
       <c r="F91" s="3">
-        <v>-5879100</v>
+        <v>-5590200</v>
       </c>
       <c r="G91" s="3">
-        <v>-8733100</v>
+        <v>-8304000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3122200</v>
+        <v>-2968800</v>
       </c>
       <c r="I91" s="3">
-        <v>-3496600</v>
+        <v>-3324800</v>
       </c>
       <c r="J91" s="3">
-        <v>-4461100</v>
+        <v>-4241900</v>
       </c>
       <c r="K91" s="3">
         <v>-6936000</v>
@@ -6157,25 +6158,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-8638500</v>
+        <v>-8214100</v>
       </c>
       <c r="E94" s="3">
-        <v>-6232900</v>
+        <v>-5926600</v>
       </c>
       <c r="F94" s="3">
-        <v>-5976900</v>
+        <v>-5683300</v>
       </c>
       <c r="G94" s="3">
-        <v>-8600100</v>
+        <v>-8177500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3202700</v>
+        <v>-3045300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3383000</v>
+        <v>-3216700</v>
       </c>
       <c r="J94" s="3">
-        <v>-4568500</v>
+        <v>-4344000</v>
       </c>
       <c r="K94" s="3">
         <v>-6807500</v>
@@ -6255,25 +6256,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2510800</v>
+        <v>-2387400</v>
       </c>
       <c r="E96" s="3">
-        <v>-2282500</v>
+        <v>-2170400</v>
       </c>
       <c r="F96" s="3">
-        <v>-2282500</v>
+        <v>-2170400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2282500</v>
+        <v>-2170400</v>
       </c>
       <c r="H96" s="3">
-        <v>-2282500</v>
+        <v>-2170400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2282500</v>
+        <v>-2170400</v>
       </c>
       <c r="J96" s="3">
-        <v>-2282500</v>
+        <v>-2170400</v>
       </c>
       <c r="K96" s="3">
         <v>-2335000</v>
@@ -6539,25 +6540,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>2897200</v>
+        <v>2754900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1243800</v>
+        <v>-1182700</v>
       </c>
       <c r="F100" s="3">
-        <v>2641800</v>
+        <v>2512000</v>
       </c>
       <c r="G100" s="3">
-        <v>514700</v>
+        <v>489400</v>
       </c>
       <c r="H100" s="3">
-        <v>-3563400</v>
+        <v>-3388300</v>
       </c>
       <c r="I100" s="3">
-        <v>1670200</v>
+        <v>1588100</v>
       </c>
       <c r="J100" s="3">
-        <v>208200</v>
+        <v>197900</v>
       </c>
       <c r="K100" s="3">
         <v>-1468100</v>
@@ -6610,25 +6611,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-139500</v>
+        <v>-132600</v>
       </c>
       <c r="E101" s="3">
-        <v>-18700</v>
+        <v>-17800</v>
       </c>
       <c r="F101" s="3">
-        <v>-333300</v>
+        <v>-316900</v>
       </c>
       <c r="G101" s="3">
-        <v>224400</v>
+        <v>213400</v>
       </c>
       <c r="H101" s="3">
-        <v>-387100</v>
+        <v>-368000</v>
       </c>
       <c r="I101" s="3">
-        <v>-174100</v>
+        <v>-165500</v>
       </c>
       <c r="J101" s="3">
-        <v>-340200</v>
+        <v>-323400</v>
       </c>
       <c r="K101" s="3">
         <v>75600</v>
@@ -6681,25 +6682,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>7435600</v>
+        <v>7070200</v>
       </c>
       <c r="E102" s="3">
-        <v>3726300</v>
+        <v>3543200</v>
       </c>
       <c r="F102" s="3">
-        <v>2931400</v>
+        <v>2787400</v>
       </c>
       <c r="G102" s="3">
-        <v>160500</v>
+        <v>152600</v>
       </c>
       <c r="H102" s="3">
-        <v>1970900</v>
+        <v>1874100</v>
       </c>
       <c r="I102" s="3">
-        <v>4809000</v>
+        <v>4572800</v>
       </c>
       <c r="J102" s="3">
-        <v>1297000</v>
+        <v>1233300</v>
       </c>
       <c r="K102" s="3">
         <v>-886900</v>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,343 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14670600</v>
+        <v>17680100</v>
       </c>
       <c r="E8" s="3">
-        <v>13883200</v>
+        <v>16254600</v>
       </c>
       <c r="F8" s="3">
-        <v>12459400</v>
+        <v>14504100</v>
       </c>
       <c r="G8" s="3">
-        <v>12133500</v>
+        <v>13725600</v>
       </c>
       <c r="H8" s="3">
-        <v>12104100</v>
+        <v>12318000</v>
       </c>
       <c r="I8" s="3">
+        <v>11995800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11966700</v>
+      </c>
+      <c r="K8" s="3">
         <v>11933100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10402200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11187700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>11319000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>10508600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8422900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7672200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9872500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>8682600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>7758800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>8251100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>8996100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>8170800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>6931000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>7627900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>8551200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6947400</v>
+        <v>7238100</v>
       </c>
       <c r="E9" s="3">
-        <v>6757000</v>
+        <v>7211600</v>
       </c>
       <c r="F9" s="3">
-        <v>6224300</v>
+        <v>6868600</v>
       </c>
       <c r="G9" s="3">
-        <v>5779800</v>
+        <v>6680300</v>
       </c>
       <c r="H9" s="3">
-        <v>5569200</v>
+        <v>6154900</v>
       </c>
       <c r="I9" s="3">
+        <v>5712100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5506000</v>
+      </c>
+      <c r="K9" s="3">
         <v>5555900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4888300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5396300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5637300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5508600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4799500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4502600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5169400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4567900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4047400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4094400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4500300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>4091100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3406400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3666300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>4080100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7723100</v>
+        <v>10442000</v>
       </c>
       <c r="E10" s="3">
-        <v>7126200</v>
+        <v>9043000</v>
       </c>
       <c r="F10" s="3">
-        <v>6235100</v>
+        <v>7635500</v>
       </c>
       <c r="G10" s="3">
-        <v>6353700</v>
+        <v>7045300</v>
       </c>
       <c r="H10" s="3">
-        <v>6534900</v>
+        <v>6163100</v>
       </c>
       <c r="I10" s="3">
+        <v>6283700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6460800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6377300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5513900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5791400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5681700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5000000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3623400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3169600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4703100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4114800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>3711400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>4156700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>4495800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4079700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>3524700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>3961600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>4471200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,79 +1027,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1079300</v>
+        <v>1312400</v>
       </c>
       <c r="E12" s="3">
-        <v>1033400</v>
+        <v>1193200</v>
       </c>
       <c r="F12" s="3">
-        <v>1033600</v>
+        <v>1067100</v>
       </c>
       <c r="G12" s="3">
-        <v>1029700</v>
+        <v>1021700</v>
       </c>
       <c r="H12" s="3">
-        <v>1002400</v>
+        <v>1021900</v>
       </c>
       <c r="I12" s="3">
+        <v>1018000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>991000</v>
+      </c>
+      <c r="K12" s="3">
         <v>993800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>833400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>899400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>914700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>859600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>747700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>716200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>807100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>729900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>661600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>679500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>687600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>682100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>617700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>633000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>650900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1145,28 +1177,34 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1181,69 +1219,75 @@
         <v>100</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-10600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>2200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="3">
         <v>2400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
@@ -1258,17 +1302,17 @@
         <v>200</v>
       </c>
       <c r="P15" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1287,8 +1331,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1361,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8551500</v>
+        <v>9004100</v>
       </c>
       <c r="E17" s="3">
-        <v>8157900</v>
+        <v>8847500</v>
       </c>
       <c r="F17" s="3">
-        <v>7582400</v>
+        <v>8454400</v>
       </c>
       <c r="G17" s="3">
-        <v>7093500</v>
+        <v>8065300</v>
       </c>
       <c r="H17" s="3">
-        <v>6843700</v>
+        <v>7496300</v>
       </c>
       <c r="I17" s="3">
+        <v>7012900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6766000</v>
+      </c>
+      <c r="K17" s="3">
         <v>6909700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6013100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6558400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6886000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6639900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5756200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5417700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6222800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5506100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4950700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5030600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>5466600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4992900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4232700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4518900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>4969300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6119100</v>
+        <v>8675900</v>
       </c>
       <c r="E18" s="3">
-        <v>5725300</v>
+        <v>7407100</v>
       </c>
       <c r="F18" s="3">
-        <v>4877000</v>
+        <v>6049700</v>
       </c>
       <c r="G18" s="3">
-        <v>5040000</v>
+        <v>5660300</v>
       </c>
       <c r="H18" s="3">
-        <v>5260400</v>
+        <v>4821700</v>
       </c>
       <c r="I18" s="3">
+        <v>4982800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5200700</v>
+      </c>
+      <c r="K18" s="3">
         <v>5023500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4389100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4629300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4433100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3868700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2666700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2254500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3649700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>3176500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2808100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3220500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>3529400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>3177900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2698300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>3109000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>3581900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1480,363 +1544,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>141400</v>
+        <v>224700</v>
       </c>
       <c r="E20" s="3">
-        <v>140000</v>
+        <v>171900</v>
       </c>
       <c r="F20" s="3">
-        <v>162600</v>
+        <v>139800</v>
       </c>
       <c r="G20" s="3">
-        <v>177400</v>
+        <v>138400</v>
       </c>
       <c r="H20" s="3">
-        <v>159200</v>
+        <v>160700</v>
       </c>
       <c r="I20" s="3">
+        <v>175400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>157400</v>
+      </c>
+      <c r="K20" s="3">
         <v>182600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>191200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>149800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>184900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>189900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>178600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>168900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>164700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>146400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>126000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>130500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>116900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>107200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>120000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>107600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>98400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>9965500</v>
+        <v>12648400</v>
       </c>
       <c r="E21" s="3">
-        <v>9448500</v>
+        <v>11256500</v>
       </c>
       <c r="F21" s="3">
-        <v>8515000</v>
+        <v>9852400</v>
       </c>
       <c r="G21" s="3">
-        <v>8595500</v>
+        <v>9341200</v>
       </c>
       <c r="H21" s="3">
-        <v>8686000</v>
+        <v>8418300</v>
       </c>
       <c r="I21" s="3">
+        <v>8498000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>8587400</v>
+      </c>
+      <c r="K21" s="3">
         <v>8377700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6953200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>7248400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>7027400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>6452500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>5468200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>5143700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>6404700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>5777700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>5309100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>5729000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>5941400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>5591600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>4697800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>5178800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>5520800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>72800</v>
+        <v>96100</v>
       </c>
       <c r="E22" s="3">
-        <v>44700</v>
+        <v>70900</v>
       </c>
       <c r="F22" s="3">
-        <v>38000</v>
+        <v>71900</v>
       </c>
       <c r="G22" s="3">
-        <v>25800</v>
+        <v>44200</v>
       </c>
       <c r="H22" s="3">
-        <v>25700</v>
+        <v>37500</v>
       </c>
       <c r="I22" s="3">
+        <v>25600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K22" s="3">
         <v>12500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>13700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>19100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>23000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>30200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>30200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>31500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>29800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>24600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>20900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>26900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>26900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>27300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>27200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>26600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>26500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>6187700</v>
+        <v>8804500</v>
       </c>
       <c r="E23" s="3">
-        <v>5820600</v>
+        <v>7508100</v>
       </c>
       <c r="F23" s="3">
-        <v>5001600</v>
+        <v>6117500</v>
       </c>
       <c r="G23" s="3">
-        <v>5191600</v>
+        <v>5754500</v>
       </c>
       <c r="H23" s="3">
-        <v>5393900</v>
+        <v>4944800</v>
       </c>
       <c r="I23" s="3">
+        <v>5132600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5332700</v>
+      </c>
+      <c r="K23" s="3">
         <v>5193600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4566600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4759900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4594900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4028400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2815100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2391800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3784600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3298200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2913200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3324100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>3619400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3257800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2791100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>3190000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>3653900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>617600</v>
+        <v>953900</v>
       </c>
       <c r="E24" s="3">
-        <v>581600</v>
+        <v>793000</v>
       </c>
       <c r="F24" s="3">
-        <v>499200</v>
+        <v>610600</v>
       </c>
       <c r="G24" s="3">
-        <v>513100</v>
+        <v>575000</v>
       </c>
       <c r="H24" s="3">
-        <v>612100</v>
+        <v>493500</v>
       </c>
       <c r="I24" s="3">
+        <v>507300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>605200</v>
+      </c>
+      <c r="K24" s="3">
         <v>594100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>519100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>543300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>453300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>402800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>481200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>238300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>377400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>326800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>508700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>337800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>400900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>342500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>643200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>332700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>385400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1906,150 +2002,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5570200</v>
+        <v>7850700</v>
       </c>
       <c r="E26" s="3">
-        <v>5238900</v>
+        <v>6715100</v>
       </c>
       <c r="F26" s="3">
-        <v>4502400</v>
+        <v>5507000</v>
       </c>
       <c r="G26" s="3">
-        <v>4678500</v>
+        <v>5179500</v>
       </c>
       <c r="H26" s="3">
-        <v>4781800</v>
+        <v>4451300</v>
       </c>
       <c r="I26" s="3">
+        <v>4625400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4727500</v>
+      </c>
+      <c r="K26" s="3">
         <v>4599400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4047500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4216600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4141700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3625500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2333800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2153500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3407200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2971400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2404500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2986300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>3218500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2915300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2147800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>2857300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>3268400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5565500</v>
+        <v>7845600</v>
       </c>
       <c r="E27" s="3">
-        <v>5231500</v>
+        <v>6710500</v>
       </c>
       <c r="F27" s="3">
-        <v>4498300</v>
+        <v>5502300</v>
       </c>
       <c r="G27" s="3">
-        <v>4676800</v>
+        <v>5172100</v>
       </c>
       <c r="H27" s="3">
-        <v>4779800</v>
+        <v>4447300</v>
       </c>
       <c r="I27" s="3">
+        <v>4623800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4725600</v>
+      </c>
+      <c r="K27" s="3">
         <v>4597100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4045100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4213900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4140100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3624400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2333400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2153700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3406500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2970500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2404400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2986200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3217900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2914500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>2147800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>2857600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>3267500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2119,8 +2233,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2190,8 +2310,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2261,8 +2387,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2332,150 +2464,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-141400</v>
+        <v>-224700</v>
       </c>
       <c r="E32" s="3">
-        <v>-140000</v>
+        <v>-171900</v>
       </c>
       <c r="F32" s="3">
-        <v>-162600</v>
+        <v>-139800</v>
       </c>
       <c r="G32" s="3">
-        <v>-177400</v>
+        <v>-138400</v>
       </c>
       <c r="H32" s="3">
-        <v>-159200</v>
+        <v>-160700</v>
       </c>
       <c r="I32" s="3">
+        <v>-175400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-157400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-182600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-191200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-149800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-184900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-189900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-178600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-168900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-164700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-146400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-126000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-130500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-116900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-107200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-120000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-107600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-98400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5565500</v>
+        <v>7845600</v>
       </c>
       <c r="E33" s="3">
-        <v>5231500</v>
+        <v>6710500</v>
       </c>
       <c r="F33" s="3">
-        <v>4498300</v>
+        <v>5502300</v>
       </c>
       <c r="G33" s="3">
-        <v>4676800</v>
+        <v>5172100</v>
       </c>
       <c r="H33" s="3">
-        <v>4779800</v>
+        <v>4447300</v>
       </c>
       <c r="I33" s="3">
+        <v>4623800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4725600</v>
+      </c>
+      <c r="K33" s="3">
         <v>4597100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4045100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4213900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4140100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3624400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2333400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2153700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3406500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2970500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2404400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2986200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>3217900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2914500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>2147800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>2857600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>3267500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2545,155 +2695,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5565500</v>
+        <v>7845600</v>
       </c>
       <c r="E35" s="3">
-        <v>5231500</v>
+        <v>6710500</v>
       </c>
       <c r="F35" s="3">
-        <v>4498300</v>
+        <v>5502300</v>
       </c>
       <c r="G35" s="3">
-        <v>4676800</v>
+        <v>5172100</v>
       </c>
       <c r="H35" s="3">
-        <v>4779800</v>
+        <v>4447300</v>
       </c>
       <c r="I35" s="3">
+        <v>4623800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4725600</v>
+      </c>
+      <c r="K35" s="3">
         <v>4597100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4045100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4213900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4140100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3624400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2333400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2153700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3406500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2970500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2404400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2986200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>3217900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2914500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>2147800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>2857600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>3267500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2719,8 +2887,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2746,647 +2916,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>35655900</v>
+        <v>41480600</v>
       </c>
       <c r="E41" s="3">
-        <v>28585600</v>
+        <v>38117600</v>
       </c>
       <c r="F41" s="3">
-        <v>25042400</v>
+        <v>35251200</v>
       </c>
       <c r="G41" s="3">
-        <v>22255100</v>
+        <v>28261200</v>
       </c>
       <c r="H41" s="3">
-        <v>22102500</v>
+        <v>24758200</v>
       </c>
       <c r="I41" s="3">
+        <v>22002500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>21851600</v>
+      </c>
+      <c r="K41" s="3">
         <v>20228500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>15655700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>15516600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>16248600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>16224200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>22706900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>22650100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>19686100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>16299200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>21028000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>19217100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>17935400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>13225800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>18488800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>18415700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>17650300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4127800</v>
+        <v>6522400</v>
       </c>
       <c r="E42" s="3">
-        <v>4551400</v>
+        <v>4821500</v>
       </c>
       <c r="F42" s="3">
-        <v>4528000</v>
+        <v>4081000</v>
       </c>
       <c r="G42" s="3">
-        <v>4922700</v>
+        <v>4499700</v>
       </c>
       <c r="H42" s="3">
-        <v>4677900</v>
+        <v>4476600</v>
       </c>
       <c r="I42" s="3">
+        <v>4866800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4624800</v>
+      </c>
+      <c r="K42" s="3">
         <v>4867200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>4924400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5052000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>4951600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5379600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4532100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4384600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>4628600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>4342600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>4313700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>3928700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>3325800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>3200600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>2937600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>3206500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>3091300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6641200</v>
+        <v>7433800</v>
       </c>
       <c r="E43" s="3">
-        <v>6268800</v>
+        <v>7066400</v>
       </c>
       <c r="F43" s="3">
-        <v>6025400</v>
+        <v>6565800</v>
       </c>
       <c r="G43" s="3">
-        <v>5609000</v>
+        <v>6197700</v>
       </c>
       <c r="H43" s="3">
-        <v>4891100</v>
+        <v>5957100</v>
       </c>
       <c r="I43" s="3">
+        <v>5545300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4835500</v>
+      </c>
+      <c r="K43" s="3">
         <v>5444500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5095000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5276200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4988900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5216800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4112700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3746200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>4404000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>4322300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3039400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3589100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3969900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3853300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>3625400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>3559800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>4221400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>6465100</v>
+        <v>7197200</v>
       </c>
       <c r="E44" s="3">
-        <v>6101200</v>
+        <v>6623900</v>
       </c>
       <c r="F44" s="3">
-        <v>5706300</v>
+        <v>6391700</v>
       </c>
       <c r="G44" s="3">
-        <v>5174900</v>
+        <v>6031900</v>
       </c>
       <c r="H44" s="3">
-        <v>4598600</v>
+        <v>5641500</v>
       </c>
       <c r="I44" s="3">
+        <v>5116200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4546400</v>
+      </c>
+      <c r="K44" s="3">
         <v>3666400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2872200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2819600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2960800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3467200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3782700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3812600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3517100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3513000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3293800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2834300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>2394500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2394900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1977400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1643200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1587500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>914800</v>
+        <v>450200</v>
       </c>
       <c r="E45" s="3">
-        <v>382000</v>
+        <v>376600</v>
       </c>
       <c r="F45" s="3">
-        <v>250000</v>
+        <v>904400</v>
       </c>
       <c r="G45" s="3">
-        <v>198400</v>
+        <v>377600</v>
       </c>
       <c r="H45" s="3">
-        <v>296300</v>
+        <v>247200</v>
       </c>
       <c r="I45" s="3">
+        <v>196100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>292900</v>
+      </c>
+      <c r="K45" s="3">
         <v>267000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>246600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>240500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>201000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>172700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>171400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>182200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>187900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>178000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>222900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1333300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>156400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>170000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>132000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>99600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>115600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>53804800</v>
+        <v>63084200</v>
       </c>
       <c r="E46" s="3">
-        <v>45889000</v>
+        <v>57006100</v>
       </c>
       <c r="F46" s="3">
-        <v>41552200</v>
+        <v>53194100</v>
       </c>
       <c r="G46" s="3">
-        <v>38160100</v>
+        <v>45368200</v>
       </c>
       <c r="H46" s="3">
-        <v>36566400</v>
+        <v>41080500</v>
       </c>
       <c r="I46" s="3">
+        <v>37726900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>36151300</v>
+      </c>
+      <c r="K46" s="3">
         <v>34473500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>28793900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>28905000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>29350900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>30460500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>35305800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>34775700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>32423700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>28655100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>31897800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>30902400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>27782000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>22844600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>27161200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>26924800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>26666100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>983800</v>
+        <v>2133000</v>
       </c>
       <c r="E47" s="3">
-        <v>928400</v>
+        <v>1513900</v>
       </c>
       <c r="F47" s="3">
-        <v>973000</v>
+        <v>972600</v>
       </c>
       <c r="G47" s="3">
-        <v>975300</v>
+        <v>917900</v>
       </c>
       <c r="H47" s="3">
-        <v>928300</v>
+        <v>962000</v>
       </c>
       <c r="I47" s="3">
+        <v>964200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>917800</v>
+      </c>
+      <c r="K47" s="3">
         <v>887700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>767300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1117800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1076500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1080600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1024600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1053800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>998400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>993900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>959100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1143400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1347300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1325700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1420200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>1451800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1505100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>67222900</v>
+        <v>75554500</v>
       </c>
       <c r="E48" s="3">
-        <v>62334900</v>
+        <v>70743100</v>
       </c>
       <c r="F48" s="3">
-        <v>58767400</v>
+        <v>66459900</v>
       </c>
       <c r="G48" s="3">
-        <v>56609100</v>
+        <v>61627400</v>
       </c>
       <c r="H48" s="3">
-        <v>53009500</v>
+        <v>58100400</v>
       </c>
       <c r="I48" s="3">
+        <v>55966600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>52407800</v>
+      </c>
+      <c r="K48" s="3">
         <v>51065800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>50708700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>52586900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>48867700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>43586500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>40573900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>39524500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>36524800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>34968000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>34399800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>35101500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>34437000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>34541200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>34925900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>33828400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>32537500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>898000</v>
+        <v>900600</v>
       </c>
       <c r="E49" s="3">
-        <v>858600</v>
+        <v>848000</v>
       </c>
       <c r="F49" s="3">
-        <v>888400</v>
+        <v>887800</v>
       </c>
       <c r="G49" s="3">
-        <v>837400</v>
+        <v>848800</v>
       </c>
       <c r="H49" s="3">
-        <v>862700</v>
+        <v>878300</v>
       </c>
       <c r="I49" s="3">
+        <v>827900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>852900</v>
+      </c>
+      <c r="K49" s="3">
         <v>881800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>917200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>980900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>736900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>648800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>611700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>630500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>579300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>466500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>458700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>454800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>459400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>481000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>457600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>465600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>476600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3456,8 +3682,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3527,79 +3759,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1820300</v>
+        <v>2178400</v>
       </c>
       <c r="E52" s="3">
-        <v>1554900</v>
+        <v>2046600</v>
       </c>
       <c r="F52" s="3">
-        <v>1366500</v>
+        <v>1799700</v>
       </c>
       <c r="G52" s="3">
-        <v>1150600</v>
+        <v>1537200</v>
       </c>
       <c r="H52" s="3">
-        <v>1061700</v>
+        <v>1351000</v>
       </c>
       <c r="I52" s="3">
+        <v>1137600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1049700</v>
+      </c>
+      <c r="K52" s="3">
         <v>930100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>794200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>814900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>776300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>757200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>749100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>750900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>684500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>612200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>581200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>552800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>530600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>488100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>415500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>418700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>332000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3669,79 +3913,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>124729900</v>
+        <v>143850700</v>
       </c>
       <c r="E54" s="3">
-        <v>111565800</v>
+        <v>132157600</v>
       </c>
       <c r="F54" s="3">
-        <v>103547500</v>
+        <v>123314200</v>
       </c>
       <c r="G54" s="3">
-        <v>97732500</v>
+        <v>110299500</v>
       </c>
       <c r="H54" s="3">
-        <v>92428600</v>
+        <v>102372200</v>
       </c>
       <c r="I54" s="3">
+        <v>96623300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>91379500</v>
+      </c>
+      <c r="K54" s="3">
         <v>88239000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>81981300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>84405500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>80808200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>76533600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>78265100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>76735300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>71210700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>65695800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>68296500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>68154900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>64556200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>59680600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>64380300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>63089400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>61517300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3767,8 +4023,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3794,434 +4052,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1631200</v>
+        <v>1980000</v>
       </c>
       <c r="E57" s="3">
-        <v>1469400</v>
+        <v>1658400</v>
       </c>
       <c r="F57" s="3">
-        <v>1380400</v>
+        <v>1612700</v>
       </c>
       <c r="G57" s="3">
-        <v>1292300</v>
+        <v>1452700</v>
       </c>
       <c r="H57" s="3">
-        <v>1375900</v>
+        <v>1364700</v>
       </c>
       <c r="I57" s="3">
+        <v>1277600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1360200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1369100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1323600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1432700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1434500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1325300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1138300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>970400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1170600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1010700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1019900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>965900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>974500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>939500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>830100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>790900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>891100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4073300</v>
+        <v>4464700</v>
       </c>
       <c r="E58" s="3">
-        <v>4048400</v>
+        <v>5412800</v>
       </c>
       <c r="F58" s="3">
-        <v>4728800</v>
+        <v>4027100</v>
       </c>
       <c r="G58" s="3">
-        <v>4654400</v>
+        <v>4002400</v>
       </c>
       <c r="H58" s="3">
-        <v>3113200</v>
+        <v>4675100</v>
       </c>
       <c r="I58" s="3">
+        <v>4601600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3077900</v>
+      </c>
+      <c r="K58" s="3">
         <v>5346700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6388800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5670400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5444700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4301600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4510200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4468900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4212900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3631000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1554400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3528500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3959500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3678600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4362700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>3247200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3132800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>19054000</v>
+        <v>21532800</v>
       </c>
       <c r="E59" s="3">
-        <v>16432400</v>
+        <v>20165700</v>
       </c>
       <c r="F59" s="3">
-        <v>15577500</v>
+        <v>18837700</v>
       </c>
       <c r="G59" s="3">
-        <v>16205300</v>
+        <v>16245900</v>
       </c>
       <c r="H59" s="3">
-        <v>16173100</v>
+        <v>15400700</v>
       </c>
       <c r="I59" s="3">
+        <v>16021400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>15989600</v>
+      </c>
+      <c r="K59" s="3">
         <v>12978600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12870900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>14129500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>14198200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>12116000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>16099400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7830300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6218800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6084700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>12825000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>6888300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>6691700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>5057000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>11774100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>6448700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>6354000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>24758600</v>
+        <v>27977500</v>
       </c>
       <c r="E60" s="3">
-        <v>21950200</v>
+        <v>27236900</v>
       </c>
       <c r="F60" s="3">
-        <v>21686600</v>
+        <v>24477600</v>
       </c>
       <c r="G60" s="3">
-        <v>22152000</v>
+        <v>21701100</v>
       </c>
       <c r="H60" s="3">
-        <v>20662200</v>
+        <v>21440500</v>
       </c>
       <c r="I60" s="3">
+        <v>21900600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>20427700</v>
+      </c>
+      <c r="K60" s="3">
         <v>19694300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>20583400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>21232600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>21077400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>17742900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>21747900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>13269600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11602300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10726400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>15399300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>11382700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>11625700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>9675100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>16966900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>10486700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>10377800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>21231100</v>
+        <v>25808700</v>
       </c>
       <c r="E61" s="3">
-        <v>16213000</v>
+        <v>21640900</v>
       </c>
       <c r="F61" s="3">
-        <v>14552600</v>
+        <v>20990200</v>
       </c>
       <c r="G61" s="3">
-        <v>10062000</v>
+        <v>16029000</v>
       </c>
       <c r="H61" s="3">
-        <v>9261700</v>
+        <v>14387500</v>
       </c>
       <c r="I61" s="3">
+        <v>9947800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>9156600</v>
+      </c>
+      <c r="K61" s="3">
         <v>8276500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3401700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2376100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1432300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1439100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1772200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1831400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1938600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1897600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2773900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2773900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2975200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2975700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>3218900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>4376900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4993100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>6064000</v>
+        <v>6968200</v>
       </c>
       <c r="E62" s="3">
-        <v>3820500</v>
+        <v>6439200</v>
       </c>
       <c r="F62" s="3">
-        <v>550000</v>
+        <v>5995200</v>
       </c>
       <c r="G62" s="3">
-        <v>534000</v>
+        <v>3777100</v>
       </c>
       <c r="H62" s="3">
-        <v>545900</v>
+        <v>543800</v>
       </c>
       <c r="I62" s="3">
+        <v>527900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>539700</v>
+      </c>
+      <c r="K62" s="3">
         <v>396900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>370000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>390200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>422200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>424000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>418000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>471600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>517500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>517900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>544800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>562600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>602700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>637700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>688500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>735500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>816900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4291,8 +4587,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4362,8 +4664,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4433,79 +4741,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>52135600</v>
+        <v>61221400</v>
       </c>
       <c r="E66" s="3">
-        <v>42060700</v>
+        <v>55550000</v>
       </c>
       <c r="F66" s="3">
-        <v>36862500</v>
+        <v>51543900</v>
       </c>
       <c r="G66" s="3">
-        <v>32816900</v>
+        <v>41583300</v>
       </c>
       <c r="H66" s="3">
-        <v>30502100</v>
+        <v>36444100</v>
       </c>
       <c r="I66" s="3">
+        <v>32444500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>30155900</v>
+      </c>
+      <c r="K66" s="3">
         <v>28398100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>24383000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>24026400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22956300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19629000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>23959200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15596300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14081500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>13163800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>18739100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>14742700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>15226400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>13311000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>20896300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>15625100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>16213900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4531,8 +4851,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4602,8 +4924,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4673,8 +5001,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4744,8 +5078,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4815,79 +5155,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>63840700</v>
+        <v>72923500</v>
       </c>
       <c r="E72" s="3">
-        <v>60641400</v>
+        <v>67466500</v>
       </c>
       <c r="F72" s="3">
-        <v>57797300</v>
+        <v>63116100</v>
       </c>
       <c r="G72" s="3">
-        <v>55686300</v>
+        <v>59953200</v>
       </c>
       <c r="H72" s="3">
-        <v>53189200</v>
+        <v>57141300</v>
       </c>
       <c r="I72" s="3">
+        <v>55054300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>52585500</v>
+      </c>
+      <c r="K72" s="3">
         <v>50687900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>48261200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>49905600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>47573400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>45969200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>43532900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>50443200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>46902400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>42612600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>39561800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>44059200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>39973300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>36763300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>33848900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>37815800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>34958200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4957,8 +5309,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5028,8 +5386,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5099,79 +5463,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>72594200</v>
+        <v>82629300</v>
       </c>
       <c r="E76" s="3">
-        <v>69505200</v>
+        <v>76607600</v>
       </c>
       <c r="F76" s="3">
-        <v>66685000</v>
+        <v>71770300</v>
       </c>
       <c r="G76" s="3">
-        <v>64915600</v>
+        <v>68716300</v>
       </c>
       <c r="H76" s="3">
-        <v>61926500</v>
+        <v>65928100</v>
       </c>
       <c r="I76" s="3">
+        <v>64178800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>61223700</v>
+      </c>
+      <c r="K76" s="3">
         <v>59840800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>57598300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>60379100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>57851900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>56904700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>54305800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>61139000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>57129200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>52532000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>49557500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>53412200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>49329900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>46369500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>43484000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>47464300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>45303400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5241,155 +5617,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5565500</v>
+        <v>7845600</v>
       </c>
       <c r="E81" s="3">
-        <v>5231500</v>
+        <v>6710500</v>
       </c>
       <c r="F81" s="3">
-        <v>4498300</v>
+        <v>5502300</v>
       </c>
       <c r="G81" s="3">
-        <v>4676800</v>
+        <v>5172100</v>
       </c>
       <c r="H81" s="3">
-        <v>4779800</v>
+        <v>4447300</v>
       </c>
       <c r="I81" s="3">
+        <v>4623800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4725600</v>
+      </c>
+      <c r="K81" s="3">
         <v>4597100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4045100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4213900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4140100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3624400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2333400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2153700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3406500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2970500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2404400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2986200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>3217900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2914500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>2147800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>2857600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>3267500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5415,79 +5809,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3705000</v>
+        <v>3747700</v>
       </c>
       <c r="E83" s="3">
-        <v>3583300</v>
+        <v>3677500</v>
       </c>
       <c r="F83" s="3">
-        <v>3475400</v>
+        <v>3662900</v>
       </c>
       <c r="G83" s="3">
-        <v>3378100</v>
+        <v>3542600</v>
       </c>
       <c r="H83" s="3">
-        <v>3266400</v>
+        <v>3436000</v>
       </c>
       <c r="I83" s="3">
+        <v>3339800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3229300</v>
+      </c>
+      <c r="K83" s="3">
         <v>3171700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2372900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2469300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2409500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2393900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2622900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2720400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2590300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2454900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2375100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2378000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>2295100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>2306400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>1879500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>1962200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>1840400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5557,8 +5959,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5628,8 +6036,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5699,8 +6113,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5770,8 +6190,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5841,79 +6267,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>12662100</v>
+        <v>11215900</v>
       </c>
       <c r="E89" s="3">
-        <v>10670300</v>
+        <v>12318800</v>
       </c>
       <c r="F89" s="3">
-        <v>6275500</v>
+        <v>12518400</v>
       </c>
       <c r="G89" s="3">
-        <v>7627300</v>
+        <v>10549200</v>
       </c>
       <c r="H89" s="3">
-        <v>8675700</v>
+        <v>6204200</v>
       </c>
       <c r="I89" s="3">
+        <v>7540700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>8577200</v>
+      </c>
+      <c r="K89" s="3">
         <v>6366900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>5702800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>7313100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7241400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>5083300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4115700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>5355700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>6451900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3137700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>4316300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>5345700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>6615700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3785000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3351200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>5250500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>6040000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5939,79 +6377,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-7886400</v>
+        <v>-7206600</v>
       </c>
       <c r="E91" s="3">
-        <v>-6315700</v>
+        <v>-8676700</v>
       </c>
       <c r="F91" s="3">
-        <v>-5590200</v>
+        <v>-7796900</v>
       </c>
       <c r="G91" s="3">
-        <v>-8304000</v>
+        <v>-6244000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2968800</v>
+        <v>-5526700</v>
       </c>
       <c r="I91" s="3">
+        <v>-8209800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2935100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3324800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4241900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-6936000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6065900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3518500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-4066500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2664000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3887600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-2332800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6081,8 +6527,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6152,79 +6604,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-8214100</v>
+        <v>-9133400</v>
       </c>
       <c r="E94" s="3">
-        <v>-5926600</v>
+        <v>-9535200</v>
       </c>
       <c r="F94" s="3">
-        <v>-5683300</v>
+        <v>-8120900</v>
       </c>
       <c r="G94" s="3">
-        <v>-8177500</v>
+        <v>-5859400</v>
       </c>
       <c r="H94" s="3">
-        <v>-3045300</v>
+        <v>-5618800</v>
       </c>
       <c r="I94" s="3">
+        <v>-8084700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3010700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3216700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4344000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6807500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6122900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3883300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4009400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2251700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3995100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2116800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6250,44 +6714,46 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2387400</v>
+        <v>-2360300</v>
       </c>
       <c r="E96" s="3">
+        <v>-2360300</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-2360300</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-2145700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-2145700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-2145700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-2145700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2170400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="L96" s="3">
         <v>-2170400</v>
       </c>
-      <c r="G96" s="3">
-        <v>-2170400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2170400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2170400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2170400</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-2335000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1850400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6321,8 +6787,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6392,8 +6864,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6463,8 +6941,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6534,217 +7018,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>2754900</v>
+        <v>631600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1182700</v>
+        <v>-631800</v>
       </c>
       <c r="F100" s="3">
-        <v>2512000</v>
+        <v>2723600</v>
       </c>
       <c r="G100" s="3">
-        <v>489400</v>
+        <v>-1169200</v>
       </c>
       <c r="H100" s="3">
-        <v>-3388300</v>
+        <v>2483500</v>
       </c>
       <c r="I100" s="3">
+        <v>483900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3349800</v>
+      </c>
+      <c r="K100" s="3">
         <v>1588100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>197900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1468100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-613100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-8216000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-32500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-786200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>486600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-5750700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-976100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>312600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-20700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-388400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>792500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-132600</v>
+        <v>648800</v>
       </c>
       <c r="E101" s="3">
-        <v>-17800</v>
+        <v>714600</v>
       </c>
       <c r="F101" s="3">
-        <v>-316900</v>
+        <v>-131100</v>
       </c>
       <c r="G101" s="3">
-        <v>213400</v>
+        <v>-17600</v>
       </c>
       <c r="H101" s="3">
-        <v>-368000</v>
+        <v>-313300</v>
       </c>
       <c r="I101" s="3">
+        <v>211000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-363900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-165500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-323400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>75600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-399500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-58000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>66900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>62700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>91600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-55800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>468800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-174600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-175200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-23200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>38900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-534700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>204200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>7070200</v>
+        <v>3362900</v>
       </c>
       <c r="E102" s="3">
-        <v>3543200</v>
+        <v>2866400</v>
       </c>
       <c r="F102" s="3">
-        <v>2787400</v>
+        <v>6990000</v>
       </c>
       <c r="G102" s="3">
-        <v>152600</v>
+        <v>3503000</v>
       </c>
       <c r="H102" s="3">
-        <v>1874100</v>
+        <v>2755700</v>
       </c>
       <c r="I102" s="3">
+        <v>150800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1852800</v>
+      </c>
+      <c r="K102" s="3">
         <v>4572800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1233300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-886900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>105900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7074000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>140700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2380400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3035000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4785700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1810900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>811300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>4709600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>186100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>765400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>2520200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-5165000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -665,7 +665,8 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -775,25 +776,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17680100</v>
+        <v>17028400</v>
       </c>
       <c r="E8" s="3">
-        <v>16254600</v>
+        <v>15655500</v>
       </c>
       <c r="F8" s="3">
-        <v>14504100</v>
+        <v>13969500</v>
       </c>
       <c r="G8" s="3">
-        <v>13725600</v>
+        <v>13219700</v>
       </c>
       <c r="H8" s="3">
-        <v>12318000</v>
+        <v>11864000</v>
       </c>
       <c r="I8" s="3">
-        <v>11995800</v>
+        <v>11553600</v>
       </c>
       <c r="J8" s="3">
-        <v>11966700</v>
+        <v>11525700</v>
       </c>
       <c r="K8" s="3">
         <v>11933100</v>
@@ -852,25 +853,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7238100</v>
+        <v>6971300</v>
       </c>
       <c r="E9" s="3">
-        <v>7211600</v>
+        <v>6945800</v>
       </c>
       <c r="F9" s="3">
-        <v>6868600</v>
+        <v>6615400</v>
       </c>
       <c r="G9" s="3">
-        <v>6680300</v>
+        <v>6434100</v>
       </c>
       <c r="H9" s="3">
-        <v>6154900</v>
+        <v>5928000</v>
       </c>
       <c r="I9" s="3">
-        <v>5712100</v>
+        <v>5501600</v>
       </c>
       <c r="J9" s="3">
-        <v>5506000</v>
+        <v>5303100</v>
       </c>
       <c r="K9" s="3">
         <v>5555900</v>
@@ -929,25 +930,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10442000</v>
+        <v>10057100</v>
       </c>
       <c r="E10" s="3">
-        <v>9043000</v>
+        <v>8709700</v>
       </c>
       <c r="F10" s="3">
-        <v>7635500</v>
+        <v>7354100</v>
       </c>
       <c r="G10" s="3">
-        <v>7045300</v>
+        <v>6785600</v>
       </c>
       <c r="H10" s="3">
-        <v>6163100</v>
+        <v>5936000</v>
       </c>
       <c r="I10" s="3">
-        <v>6283700</v>
+        <v>6052100</v>
       </c>
       <c r="J10" s="3">
-        <v>6460800</v>
+        <v>6222600</v>
       </c>
       <c r="K10" s="3">
         <v>6377300</v>
@@ -1035,25 +1036,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1312400</v>
+        <v>1264000</v>
       </c>
       <c r="E12" s="3">
-        <v>1193200</v>
+        <v>1149200</v>
       </c>
       <c r="F12" s="3">
-        <v>1067100</v>
+        <v>1027800</v>
       </c>
       <c r="G12" s="3">
-        <v>1021700</v>
+        <v>984000</v>
       </c>
       <c r="H12" s="3">
-        <v>1021900</v>
+        <v>984200</v>
       </c>
       <c r="I12" s="3">
-        <v>1018000</v>
+        <v>980500</v>
       </c>
       <c r="J12" s="3">
-        <v>991000</v>
+        <v>954500</v>
       </c>
       <c r="K12" s="3">
         <v>993800</v>
@@ -1281,7 +1282,7 @@
         <v>2000</v>
       </c>
       <c r="I15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J15" s="3">
         <v>700</v>
@@ -1369,25 +1370,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9004100</v>
+        <v>8672300</v>
       </c>
       <c r="E17" s="3">
-        <v>8847500</v>
+        <v>8521400</v>
       </c>
       <c r="F17" s="3">
-        <v>8454400</v>
+        <v>8142800</v>
       </c>
       <c r="G17" s="3">
-        <v>8065300</v>
+        <v>7768000</v>
       </c>
       <c r="H17" s="3">
-        <v>7496300</v>
+        <v>7220000</v>
       </c>
       <c r="I17" s="3">
-        <v>7012900</v>
+        <v>6754500</v>
       </c>
       <c r="J17" s="3">
-        <v>6766000</v>
+        <v>6516700</v>
       </c>
       <c r="K17" s="3">
         <v>6909700</v>
@@ -1446,25 +1447,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>8675900</v>
+        <v>8356200</v>
       </c>
       <c r="E18" s="3">
-        <v>7407100</v>
+        <v>7134100</v>
       </c>
       <c r="F18" s="3">
-        <v>6049700</v>
+        <v>5826700</v>
       </c>
       <c r="G18" s="3">
-        <v>5660300</v>
+        <v>5451700</v>
       </c>
       <c r="H18" s="3">
-        <v>4821700</v>
+        <v>4644000</v>
       </c>
       <c r="I18" s="3">
-        <v>4982800</v>
+        <v>4799200</v>
       </c>
       <c r="J18" s="3">
-        <v>5200700</v>
+        <v>5009000</v>
       </c>
       <c r="K18" s="3">
         <v>5023500</v>
@@ -1552,25 +1553,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>224700</v>
+        <v>216500</v>
       </c>
       <c r="E20" s="3">
-        <v>171900</v>
+        <v>165600</v>
       </c>
       <c r="F20" s="3">
-        <v>139800</v>
+        <v>134600</v>
       </c>
       <c r="G20" s="3">
-        <v>138400</v>
+        <v>133300</v>
       </c>
       <c r="H20" s="3">
-        <v>160700</v>
+        <v>154800</v>
       </c>
       <c r="I20" s="3">
-        <v>175400</v>
+        <v>168900</v>
       </c>
       <c r="J20" s="3">
-        <v>157400</v>
+        <v>151600</v>
       </c>
       <c r="K20" s="3">
         <v>182600</v>
@@ -1629,25 +1630,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>12648400</v>
+        <v>12182200</v>
       </c>
       <c r="E21" s="3">
-        <v>11256500</v>
+        <v>10841600</v>
       </c>
       <c r="F21" s="3">
-        <v>9852400</v>
+        <v>9489300</v>
       </c>
       <c r="G21" s="3">
-        <v>9341200</v>
+        <v>8996900</v>
       </c>
       <c r="H21" s="3">
-        <v>8418300</v>
+        <v>8108100</v>
       </c>
       <c r="I21" s="3">
-        <v>8498000</v>
+        <v>8184800</v>
       </c>
       <c r="J21" s="3">
-        <v>8587400</v>
+        <v>8270900</v>
       </c>
       <c r="K21" s="3">
         <v>8377700</v>
@@ -1706,25 +1707,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>96100</v>
+        <v>92600</v>
       </c>
       <c r="E22" s="3">
-        <v>70900</v>
+        <v>68200</v>
       </c>
       <c r="F22" s="3">
-        <v>71900</v>
+        <v>69300</v>
       </c>
       <c r="G22" s="3">
-        <v>44200</v>
+        <v>42500</v>
       </c>
       <c r="H22" s="3">
-        <v>37500</v>
+        <v>36200</v>
       </c>
       <c r="I22" s="3">
-        <v>25600</v>
+        <v>24600</v>
       </c>
       <c r="J22" s="3">
-        <v>25400</v>
+        <v>24500</v>
       </c>
       <c r="K22" s="3">
         <v>12500</v>
@@ -1783,25 +1784,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>8804500</v>
+        <v>8480000</v>
       </c>
       <c r="E23" s="3">
-        <v>7508100</v>
+        <v>7231400</v>
       </c>
       <c r="F23" s="3">
-        <v>6117500</v>
+        <v>5892000</v>
       </c>
       <c r="G23" s="3">
-        <v>5754500</v>
+        <v>5542400</v>
       </c>
       <c r="H23" s="3">
-        <v>4944800</v>
+        <v>4762600</v>
       </c>
       <c r="I23" s="3">
-        <v>5132600</v>
+        <v>4943500</v>
       </c>
       <c r="J23" s="3">
-        <v>5332700</v>
+        <v>5136100</v>
       </c>
       <c r="K23" s="3">
         <v>5193600</v>
@@ -1860,25 +1861,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>953900</v>
+        <v>918700</v>
       </c>
       <c r="E24" s="3">
-        <v>793000</v>
+        <v>763800</v>
       </c>
       <c r="F24" s="3">
-        <v>610600</v>
+        <v>588000</v>
       </c>
       <c r="G24" s="3">
-        <v>575000</v>
+        <v>553800</v>
       </c>
       <c r="H24" s="3">
-        <v>493500</v>
+        <v>475300</v>
       </c>
       <c r="I24" s="3">
-        <v>507300</v>
+        <v>488600</v>
       </c>
       <c r="J24" s="3">
-        <v>605200</v>
+        <v>582900</v>
       </c>
       <c r="K24" s="3">
         <v>594100</v>
@@ -2014,25 +2015,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>7850700</v>
+        <v>7561300</v>
       </c>
       <c r="E26" s="3">
-        <v>6715100</v>
+        <v>6467600</v>
       </c>
       <c r="F26" s="3">
-        <v>5507000</v>
+        <v>5304000</v>
       </c>
       <c r="G26" s="3">
-        <v>5179500</v>
+        <v>4988600</v>
       </c>
       <c r="H26" s="3">
-        <v>4451300</v>
+        <v>4287300</v>
       </c>
       <c r="I26" s="3">
-        <v>4625400</v>
+        <v>4454900</v>
       </c>
       <c r="J26" s="3">
-        <v>4727500</v>
+        <v>4553200</v>
       </c>
       <c r="K26" s="3">
         <v>4599400</v>
@@ -2091,25 +2092,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>7845600</v>
+        <v>7556400</v>
       </c>
       <c r="E27" s="3">
-        <v>6710500</v>
+        <v>6463100</v>
       </c>
       <c r="F27" s="3">
-        <v>5502300</v>
+        <v>5299500</v>
       </c>
       <c r="G27" s="3">
-        <v>5172100</v>
+        <v>4981500</v>
       </c>
       <c r="H27" s="3">
-        <v>4447300</v>
+        <v>4283400</v>
       </c>
       <c r="I27" s="3">
-        <v>4623800</v>
+        <v>4453300</v>
       </c>
       <c r="J27" s="3">
-        <v>4725600</v>
+        <v>4551400</v>
       </c>
       <c r="K27" s="3">
         <v>4597100</v>
@@ -2476,25 +2477,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-224700</v>
+        <v>-216500</v>
       </c>
       <c r="E32" s="3">
-        <v>-171900</v>
+        <v>-165600</v>
       </c>
       <c r="F32" s="3">
-        <v>-139800</v>
+        <v>-134600</v>
       </c>
       <c r="G32" s="3">
-        <v>-138400</v>
+        <v>-133300</v>
       </c>
       <c r="H32" s="3">
-        <v>-160700</v>
+        <v>-154800</v>
       </c>
       <c r="I32" s="3">
-        <v>-175400</v>
+        <v>-168900</v>
       </c>
       <c r="J32" s="3">
-        <v>-157400</v>
+        <v>-151600</v>
       </c>
       <c r="K32" s="3">
         <v>-182600</v>
@@ -2553,25 +2554,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>7845600</v>
+        <v>7556400</v>
       </c>
       <c r="E33" s="3">
-        <v>6710500</v>
+        <v>6463100</v>
       </c>
       <c r="F33" s="3">
-        <v>5502300</v>
+        <v>5299500</v>
       </c>
       <c r="G33" s="3">
-        <v>5172100</v>
+        <v>4981500</v>
       </c>
       <c r="H33" s="3">
-        <v>4447300</v>
+        <v>4283400</v>
       </c>
       <c r="I33" s="3">
-        <v>4623800</v>
+        <v>4453300</v>
       </c>
       <c r="J33" s="3">
-        <v>4725600</v>
+        <v>4551400</v>
       </c>
       <c r="K33" s="3">
         <v>4597100</v>
@@ -2707,25 +2708,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>7845600</v>
+        <v>7556400</v>
       </c>
       <c r="E35" s="3">
-        <v>6710500</v>
+        <v>6463100</v>
       </c>
       <c r="F35" s="3">
-        <v>5502300</v>
+        <v>5299500</v>
       </c>
       <c r="G35" s="3">
-        <v>5172100</v>
+        <v>4981500</v>
       </c>
       <c r="H35" s="3">
-        <v>4447300</v>
+        <v>4283400</v>
       </c>
       <c r="I35" s="3">
-        <v>4623800</v>
+        <v>4453300</v>
       </c>
       <c r="J35" s="3">
-        <v>4725600</v>
+        <v>4551400</v>
       </c>
       <c r="K35" s="3">
         <v>4597100</v>
@@ -2924,25 +2925,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>41480600</v>
+        <v>39951700</v>
       </c>
       <c r="E41" s="3">
-        <v>38117600</v>
+        <v>36712700</v>
       </c>
       <c r="F41" s="3">
-        <v>35251200</v>
+        <v>33951900</v>
       </c>
       <c r="G41" s="3">
-        <v>28261200</v>
+        <v>27219500</v>
       </c>
       <c r="H41" s="3">
-        <v>24758200</v>
+        <v>23845700</v>
       </c>
       <c r="I41" s="3">
-        <v>22002500</v>
+        <v>21191500</v>
       </c>
       <c r="J41" s="3">
-        <v>21851600</v>
+        <v>21046200</v>
       </c>
       <c r="K41" s="3">
         <v>20228500</v>
@@ -3001,25 +3002,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>6522400</v>
+        <v>6282000</v>
       </c>
       <c r="E42" s="3">
-        <v>4821500</v>
+        <v>4643800</v>
       </c>
       <c r="F42" s="3">
-        <v>4081000</v>
+        <v>3930600</v>
       </c>
       <c r="G42" s="3">
-        <v>4499700</v>
+        <v>4333900</v>
       </c>
       <c r="H42" s="3">
-        <v>4476600</v>
+        <v>4311600</v>
       </c>
       <c r="I42" s="3">
-        <v>4866800</v>
+        <v>4687500</v>
       </c>
       <c r="J42" s="3">
-        <v>4624800</v>
+        <v>4454400</v>
       </c>
       <c r="K42" s="3">
         <v>4867200</v>
@@ -3078,25 +3079,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7433800</v>
+        <v>7159800</v>
       </c>
       <c r="E43" s="3">
-        <v>7066400</v>
+        <v>6805900</v>
       </c>
       <c r="F43" s="3">
-        <v>6565800</v>
+        <v>6323800</v>
       </c>
       <c r="G43" s="3">
-        <v>6197700</v>
+        <v>5969300</v>
       </c>
       <c r="H43" s="3">
-        <v>5957100</v>
+        <v>5737500</v>
       </c>
       <c r="I43" s="3">
-        <v>5545300</v>
+        <v>5340900</v>
       </c>
       <c r="J43" s="3">
-        <v>4835500</v>
+        <v>4657300</v>
       </c>
       <c r="K43" s="3">
         <v>5444500</v>
@@ -3155,25 +3156,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>7197200</v>
+        <v>6931900</v>
       </c>
       <c r="E44" s="3">
-        <v>6623900</v>
+        <v>6379800</v>
       </c>
       <c r="F44" s="3">
-        <v>6391700</v>
+        <v>6156100</v>
       </c>
       <c r="G44" s="3">
-        <v>6031900</v>
+        <v>5809600</v>
       </c>
       <c r="H44" s="3">
-        <v>5641500</v>
+        <v>5433600</v>
       </c>
       <c r="I44" s="3">
-        <v>5116200</v>
+        <v>4927600</v>
       </c>
       <c r="J44" s="3">
-        <v>4546400</v>
+        <v>4378800</v>
       </c>
       <c r="K44" s="3">
         <v>3666400</v>
@@ -3232,25 +3233,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>450200</v>
+        <v>433600</v>
       </c>
       <c r="E45" s="3">
-        <v>376600</v>
+        <v>362700</v>
       </c>
       <c r="F45" s="3">
-        <v>904400</v>
+        <v>871100</v>
       </c>
       <c r="G45" s="3">
-        <v>377600</v>
+        <v>363700</v>
       </c>
       <c r="H45" s="3">
-        <v>247200</v>
+        <v>238000</v>
       </c>
       <c r="I45" s="3">
-        <v>196100</v>
+        <v>188900</v>
       </c>
       <c r="J45" s="3">
-        <v>292900</v>
+        <v>282100</v>
       </c>
       <c r="K45" s="3">
         <v>267000</v>
@@ -3309,25 +3310,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>63084200</v>
+        <v>60759000</v>
       </c>
       <c r="E46" s="3">
-        <v>57006100</v>
+        <v>54904900</v>
       </c>
       <c r="F46" s="3">
-        <v>53194100</v>
+        <v>51233500</v>
       </c>
       <c r="G46" s="3">
-        <v>45368200</v>
+        <v>43696000</v>
       </c>
       <c r="H46" s="3">
-        <v>41080500</v>
+        <v>39566400</v>
       </c>
       <c r="I46" s="3">
-        <v>37726900</v>
+        <v>36336400</v>
       </c>
       <c r="J46" s="3">
-        <v>36151300</v>
+        <v>34818900</v>
       </c>
       <c r="K46" s="3">
         <v>34473500</v>
@@ -3386,25 +3387,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2133000</v>
+        <v>2054400</v>
       </c>
       <c r="E47" s="3">
-        <v>1513900</v>
+        <v>1458100</v>
       </c>
       <c r="F47" s="3">
-        <v>972600</v>
+        <v>936800</v>
       </c>
       <c r="G47" s="3">
-        <v>917900</v>
+        <v>884000</v>
       </c>
       <c r="H47" s="3">
-        <v>962000</v>
+        <v>926500</v>
       </c>
       <c r="I47" s="3">
-        <v>964200</v>
+        <v>928700</v>
       </c>
       <c r="J47" s="3">
-        <v>917800</v>
+        <v>884000</v>
       </c>
       <c r="K47" s="3">
         <v>887700</v>
@@ -3463,25 +3464,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>75554500</v>
+        <v>72769700</v>
       </c>
       <c r="E48" s="3">
-        <v>70743100</v>
+        <v>68135600</v>
       </c>
       <c r="F48" s="3">
-        <v>66459900</v>
+        <v>64010400</v>
       </c>
       <c r="G48" s="3">
-        <v>61627400</v>
+        <v>59356000</v>
       </c>
       <c r="H48" s="3">
-        <v>58100400</v>
+        <v>55958900</v>
       </c>
       <c r="I48" s="3">
-        <v>55966600</v>
+        <v>53903800</v>
       </c>
       <c r="J48" s="3">
-        <v>52407800</v>
+        <v>50476200</v>
       </c>
       <c r="K48" s="3">
         <v>51065800</v>
@@ -3540,25 +3541,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>900600</v>
+        <v>867400</v>
       </c>
       <c r="E49" s="3">
-        <v>848000</v>
+        <v>816800</v>
       </c>
       <c r="F49" s="3">
-        <v>887800</v>
+        <v>855100</v>
       </c>
       <c r="G49" s="3">
-        <v>848800</v>
+        <v>817500</v>
       </c>
       <c r="H49" s="3">
-        <v>878300</v>
+        <v>845900</v>
       </c>
       <c r="I49" s="3">
-        <v>827900</v>
+        <v>797400</v>
       </c>
       <c r="J49" s="3">
-        <v>852900</v>
+        <v>821500</v>
       </c>
       <c r="K49" s="3">
         <v>881800</v>
@@ -3771,25 +3772,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2178400</v>
+        <v>2098100</v>
       </c>
       <c r="E52" s="3">
-        <v>2046600</v>
+        <v>1971100</v>
       </c>
       <c r="F52" s="3">
-        <v>1799700</v>
+        <v>1733300</v>
       </c>
       <c r="G52" s="3">
-        <v>1537200</v>
+        <v>1480600</v>
       </c>
       <c r="H52" s="3">
-        <v>1351000</v>
+        <v>1301200</v>
       </c>
       <c r="I52" s="3">
-        <v>1137600</v>
+        <v>1095600</v>
       </c>
       <c r="J52" s="3">
-        <v>1049700</v>
+        <v>1011000</v>
       </c>
       <c r="K52" s="3">
         <v>930100</v>
@@ -3925,25 +3926,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>143850700</v>
+        <v>138548600</v>
       </c>
       <c r="E54" s="3">
-        <v>132157600</v>
+        <v>127286500</v>
       </c>
       <c r="F54" s="3">
-        <v>123314200</v>
+        <v>118769100</v>
       </c>
       <c r="G54" s="3">
-        <v>110299500</v>
+        <v>106234100</v>
       </c>
       <c r="H54" s="3">
-        <v>102372200</v>
+        <v>98598900</v>
       </c>
       <c r="I54" s="3">
-        <v>96623300</v>
+        <v>93061900</v>
       </c>
       <c r="J54" s="3">
-        <v>91379500</v>
+        <v>88011500</v>
       </c>
       <c r="K54" s="3">
         <v>88239000</v>
@@ -4060,25 +4061,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1980000</v>
+        <v>1907000</v>
       </c>
       <c r="E57" s="3">
-        <v>1658400</v>
+        <v>1597300</v>
       </c>
       <c r="F57" s="3">
-        <v>1612700</v>
+        <v>1553300</v>
       </c>
       <c r="G57" s="3">
-        <v>1452700</v>
+        <v>1399200</v>
       </c>
       <c r="H57" s="3">
-        <v>1364700</v>
+        <v>1314400</v>
       </c>
       <c r="I57" s="3">
-        <v>1277600</v>
+        <v>1230500</v>
       </c>
       <c r="J57" s="3">
-        <v>1360200</v>
+        <v>1310100</v>
       </c>
       <c r="K57" s="3">
         <v>1369100</v>
@@ -4137,25 +4138,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4464700</v>
+        <v>4300100</v>
       </c>
       <c r="E58" s="3">
-        <v>5412800</v>
+        <v>5213300</v>
       </c>
       <c r="F58" s="3">
-        <v>4027100</v>
+        <v>3878700</v>
       </c>
       <c r="G58" s="3">
-        <v>4002400</v>
+        <v>3854900</v>
       </c>
       <c r="H58" s="3">
-        <v>4675100</v>
+        <v>4502800</v>
       </c>
       <c r="I58" s="3">
-        <v>4601600</v>
+        <v>4432000</v>
       </c>
       <c r="J58" s="3">
-        <v>3077900</v>
+        <v>2964400</v>
       </c>
       <c r="K58" s="3">
         <v>5346700</v>
@@ -4214,25 +4215,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>21532800</v>
+        <v>20739200</v>
       </c>
       <c r="E59" s="3">
-        <v>20165700</v>
+        <v>19422400</v>
       </c>
       <c r="F59" s="3">
-        <v>18837700</v>
+        <v>18143400</v>
       </c>
       <c r="G59" s="3">
-        <v>16245900</v>
+        <v>15647100</v>
       </c>
       <c r="H59" s="3">
-        <v>15400700</v>
+        <v>14833000</v>
       </c>
       <c r="I59" s="3">
-        <v>16021400</v>
+        <v>15430900</v>
       </c>
       <c r="J59" s="3">
-        <v>15989600</v>
+        <v>15400200</v>
       </c>
       <c r="K59" s="3">
         <v>12978600</v>
@@ -4291,25 +4292,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>27977500</v>
+        <v>26946300</v>
       </c>
       <c r="E60" s="3">
-        <v>27236900</v>
+        <v>26233000</v>
       </c>
       <c r="F60" s="3">
-        <v>24477600</v>
+        <v>23575400</v>
       </c>
       <c r="G60" s="3">
-        <v>21701100</v>
+        <v>20901200</v>
       </c>
       <c r="H60" s="3">
-        <v>21440500</v>
+        <v>20650200</v>
       </c>
       <c r="I60" s="3">
-        <v>21900600</v>
+        <v>21093400</v>
       </c>
       <c r="J60" s="3">
-        <v>20427700</v>
+        <v>19674800</v>
       </c>
       <c r="K60" s="3">
         <v>19694300</v>
@@ -4368,25 +4369,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>25808700</v>
+        <v>24857400</v>
       </c>
       <c r="E61" s="3">
-        <v>21640900</v>
+        <v>20843300</v>
       </c>
       <c r="F61" s="3">
-        <v>20990200</v>
+        <v>20216500</v>
       </c>
       <c r="G61" s="3">
-        <v>16029000</v>
+        <v>15438200</v>
       </c>
       <c r="H61" s="3">
-        <v>14387500</v>
+        <v>13857200</v>
       </c>
       <c r="I61" s="3">
-        <v>9947800</v>
+        <v>9581100</v>
       </c>
       <c r="J61" s="3">
-        <v>9156600</v>
+        <v>8819100</v>
       </c>
       <c r="K61" s="3">
         <v>8276500</v>
@@ -4445,25 +4446,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>6968200</v>
+        <v>6711400</v>
       </c>
       <c r="E62" s="3">
-        <v>6439200</v>
+        <v>6201800</v>
       </c>
       <c r="F62" s="3">
-        <v>5995200</v>
+        <v>5774200</v>
       </c>
       <c r="G62" s="3">
-        <v>3777100</v>
+        <v>3637900</v>
       </c>
       <c r="H62" s="3">
-        <v>543800</v>
+        <v>523800</v>
       </c>
       <c r="I62" s="3">
-        <v>527900</v>
+        <v>508500</v>
       </c>
       <c r="J62" s="3">
-        <v>539700</v>
+        <v>519800</v>
       </c>
       <c r="K62" s="3">
         <v>396900</v>
@@ -4753,25 +4754,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>61221400</v>
+        <v>58964900</v>
       </c>
       <c r="E66" s="3">
-        <v>55550000</v>
+        <v>53502500</v>
       </c>
       <c r="F66" s="3">
-        <v>51543900</v>
+        <v>49644100</v>
       </c>
       <c r="G66" s="3">
-        <v>41583300</v>
+        <v>40050600</v>
       </c>
       <c r="H66" s="3">
-        <v>36444100</v>
+        <v>35100800</v>
       </c>
       <c r="I66" s="3">
-        <v>32444500</v>
+        <v>31248600</v>
       </c>
       <c r="J66" s="3">
-        <v>30155900</v>
+        <v>29044400</v>
       </c>
       <c r="K66" s="3">
         <v>28398100</v>
@@ -5167,25 +5168,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>72923500</v>
+        <v>70235600</v>
       </c>
       <c r="E72" s="3">
-        <v>67466500</v>
+        <v>64979800</v>
       </c>
       <c r="F72" s="3">
-        <v>63116100</v>
+        <v>60789700</v>
       </c>
       <c r="G72" s="3">
-        <v>59953200</v>
+        <v>57743400</v>
       </c>
       <c r="H72" s="3">
-        <v>57141300</v>
+        <v>55035200</v>
       </c>
       <c r="I72" s="3">
-        <v>55054300</v>
+        <v>53025100</v>
       </c>
       <c r="J72" s="3">
-        <v>52585500</v>
+        <v>50647300</v>
       </c>
       <c r="K72" s="3">
         <v>50687900</v>
@@ -5475,25 +5476,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>82629300</v>
+        <v>79583700</v>
       </c>
       <c r="E76" s="3">
-        <v>76607600</v>
+        <v>73784000</v>
       </c>
       <c r="F76" s="3">
-        <v>71770300</v>
+        <v>69125000</v>
       </c>
       <c r="G76" s="3">
-        <v>68716300</v>
+        <v>66183500</v>
       </c>
       <c r="H76" s="3">
-        <v>65928100</v>
+        <v>63498100</v>
       </c>
       <c r="I76" s="3">
-        <v>64178800</v>
+        <v>61813300</v>
       </c>
       <c r="J76" s="3">
-        <v>61223700</v>
+        <v>58967100</v>
       </c>
       <c r="K76" s="3">
         <v>59840800</v>
@@ -5711,25 +5712,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>7845600</v>
+        <v>7556400</v>
       </c>
       <c r="E81" s="3">
-        <v>6710500</v>
+        <v>6463100</v>
       </c>
       <c r="F81" s="3">
-        <v>5502300</v>
+        <v>5299500</v>
       </c>
       <c r="G81" s="3">
-        <v>5172100</v>
+        <v>4981500</v>
       </c>
       <c r="H81" s="3">
-        <v>4447300</v>
+        <v>4283400</v>
       </c>
       <c r="I81" s="3">
-        <v>4623800</v>
+        <v>4453300</v>
       </c>
       <c r="J81" s="3">
-        <v>4725600</v>
+        <v>4551400</v>
       </c>
       <c r="K81" s="3">
         <v>4597100</v>
@@ -5817,25 +5818,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3747700</v>
+        <v>3609600</v>
       </c>
       <c r="E83" s="3">
-        <v>3677500</v>
+        <v>3541900</v>
       </c>
       <c r="F83" s="3">
-        <v>3662900</v>
+        <v>3527900</v>
       </c>
       <c r="G83" s="3">
-        <v>3542600</v>
+        <v>3412000</v>
       </c>
       <c r="H83" s="3">
-        <v>3436000</v>
+        <v>3309300</v>
       </c>
       <c r="I83" s="3">
-        <v>3339800</v>
+        <v>3216700</v>
       </c>
       <c r="J83" s="3">
-        <v>3229300</v>
+        <v>3110300</v>
       </c>
       <c r="K83" s="3">
         <v>3171700</v>
@@ -6279,25 +6280,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>11215900</v>
+        <v>10802500</v>
       </c>
       <c r="E89" s="3">
-        <v>12318800</v>
+        <v>11864800</v>
       </c>
       <c r="F89" s="3">
-        <v>12518400</v>
+        <v>12057000</v>
       </c>
       <c r="G89" s="3">
-        <v>10549200</v>
+        <v>10160400</v>
       </c>
       <c r="H89" s="3">
-        <v>6204200</v>
+        <v>5975600</v>
       </c>
       <c r="I89" s="3">
-        <v>7540700</v>
+        <v>7262800</v>
       </c>
       <c r="J89" s="3">
-        <v>8577200</v>
+        <v>8261100</v>
       </c>
       <c r="K89" s="3">
         <v>6366900</v>
@@ -6385,25 +6386,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-7206600</v>
+        <v>-6941000</v>
       </c>
       <c r="E91" s="3">
-        <v>-8676700</v>
+        <v>-8356900</v>
       </c>
       <c r="F91" s="3">
-        <v>-7796900</v>
+        <v>-7509500</v>
       </c>
       <c r="G91" s="3">
-        <v>-6244000</v>
+        <v>-6013800</v>
       </c>
       <c r="H91" s="3">
-        <v>-5526700</v>
+        <v>-5323000</v>
       </c>
       <c r="I91" s="3">
-        <v>-8209800</v>
+        <v>-7907200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2935100</v>
+        <v>-2827000</v>
       </c>
       <c r="K91" s="3">
         <v>-3324800</v>
@@ -6616,25 +6617,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-9133400</v>
+        <v>-8796700</v>
       </c>
       <c r="E94" s="3">
-        <v>-9535200</v>
+        <v>-9183800</v>
       </c>
       <c r="F94" s="3">
-        <v>-8120900</v>
+        <v>-7821500</v>
       </c>
       <c r="G94" s="3">
-        <v>-5859400</v>
+        <v>-5643400</v>
       </c>
       <c r="H94" s="3">
-        <v>-5618800</v>
+        <v>-5411700</v>
       </c>
       <c r="I94" s="3">
-        <v>-8084700</v>
+        <v>-7786700</v>
       </c>
       <c r="J94" s="3">
-        <v>-3010700</v>
+        <v>-2899800</v>
       </c>
       <c r="K94" s="3">
         <v>-3216700</v>
@@ -6722,25 +6723,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2360300</v>
+        <v>-2273300</v>
       </c>
       <c r="E96" s="3">
-        <v>-2360300</v>
+        <v>-2273300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2360300</v>
+        <v>-2273300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2145700</v>
+        <v>-2066700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2145700</v>
+        <v>-2066700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2145700</v>
+        <v>-2066700</v>
       </c>
       <c r="J96" s="3">
-        <v>-2145700</v>
+        <v>-2066700</v>
       </c>
       <c r="K96" s="3">
         <v>-2170400</v>
@@ -7030,25 +7031,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>631600</v>
+        <v>608300</v>
       </c>
       <c r="E100" s="3">
-        <v>-631800</v>
+        <v>-608500</v>
       </c>
       <c r="F100" s="3">
-        <v>2723600</v>
+        <v>2623200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1169200</v>
+        <v>-1126200</v>
       </c>
       <c r="H100" s="3">
-        <v>2483500</v>
+        <v>2392000</v>
       </c>
       <c r="I100" s="3">
-        <v>483900</v>
+        <v>466000</v>
       </c>
       <c r="J100" s="3">
-        <v>-3349800</v>
+        <v>-3226400</v>
       </c>
       <c r="K100" s="3">
         <v>1588100</v>
@@ -7107,25 +7108,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>648800</v>
+        <v>624900</v>
       </c>
       <c r="E101" s="3">
-        <v>714600</v>
+        <v>688300</v>
       </c>
       <c r="F101" s="3">
-        <v>-131100</v>
+        <v>-126300</v>
       </c>
       <c r="G101" s="3">
-        <v>-17600</v>
+        <v>-16900</v>
       </c>
       <c r="H101" s="3">
-        <v>-313300</v>
+        <v>-301700</v>
       </c>
       <c r="I101" s="3">
-        <v>211000</v>
+        <v>203200</v>
       </c>
       <c r="J101" s="3">
-        <v>-363900</v>
+        <v>-350400</v>
       </c>
       <c r="K101" s="3">
         <v>-165500</v>
@@ -7184,25 +7185,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>3362900</v>
+        <v>3239000</v>
       </c>
       <c r="E102" s="3">
-        <v>2866400</v>
+        <v>2760800</v>
       </c>
       <c r="F102" s="3">
-        <v>6990000</v>
+        <v>6732400</v>
       </c>
       <c r="G102" s="3">
-        <v>3503000</v>
+        <v>3373900</v>
       </c>
       <c r="H102" s="3">
-        <v>2755700</v>
+        <v>2654100</v>
       </c>
       <c r="I102" s="3">
-        <v>150800</v>
+        <v>145300</v>
       </c>
       <c r="J102" s="3">
-        <v>1852800</v>
+        <v>1784500</v>
       </c>
       <c r="K102" s="3">
         <v>4572800</v>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,367 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17028400</v>
+        <v>20286000</v>
       </c>
       <c r="E8" s="3">
-        <v>15655500</v>
+        <v>19884200</v>
       </c>
       <c r="F8" s="3">
-        <v>13969500</v>
+        <v>17322200</v>
       </c>
       <c r="G8" s="3">
-        <v>13219700</v>
+        <v>15925600</v>
       </c>
       <c r="H8" s="3">
-        <v>11864000</v>
+        <v>14210500</v>
       </c>
       <c r="I8" s="3">
+        <v>13447800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12068700</v>
+      </c>
+      <c r="K8" s="3">
         <v>11553600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11525700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11933100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10402200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11187700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11319000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>10508600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>8422900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>7672200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>9872500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>8682600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>7758800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>8251100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>8996100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>8170800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>6931000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>7627900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>8551200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6971300</v>
+        <v>7664700</v>
       </c>
       <c r="E9" s="3">
-        <v>6945800</v>
+        <v>7868900</v>
       </c>
       <c r="F9" s="3">
-        <v>6615400</v>
+        <v>7091600</v>
       </c>
       <c r="G9" s="3">
-        <v>6434100</v>
+        <v>7065600</v>
       </c>
       <c r="H9" s="3">
-        <v>5928000</v>
+        <v>6727100</v>
       </c>
       <c r="I9" s="3">
+        <v>6548400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6030300</v>
+      </c>
+      <c r="K9" s="3">
         <v>5501600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5303100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5555900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4888300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5396300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5637300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5508600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4799500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4502600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>5169400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4567900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4047400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>4094400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>4500300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>4091100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>3406400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>3666300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>4080100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10057100</v>
+        <v>12621300</v>
       </c>
       <c r="E10" s="3">
-        <v>8709700</v>
+        <v>12015300</v>
       </c>
       <c r="F10" s="3">
-        <v>7354100</v>
+        <v>10230600</v>
       </c>
       <c r="G10" s="3">
-        <v>6785600</v>
+        <v>8860000</v>
       </c>
       <c r="H10" s="3">
-        <v>5936000</v>
+        <v>7483400</v>
       </c>
       <c r="I10" s="3">
+        <v>6899400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6038400</v>
+      </c>
+      <c r="K10" s="3">
         <v>6052100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6222600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6377300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5513900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5791400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5681700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5000000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3623400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>3169600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>4703100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>4114800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>3711400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4156700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>4495800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>4079700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>3524700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>3961600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>4471200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,85 +1053,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1264000</v>
+        <v>1446000</v>
       </c>
       <c r="E12" s="3">
-        <v>1149200</v>
+        <v>1393800</v>
       </c>
       <c r="F12" s="3">
-        <v>1027800</v>
+        <v>1285800</v>
       </c>
       <c r="G12" s="3">
-        <v>984000</v>
+        <v>1169100</v>
       </c>
       <c r="H12" s="3">
-        <v>984200</v>
+        <v>1045500</v>
       </c>
       <c r="I12" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1001200</v>
+      </c>
+      <c r="K12" s="3">
         <v>980500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>954500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>993800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>833400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>899400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>914700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>859600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>747700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>716200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>807100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>729900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>661600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>679500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>687600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>682100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>617700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>633000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>650900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,34 +1215,40 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1226,43 +1263,49 @@
         <v>100</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>-10600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>2200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1270,31 +1313,31 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
@@ -1309,17 +1352,17 @@
         <v>200</v>
       </c>
       <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3">
+        <v>200</v>
+      </c>
+      <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -1338,8 +1381,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1413,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8672300</v>
+        <v>9745500</v>
       </c>
       <c r="E17" s="3">
-        <v>8521400</v>
+        <v>9820700</v>
       </c>
       <c r="F17" s="3">
-        <v>8142800</v>
+        <v>8821900</v>
       </c>
       <c r="G17" s="3">
-        <v>7768000</v>
+        <v>8668500</v>
       </c>
       <c r="H17" s="3">
-        <v>7220000</v>
+        <v>8283300</v>
       </c>
       <c r="I17" s="3">
+        <v>7902100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>7344600</v>
+      </c>
+      <c r="K17" s="3">
         <v>6754500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6516700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6909700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6013100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6558400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6886000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6639900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5756200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5417700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6222800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5506100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>4950700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5030600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5466600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4992900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>4232700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>4518900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>4969300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>8356200</v>
+        <v>10540500</v>
       </c>
       <c r="E18" s="3">
-        <v>7134100</v>
+        <v>10063500</v>
       </c>
       <c r="F18" s="3">
-        <v>5826700</v>
+        <v>8500300</v>
       </c>
       <c r="G18" s="3">
-        <v>5451700</v>
+        <v>7257100</v>
       </c>
       <c r="H18" s="3">
-        <v>4644000</v>
+        <v>5927200</v>
       </c>
       <c r="I18" s="3">
+        <v>5545700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4724100</v>
+      </c>
+      <c r="K18" s="3">
         <v>4799200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5009000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5023500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4389100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4629300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4433100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3868700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2666700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2254500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3649700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3176500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2808100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>3220500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>3529400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>3177900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2698300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>3109000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>3581900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1547,393 +1610,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>216500</v>
+        <v>421000</v>
       </c>
       <c r="E20" s="3">
-        <v>165600</v>
+        <v>316100</v>
       </c>
       <c r="F20" s="3">
-        <v>134600</v>
+        <v>220200</v>
       </c>
       <c r="G20" s="3">
-        <v>133300</v>
+        <v>168400</v>
       </c>
       <c r="H20" s="3">
-        <v>154800</v>
+        <v>137000</v>
       </c>
       <c r="I20" s="3">
+        <v>135600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>157500</v>
+      </c>
+      <c r="K20" s="3">
         <v>168900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>151600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>182600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>191200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>149800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>184900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>189900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>178600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>168900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>164700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>146400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>126000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>130500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>116900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>107200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>120000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>107600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>98400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>12182200</v>
+        <v>14450400</v>
       </c>
       <c r="E21" s="3">
-        <v>10841600</v>
+        <v>13795900</v>
       </c>
       <c r="F21" s="3">
-        <v>9489300</v>
+        <v>12392400</v>
       </c>
       <c r="G21" s="3">
-        <v>8996900</v>
+        <v>11028600</v>
       </c>
       <c r="H21" s="3">
-        <v>8108100</v>
+        <v>9653000</v>
       </c>
       <c r="I21" s="3">
+        <v>9152200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>8247900</v>
+      </c>
+      <c r="K21" s="3">
         <v>8184800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>8270900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>8377700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>6953200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>7248400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>7027400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>6452500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5468200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>5143700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>6404700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>5777700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>5309100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>5729000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>5941400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>5591600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>4697800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>5178800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>5520800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>92600</v>
+        <v>108200</v>
       </c>
       <c r="E22" s="3">
-        <v>68200</v>
+        <v>109300</v>
       </c>
       <c r="F22" s="3">
-        <v>69300</v>
+        <v>94200</v>
       </c>
       <c r="G22" s="3">
-        <v>42500</v>
+        <v>69400</v>
       </c>
       <c r="H22" s="3">
-        <v>36200</v>
+        <v>70500</v>
       </c>
       <c r="I22" s="3">
+        <v>43300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K22" s="3">
         <v>24600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>24500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>12500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>13700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>19100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>23000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>30200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>30200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>31500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>29800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>24600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>20900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>26900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>26900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>27300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>27200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>26600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>26500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>8480000</v>
+        <v>10853300</v>
       </c>
       <c r="E23" s="3">
-        <v>7231400</v>
+        <v>10270300</v>
       </c>
       <c r="F23" s="3">
-        <v>5892000</v>
+        <v>8626300</v>
       </c>
       <c r="G23" s="3">
-        <v>5542400</v>
+        <v>7356200</v>
       </c>
       <c r="H23" s="3">
-        <v>4762600</v>
+        <v>5993700</v>
       </c>
       <c r="I23" s="3">
+        <v>5638000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4844800</v>
+      </c>
+      <c r="K23" s="3">
         <v>4943500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5136100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5193600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4566600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4759900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4594900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4028400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2815100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2391800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3784600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3298200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2913200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3324100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3619400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>3257800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2791100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>3190000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>3653900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>918700</v>
+        <v>1258000</v>
       </c>
       <c r="E24" s="3">
-        <v>763800</v>
+        <v>1158500</v>
       </c>
       <c r="F24" s="3">
-        <v>588000</v>
+        <v>934600</v>
       </c>
       <c r="G24" s="3">
-        <v>553800</v>
+        <v>777000</v>
       </c>
       <c r="H24" s="3">
-        <v>475300</v>
+        <v>598200</v>
       </c>
       <c r="I24" s="3">
+        <v>563400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K24" s="3">
         <v>488600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>582900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>594100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>519100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>543300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>453300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>402800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>481200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>238300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>377400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>326800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>508700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>337800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>400900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>342500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>643200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>332700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>385400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2009,162 +2104,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>7561300</v>
+        <v>9595300</v>
       </c>
       <c r="E26" s="3">
-        <v>6467600</v>
+        <v>9111800</v>
       </c>
       <c r="F26" s="3">
-        <v>5304000</v>
+        <v>7691800</v>
       </c>
       <c r="G26" s="3">
-        <v>4988600</v>
+        <v>6579200</v>
       </c>
       <c r="H26" s="3">
-        <v>4287300</v>
+        <v>5395500</v>
       </c>
       <c r="I26" s="3">
+        <v>5074600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4361200</v>
+      </c>
+      <c r="K26" s="3">
         <v>4454900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4553200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4599400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4047500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4216600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4141700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3625500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2333800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2153500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3407200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2971400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>2404500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2986300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>3218500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>2915300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>2147800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>2857300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>3268400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>7556400</v>
+        <v>9596200</v>
       </c>
       <c r="E27" s="3">
-        <v>6463100</v>
+        <v>9108500</v>
       </c>
       <c r="F27" s="3">
-        <v>5299500</v>
+        <v>7686800</v>
       </c>
       <c r="G27" s="3">
-        <v>4981500</v>
+        <v>6574600</v>
       </c>
       <c r="H27" s="3">
-        <v>4283400</v>
+        <v>5390900</v>
       </c>
       <c r="I27" s="3">
+        <v>5067500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4357300</v>
+      </c>
+      <c r="K27" s="3">
         <v>4453300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4551400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4597100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4045100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4213900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4140100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3624400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2333400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2153700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>3406500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2970500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>2404400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2986200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>3217900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>2914500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>2147800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>2857600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>3267500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2240,8 +2353,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2317,8 +2436,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2394,8 +2519,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2471,162 +2602,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-216500</v>
+        <v>-421000</v>
       </c>
       <c r="E32" s="3">
-        <v>-165600</v>
+        <v>-316100</v>
       </c>
       <c r="F32" s="3">
-        <v>-134600</v>
+        <v>-220200</v>
       </c>
       <c r="G32" s="3">
-        <v>-133300</v>
+        <v>-168400</v>
       </c>
       <c r="H32" s="3">
-        <v>-154800</v>
+        <v>-137000</v>
       </c>
       <c r="I32" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-168900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-151600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-182600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-191200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-149800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-184900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-189900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-178600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-168900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-164700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-146400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-126000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-130500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-116900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-107200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-120000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-107600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-98400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>7556400</v>
+        <v>9596200</v>
       </c>
       <c r="E33" s="3">
-        <v>6463100</v>
+        <v>9108500</v>
       </c>
       <c r="F33" s="3">
-        <v>5299500</v>
+        <v>7686800</v>
       </c>
       <c r="G33" s="3">
-        <v>4981500</v>
+        <v>6574600</v>
       </c>
       <c r="H33" s="3">
-        <v>4283400</v>
+        <v>5390900</v>
       </c>
       <c r="I33" s="3">
+        <v>5067500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4357300</v>
+      </c>
+      <c r="K33" s="3">
         <v>4453300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4551400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4597100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4045100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4213900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4140100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3624400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2333400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2153700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>3406500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2970500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2404400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2986200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>3217900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>2914500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>2147800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>2857600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>3267500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2702,167 +2851,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>7556400</v>
+        <v>9596200</v>
       </c>
       <c r="E35" s="3">
-        <v>6463100</v>
+        <v>9108500</v>
       </c>
       <c r="F35" s="3">
-        <v>5299500</v>
+        <v>7686800</v>
       </c>
       <c r="G35" s="3">
-        <v>4981500</v>
+        <v>6574600</v>
       </c>
       <c r="H35" s="3">
-        <v>4283400</v>
+        <v>5390900</v>
       </c>
       <c r="I35" s="3">
+        <v>5067500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4357300</v>
+      </c>
+      <c r="K35" s="3">
         <v>4453300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4551400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4597100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4045100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4213900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4140100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3624400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2333400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2153700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>3406500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2970500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2404400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2986200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>3217900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>2914500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>2147800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>2857600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>3267500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2890,8 +3057,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2919,701 +3088,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>39951700</v>
+        <v>43547500</v>
       </c>
       <c r="E41" s="3">
-        <v>36712700</v>
+        <v>42029700</v>
       </c>
       <c r="F41" s="3">
-        <v>33951900</v>
+        <v>40640900</v>
       </c>
       <c r="G41" s="3">
-        <v>27219500</v>
+        <v>37346100</v>
       </c>
       <c r="H41" s="3">
-        <v>23845700</v>
+        <v>34537600</v>
       </c>
       <c r="I41" s="3">
+        <v>27689100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>24257100</v>
+      </c>
+      <c r="K41" s="3">
         <v>21191500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>21046200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>20228500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15655700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>15516600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>16248600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>16224200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>22706900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>22650100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>19686100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>16299200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>21028000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>19217100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>17935400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>13225800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>18488800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>18415700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>17650300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>6282000</v>
+        <v>7902700</v>
       </c>
       <c r="E42" s="3">
-        <v>4643800</v>
+        <v>7229400</v>
       </c>
       <c r="F42" s="3">
-        <v>3930600</v>
+        <v>6390400</v>
       </c>
       <c r="G42" s="3">
-        <v>4333900</v>
+        <v>4723900</v>
       </c>
       <c r="H42" s="3">
-        <v>4311600</v>
+        <v>3998400</v>
       </c>
       <c r="I42" s="3">
+        <v>4408700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4386000</v>
+      </c>
+      <c r="K42" s="3">
         <v>4687500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>4454400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4867200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>4924400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5052000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4951600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>5379600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>4532100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>4384600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>4628600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>4342600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>4313700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>3928700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>3325800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>3200600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>2937600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>3206500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>3091300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7159800</v>
+        <v>7504600</v>
       </c>
       <c r="E43" s="3">
-        <v>6805900</v>
+        <v>8484200</v>
       </c>
       <c r="F43" s="3">
-        <v>6323800</v>
+        <v>7283400</v>
       </c>
       <c r="G43" s="3">
-        <v>5969300</v>
+        <v>6923400</v>
       </c>
       <c r="H43" s="3">
-        <v>5737500</v>
+        <v>6432900</v>
       </c>
       <c r="I43" s="3">
+        <v>6072200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5836500</v>
+      </c>
+      <c r="K43" s="3">
         <v>5340900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4657300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5444500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5095000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5276200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4988900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>5216800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>4112700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3746200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4404000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>4322300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3039400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3589100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>3969900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>3853300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>3625400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>3559800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>4221400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>6931900</v>
+        <v>7171900</v>
       </c>
       <c r="E44" s="3">
-        <v>6379800</v>
+        <v>7080600</v>
       </c>
       <c r="F44" s="3">
-        <v>6156100</v>
+        <v>7051500</v>
       </c>
       <c r="G44" s="3">
-        <v>5809600</v>
+        <v>6489800</v>
       </c>
       <c r="H44" s="3">
-        <v>5433600</v>
+        <v>6262300</v>
       </c>
       <c r="I44" s="3">
+        <v>5909800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5527300</v>
+      </c>
+      <c r="K44" s="3">
         <v>4927600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4378800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3666400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2872200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2819600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2960800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3467200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3782700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3812600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3517100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3513000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>3293800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2834300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>2394500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2394900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1977400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1643200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1587500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>433600</v>
+        <v>448800</v>
       </c>
       <c r="E45" s="3">
-        <v>362700</v>
+        <v>497700</v>
       </c>
       <c r="F45" s="3">
-        <v>871100</v>
+        <v>441100</v>
       </c>
       <c r="G45" s="3">
-        <v>363700</v>
+        <v>369000</v>
       </c>
       <c r="H45" s="3">
-        <v>238000</v>
+        <v>886100</v>
       </c>
       <c r="I45" s="3">
+        <v>370000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>242200</v>
+      </c>
+      <c r="K45" s="3">
         <v>188900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>282100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>267000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>246600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>240500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>201000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>172700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>171400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>182200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>187900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>178000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>222900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1333300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>156400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>170000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>132000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>99600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>115600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>60759000</v>
+        <v>66575400</v>
       </c>
       <c r="E46" s="3">
-        <v>54904900</v>
+        <v>65321600</v>
       </c>
       <c r="F46" s="3">
-        <v>51233500</v>
+        <v>61807200</v>
       </c>
       <c r="G46" s="3">
-        <v>43696000</v>
+        <v>55852200</v>
       </c>
       <c r="H46" s="3">
-        <v>39566400</v>
+        <v>52117400</v>
       </c>
       <c r="I46" s="3">
+        <v>44449800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>40249000</v>
+      </c>
+      <c r="K46" s="3">
         <v>36336400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>34818900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>34473500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>28793900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>28905000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>29350900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>30460500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>35305800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>34775700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>32423700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>28655100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>31897800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>30902400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>27782000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>22844600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>27161200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>26924800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>26666100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2054400</v>
+        <v>2235300</v>
       </c>
       <c r="E47" s="3">
-        <v>1458100</v>
+        <v>2458100</v>
       </c>
       <c r="F47" s="3">
-        <v>936800</v>
+        <v>2089800</v>
       </c>
       <c r="G47" s="3">
+        <v>1483200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>952900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>899300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>942500</v>
+      </c>
+      <c r="K47" s="3">
+        <v>928700</v>
+      </c>
+      <c r="L47" s="3">
         <v>884000</v>
       </c>
-      <c r="H47" s="3">
-        <v>926500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>928700</v>
-      </c>
-      <c r="J47" s="3">
-        <v>884000</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>887700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>767300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1117800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1076500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1080600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1024600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1053800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>998400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>993900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>959100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1143400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1347300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>1325700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1420200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>1451800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>1505100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>72769700</v>
+        <v>88720400</v>
       </c>
       <c r="E48" s="3">
-        <v>68135600</v>
+        <v>79578000</v>
       </c>
       <c r="F48" s="3">
-        <v>64010400</v>
+        <v>74025100</v>
       </c>
       <c r="G48" s="3">
-        <v>59356000</v>
+        <v>69311100</v>
       </c>
       <c r="H48" s="3">
-        <v>55958900</v>
+        <v>65114700</v>
       </c>
       <c r="I48" s="3">
+        <v>60380000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>56924300</v>
+      </c>
+      <c r="K48" s="3">
         <v>53903800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>50476200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>51065800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>50708700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>52586900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>48867700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>43586500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>40573900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>39524500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>36524800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>34968000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>34399800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>35101500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>34437000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>34541200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>34925900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>33828400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>32537500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>867400</v>
+        <v>843200</v>
       </c>
       <c r="E49" s="3">
-        <v>816800</v>
+        <v>866100</v>
       </c>
       <c r="F49" s="3">
-        <v>855100</v>
+        <v>882400</v>
       </c>
       <c r="G49" s="3">
-        <v>817500</v>
+        <v>830900</v>
       </c>
       <c r="H49" s="3">
-        <v>845900</v>
+        <v>869800</v>
       </c>
       <c r="I49" s="3">
+        <v>831600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>860500</v>
+      </c>
+      <c r="K49" s="3">
         <v>797400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>821500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>881800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>917200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>980900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>736900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>648800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>611700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>630500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>579300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>466500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>458700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>454800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>459400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>481000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>457600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>465600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>476600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3689,8 +3914,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3766,85 +3997,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2098100</v>
+        <v>2633400</v>
       </c>
       <c r="E52" s="3">
-        <v>1971100</v>
+        <v>2358500</v>
       </c>
       <c r="F52" s="3">
-        <v>1733300</v>
+        <v>2134300</v>
       </c>
       <c r="G52" s="3">
-        <v>1480600</v>
+        <v>2005100</v>
       </c>
       <c r="H52" s="3">
-        <v>1301200</v>
+        <v>1763200</v>
       </c>
       <c r="I52" s="3">
+        <v>1506100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1323600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1095600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1011000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>930100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>794200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>814900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>776300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>757200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>749100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>750900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>684500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>612200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>581200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>552800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>530600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>488100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>415500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>418700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>332000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3920,85 +4163,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>138548600</v>
+        <v>161007800</v>
       </c>
       <c r="E54" s="3">
-        <v>127286500</v>
+        <v>150582300</v>
       </c>
       <c r="F54" s="3">
-        <v>118769100</v>
+        <v>140938900</v>
       </c>
       <c r="G54" s="3">
-        <v>106234100</v>
+        <v>129482500</v>
       </c>
       <c r="H54" s="3">
-        <v>98598900</v>
+        <v>120818100</v>
       </c>
       <c r="I54" s="3">
+        <v>108066900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>100300000</v>
+      </c>
+      <c r="K54" s="3">
         <v>93061900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>88011500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>88239000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>81981300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>84405500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>80808200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>76533600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>78265100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>76735300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>71210700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>65695800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>68296500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>68154900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>64556200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>59680600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>64380300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>63089400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>61517300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4026,8 +4281,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4055,470 +4312,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1907000</v>
+        <v>1833000</v>
       </c>
       <c r="E57" s="3">
-        <v>1597300</v>
+        <v>2011300</v>
       </c>
       <c r="F57" s="3">
-        <v>1553300</v>
+        <v>1939900</v>
       </c>
       <c r="G57" s="3">
-        <v>1399200</v>
+        <v>1624900</v>
       </c>
       <c r="H57" s="3">
-        <v>1314400</v>
+        <v>1580100</v>
       </c>
       <c r="I57" s="3">
+        <v>1423300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1337100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1230500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1310100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1369100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1323600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1432700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1434500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1325300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1138300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>970400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1170600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1010700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1019900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>965900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>974500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>939500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>830100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>790900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>891100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4300100</v>
+        <v>710800</v>
       </c>
       <c r="E58" s="3">
-        <v>5213300</v>
+        <v>842900</v>
       </c>
       <c r="F58" s="3">
-        <v>3878700</v>
+        <v>4374300</v>
       </c>
       <c r="G58" s="3">
-        <v>3854900</v>
+        <v>5303200</v>
       </c>
       <c r="H58" s="3">
-        <v>4502800</v>
+        <v>3945600</v>
       </c>
       <c r="I58" s="3">
+        <v>3921400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4580500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4432000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2964400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5346700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6388800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5670400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5444700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4301600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4510200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4468900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4212900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3631000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1554400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3528500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>3959500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>3678600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>4362700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>3247200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>3132800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>20739200</v>
+        <v>28077500</v>
       </c>
       <c r="E59" s="3">
-        <v>19422400</v>
+        <v>23330900</v>
       </c>
       <c r="F59" s="3">
-        <v>18143400</v>
+        <v>21097000</v>
       </c>
       <c r="G59" s="3">
-        <v>15647100</v>
+        <v>19757500</v>
       </c>
       <c r="H59" s="3">
-        <v>14833000</v>
+        <v>18456400</v>
       </c>
       <c r="I59" s="3">
+        <v>15917100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>15088900</v>
+      </c>
+      <c r="K59" s="3">
         <v>15430900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15400200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>12978600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>12870900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>14129500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>14198200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>12116000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>16099400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7830300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>6218800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>6084700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>12825000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>6888300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>6691700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>5057000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>11774100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>6448700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>6354000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>26946300</v>
+        <v>30621300</v>
       </c>
       <c r="E60" s="3">
-        <v>26233000</v>
+        <v>26185000</v>
       </c>
       <c r="F60" s="3">
-        <v>23575400</v>
+        <v>27411200</v>
       </c>
       <c r="G60" s="3">
-        <v>20901200</v>
+        <v>26685600</v>
       </c>
       <c r="H60" s="3">
-        <v>20650200</v>
+        <v>23982100</v>
       </c>
       <c r="I60" s="3">
+        <v>21261800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>21006500</v>
+      </c>
+      <c r="K60" s="3">
         <v>21093400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>19674800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>19694300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>20583400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>21232600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>21077400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>17742900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>21747900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>13269600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11602300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>10726400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>15399300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>11382700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>11625700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>9675100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>16966900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>10486700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>10377800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>24857400</v>
+        <v>28177100</v>
       </c>
       <c r="E61" s="3">
-        <v>20843300</v>
+        <v>28396500</v>
       </c>
       <c r="F61" s="3">
-        <v>20216500</v>
+        <v>25286300</v>
       </c>
       <c r="G61" s="3">
-        <v>15438200</v>
+        <v>21202900</v>
       </c>
       <c r="H61" s="3">
-        <v>13857200</v>
+        <v>20565300</v>
       </c>
       <c r="I61" s="3">
+        <v>15704500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>14096200</v>
+      </c>
+      <c r="K61" s="3">
         <v>9581100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>8819100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>8276500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3401700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2376100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1432300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1439100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1772200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1831400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1938600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1897600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2773900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2773900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2975200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2975700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>3218900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>4376900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>4993100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>6711400</v>
+        <v>6200700</v>
       </c>
       <c r="E62" s="3">
-        <v>6201800</v>
+        <v>6743200</v>
       </c>
       <c r="F62" s="3">
-        <v>5774200</v>
+        <v>6827100</v>
       </c>
       <c r="G62" s="3">
-        <v>3637900</v>
+        <v>6308800</v>
       </c>
       <c r="H62" s="3">
-        <v>523800</v>
+        <v>5873800</v>
       </c>
       <c r="I62" s="3">
+        <v>3700600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>532800</v>
+      </c>
+      <c r="K62" s="3">
         <v>508500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>519800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>396900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>370000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>390200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>422200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>424000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>418000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>471600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>517500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>517900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>544800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>562600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>602700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>637700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>688500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>735500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>816900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4594,8 +4889,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4671,8 +4972,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,85 +5055,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>58964900</v>
+        <v>65480200</v>
       </c>
       <c r="E66" s="3">
-        <v>53502500</v>
+        <v>61789800</v>
       </c>
       <c r="F66" s="3">
-        <v>49644100</v>
+        <v>59982100</v>
       </c>
       <c r="G66" s="3">
-        <v>40050600</v>
+        <v>54425500</v>
       </c>
       <c r="H66" s="3">
-        <v>35100800</v>
+        <v>50500500</v>
       </c>
       <c r="I66" s="3">
+        <v>40741500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>35706400</v>
+      </c>
+      <c r="K66" s="3">
         <v>31248600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>29044400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>28398100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>24383000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>24026400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>22956300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>19629000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>23959200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15596300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>14081500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>13163800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>18739100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>14742700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>15226400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>13311000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>20896300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>15625100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>16213900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4854,8 +5173,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4931,8 +5252,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5008,8 +5335,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5085,8 +5418,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5162,85 +5501,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>70235600</v>
+        <v>85534900</v>
       </c>
       <c r="E72" s="3">
-        <v>64979800</v>
+        <v>78246200</v>
       </c>
       <c r="F72" s="3">
-        <v>60789700</v>
+        <v>71447400</v>
       </c>
       <c r="G72" s="3">
-        <v>57743400</v>
+        <v>66100800</v>
       </c>
       <c r="H72" s="3">
-        <v>55035200</v>
+        <v>61838500</v>
       </c>
       <c r="I72" s="3">
+        <v>58739600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>55984600</v>
+      </c>
+      <c r="K72" s="3">
         <v>53025100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>50647300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>50687900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>48261200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>49905600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>47573400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>45969200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>43532900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>50443200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>46902400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>42612600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>39561800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>44059200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>39973300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>36763300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>33848900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>37815800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>34958200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5316,8 +5667,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5393,8 +5750,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5470,85 +5833,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>79583700</v>
+        <v>95527500</v>
       </c>
       <c r="E76" s="3">
-        <v>73784000</v>
+        <v>88792500</v>
       </c>
       <c r="F76" s="3">
-        <v>69125000</v>
+        <v>80956700</v>
       </c>
       <c r="G76" s="3">
-        <v>66183500</v>
+        <v>75057000</v>
       </c>
       <c r="H76" s="3">
-        <v>63498100</v>
+        <v>70317500</v>
       </c>
       <c r="I76" s="3">
+        <v>67325300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>64593600</v>
+      </c>
+      <c r="K76" s="3">
         <v>61813300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>58967100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>59840800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>57598300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>60379100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>57851900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>56904700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>54305800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>61139000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>57129200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>52532000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>49557500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>53412200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>49329900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>46369500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>43484000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>47464300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>45303400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5624,167 +5999,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>7556400</v>
+        <v>9596200</v>
       </c>
       <c r="E81" s="3">
-        <v>6463100</v>
+        <v>9108500</v>
       </c>
       <c r="F81" s="3">
-        <v>5299500</v>
+        <v>7686800</v>
       </c>
       <c r="G81" s="3">
-        <v>4981500</v>
+        <v>6574600</v>
       </c>
       <c r="H81" s="3">
-        <v>4283400</v>
+        <v>5390900</v>
       </c>
       <c r="I81" s="3">
+        <v>5067500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4357300</v>
+      </c>
+      <c r="K81" s="3">
         <v>4453300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4551400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4597100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4045100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4213900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4140100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3624400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2333400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2153700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>3406500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2970500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2404400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2986200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>3217900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>2914500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>2147800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>2857600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>3267500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5812,85 +6205,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3609600</v>
+        <v>3488900</v>
       </c>
       <c r="E83" s="3">
-        <v>3541900</v>
+        <v>3416400</v>
       </c>
       <c r="F83" s="3">
-        <v>3527900</v>
+        <v>3671900</v>
       </c>
       <c r="G83" s="3">
-        <v>3412000</v>
+        <v>3603000</v>
       </c>
       <c r="H83" s="3">
-        <v>3309300</v>
+        <v>3588800</v>
       </c>
       <c r="I83" s="3">
+        <v>3470900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3366400</v>
+      </c>
+      <c r="K83" s="3">
         <v>3216700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3110300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3171700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2372900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2469300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2409500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2393900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2622900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2720400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2590300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2454900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>2375100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>2378000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>2295100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>2306400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>1879500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>1962200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>1840400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5966,8 +6367,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6043,8 +6450,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6120,8 +6533,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6197,8 +6616,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6274,85 +6699,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>10802500</v>
+        <v>15789600</v>
       </c>
       <c r="E89" s="3">
-        <v>11864800</v>
+        <v>13383800</v>
       </c>
       <c r="F89" s="3">
-        <v>12057000</v>
+        <v>10988900</v>
       </c>
       <c r="G89" s="3">
-        <v>10160400</v>
+        <v>12069500</v>
       </c>
       <c r="H89" s="3">
-        <v>5975600</v>
+        <v>12265000</v>
       </c>
       <c r="I89" s="3">
+        <v>10335600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>6078700</v>
+      </c>
+      <c r="K89" s="3">
         <v>7262800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>8261100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>6366900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>5702800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>7313100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7241400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>5083300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4115700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>5355700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>6451900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>3137700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>4316300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>5345700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>6615700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>3785000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>3351200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>5250500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>6040000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6380,85 +6817,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-6941000</v>
+        <v>-10923900</v>
       </c>
       <c r="E91" s="3">
-        <v>-8356900</v>
+        <v>-8625400</v>
       </c>
       <c r="F91" s="3">
-        <v>-7509500</v>
+        <v>-7060800</v>
       </c>
       <c r="G91" s="3">
-        <v>-6013800</v>
+        <v>-8501000</v>
       </c>
       <c r="H91" s="3">
-        <v>-5323000</v>
+        <v>-7639100</v>
       </c>
       <c r="I91" s="3">
+        <v>-6117600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-5414900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7907200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2827000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3324800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4241900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-6936000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6065900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3518500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-4066500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-2664000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3887600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2332800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6534,8 +6979,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6611,85 +7062,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-8796700</v>
+        <v>-11108300</v>
       </c>
       <c r="E94" s="3">
-        <v>-9183800</v>
+        <v>-9222800</v>
       </c>
       <c r="F94" s="3">
-        <v>-7821500</v>
+        <v>-8948500</v>
       </c>
       <c r="G94" s="3">
-        <v>-5643400</v>
+        <v>-9342200</v>
       </c>
       <c r="H94" s="3">
-        <v>-5411700</v>
+        <v>-7956500</v>
       </c>
       <c r="I94" s="3">
+        <v>-5740800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5505000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7786700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2899800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3216700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4344000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-6807500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6122900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3883300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4009400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2251700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3995100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2116800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6717,50 +7180,52 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2273300</v>
+        <v>-2312500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2273300</v>
+        <v>-2312500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2273300</v>
+        <v>-2312500</v>
       </c>
       <c r="G96" s="3">
+        <v>-2312500</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-2312500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-2102300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-2102300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2066700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="L96" s="3">
         <v>-2066700</v>
       </c>
-      <c r="I96" s="3">
-        <v>-2066700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2066700</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-2170400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-2170400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-2335000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1850400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6794,8 +7259,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6871,8 +7342,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6948,8 +7425,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7025,235 +7508,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>608300</v>
+        <v>-2264600</v>
       </c>
       <c r="E100" s="3">
-        <v>-608500</v>
+        <v>-4229100</v>
       </c>
       <c r="F100" s="3">
-        <v>2623200</v>
+        <v>618800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1126200</v>
+        <v>-619000</v>
       </c>
       <c r="H100" s="3">
-        <v>2392000</v>
+        <v>2668500</v>
       </c>
       <c r="I100" s="3">
+        <v>-1145600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2433200</v>
+      </c>
+      <c r="K100" s="3">
         <v>466000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-3226400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1588100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>197900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1468100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-613100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-8216000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-786200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>486600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-5750700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-976100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>312600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-388400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>792500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>624900</v>
+        <v>-898900</v>
       </c>
       <c r="E101" s="3">
-        <v>688300</v>
+        <v>1456800</v>
       </c>
       <c r="F101" s="3">
-        <v>-126300</v>
+        <v>635700</v>
       </c>
       <c r="G101" s="3">
-        <v>-16900</v>
+        <v>700200</v>
       </c>
       <c r="H101" s="3">
-        <v>-301700</v>
+        <v>-128500</v>
       </c>
       <c r="I101" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-306900</v>
+      </c>
+      <c r="K101" s="3">
         <v>203200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-350400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-165500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-323400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>75600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-399500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-58000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>66900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>62700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>91600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-55800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>468800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-174600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-175200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-23200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>38900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-534700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>204200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>3239000</v>
+        <v>1517800</v>
       </c>
       <c r="E102" s="3">
-        <v>2760800</v>
+        <v>1388800</v>
       </c>
       <c r="F102" s="3">
-        <v>6732400</v>
+        <v>3294900</v>
       </c>
       <c r="G102" s="3">
-        <v>3373900</v>
+        <v>2808400</v>
       </c>
       <c r="H102" s="3">
-        <v>2654100</v>
+        <v>6848500</v>
       </c>
       <c r="I102" s="3">
+        <v>3432100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2699900</v>
+      </c>
+      <c r="K102" s="3">
         <v>145300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1784500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4572800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1233300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-886900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>105900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-7074000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>140700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2380400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3035000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-4785700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1810900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>811300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>4709600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>186100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>765400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>2520200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-5165000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,367 +665,380 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20286000</v>
+        <v>16556000</v>
       </c>
       <c r="E8" s="3">
-        <v>19884200</v>
+        <v>20361100</v>
       </c>
       <c r="F8" s="3">
-        <v>17322200</v>
+        <v>19957800</v>
       </c>
       <c r="G8" s="3">
-        <v>15925600</v>
+        <v>17386300</v>
       </c>
       <c r="H8" s="3">
-        <v>14210500</v>
+        <v>15984500</v>
       </c>
       <c r="I8" s="3">
-        <v>13447800</v>
+        <v>14263100</v>
       </c>
       <c r="J8" s="3">
+        <v>13497500</v>
+      </c>
+      <c r="K8" s="3">
         <v>12068700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11553600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11525700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11933100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10402200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11187700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11319000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10508600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8422900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7672200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9872500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8682600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7758800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8251100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8996100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8170800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6931000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7627900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8551200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7664700</v>
+        <v>7230400</v>
       </c>
       <c r="E9" s="3">
-        <v>7868900</v>
+        <v>7693100</v>
       </c>
       <c r="F9" s="3">
-        <v>7091600</v>
+        <v>7898100</v>
       </c>
       <c r="G9" s="3">
-        <v>7065600</v>
+        <v>7117800</v>
       </c>
       <c r="H9" s="3">
-        <v>6727100</v>
+        <v>7091800</v>
       </c>
       <c r="I9" s="3">
-        <v>6548400</v>
+        <v>6752000</v>
       </c>
       <c r="J9" s="3">
+        <v>6572600</v>
+      </c>
+      <c r="K9" s="3">
         <v>6030300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5501600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5303100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5555900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4888300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5396300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5637300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5508600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4799500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4502600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5169400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4567900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4047400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4094400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4500300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4091100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3406400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3666300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4080100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12621300</v>
+        <v>9325600</v>
       </c>
       <c r="E10" s="3">
-        <v>12015300</v>
+        <v>12668000</v>
       </c>
       <c r="F10" s="3">
-        <v>10230600</v>
+        <v>12059700</v>
       </c>
       <c r="G10" s="3">
-        <v>8860000</v>
+        <v>10268500</v>
       </c>
       <c r="H10" s="3">
-        <v>7483400</v>
+        <v>8892800</v>
       </c>
       <c r="I10" s="3">
-        <v>6899400</v>
+        <v>7511100</v>
       </c>
       <c r="J10" s="3">
+        <v>6924900</v>
+      </c>
+      <c r="K10" s="3">
         <v>6038400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6052100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6222600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6377300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5513900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5791400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5681700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5000000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3623400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3169600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4703100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4114800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3711400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4156700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4495800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4079700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3524700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3961600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4471200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,91 +1068,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1446000</v>
+        <v>1274600</v>
       </c>
       <c r="E12" s="3">
-        <v>1393800</v>
+        <v>1451300</v>
       </c>
       <c r="F12" s="3">
-        <v>1285800</v>
+        <v>1398900</v>
       </c>
       <c r="G12" s="3">
-        <v>1169100</v>
+        <v>1290600</v>
       </c>
       <c r="H12" s="3">
-        <v>1045500</v>
+        <v>1173400</v>
       </c>
       <c r="I12" s="3">
-        <v>1001000</v>
+        <v>1049400</v>
       </c>
       <c r="J12" s="3">
+        <v>1004700</v>
+      </c>
+      <c r="K12" s="3">
         <v>1001200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>980500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>954500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>993800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>833400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>899400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>914700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>859600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>747700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>716200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>807100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>729900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>661600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>679500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>687600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>682100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>617700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>633000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>650900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1221,62 +1238,65 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
-      </c>
-      <c r="F14" s="3">
-        <v>400</v>
       </c>
       <c r="G14" s="3">
         <v>400</v>
       </c>
       <c r="H14" s="3">
+        <v>400</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-100</v>
       </c>
       <c r="J14" s="3">
         <v>-100</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
         <v>-10600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1284,28 +1304,31 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>-100</v>
       </c>
       <c r="Y14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1319,28 +1342,28 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
@@ -1358,14 +1381,14 @@
         <v>200</v>
       </c>
       <c r="T15" s="3">
+        <v>200</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
@@ -1387,8 +1410,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1415,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9745500</v>
+        <v>9029400</v>
       </c>
       <c r="E17" s="3">
-        <v>9820700</v>
+        <v>9781600</v>
       </c>
       <c r="F17" s="3">
-        <v>8821900</v>
+        <v>9857100</v>
       </c>
       <c r="G17" s="3">
-        <v>8668500</v>
+        <v>8854500</v>
       </c>
       <c r="H17" s="3">
-        <v>8283300</v>
+        <v>8700500</v>
       </c>
       <c r="I17" s="3">
-        <v>7902100</v>
+        <v>8313900</v>
       </c>
       <c r="J17" s="3">
+        <v>7931300</v>
+      </c>
+      <c r="K17" s="3">
         <v>7344600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6754500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6516700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6909700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6013100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6558400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6886000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6639900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5756200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5417700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6222800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5506100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4950700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5030600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5466600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4992900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4232700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4518900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4969300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>10540500</v>
+        <v>7526600</v>
       </c>
       <c r="E18" s="3">
-        <v>10063500</v>
+        <v>10579500</v>
       </c>
       <c r="F18" s="3">
-        <v>8500300</v>
+        <v>10100700</v>
       </c>
       <c r="G18" s="3">
-        <v>7257100</v>
+        <v>8531800</v>
       </c>
       <c r="H18" s="3">
-        <v>5927200</v>
+        <v>7284000</v>
       </c>
       <c r="I18" s="3">
-        <v>5545700</v>
+        <v>5949100</v>
       </c>
       <c r="J18" s="3">
+        <v>5566200</v>
+      </c>
+      <c r="K18" s="3">
         <v>4724100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4799200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5009000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5023500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4389100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4629300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4433100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3868700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2666700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2254500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3649700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3176500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2808100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3220500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3529400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3177900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2698300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3109000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3581900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1612,423 +1645,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>421000</v>
+        <v>521000</v>
       </c>
       <c r="E20" s="3">
-        <v>316100</v>
+        <v>422600</v>
       </c>
       <c r="F20" s="3">
-        <v>220200</v>
+        <v>317300</v>
       </c>
       <c r="G20" s="3">
-        <v>168400</v>
+        <v>221000</v>
       </c>
       <c r="H20" s="3">
-        <v>137000</v>
+        <v>169100</v>
       </c>
       <c r="I20" s="3">
-        <v>135600</v>
+        <v>137500</v>
       </c>
       <c r="J20" s="3">
+        <v>136100</v>
+      </c>
+      <c r="K20" s="3">
         <v>157500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>168900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>151600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>182600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>191200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>149800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>184900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>189900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>178600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>168900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>164700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>146400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>126000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>130500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>116900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>107200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>120000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>107600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>98400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>14450400</v>
+        <v>11638600</v>
       </c>
       <c r="E21" s="3">
-        <v>13795900</v>
+        <v>14503800</v>
       </c>
       <c r="F21" s="3">
-        <v>12392400</v>
+        <v>13847000</v>
       </c>
       <c r="G21" s="3">
-        <v>11028600</v>
+        <v>12438200</v>
       </c>
       <c r="H21" s="3">
-        <v>9653000</v>
+        <v>11069400</v>
       </c>
       <c r="I21" s="3">
-        <v>9152200</v>
+        <v>9688700</v>
       </c>
       <c r="J21" s="3">
+        <v>9186000</v>
+      </c>
+      <c r="K21" s="3">
         <v>8247900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8184800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8270900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8377700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6953200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7248400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7027400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6452500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5468200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5143700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6404700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5777700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5309100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5729000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5941400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5591600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4697800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5178800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>5520800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>108200</v>
+        <v>96500</v>
       </c>
       <c r="E22" s="3">
-        <v>109300</v>
+        <v>108600</v>
       </c>
       <c r="F22" s="3">
-        <v>94200</v>
+        <v>109700</v>
       </c>
       <c r="G22" s="3">
-        <v>69400</v>
+        <v>94500</v>
       </c>
       <c r="H22" s="3">
-        <v>70500</v>
+        <v>69700</v>
       </c>
       <c r="I22" s="3">
-        <v>43300</v>
+        <v>70800</v>
       </c>
       <c r="J22" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K22" s="3">
         <v>36800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>30200</v>
       </c>
       <c r="R22" s="3">
         <v>30200</v>
       </c>
       <c r="S22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="T22" s="3">
         <v>31500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>29800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>24600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>20900</v>
-      </c>
-      <c r="W22" s="3">
-        <v>26900</v>
       </c>
       <c r="X22" s="3">
         <v>26900</v>
       </c>
       <c r="Y22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="Z22" s="3">
         <v>27300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>27200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>26600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>26500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>10853300</v>
+        <v>7951100</v>
       </c>
       <c r="E23" s="3">
-        <v>10270300</v>
+        <v>10893500</v>
       </c>
       <c r="F23" s="3">
-        <v>8626300</v>
+        <v>10308300</v>
       </c>
       <c r="G23" s="3">
-        <v>7356200</v>
+        <v>8658200</v>
       </c>
       <c r="H23" s="3">
-        <v>5993700</v>
+        <v>7383400</v>
       </c>
       <c r="I23" s="3">
-        <v>5638000</v>
+        <v>6015900</v>
       </c>
       <c r="J23" s="3">
+        <v>5658900</v>
+      </c>
+      <c r="K23" s="3">
         <v>4844800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4943500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5136100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5193600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4566600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4759900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4594900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4028400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2815100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2391800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3784600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3298200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2913200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3324100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3619400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3257800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2791100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3190000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3653900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1258000</v>
+        <v>1215000</v>
       </c>
       <c r="E24" s="3">
-        <v>1158500</v>
+        <v>1262700</v>
       </c>
       <c r="F24" s="3">
-        <v>934600</v>
+        <v>1162800</v>
       </c>
       <c r="G24" s="3">
-        <v>777000</v>
+        <v>938000</v>
       </c>
       <c r="H24" s="3">
-        <v>598200</v>
+        <v>779800</v>
       </c>
       <c r="I24" s="3">
-        <v>563400</v>
+        <v>600400</v>
       </c>
       <c r="J24" s="3">
+        <v>565500</v>
+      </c>
+      <c r="K24" s="3">
         <v>483500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>488600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>582900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>594100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>519100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>543300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>453300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>402800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>481200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>238300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>377400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>326800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>508700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>337800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>342500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>643200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>332700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>385400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2110,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>9595300</v>
+        <v>6736200</v>
       </c>
       <c r="E26" s="3">
-        <v>9111800</v>
+        <v>9630800</v>
       </c>
       <c r="F26" s="3">
-        <v>7691800</v>
+        <v>9145500</v>
       </c>
       <c r="G26" s="3">
-        <v>6579200</v>
+        <v>7720200</v>
       </c>
       <c r="H26" s="3">
-        <v>5395500</v>
+        <v>6603500</v>
       </c>
       <c r="I26" s="3">
-        <v>5074600</v>
+        <v>5415500</v>
       </c>
       <c r="J26" s="3">
+        <v>5093400</v>
+      </c>
+      <c r="K26" s="3">
         <v>4361200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4454900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4553200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4599400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4047500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4216600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4141700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3625500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2333800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2153500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3407200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2971400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2404500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2986300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3218500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2915300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2147800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2857300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3268400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>9596200</v>
+        <v>6737400</v>
       </c>
       <c r="E27" s="3">
-        <v>9108500</v>
+        <v>9631700</v>
       </c>
       <c r="F27" s="3">
-        <v>7686800</v>
+        <v>9142200</v>
       </c>
       <c r="G27" s="3">
-        <v>6574600</v>
+        <v>7715200</v>
       </c>
       <c r="H27" s="3">
-        <v>5390900</v>
+        <v>6599000</v>
       </c>
       <c r="I27" s="3">
-        <v>5067500</v>
+        <v>5410900</v>
       </c>
       <c r="J27" s="3">
+        <v>5086200</v>
+      </c>
+      <c r="K27" s="3">
         <v>4357300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4453300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4551400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4597100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4045100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4213900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4140100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3624400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2333400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2153700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3406500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2970500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2404400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2986200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3217900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2914500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2147800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2857600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3267500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2359,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2442,8 +2503,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2525,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2608,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-421000</v>
+        <v>-521000</v>
       </c>
       <c r="E32" s="3">
-        <v>-316100</v>
+        <v>-422600</v>
       </c>
       <c r="F32" s="3">
-        <v>-220200</v>
+        <v>-317300</v>
       </c>
       <c r="G32" s="3">
-        <v>-168400</v>
+        <v>-221000</v>
       </c>
       <c r="H32" s="3">
-        <v>-137000</v>
+        <v>-169100</v>
       </c>
       <c r="I32" s="3">
-        <v>-135600</v>
+        <v>-137500</v>
       </c>
       <c r="J32" s="3">
+        <v>-136100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-157500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-168900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-151600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-182600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-191200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-149800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-184900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-189900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-178600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-168900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-164700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-146400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-126000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-130500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-116900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-107200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-120000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-107600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-98400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>9596200</v>
+        <v>6737400</v>
       </c>
       <c r="E33" s="3">
-        <v>9108500</v>
+        <v>9631700</v>
       </c>
       <c r="F33" s="3">
-        <v>7686800</v>
+        <v>9142200</v>
       </c>
       <c r="G33" s="3">
-        <v>6574600</v>
+        <v>7715200</v>
       </c>
       <c r="H33" s="3">
-        <v>5390900</v>
+        <v>6599000</v>
       </c>
       <c r="I33" s="3">
-        <v>5067500</v>
+        <v>5410900</v>
       </c>
       <c r="J33" s="3">
+        <v>5086200</v>
+      </c>
+      <c r="K33" s="3">
         <v>4357300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4453300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4551400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4597100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4045100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4213900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4140100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3624400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2333400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2153700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3406500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2970500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2404400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2986200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3217900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2914500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2147800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2857600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3267500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2857,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>9596200</v>
+        <v>6737400</v>
       </c>
       <c r="E35" s="3">
-        <v>9108500</v>
+        <v>9631700</v>
       </c>
       <c r="F35" s="3">
-        <v>7686800</v>
+        <v>9142200</v>
       </c>
       <c r="G35" s="3">
-        <v>6574600</v>
+        <v>7715200</v>
       </c>
       <c r="H35" s="3">
-        <v>5390900</v>
+        <v>6599000</v>
       </c>
       <c r="I35" s="3">
-        <v>5067500</v>
+        <v>5410900</v>
       </c>
       <c r="J35" s="3">
+        <v>5086200</v>
+      </c>
+      <c r="K35" s="3">
         <v>4357300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4453300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4551400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4597100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4045100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4213900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4140100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3624400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2333400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2153700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3406500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2970500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2404400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2986200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3217900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2914500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2147800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2857600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3267500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3059,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3090,755 +3176,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>43547500</v>
+        <v>45089300</v>
       </c>
       <c r="E41" s="3">
-        <v>42029700</v>
+        <v>43708600</v>
       </c>
       <c r="F41" s="3">
-        <v>40640900</v>
+        <v>42185200</v>
       </c>
       <c r="G41" s="3">
-        <v>37346100</v>
+        <v>40791300</v>
       </c>
       <c r="H41" s="3">
-        <v>34537600</v>
+        <v>37484200</v>
       </c>
       <c r="I41" s="3">
-        <v>27689100</v>
+        <v>34665400</v>
       </c>
       <c r="J41" s="3">
+        <v>27791600</v>
+      </c>
+      <c r="K41" s="3">
         <v>24257100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21191500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21046200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20228500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15655700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15516600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16248600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16224200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22706900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22650100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19686100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16299200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>21028000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>19217100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>17935400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13225800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>18488800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>18415700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>17650300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>7902700</v>
+        <v>7457200</v>
       </c>
       <c r="E42" s="3">
-        <v>7229400</v>
+        <v>7932000</v>
       </c>
       <c r="F42" s="3">
-        <v>6390400</v>
+        <v>7256100</v>
       </c>
       <c r="G42" s="3">
-        <v>4723900</v>
+        <v>6414000</v>
       </c>
       <c r="H42" s="3">
-        <v>3998400</v>
+        <v>4741400</v>
       </c>
       <c r="I42" s="3">
-        <v>4408700</v>
+        <v>4013200</v>
       </c>
       <c r="J42" s="3">
+        <v>4425000</v>
+      </c>
+      <c r="K42" s="3">
         <v>4386000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4687500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4454400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4867200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4924400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5052000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4951600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5379600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4532100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4384600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4628600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4342600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4313700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3928700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3325800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3200600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2937600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3206500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3091300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7504600</v>
+        <v>4821400</v>
       </c>
       <c r="E43" s="3">
-        <v>8484200</v>
+        <v>7532400</v>
       </c>
       <c r="F43" s="3">
-        <v>7283400</v>
+        <v>8515600</v>
       </c>
       <c r="G43" s="3">
-        <v>6923400</v>
+        <v>7310300</v>
       </c>
       <c r="H43" s="3">
-        <v>6432900</v>
+        <v>6949000</v>
       </c>
       <c r="I43" s="3">
-        <v>6072200</v>
+        <v>6456700</v>
       </c>
       <c r="J43" s="3">
+        <v>6094700</v>
+      </c>
+      <c r="K43" s="3">
         <v>5836500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5340900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4657300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5444500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5095000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5276200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4988900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5216800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4112700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3746200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4404000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4322300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3039400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3589100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3969900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3853300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3625400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3559800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4221400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>7171900</v>
+        <v>7033000</v>
       </c>
       <c r="E44" s="3">
-        <v>7080600</v>
+        <v>7198400</v>
       </c>
       <c r="F44" s="3">
-        <v>7051500</v>
+        <v>7106800</v>
       </c>
       <c r="G44" s="3">
-        <v>6489800</v>
+        <v>7077600</v>
       </c>
       <c r="H44" s="3">
-        <v>6262300</v>
+        <v>6513900</v>
       </c>
       <c r="I44" s="3">
-        <v>5909800</v>
+        <v>6285500</v>
       </c>
       <c r="J44" s="3">
+        <v>5931700</v>
+      </c>
+      <c r="K44" s="3">
         <v>5527300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4927600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4378800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3666400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2872200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2819600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2960800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3467200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3782700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3812600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3517100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3513000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3293800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2834300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2394500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2394900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1977400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1643200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1587500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>448800</v>
+        <v>560000</v>
       </c>
       <c r="E45" s="3">
-        <v>497700</v>
+        <v>450400</v>
       </c>
       <c r="F45" s="3">
-        <v>441100</v>
+        <v>499500</v>
       </c>
       <c r="G45" s="3">
-        <v>369000</v>
+        <v>442700</v>
       </c>
       <c r="H45" s="3">
-        <v>886100</v>
+        <v>370400</v>
       </c>
       <c r="I45" s="3">
-        <v>370000</v>
+        <v>889400</v>
       </c>
       <c r="J45" s="3">
+        <v>371300</v>
+      </c>
+      <c r="K45" s="3">
         <v>242200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>188900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>282100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>267000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>246600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>240500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>201000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>172700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>171400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>182200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>187900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>178000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>222900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1333300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>156400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>170000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>132000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>99600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>115600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>66575400</v>
+        <v>64960900</v>
       </c>
       <c r="E46" s="3">
-        <v>65321600</v>
+        <v>66821800</v>
       </c>
       <c r="F46" s="3">
-        <v>61807200</v>
+        <v>65563300</v>
       </c>
       <c r="G46" s="3">
-        <v>55852200</v>
+        <v>62036000</v>
       </c>
       <c r="H46" s="3">
-        <v>52117400</v>
+        <v>56058800</v>
       </c>
       <c r="I46" s="3">
-        <v>44449800</v>
+        <v>52310200</v>
       </c>
       <c r="J46" s="3">
+        <v>44614300</v>
+      </c>
+      <c r="K46" s="3">
         <v>40249000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36336400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34818900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34473500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28793900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28905000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29350900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30460500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35305800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34775700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>32423700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>28655100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>31897800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30902400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>27782000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>22844600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>27161200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>26924800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>26666100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2235300</v>
+        <v>2275700</v>
       </c>
       <c r="E47" s="3">
-        <v>2458100</v>
+        <v>2243600</v>
       </c>
       <c r="F47" s="3">
-        <v>2089800</v>
+        <v>2467200</v>
       </c>
       <c r="G47" s="3">
-        <v>1483200</v>
+        <v>2097500</v>
       </c>
       <c r="H47" s="3">
-        <v>952900</v>
+        <v>1488700</v>
       </c>
       <c r="I47" s="3">
-        <v>899300</v>
+        <v>956500</v>
       </c>
       <c r="J47" s="3">
+        <v>902600</v>
+      </c>
+      <c r="K47" s="3">
         <v>942500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>928700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>884000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>887700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>767300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1117800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1076500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1080600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1024600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1053800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>998400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>993900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>959100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1143400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1347300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1325700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1420200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1451800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1505100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>88720400</v>
+        <v>93594800</v>
       </c>
       <c r="E48" s="3">
-        <v>79578000</v>
+        <v>89048700</v>
       </c>
       <c r="F48" s="3">
-        <v>74025100</v>
+        <v>79872500</v>
       </c>
       <c r="G48" s="3">
-        <v>69311100</v>
+        <v>74299000</v>
       </c>
       <c r="H48" s="3">
-        <v>65114700</v>
+        <v>69567600</v>
       </c>
       <c r="I48" s="3">
-        <v>60380000</v>
+        <v>65355600</v>
       </c>
       <c r="J48" s="3">
+        <v>60603400</v>
+      </c>
+      <c r="K48" s="3">
         <v>56924300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53903800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50476200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>51065800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50708700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52586900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>48867700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>43586500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>40573900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>39524500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>36524800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34968000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>34399800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35101500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>34437000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>34541200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>34925900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>33828400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>32537500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>843200</v>
+        <v>790900</v>
       </c>
       <c r="E49" s="3">
-        <v>866100</v>
+        <v>846300</v>
       </c>
       <c r="F49" s="3">
-        <v>882400</v>
+        <v>869300</v>
       </c>
       <c r="G49" s="3">
-        <v>830900</v>
+        <v>885700</v>
       </c>
       <c r="H49" s="3">
-        <v>869800</v>
+        <v>833900</v>
       </c>
       <c r="I49" s="3">
-        <v>831600</v>
+        <v>873000</v>
       </c>
       <c r="J49" s="3">
+        <v>834700</v>
+      </c>
+      <c r="K49" s="3">
         <v>860500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>797400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>821500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>881800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>917200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>980900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>736900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>648800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>611700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>630500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>579300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>466500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>458700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>454800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>459400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>481000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>457600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>465600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>476600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3920,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4003,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2633400</v>
+        <v>2620000</v>
       </c>
       <c r="E52" s="3">
-        <v>2358500</v>
+        <v>2643200</v>
       </c>
       <c r="F52" s="3">
-        <v>2134300</v>
+        <v>2367300</v>
       </c>
       <c r="G52" s="3">
-        <v>2005100</v>
+        <v>2142200</v>
       </c>
       <c r="H52" s="3">
-        <v>1763200</v>
+        <v>2012500</v>
       </c>
       <c r="I52" s="3">
-        <v>1506100</v>
+        <v>1769800</v>
       </c>
       <c r="J52" s="3">
+        <v>1511700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1323600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1095600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1011000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>930100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>794200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>814900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>776300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>757200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>749100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>750900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>684500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>612200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>581200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>552800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>530600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>488100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>415500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>418700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>332000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4169,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>161007800</v>
+        <v>164242200</v>
       </c>
       <c r="E54" s="3">
-        <v>150582300</v>
+        <v>161603600</v>
       </c>
       <c r="F54" s="3">
-        <v>140938900</v>
+        <v>151139500</v>
       </c>
       <c r="G54" s="3">
-        <v>129482500</v>
+        <v>141460400</v>
       </c>
       <c r="H54" s="3">
-        <v>120818100</v>
+        <v>129961600</v>
       </c>
       <c r="I54" s="3">
-        <v>108066900</v>
+        <v>121265100</v>
       </c>
       <c r="J54" s="3">
+        <v>108466800</v>
+      </c>
+      <c r="K54" s="3">
         <v>100300000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93061900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>88011500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>88239000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>81981300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>84405500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>80808200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76533600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>78265100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76735300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71210700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>65695800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>68296500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>68154900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>64556200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>59680600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>64380300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>63089400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>61517300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4283,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4314,506 +4444,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1833000</v>
+        <v>1542300</v>
       </c>
       <c r="E57" s="3">
-        <v>2011300</v>
+        <v>1839800</v>
       </c>
       <c r="F57" s="3">
-        <v>1939900</v>
+        <v>2018700</v>
       </c>
       <c r="G57" s="3">
-        <v>1624900</v>
+        <v>1947100</v>
       </c>
       <c r="H57" s="3">
-        <v>1580100</v>
+        <v>1630900</v>
       </c>
       <c r="I57" s="3">
-        <v>1423300</v>
+        <v>1585900</v>
       </c>
       <c r="J57" s="3">
+        <v>1428600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1337100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1230500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1310100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1369100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1323600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1432700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1434500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1325300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1138300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>970400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1170600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1010700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1019900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>965900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>974500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>939500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>830100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>790900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>891100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>710800</v>
+        <v>347900</v>
       </c>
       <c r="E58" s="3">
-        <v>842900</v>
+        <v>713400</v>
       </c>
       <c r="F58" s="3">
-        <v>4374300</v>
+        <v>846000</v>
       </c>
       <c r="G58" s="3">
-        <v>5303200</v>
+        <v>4390500</v>
       </c>
       <c r="H58" s="3">
-        <v>3945600</v>
+        <v>5322900</v>
       </c>
       <c r="I58" s="3">
-        <v>3921400</v>
+        <v>3960200</v>
       </c>
       <c r="J58" s="3">
+        <v>3935900</v>
+      </c>
+      <c r="K58" s="3">
         <v>4580500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4432000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2964400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5346700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6388800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5670400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5444700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4301600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4510200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4468900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4212900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3631000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1554400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3528500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3959500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3678600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4362700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3247200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3132800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>28077500</v>
+        <v>26528900</v>
       </c>
       <c r="E59" s="3">
-        <v>23330900</v>
+        <v>28181400</v>
       </c>
       <c r="F59" s="3">
-        <v>21097000</v>
+        <v>23417200</v>
       </c>
       <c r="G59" s="3">
-        <v>19757500</v>
+        <v>21175000</v>
       </c>
       <c r="H59" s="3">
-        <v>18456400</v>
+        <v>19830600</v>
       </c>
       <c r="I59" s="3">
-        <v>15917100</v>
+        <v>18524700</v>
       </c>
       <c r="J59" s="3">
+        <v>15976000</v>
+      </c>
+      <c r="K59" s="3">
         <v>15088900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15430900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15400200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12978600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12870900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14129500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14198200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12116000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16099400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7830300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6218800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6084700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12825000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6888300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6691700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5057000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11774100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6448700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>6354000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>30621300</v>
+        <v>28419100</v>
       </c>
       <c r="E60" s="3">
-        <v>26185000</v>
+        <v>30734600</v>
       </c>
       <c r="F60" s="3">
-        <v>27411200</v>
+        <v>26281900</v>
       </c>
       <c r="G60" s="3">
-        <v>26685600</v>
+        <v>27512600</v>
       </c>
       <c r="H60" s="3">
-        <v>23982100</v>
+        <v>26784300</v>
       </c>
       <c r="I60" s="3">
-        <v>21261800</v>
+        <v>24070800</v>
       </c>
       <c r="J60" s="3">
+        <v>21340500</v>
+      </c>
+      <c r="K60" s="3">
         <v>21006500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21093400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19674800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19694300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20583400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21232600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21077400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17742900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21747900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13269600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11602300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10726400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15399300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11382700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11625700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9675100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>16966900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>10486700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>10377800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>28177100</v>
+        <v>28799300</v>
       </c>
       <c r="E61" s="3">
-        <v>28396500</v>
+        <v>28281400</v>
       </c>
       <c r="F61" s="3">
-        <v>25286300</v>
+        <v>28501600</v>
       </c>
       <c r="G61" s="3">
-        <v>21202900</v>
+        <v>25379900</v>
       </c>
       <c r="H61" s="3">
-        <v>20565300</v>
+        <v>21281300</v>
       </c>
       <c r="I61" s="3">
-        <v>15704500</v>
+        <v>20641400</v>
       </c>
       <c r="J61" s="3">
+        <v>15762600</v>
+      </c>
+      <c r="K61" s="3">
         <v>14096200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9581100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8819100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8276500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3401700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2376100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1432300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1439100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1772200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1831400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1938600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1897600</v>
-      </c>
-      <c r="V61" s="3">
-        <v>2773900</v>
       </c>
       <c r="W61" s="3">
         <v>2773900</v>
       </c>
       <c r="X61" s="3">
+        <v>2773900</v>
+      </c>
+      <c r="Y61" s="3">
         <v>2975200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2975700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3218900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4376900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4993100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>6200700</v>
+        <v>6350100</v>
       </c>
       <c r="E62" s="3">
-        <v>6743200</v>
+        <v>6223600</v>
       </c>
       <c r="F62" s="3">
-        <v>6827100</v>
+        <v>6768100</v>
       </c>
       <c r="G62" s="3">
-        <v>6308800</v>
+        <v>6852400</v>
       </c>
       <c r="H62" s="3">
-        <v>5873800</v>
+        <v>6332200</v>
       </c>
       <c r="I62" s="3">
-        <v>3700600</v>
+        <v>5895600</v>
       </c>
       <c r="J62" s="3">
+        <v>3714300</v>
+      </c>
+      <c r="K62" s="3">
         <v>532800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>508500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>519800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>396900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>370000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>390200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>422200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>424000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>418000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>471600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>517500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>517900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>544800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>562600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>602700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>637700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>688500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>735500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>816900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4895,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4978,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5061,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>65480200</v>
+        <v>64045700</v>
       </c>
       <c r="E66" s="3">
-        <v>61789800</v>
+        <v>65722500</v>
       </c>
       <c r="F66" s="3">
-        <v>59982100</v>
+        <v>62018400</v>
       </c>
       <c r="G66" s="3">
-        <v>54425500</v>
+        <v>60204100</v>
       </c>
       <c r="H66" s="3">
-        <v>50500500</v>
+        <v>54626900</v>
       </c>
       <c r="I66" s="3">
-        <v>40741500</v>
+        <v>50687400</v>
       </c>
       <c r="J66" s="3">
+        <v>40892300</v>
+      </c>
+      <c r="K66" s="3">
         <v>35706400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31248600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29044400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28398100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24383000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24026400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22956300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19629000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23959200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15596300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14081500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13163800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18739100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14742700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15226400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13311000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20896300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>15625100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>16213900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5175,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5258,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5341,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5424,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5507,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>85534900</v>
+        <v>90270500</v>
       </c>
       <c r="E72" s="3">
-        <v>78246200</v>
+        <v>85851400</v>
       </c>
       <c r="F72" s="3">
-        <v>71447400</v>
+        <v>78535800</v>
       </c>
       <c r="G72" s="3">
-        <v>66100800</v>
+        <v>71711700</v>
       </c>
       <c r="H72" s="3">
-        <v>61838500</v>
+        <v>66345400</v>
       </c>
       <c r="I72" s="3">
-        <v>58739600</v>
+        <v>62067300</v>
       </c>
       <c r="J72" s="3">
+        <v>58957000</v>
+      </c>
+      <c r="K72" s="3">
         <v>55984600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53025100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50647300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50687900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>48261200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>49905600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47573400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45969200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>43532900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>50443200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46902400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>42612600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>39561800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>44059200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>39973300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>36763300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>33848900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>37815800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>34958200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5673,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5756,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5839,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>95527500</v>
+        <v>100196500</v>
       </c>
       <c r="E76" s="3">
-        <v>88792500</v>
+        <v>95881000</v>
       </c>
       <c r="F76" s="3">
-        <v>80956700</v>
+        <v>89121100</v>
       </c>
       <c r="G76" s="3">
-        <v>75057000</v>
+        <v>81256300</v>
       </c>
       <c r="H76" s="3">
-        <v>70317500</v>
+        <v>75334700</v>
       </c>
       <c r="I76" s="3">
-        <v>67325300</v>
+        <v>70577700</v>
       </c>
       <c r="J76" s="3">
+        <v>67574500</v>
+      </c>
+      <c r="K76" s="3">
         <v>64593600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>61813300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>58967100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>59840800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>57598300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>60379100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>57851900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>56904700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>54305800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>61139000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>57129200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>52532000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>49557500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>53412200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>49329900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>46369500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>43484000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>47464300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>45303400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6005,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>9596200</v>
+        <v>6737400</v>
       </c>
       <c r="E81" s="3">
-        <v>9108500</v>
+        <v>9631700</v>
       </c>
       <c r="F81" s="3">
-        <v>7686800</v>
+        <v>9142200</v>
       </c>
       <c r="G81" s="3">
-        <v>6574600</v>
+        <v>7715200</v>
       </c>
       <c r="H81" s="3">
-        <v>5390900</v>
+        <v>6599000</v>
       </c>
       <c r="I81" s="3">
-        <v>5067500</v>
+        <v>5410900</v>
       </c>
       <c r="J81" s="3">
+        <v>5086200</v>
+      </c>
+      <c r="K81" s="3">
         <v>4357300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4453300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4551400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4597100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4045100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4213900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4140100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3624400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2333400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2153700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3406500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2970500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2404400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2986200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3217900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2914500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2147800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2857600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3267500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6207,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3488900</v>
+        <v>3591000</v>
       </c>
       <c r="E83" s="3">
-        <v>3416400</v>
+        <v>3501800</v>
       </c>
       <c r="F83" s="3">
-        <v>3671900</v>
+        <v>3429000</v>
       </c>
       <c r="G83" s="3">
-        <v>3603000</v>
+        <v>3685500</v>
       </c>
       <c r="H83" s="3">
-        <v>3588800</v>
+        <v>3616400</v>
       </c>
       <c r="I83" s="3">
-        <v>3470900</v>
+        <v>3602100</v>
       </c>
       <c r="J83" s="3">
+        <v>3483700</v>
+      </c>
+      <c r="K83" s="3">
         <v>3366400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3216700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3110300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3171700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2372900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2469300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2409500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2393900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2622900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2720400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2590300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2454900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2375100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2378000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2295100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2306400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1879500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1962200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1840400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6373,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6456,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6539,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6622,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6705,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>15789600</v>
+        <v>12539700</v>
       </c>
       <c r="E89" s="3">
-        <v>13383800</v>
+        <v>15848000</v>
       </c>
       <c r="F89" s="3">
-        <v>10988900</v>
+        <v>13433300</v>
       </c>
       <c r="G89" s="3">
-        <v>12069500</v>
+        <v>11029500</v>
       </c>
       <c r="H89" s="3">
-        <v>12265000</v>
+        <v>12114100</v>
       </c>
       <c r="I89" s="3">
-        <v>10335600</v>
+        <v>12310400</v>
       </c>
       <c r="J89" s="3">
+        <v>10373900</v>
+      </c>
+      <c r="K89" s="3">
         <v>6078700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7262800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8261100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6366900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5702800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7313100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7241400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5083300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4115700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5355700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6451900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3137700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4316300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5345700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6615700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3785000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3351200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5250500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>6040000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6819,91 +7039,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-10923900</v>
+        <v>-302784400</v>
       </c>
       <c r="E91" s="3">
-        <v>-8625400</v>
+        <v>-338327600</v>
       </c>
       <c r="F91" s="3">
-        <v>-7060800</v>
+        <v>-267635800</v>
       </c>
       <c r="G91" s="3">
-        <v>-8501000</v>
+        <v>-220945300</v>
       </c>
       <c r="H91" s="3">
-        <v>-7639100</v>
+        <v>-262717700</v>
       </c>
       <c r="I91" s="3">
-        <v>-6117600</v>
+        <v>-238919200</v>
       </c>
       <c r="J91" s="3">
+        <v>-190193800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5414900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7907200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2827000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3324800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4241900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6936000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6065900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3518500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4066500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2664000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3887600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2332800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6985,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7068,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-11108300</v>
+        <v>-8861100</v>
       </c>
       <c r="E94" s="3">
-        <v>-9222800</v>
+        <v>-11149400</v>
       </c>
       <c r="F94" s="3">
-        <v>-8948500</v>
+        <v>-9256900</v>
       </c>
       <c r="G94" s="3">
-        <v>-9342200</v>
+        <v>-8981600</v>
       </c>
       <c r="H94" s="3">
-        <v>-7956500</v>
+        <v>-9376800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5740800</v>
+        <v>-7985900</v>
       </c>
       <c r="J94" s="3">
+        <v>-5762000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5505000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7786700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2899800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3216700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4344000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6807500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6122900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3883300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4009400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2251700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3995100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2116800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7182,53 +7415,54 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2312500</v>
+        <v>-2321100</v>
       </c>
       <c r="E96" s="3">
-        <v>-2312500</v>
+        <v>-2321100</v>
       </c>
       <c r="F96" s="3">
-        <v>-2312500</v>
+        <v>-2321100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2312500</v>
+        <v>-2321100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2312500</v>
+        <v>-2321100</v>
       </c>
       <c r="I96" s="3">
+        <v>-2321100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-2110100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2102300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2102300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-2066700</v>
       </c>
       <c r="L96" s="3">
         <v>-2066700</v>
       </c>
       <c r="M96" s="3">
-        <v>-2170400</v>
+        <v>-2066700</v>
       </c>
       <c r="N96" s="3">
         <v>-2170400</v>
       </c>
       <c r="O96" s="3">
+        <v>-2170400</v>
+      </c>
+      <c r="P96" s="3">
         <v>-2335000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1850400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -7265,8 +7499,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7348,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7431,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7514,253 +7757,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-2264600</v>
+        <v>-2099100</v>
       </c>
       <c r="E100" s="3">
-        <v>-4229100</v>
+        <v>-2273000</v>
       </c>
       <c r="F100" s="3">
-        <v>618800</v>
+        <v>-4244700</v>
       </c>
       <c r="G100" s="3">
-        <v>-619000</v>
+        <v>621100</v>
       </c>
       <c r="H100" s="3">
-        <v>2668500</v>
+        <v>-621300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1145600</v>
+        <v>2678300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1149800</v>
+      </c>
+      <c r="K100" s="3">
         <v>2433200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>466000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3226400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1588100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>197900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1468100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-613100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8216000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-32500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-786200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>486600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5750700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-976100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>312600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-20700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-388400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>792500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-898900</v>
+        <v>-198800</v>
       </c>
       <c r="E101" s="3">
-        <v>1456800</v>
+        <v>-902200</v>
       </c>
       <c r="F101" s="3">
-        <v>635700</v>
+        <v>1462200</v>
       </c>
       <c r="G101" s="3">
-        <v>700200</v>
+        <v>638000</v>
       </c>
       <c r="H101" s="3">
-        <v>-128500</v>
+        <v>702700</v>
       </c>
       <c r="I101" s="3">
-        <v>-17200</v>
+        <v>-129000</v>
       </c>
       <c r="J101" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-306900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>203200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-350400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-165500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-323400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>75600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-399500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-58000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>66900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>62700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>91600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-55800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>468800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-174600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-175200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-23200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>38900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-534700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>204200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1517800</v>
+        <v>1380700</v>
       </c>
       <c r="E102" s="3">
-        <v>1388800</v>
+        <v>1523400</v>
       </c>
       <c r="F102" s="3">
-        <v>3294900</v>
+        <v>1393900</v>
       </c>
       <c r="G102" s="3">
-        <v>2808400</v>
+        <v>3307100</v>
       </c>
       <c r="H102" s="3">
-        <v>6848500</v>
+        <v>2818800</v>
       </c>
       <c r="I102" s="3">
-        <v>3432100</v>
+        <v>6873900</v>
       </c>
       <c r="J102" s="3">
+        <v>3444800</v>
+      </c>
+      <c r="K102" s="3">
         <v>2699900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>145300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1784500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4572800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1233300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-886900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>105900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7074000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>140700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2380400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3035000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4785700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1810900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>811300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4709600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>186100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>765400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2520200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-5165000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,392 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16556000</v>
+        <v>15098400</v>
       </c>
       <c r="E8" s="3">
-        <v>20361100</v>
+        <v>15971100</v>
       </c>
       <c r="F8" s="3">
-        <v>19957800</v>
+        <v>19641700</v>
       </c>
       <c r="G8" s="3">
-        <v>17386300</v>
+        <v>19252700</v>
       </c>
       <c r="H8" s="3">
-        <v>15984500</v>
+        <v>16772000</v>
       </c>
       <c r="I8" s="3">
-        <v>14263100</v>
+        <v>15419800</v>
       </c>
       <c r="J8" s="3">
+        <v>13759100</v>
+      </c>
+      <c r="K8" s="3">
         <v>13497500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12068700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11553600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11525700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11933100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10402200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11187700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11319000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10508600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8422900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7672200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9872500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8682600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7758800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8251100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8996100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8170800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6931000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7627900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8551200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7230400</v>
+        <v>6928100</v>
       </c>
       <c r="E9" s="3">
-        <v>7693100</v>
+        <v>6975000</v>
       </c>
       <c r="F9" s="3">
-        <v>7898100</v>
+        <v>7421300</v>
       </c>
       <c r="G9" s="3">
-        <v>7117800</v>
+        <v>7619000</v>
       </c>
       <c r="H9" s="3">
-        <v>7091800</v>
+        <v>6866300</v>
       </c>
       <c r="I9" s="3">
-        <v>6752000</v>
+        <v>6841200</v>
       </c>
       <c r="J9" s="3">
+        <v>6513400</v>
+      </c>
+      <c r="K9" s="3">
         <v>6572600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6030300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5501600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5303100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5555900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4888300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5396300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5637300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5508600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4799500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4502600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5169400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4567900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4047400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4094400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4500300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4091100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3406400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3666300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4080100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9325600</v>
+        <v>8170300</v>
       </c>
       <c r="E10" s="3">
-        <v>12668000</v>
+        <v>8996100</v>
       </c>
       <c r="F10" s="3">
-        <v>12059700</v>
+        <v>12220400</v>
       </c>
       <c r="G10" s="3">
-        <v>10268500</v>
+        <v>11633700</v>
       </c>
       <c r="H10" s="3">
-        <v>8892800</v>
+        <v>9905700</v>
       </c>
       <c r="I10" s="3">
-        <v>7511100</v>
+        <v>8578600</v>
       </c>
       <c r="J10" s="3">
+        <v>7245700</v>
+      </c>
+      <c r="K10" s="3">
         <v>6924900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6038400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6052100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6222600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6377300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5513900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5791400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5681700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5000000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3623400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3169600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4703100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4114800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3711400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4156700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4495800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4079700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3524700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3961600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>4471200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,94 +1081,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1274600</v>
+        <v>1308300</v>
       </c>
       <c r="E12" s="3">
-        <v>1451300</v>
+        <v>1229500</v>
       </c>
       <c r="F12" s="3">
-        <v>1398900</v>
+        <v>1400000</v>
       </c>
       <c r="G12" s="3">
-        <v>1290600</v>
+        <v>1349500</v>
       </c>
       <c r="H12" s="3">
-        <v>1173400</v>
+        <v>1245000</v>
       </c>
       <c r="I12" s="3">
-        <v>1049400</v>
+        <v>1131900</v>
       </c>
       <c r="J12" s="3">
+        <v>1012300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1004700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1001200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>980500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>954500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>993800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>833400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>899400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>914700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>859600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>747700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>716200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>807100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>729900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>661600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>679500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>687600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>682100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>617700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>633000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>650900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1241,65 +1257,68 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>300</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>400</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-100</v>
       </c>
       <c r="K14" s="3">
         <v>-100</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>100</v>
       </c>
       <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>-10600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1307,33 +1326,36 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>-100</v>
       </c>
       <c r="Z14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA14" s="3">
         <v>100</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>2200</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1345,28 +1367,28 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
@@ -1384,14 +1406,14 @@
         <v>200</v>
       </c>
       <c r="U15" s="3">
+        <v>200</v>
+      </c>
+      <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
@@ -1413,8 +1435,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1467,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9029400</v>
+        <v>8757400</v>
       </c>
       <c r="E17" s="3">
-        <v>9781600</v>
+        <v>8710400</v>
       </c>
       <c r="F17" s="3">
-        <v>9857100</v>
+        <v>9436000</v>
       </c>
       <c r="G17" s="3">
-        <v>8854500</v>
+        <v>9508800</v>
       </c>
       <c r="H17" s="3">
-        <v>8700500</v>
+        <v>8541700</v>
       </c>
       <c r="I17" s="3">
-        <v>8313900</v>
+        <v>8393100</v>
       </c>
       <c r="J17" s="3">
+        <v>8020200</v>
+      </c>
+      <c r="K17" s="3">
         <v>7931300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7344600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6754500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6516700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6909700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6013100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6558400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6886000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6639900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5756200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5417700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6222800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5506100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4950700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5030600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5466600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4992900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4232700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4518900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4969300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7526600</v>
+        <v>6341000</v>
       </c>
       <c r="E18" s="3">
-        <v>10579500</v>
+        <v>7260700</v>
       </c>
       <c r="F18" s="3">
-        <v>10100700</v>
+        <v>10205700</v>
       </c>
       <c r="G18" s="3">
-        <v>8531800</v>
+        <v>9743900</v>
       </c>
       <c r="H18" s="3">
-        <v>7284000</v>
+        <v>8230300</v>
       </c>
       <c r="I18" s="3">
-        <v>5949100</v>
+        <v>7026600</v>
       </c>
       <c r="J18" s="3">
+        <v>5739000</v>
+      </c>
+      <c r="K18" s="3">
         <v>5566200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4724100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4799200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5009000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5023500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4389100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4629300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4433100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3868700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2666700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2254500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3649700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3176500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2808100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3220500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3529400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3177900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2698300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3109000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3581900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1646,438 +1678,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>521000</v>
+        <v>494100</v>
       </c>
       <c r="E20" s="3">
-        <v>422600</v>
+        <v>502600</v>
       </c>
       <c r="F20" s="3">
-        <v>317300</v>
+        <v>407700</v>
       </c>
       <c r="G20" s="3">
-        <v>221000</v>
+        <v>306100</v>
       </c>
       <c r="H20" s="3">
-        <v>169100</v>
+        <v>213200</v>
       </c>
       <c r="I20" s="3">
-        <v>137500</v>
+        <v>163100</v>
       </c>
       <c r="J20" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K20" s="3">
         <v>136100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>157500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>168900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>151600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>182600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>191200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>149800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>184900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>189900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>178600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>168900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>164700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>146400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>126000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>130500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>116900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>107200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>120000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>107600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>98400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>11638600</v>
+        <v>10726900</v>
       </c>
       <c r="E21" s="3">
-        <v>14503800</v>
+        <v>11227400</v>
       </c>
       <c r="F21" s="3">
-        <v>13847000</v>
+        <v>13991400</v>
       </c>
       <c r="G21" s="3">
-        <v>12438200</v>
+        <v>13357800</v>
       </c>
       <c r="H21" s="3">
-        <v>11069400</v>
+        <v>11998800</v>
       </c>
       <c r="I21" s="3">
-        <v>9688700</v>
+        <v>10678300</v>
       </c>
       <c r="J21" s="3">
+        <v>9346400</v>
+      </c>
+      <c r="K21" s="3">
         <v>9186000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8247900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8184800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8270900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8377700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6953200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7248400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7027400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6452500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5468200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5143700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6404700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5777700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5309100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5729000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5941400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5591600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4697800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>5178800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>5520800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>96500</v>
+        <v>94400</v>
       </c>
       <c r="E22" s="3">
-        <v>108600</v>
+        <v>93100</v>
       </c>
       <c r="F22" s="3">
-        <v>109700</v>
+        <v>104700</v>
       </c>
       <c r="G22" s="3">
-        <v>94500</v>
+        <v>105800</v>
       </c>
       <c r="H22" s="3">
-        <v>69700</v>
+        <v>91200</v>
       </c>
       <c r="I22" s="3">
-        <v>70800</v>
+        <v>67200</v>
       </c>
       <c r="J22" s="3">
+        <v>68300</v>
+      </c>
+      <c r="K22" s="3">
         <v>43400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>36800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>30200</v>
       </c>
       <c r="S22" s="3">
         <v>30200</v>
       </c>
       <c r="T22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="U22" s="3">
         <v>31500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>29800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>24600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>20900</v>
-      </c>
-      <c r="X22" s="3">
-        <v>26900</v>
       </c>
       <c r="Y22" s="3">
         <v>26900</v>
       </c>
       <c r="Z22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="AA22" s="3">
         <v>27300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>27200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>26600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>26500</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7951100</v>
+        <v>6740800</v>
       </c>
       <c r="E23" s="3">
-        <v>10893500</v>
+        <v>7670200</v>
       </c>
       <c r="F23" s="3">
-        <v>10308300</v>
+        <v>10508600</v>
       </c>
       <c r="G23" s="3">
-        <v>8658200</v>
+        <v>9944100</v>
       </c>
       <c r="H23" s="3">
-        <v>7383400</v>
+        <v>8352300</v>
       </c>
       <c r="I23" s="3">
-        <v>6015900</v>
+        <v>7122500</v>
       </c>
       <c r="J23" s="3">
+        <v>5803300</v>
+      </c>
+      <c r="K23" s="3">
         <v>5658900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4844800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4943500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5136100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5193600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4566600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4759900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4594900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4028400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2815100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2391800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3784600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3298200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2913200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3324100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3619400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3257800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2791100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3190000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3653900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1215000</v>
+        <v>1034900</v>
       </c>
       <c r="E24" s="3">
-        <v>1262700</v>
+        <v>1172000</v>
       </c>
       <c r="F24" s="3">
-        <v>1162800</v>
+        <v>1218000</v>
       </c>
       <c r="G24" s="3">
-        <v>938000</v>
+        <v>1121700</v>
       </c>
       <c r="H24" s="3">
-        <v>779800</v>
+        <v>904900</v>
       </c>
       <c r="I24" s="3">
-        <v>600400</v>
+        <v>752300</v>
       </c>
       <c r="J24" s="3">
+        <v>579200</v>
+      </c>
+      <c r="K24" s="3">
         <v>565500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>483500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>488600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>582900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>594100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>519100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>543300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>453300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>402800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>481200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>238300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>377400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>326800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>508700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>337800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>400900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>342500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>643200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>332700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>385400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2162,180 +2210,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6736200</v>
+        <v>5705900</v>
       </c>
       <c r="E26" s="3">
-        <v>9630800</v>
+        <v>6498200</v>
       </c>
       <c r="F26" s="3">
-        <v>9145500</v>
+        <v>9290600</v>
       </c>
       <c r="G26" s="3">
-        <v>7720200</v>
+        <v>8822400</v>
       </c>
       <c r="H26" s="3">
-        <v>6603500</v>
+        <v>7447500</v>
       </c>
       <c r="I26" s="3">
-        <v>5415500</v>
+        <v>6370200</v>
       </c>
       <c r="J26" s="3">
+        <v>5224100</v>
+      </c>
+      <c r="K26" s="3">
         <v>5093400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4361200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4454900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4553200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4599400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4047500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4216600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4141700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3625500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2333800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2153500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3407200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2971400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2404500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2986300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3218500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2915300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2147800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2857300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3268400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>6737400</v>
+        <v>5708500</v>
       </c>
       <c r="E27" s="3">
-        <v>9631700</v>
+        <v>6499400</v>
       </c>
       <c r="F27" s="3">
-        <v>9142200</v>
+        <v>9291400</v>
       </c>
       <c r="G27" s="3">
-        <v>7715200</v>
+        <v>8819200</v>
       </c>
       <c r="H27" s="3">
-        <v>6599000</v>
+        <v>7442700</v>
       </c>
       <c r="I27" s="3">
-        <v>5410900</v>
+        <v>6365800</v>
       </c>
       <c r="J27" s="3">
+        <v>5219700</v>
+      </c>
+      <c r="K27" s="3">
         <v>5086200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4357300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4453300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4551400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4597100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4045100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4213900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4140100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3624400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2333400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2153700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3406500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2970500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2404400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2986200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3217900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2914500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2147800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2857600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3267500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2420,8 +2477,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2506,8 +2566,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2592,8 +2655,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2678,180 +2744,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-521000</v>
+        <v>-494100</v>
       </c>
       <c r="E32" s="3">
-        <v>-422600</v>
+        <v>-502600</v>
       </c>
       <c r="F32" s="3">
-        <v>-317300</v>
+        <v>-407700</v>
       </c>
       <c r="G32" s="3">
-        <v>-221000</v>
+        <v>-306100</v>
       </c>
       <c r="H32" s="3">
-        <v>-169100</v>
+        <v>-213200</v>
       </c>
       <c r="I32" s="3">
-        <v>-137500</v>
+        <v>-163100</v>
       </c>
       <c r="J32" s="3">
+        <v>-132600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-136100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-157500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-168900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-151600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-182600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-191200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-149800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-184900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-189900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-178600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-168900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-164700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-146400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-126000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-130500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-116900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-107200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-120000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-107600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-98400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>6737400</v>
+        <v>5708500</v>
       </c>
       <c r="E33" s="3">
-        <v>9631700</v>
+        <v>6499400</v>
       </c>
       <c r="F33" s="3">
-        <v>9142200</v>
+        <v>9291400</v>
       </c>
       <c r="G33" s="3">
-        <v>7715200</v>
+        <v>8819200</v>
       </c>
       <c r="H33" s="3">
-        <v>6599000</v>
+        <v>7442700</v>
       </c>
       <c r="I33" s="3">
-        <v>5410900</v>
+        <v>6365800</v>
       </c>
       <c r="J33" s="3">
+        <v>5219700</v>
+      </c>
+      <c r="K33" s="3">
         <v>5086200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4357300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4453300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4551400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4597100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4045100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4213900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4140100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3624400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2333400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2153700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3406500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2970500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2404400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2986200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3217900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2914500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2147800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2857600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3267500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2936,185 +3011,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>6737400</v>
+        <v>5708500</v>
       </c>
       <c r="E35" s="3">
-        <v>9631700</v>
+        <v>6499400</v>
       </c>
       <c r="F35" s="3">
-        <v>9142200</v>
+        <v>9291400</v>
       </c>
       <c r="G35" s="3">
-        <v>7715200</v>
+        <v>8819200</v>
       </c>
       <c r="H35" s="3">
-        <v>6599000</v>
+        <v>7442700</v>
       </c>
       <c r="I35" s="3">
-        <v>5410900</v>
+        <v>6365800</v>
       </c>
       <c r="J35" s="3">
+        <v>5219700</v>
+      </c>
+      <c r="K35" s="3">
         <v>5086200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4357300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4453300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4551400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4597100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4045100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4213900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4140100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3624400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2333400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2153700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3406500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2970500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2404400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2986200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3217900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2914500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2147800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2857600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3267500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3145,8 +3229,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3177,782 +3262,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>45089300</v>
+        <v>40089100</v>
       </c>
       <c r="E41" s="3">
-        <v>43708600</v>
+        <v>43496300</v>
       </c>
       <c r="F41" s="3">
-        <v>42185200</v>
+        <v>42164400</v>
       </c>
       <c r="G41" s="3">
-        <v>40791300</v>
+        <v>40694800</v>
       </c>
       <c r="H41" s="3">
-        <v>37484200</v>
+        <v>39350100</v>
       </c>
       <c r="I41" s="3">
-        <v>34665400</v>
+        <v>36159900</v>
       </c>
       <c r="J41" s="3">
+        <v>33440700</v>
+      </c>
+      <c r="K41" s="3">
         <v>27791600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24257100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21191500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21046200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20228500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15655700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15516600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16248600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16224200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22706900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>22650100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19686100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16299200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>21028000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>19217100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>17935400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13225800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>18488800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>18415700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>17650300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>7457200</v>
+        <v>7474900</v>
       </c>
       <c r="E42" s="3">
-        <v>7932000</v>
+        <v>7193700</v>
       </c>
       <c r="F42" s="3">
-        <v>7256100</v>
+        <v>7651700</v>
       </c>
       <c r="G42" s="3">
-        <v>6414000</v>
+        <v>6999800</v>
       </c>
       <c r="H42" s="3">
-        <v>4741400</v>
+        <v>6187400</v>
       </c>
       <c r="I42" s="3">
-        <v>4013200</v>
+        <v>4573900</v>
       </c>
       <c r="J42" s="3">
+        <v>4393600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4425000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4386000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4687500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4454400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4867200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4924400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5052000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4951600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5379600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4532100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4384600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4628600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4342600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4313700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3928700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3325800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3200600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2937600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3206500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3091300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4821400</v>
+        <v>6077400</v>
       </c>
       <c r="E43" s="3">
-        <v>7532400</v>
+        <v>4651100</v>
       </c>
       <c r="F43" s="3">
-        <v>8515600</v>
+        <v>7266200</v>
       </c>
       <c r="G43" s="3">
-        <v>7310300</v>
+        <v>8214700</v>
       </c>
       <c r="H43" s="3">
-        <v>6949000</v>
+        <v>7052000</v>
       </c>
       <c r="I43" s="3">
-        <v>6456700</v>
+        <v>6703500</v>
       </c>
       <c r="J43" s="3">
+        <v>6228600</v>
+      </c>
+      <c r="K43" s="3">
         <v>6094700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5836500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5340900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4657300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5444500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5095000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5276200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4988900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5216800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4112700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3746200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4404000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4322300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3039400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3589100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3969900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3853300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3625400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3559800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4221400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>7033000</v>
+        <v>7358100</v>
       </c>
       <c r="E44" s="3">
-        <v>7198400</v>
+        <v>6784500</v>
       </c>
       <c r="F44" s="3">
-        <v>7106800</v>
+        <v>6944100</v>
       </c>
       <c r="G44" s="3">
-        <v>7077600</v>
+        <v>6855700</v>
       </c>
       <c r="H44" s="3">
-        <v>6513900</v>
+        <v>6827600</v>
       </c>
       <c r="I44" s="3">
-        <v>6285500</v>
+        <v>6283700</v>
       </c>
       <c r="J44" s="3">
+        <v>6063400</v>
+      </c>
+      <c r="K44" s="3">
         <v>5931700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5527300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4927600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4378800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3666400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2872200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2819600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2960800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3467200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3782700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3812600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3517100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3513000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3293800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2834300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2394500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2394900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1977400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1643200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1587500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>560000</v>
+        <v>543400</v>
       </c>
       <c r="E45" s="3">
-        <v>450400</v>
+        <v>540200</v>
       </c>
       <c r="F45" s="3">
-        <v>499500</v>
+        <v>434500</v>
       </c>
       <c r="G45" s="3">
-        <v>442700</v>
+        <v>481900</v>
       </c>
       <c r="H45" s="3">
-        <v>370400</v>
+        <v>427000</v>
       </c>
       <c r="I45" s="3">
-        <v>889400</v>
+        <v>357300</v>
       </c>
       <c r="J45" s="3">
+        <v>335800</v>
+      </c>
+      <c r="K45" s="3">
         <v>371300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>242200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>188900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>282100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>267000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>246600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>240500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>201000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>172700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>171400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>182200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>187900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>178000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>222900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1333300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>156400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>170000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>132000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>99600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>115600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>64960900</v>
+        <v>61542900</v>
       </c>
       <c r="E46" s="3">
-        <v>66821800</v>
+        <v>62665800</v>
       </c>
       <c r="F46" s="3">
-        <v>65563300</v>
+        <v>64461000</v>
       </c>
       <c r="G46" s="3">
-        <v>62036000</v>
+        <v>63246900</v>
       </c>
       <c r="H46" s="3">
-        <v>56058800</v>
+        <v>59844200</v>
       </c>
       <c r="I46" s="3">
-        <v>52310200</v>
+        <v>54078300</v>
       </c>
       <c r="J46" s="3">
+        <v>50462100</v>
+      </c>
+      <c r="K46" s="3">
         <v>44614300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40249000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36336400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34818900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34473500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28793900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28905000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29350900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30460500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35305800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34775700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>32423700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>28655100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>31897800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30902400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>27782000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>22844600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>27161200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>26924800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>26666100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2275700</v>
+        <v>2970800</v>
       </c>
       <c r="E47" s="3">
-        <v>2243600</v>
+        <v>2195300</v>
       </c>
       <c r="F47" s="3">
-        <v>2467200</v>
+        <v>2164300</v>
       </c>
       <c r="G47" s="3">
-        <v>2097500</v>
+        <v>2380000</v>
       </c>
       <c r="H47" s="3">
-        <v>1488700</v>
+        <v>2023400</v>
       </c>
       <c r="I47" s="3">
-        <v>956500</v>
+        <v>1436100</v>
       </c>
       <c r="J47" s="3">
+        <v>922700</v>
+      </c>
+      <c r="K47" s="3">
         <v>902600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>942500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>928700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>884000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>887700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>767300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1117800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1076500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1080600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1024600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1053800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>998400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>993900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>959100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1143400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1347300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1325700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1420200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1451800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1505100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>93594800</v>
+        <v>93849200</v>
       </c>
       <c r="E48" s="3">
-        <v>89048700</v>
+        <v>90288000</v>
       </c>
       <c r="F48" s="3">
-        <v>79872500</v>
+        <v>85902600</v>
       </c>
       <c r="G48" s="3">
-        <v>74299000</v>
+        <v>77050600</v>
       </c>
       <c r="H48" s="3">
-        <v>69567600</v>
+        <v>71674000</v>
       </c>
       <c r="I48" s="3">
-        <v>65355600</v>
+        <v>67109700</v>
       </c>
       <c r="J48" s="3">
+        <v>63046600</v>
+      </c>
+      <c r="K48" s="3">
         <v>60603400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>56924300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>53903800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50476200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>51065800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50708700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>52586900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>48867700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>43586500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>40573900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>39524500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>36524800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>34968000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>34399800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>35101500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>34437000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>34541200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>34925900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>33828400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>32537500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>790900</v>
+        <v>748900</v>
       </c>
       <c r="E49" s="3">
-        <v>846300</v>
+        <v>762900</v>
       </c>
       <c r="F49" s="3">
-        <v>869300</v>
+        <v>816400</v>
       </c>
       <c r="G49" s="3">
-        <v>885700</v>
+        <v>838600</v>
       </c>
       <c r="H49" s="3">
-        <v>833900</v>
+        <v>854400</v>
       </c>
       <c r="I49" s="3">
-        <v>873000</v>
+        <v>804500</v>
       </c>
       <c r="J49" s="3">
+        <v>842200</v>
+      </c>
+      <c r="K49" s="3">
         <v>834700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>860500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>797400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>821500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>881800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>917200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>980900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>736900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>648800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>611700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>630500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>579300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>466500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>458700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>454800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>459400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>481000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>457600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>465600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>476600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4037,8 +4150,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4123,94 +4239,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2620000</v>
+        <v>2581500</v>
       </c>
       <c r="E52" s="3">
-        <v>2643200</v>
+        <v>2527400</v>
       </c>
       <c r="F52" s="3">
-        <v>2367300</v>
+        <v>2549800</v>
       </c>
       <c r="G52" s="3">
-        <v>2142200</v>
+        <v>2283600</v>
       </c>
       <c r="H52" s="3">
-        <v>2012500</v>
+        <v>2066500</v>
       </c>
       <c r="I52" s="3">
-        <v>1769800</v>
+        <v>1941400</v>
       </c>
       <c r="J52" s="3">
+        <v>1707200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1511700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1323600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1095600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1011000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>930100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>794200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>814900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>776300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>757200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>749100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>750900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>684500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>612200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>581200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>552800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>530600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>488100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>415500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>418700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>332000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4295,94 +4417,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>164242200</v>
+        <v>161693200</v>
       </c>
       <c r="E54" s="3">
-        <v>161603600</v>
+        <v>158439500</v>
       </c>
       <c r="F54" s="3">
-        <v>151139500</v>
+        <v>155894100</v>
       </c>
       <c r="G54" s="3">
-        <v>141460400</v>
+        <v>145799700</v>
       </c>
       <c r="H54" s="3">
-        <v>129961600</v>
+        <v>136462600</v>
       </c>
       <c r="I54" s="3">
-        <v>121265100</v>
+        <v>125370000</v>
       </c>
       <c r="J54" s="3">
+        <v>116980800</v>
+      </c>
+      <c r="K54" s="3">
         <v>108466800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100300000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93061900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>88011500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>88239000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>81981300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>84405500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>80808200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76533600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>78265100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>76735300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71210700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>65695800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>68296500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>68154900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>64556200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>59680600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>64380300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>63089400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>61517300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4413,8 +4541,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4445,524 +4574,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1542300</v>
+        <v>1537700</v>
       </c>
       <c r="E57" s="3">
-        <v>1839800</v>
+        <v>1487800</v>
       </c>
       <c r="F57" s="3">
-        <v>2018700</v>
+        <v>1774800</v>
       </c>
       <c r="G57" s="3">
-        <v>1947100</v>
+        <v>1947400</v>
       </c>
       <c r="H57" s="3">
-        <v>1630900</v>
+        <v>1878300</v>
       </c>
       <c r="I57" s="3">
-        <v>1585900</v>
+        <v>1573300</v>
       </c>
       <c r="J57" s="3">
+        <v>1529900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1428600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1337100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1230500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1310100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1369100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1323600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1432700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1434500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1325300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1138300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>970400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1170600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1010700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1019900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>965900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>974500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>939500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>830100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>790900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>891100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>347900</v>
+        <v>338000</v>
       </c>
       <c r="E58" s="3">
-        <v>713400</v>
+        <v>335600</v>
       </c>
       <c r="F58" s="3">
-        <v>846000</v>
+        <v>688200</v>
       </c>
       <c r="G58" s="3">
-        <v>4390500</v>
+        <v>816100</v>
       </c>
       <c r="H58" s="3">
-        <v>5322900</v>
+        <v>4235400</v>
       </c>
       <c r="I58" s="3">
-        <v>3960200</v>
+        <v>5134800</v>
       </c>
       <c r="J58" s="3">
+        <v>3820300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3935900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4580500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4432000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2964400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5346700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6388800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5670400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5444700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4301600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4510200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4468900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4212900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3631000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1554400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3528500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3959500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3678600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4362700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3247200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3132800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>26528900</v>
+        <v>23584300</v>
       </c>
       <c r="E59" s="3">
-        <v>28181400</v>
+        <v>25591600</v>
       </c>
       <c r="F59" s="3">
-        <v>23417200</v>
+        <v>27185700</v>
       </c>
       <c r="G59" s="3">
-        <v>21175000</v>
+        <v>22589900</v>
       </c>
       <c r="H59" s="3">
-        <v>19830600</v>
+        <v>20426900</v>
       </c>
       <c r="I59" s="3">
-        <v>18524700</v>
+        <v>19130000</v>
       </c>
       <c r="J59" s="3">
+        <v>17870200</v>
+      </c>
+      <c r="K59" s="3">
         <v>15976000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15088900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15430900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15400200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12978600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12870900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14129500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14198200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12116000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16099400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7830300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6218800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6084700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12825000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6888300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6691700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5057000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11774100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>6448700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>6354000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>28419100</v>
+        <v>25460000</v>
       </c>
       <c r="E60" s="3">
-        <v>30734600</v>
+        <v>27415000</v>
       </c>
       <c r="F60" s="3">
-        <v>26281900</v>
+        <v>29648700</v>
       </c>
       <c r="G60" s="3">
-        <v>27512600</v>
+        <v>25353300</v>
       </c>
       <c r="H60" s="3">
-        <v>26784300</v>
+        <v>26540600</v>
       </c>
       <c r="I60" s="3">
-        <v>24070800</v>
+        <v>25838000</v>
       </c>
       <c r="J60" s="3">
+        <v>23220400</v>
+      </c>
+      <c r="K60" s="3">
         <v>21340500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21006500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21093400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19674800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19694300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20583400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21232600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21077400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17742900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21747900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13269600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11602300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10726400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15399300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11382700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11625700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9675100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>16966900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>10486700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>10377800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>28799300</v>
+        <v>29423600</v>
       </c>
       <c r="E61" s="3">
-        <v>28281400</v>
+        <v>27781800</v>
       </c>
       <c r="F61" s="3">
-        <v>28501600</v>
+        <v>27282200</v>
       </c>
       <c r="G61" s="3">
-        <v>25379900</v>
+        <v>27494600</v>
       </c>
       <c r="H61" s="3">
-        <v>21281300</v>
+        <v>24483200</v>
       </c>
       <c r="I61" s="3">
-        <v>20641400</v>
+        <v>20529400</v>
       </c>
       <c r="J61" s="3">
+        <v>19912100</v>
+      </c>
+      <c r="K61" s="3">
         <v>15762600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14096200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9581100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8819100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8276500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3401700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2376100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1432300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1439100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1772200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1831400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1938600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1897600</v>
-      </c>
-      <c r="W61" s="3">
-        <v>2773900</v>
       </c>
       <c r="X61" s="3">
         <v>2773900</v>
       </c>
       <c r="Y61" s="3">
+        <v>2773900</v>
+      </c>
+      <c r="Z61" s="3">
         <v>2975200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2975700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3218900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4376900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4993100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>6350100</v>
+        <v>6157900</v>
       </c>
       <c r="E62" s="3">
-        <v>6223600</v>
+        <v>6125700</v>
       </c>
       <c r="F62" s="3">
-        <v>6768100</v>
+        <v>6003800</v>
       </c>
       <c r="G62" s="3">
-        <v>6852400</v>
+        <v>6529000</v>
       </c>
       <c r="H62" s="3">
-        <v>6332200</v>
+        <v>6610300</v>
       </c>
       <c r="I62" s="3">
-        <v>5895600</v>
+        <v>6108400</v>
       </c>
       <c r="J62" s="3">
+        <v>5687300</v>
+      </c>
+      <c r="K62" s="3">
         <v>3714300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>532800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>508500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>519800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>396900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>370000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>390200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>422200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>424000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>418000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>471600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>517500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>517900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>544800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>562600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>602700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>637700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>688500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>735500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>816900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5047,8 +5195,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5133,8 +5284,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5219,94 +5373,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>64045700</v>
+        <v>61566400</v>
       </c>
       <c r="E66" s="3">
-        <v>65722500</v>
+        <v>61783000</v>
       </c>
       <c r="F66" s="3">
-        <v>62018400</v>
+        <v>63400500</v>
       </c>
       <c r="G66" s="3">
-        <v>60204100</v>
+        <v>59827300</v>
       </c>
       <c r="H66" s="3">
-        <v>54626900</v>
+        <v>58077100</v>
       </c>
       <c r="I66" s="3">
-        <v>50687400</v>
+        <v>52696900</v>
       </c>
       <c r="J66" s="3">
+        <v>48896600</v>
+      </c>
+      <c r="K66" s="3">
         <v>40892300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35706400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31248600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29044400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28398100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24383000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24026400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22956300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19629000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23959200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15596300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14081500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13163800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>18739100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14742700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15226400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13311000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20896300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>15625100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>16213900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5337,8 +5497,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5423,8 +5584,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5509,8 +5673,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5595,8 +5762,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5681,94 +5851,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>90270500</v>
+        <v>90347600</v>
       </c>
       <c r="E72" s="3">
-        <v>85851400</v>
+        <v>87081200</v>
       </c>
       <c r="F72" s="3">
-        <v>78535800</v>
+        <v>82818300</v>
       </c>
       <c r="G72" s="3">
-        <v>71711700</v>
+        <v>75761100</v>
       </c>
       <c r="H72" s="3">
-        <v>66345400</v>
+        <v>69178100</v>
       </c>
       <c r="I72" s="3">
-        <v>62067300</v>
+        <v>64001400</v>
       </c>
       <c r="J72" s="3">
+        <v>59874500</v>
+      </c>
+      <c r="K72" s="3">
         <v>58957000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55984600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53025100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50647300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50687900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>48261200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>49905600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47573400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45969200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>43532900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>50443200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>46902400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>42612600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>39561800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>44059200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>39973300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>36763300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>33848900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>37815800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>34958200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5853,8 +6029,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5939,8 +6118,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6025,94 +6207,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>100196500</v>
+        <v>100126800</v>
       </c>
       <c r="E76" s="3">
-        <v>95881000</v>
+        <v>96656500</v>
       </c>
       <c r="F76" s="3">
-        <v>89121100</v>
+        <v>92493500</v>
       </c>
       <c r="G76" s="3">
-        <v>81256300</v>
+        <v>85972400</v>
       </c>
       <c r="H76" s="3">
-        <v>75334700</v>
+        <v>78385500</v>
       </c>
       <c r="I76" s="3">
-        <v>70577700</v>
+        <v>72673100</v>
       </c>
       <c r="J76" s="3">
+        <v>68084200</v>
+      </c>
+      <c r="K76" s="3">
         <v>67574500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>64593600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>61813300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>58967100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>59840800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>57598300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>60379100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>57851900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>56904700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>54305800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>61139000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>57129200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>52532000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>49557500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>53412200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>49329900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>46369500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>43484000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>47464300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>45303400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6197,185 +6385,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>6737400</v>
+        <v>5708500</v>
       </c>
       <c r="E81" s="3">
-        <v>9631700</v>
+        <v>6499400</v>
       </c>
       <c r="F81" s="3">
-        <v>9142200</v>
+        <v>9291400</v>
       </c>
       <c r="G81" s="3">
-        <v>7715200</v>
+        <v>8819200</v>
       </c>
       <c r="H81" s="3">
-        <v>6599000</v>
+        <v>7442700</v>
       </c>
       <c r="I81" s="3">
-        <v>5410900</v>
+        <v>6365800</v>
       </c>
       <c r="J81" s="3">
+        <v>5219700</v>
+      </c>
+      <c r="K81" s="3">
         <v>5086200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4357300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4453300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4551400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4597100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4045100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4213900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4140100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3624400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2333400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2153700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3406500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2970500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2404400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2986200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3217900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2914500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2147800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2857600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3267500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6406,94 +6603,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3591000</v>
+        <v>3891700</v>
       </c>
       <c r="E83" s="3">
-        <v>3501800</v>
+        <v>3464100</v>
       </c>
       <c r="F83" s="3">
-        <v>3429000</v>
+        <v>3378100</v>
       </c>
       <c r="G83" s="3">
-        <v>3685500</v>
+        <v>3307900</v>
       </c>
       <c r="H83" s="3">
-        <v>3616400</v>
+        <v>3555300</v>
       </c>
       <c r="I83" s="3">
-        <v>3602100</v>
+        <v>3488600</v>
       </c>
       <c r="J83" s="3">
+        <v>3474800</v>
+      </c>
+      <c r="K83" s="3">
         <v>3483700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3366400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3216700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3110300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3171700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2372900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2469300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2409500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2393900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2622900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2720400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2590300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2454900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2375100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2378000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2295100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2306400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1879500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1962200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1840400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6578,8 +6779,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6664,8 +6868,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6750,8 +6957,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6836,8 +7046,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6922,94 +7135,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>12539700</v>
+        <v>5251600</v>
       </c>
       <c r="E89" s="3">
-        <v>15848000</v>
+        <v>12096700</v>
       </c>
       <c r="F89" s="3">
-        <v>13433300</v>
+        <v>15288100</v>
       </c>
       <c r="G89" s="3">
-        <v>11029500</v>
+        <v>12958700</v>
       </c>
       <c r="H89" s="3">
-        <v>12114100</v>
+        <v>10639900</v>
       </c>
       <c r="I89" s="3">
-        <v>12310400</v>
+        <v>11686100</v>
       </c>
       <c r="J89" s="3">
+        <v>11875500</v>
+      </c>
+      <c r="K89" s="3">
         <v>10373900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6078700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7262800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8261100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6366900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5702800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7313100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7241400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5083300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4115700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5355700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6451900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3137700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4316300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5345700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6615700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3785000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3351200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>5250500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>6040000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7040,94 +7259,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-252469400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-302784400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-338327600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-267635800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-220945300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-262717700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-238919200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-190193800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5414900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7907200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2827000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3324800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4241900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6936000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6065900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3518500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4066500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2664000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3887600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2332800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7212,8 +7435,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7298,94 +7524,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-8861100</v>
+        <v>-8142800</v>
       </c>
       <c r="E94" s="3">
-        <v>-11149400</v>
+        <v>-8548100</v>
       </c>
       <c r="F94" s="3">
-        <v>-9256900</v>
+        <v>-10755500</v>
       </c>
       <c r="G94" s="3">
-        <v>-8981600</v>
+        <v>-8929900</v>
       </c>
       <c r="H94" s="3">
-        <v>-9376800</v>
+        <v>-8664300</v>
       </c>
       <c r="I94" s="3">
-        <v>-7985900</v>
+        <v>-9045500</v>
       </c>
       <c r="J94" s="3">
+        <v>-7703800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5762000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5505000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7786700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2899800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3216700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4344000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6807500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6122900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3883300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4009400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2251700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3995100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2116800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7416,56 +7648,57 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2321100</v>
+        <v>-2239100</v>
       </c>
       <c r="E96" s="3">
-        <v>-2321100</v>
+        <v>-2239100</v>
       </c>
       <c r="F96" s="3">
-        <v>-2321100</v>
+        <v>-2239100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2321100</v>
+        <v>-2239100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2321100</v>
+        <v>-2239100</v>
       </c>
       <c r="I96" s="3">
-        <v>-2321100</v>
+        <v>-2239100</v>
       </c>
       <c r="J96" s="3">
+        <v>-2239100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2110100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2102300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-2066700</v>
       </c>
       <c r="M96" s="3">
         <v>-2066700</v>
       </c>
       <c r="N96" s="3">
-        <v>-2170400</v>
+        <v>-2066700</v>
       </c>
       <c r="O96" s="3">
         <v>-2170400</v>
       </c>
       <c r="P96" s="3">
+        <v>-2170400</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-2335000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1850400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -7502,8 +7735,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7588,8 +7824,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7674,8 +7913,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7760,262 +8002,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-2099100</v>
+        <v>-834900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2273000</v>
+        <v>-2024900</v>
       </c>
       <c r="F100" s="3">
-        <v>-4244700</v>
+        <v>-2192700</v>
       </c>
       <c r="G100" s="3">
-        <v>621100</v>
+        <v>-4094800</v>
       </c>
       <c r="H100" s="3">
-        <v>-621300</v>
+        <v>599100</v>
       </c>
       <c r="I100" s="3">
-        <v>2678300</v>
+        <v>-599300</v>
       </c>
       <c r="J100" s="3">
+        <v>2583700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1149800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2433200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>466000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3226400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1588100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>197900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1468100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-613100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8216000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-32500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-786200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>486600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5750700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-976100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>312600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-20700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-388400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>792500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-198800</v>
+        <v>319000</v>
       </c>
       <c r="E101" s="3">
-        <v>-902200</v>
+        <v>-191800</v>
       </c>
       <c r="F101" s="3">
-        <v>1462200</v>
+        <v>-870300</v>
       </c>
       <c r="G101" s="3">
-        <v>638000</v>
+        <v>1410600</v>
       </c>
       <c r="H101" s="3">
-        <v>702700</v>
+        <v>615500</v>
       </c>
       <c r="I101" s="3">
-        <v>-129000</v>
+        <v>677900</v>
       </c>
       <c r="J101" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-17300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-306900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>203200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-350400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-165500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-323400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>75600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-399500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-58000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>66900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>62700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>91600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-55800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>468800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-174600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-175200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-23200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>38900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-534700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>204200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1380700</v>
+        <v>-3407200</v>
       </c>
       <c r="E102" s="3">
-        <v>1523400</v>
+        <v>1331900</v>
       </c>
       <c r="F102" s="3">
-        <v>1393900</v>
+        <v>1469600</v>
       </c>
       <c r="G102" s="3">
-        <v>3307100</v>
+        <v>1344700</v>
       </c>
       <c r="H102" s="3">
-        <v>2818800</v>
+        <v>3190200</v>
       </c>
       <c r="I102" s="3">
-        <v>6873900</v>
+        <v>2719200</v>
       </c>
       <c r="J102" s="3">
+        <v>6631000</v>
+      </c>
+      <c r="K102" s="3">
         <v>3444800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2699900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>145300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1784500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4572800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1233300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-886900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>105900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7074000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>140700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2380400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3035000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4785700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1810900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>811300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4709600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>186100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>765400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2520200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-5165000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,392 +665,404 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15098400</v>
+        <v>17140100</v>
       </c>
       <c r="E8" s="3">
-        <v>15971100</v>
+        <v>15074400</v>
       </c>
       <c r="F8" s="3">
-        <v>19641700</v>
+        <v>15945600</v>
       </c>
       <c r="G8" s="3">
-        <v>19252700</v>
+        <v>19610400</v>
       </c>
       <c r="H8" s="3">
-        <v>16772000</v>
+        <v>19222000</v>
       </c>
       <c r="I8" s="3">
-        <v>15419800</v>
+        <v>16745300</v>
       </c>
       <c r="J8" s="3">
+        <v>15395200</v>
+      </c>
+      <c r="K8" s="3">
         <v>13759100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13497500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12068700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11553600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11525700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11933100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10402200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11187700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11319000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10508600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8422900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7672200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9872500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8682600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7758800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8251100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8996100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8170800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6931000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7627900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>8551200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>8491800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6928100</v>
+        <v>7840300</v>
       </c>
       <c r="E9" s="3">
-        <v>6975000</v>
+        <v>6917100</v>
       </c>
       <c r="F9" s="3">
-        <v>7421300</v>
+        <v>6963900</v>
       </c>
       <c r="G9" s="3">
-        <v>7619000</v>
+        <v>7409500</v>
       </c>
       <c r="H9" s="3">
-        <v>6866300</v>
+        <v>7606900</v>
       </c>
       <c r="I9" s="3">
-        <v>6841200</v>
+        <v>6855400</v>
       </c>
       <c r="J9" s="3">
+        <v>6830300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6513400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6572600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6030300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5501600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5303100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5555900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4888300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5396300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5637300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5508600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4799500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4502600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5169400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4567900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4047400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4094400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4500300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4091100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3406400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3666300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>4080100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>4186000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8170300</v>
+        <v>9299700</v>
       </c>
       <c r="E10" s="3">
-        <v>8996100</v>
+        <v>8157300</v>
       </c>
       <c r="F10" s="3">
-        <v>12220400</v>
+        <v>8981800</v>
       </c>
       <c r="G10" s="3">
-        <v>11633700</v>
+        <v>12200900</v>
       </c>
       <c r="H10" s="3">
-        <v>9905700</v>
+        <v>11615100</v>
       </c>
       <c r="I10" s="3">
-        <v>8578600</v>
+        <v>9889900</v>
       </c>
       <c r="J10" s="3">
+        <v>8564900</v>
+      </c>
+      <c r="K10" s="3">
         <v>7245700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6924900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6038400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6052100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6222600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6377300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5513900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5791400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5681700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5000000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3623400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3169600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4703100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4114800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3711400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4156700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4495800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4079700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3524700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3961600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>4471200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>4305800</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,97 +1094,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1308300</v>
+        <v>1603200</v>
       </c>
       <c r="E12" s="3">
-        <v>1229500</v>
+        <v>1306200</v>
       </c>
       <c r="F12" s="3">
-        <v>1400000</v>
+        <v>1227600</v>
       </c>
       <c r="G12" s="3">
-        <v>1349500</v>
+        <v>1397800</v>
       </c>
       <c r="H12" s="3">
-        <v>1245000</v>
+        <v>1347300</v>
       </c>
       <c r="I12" s="3">
-        <v>1131900</v>
+        <v>1243000</v>
       </c>
       <c r="J12" s="3">
+        <v>1130100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1012300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1004700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1001200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>980500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>954500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>993800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>833400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>899400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>914700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>859600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>747700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>716200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>807100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>729900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>661600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>679500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>687600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>682100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>617700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>633000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>650900</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>610600</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1260,68 +1276,71 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>300</v>
       </c>
       <c r="H14" s="3">
         <v>300</v>
       </c>
       <c r="I14" s="3">
+        <v>300</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-100</v>
       </c>
       <c r="L14" s="3">
         <v>-100</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>100</v>
       </c>
       <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
         <v>-10600</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1329,28 +1348,31 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
         <v>-100</v>
       </c>
       <c r="AA14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB14" s="3">
         <v>100</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>400</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>2200</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1370,28 +1392,28 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
@@ -1409,14 +1431,14 @@
         <v>200</v>
       </c>
       <c r="V15" s="3">
+        <v>200</v>
+      </c>
+      <c r="W15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
@@ -1438,8 +1460,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1468,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8757400</v>
+        <v>9990900</v>
       </c>
       <c r="E17" s="3">
-        <v>8710400</v>
+        <v>8743400</v>
       </c>
       <c r="F17" s="3">
-        <v>9436000</v>
+        <v>8696500</v>
       </c>
       <c r="G17" s="3">
-        <v>9508800</v>
+        <v>9421000</v>
       </c>
       <c r="H17" s="3">
-        <v>8541700</v>
+        <v>9493700</v>
       </c>
       <c r="I17" s="3">
-        <v>8393100</v>
+        <v>8528100</v>
       </c>
       <c r="J17" s="3">
+        <v>8379800</v>
+      </c>
+      <c r="K17" s="3">
         <v>8020200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7931300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7344600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6754500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6516700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6909700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6013100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6558400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6886000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6639900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5756200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5417700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6222800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5506100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4950700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5030600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5466600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4992900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4232700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4518900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4969300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>5027400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6341000</v>
+        <v>7149200</v>
       </c>
       <c r="E18" s="3">
-        <v>7260700</v>
+        <v>6330900</v>
       </c>
       <c r="F18" s="3">
-        <v>10205700</v>
+        <v>7249100</v>
       </c>
       <c r="G18" s="3">
-        <v>9743900</v>
+        <v>10189400</v>
       </c>
       <c r="H18" s="3">
-        <v>8230300</v>
+        <v>9728300</v>
       </c>
       <c r="I18" s="3">
-        <v>7026600</v>
+        <v>8217200</v>
       </c>
       <c r="J18" s="3">
+        <v>7015500</v>
+      </c>
+      <c r="K18" s="3">
         <v>5739000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5566200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4724100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4799200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5009000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5023500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4389100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4629300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4433100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3868700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2666700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2254500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3649700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3176500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2808100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3220500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3529400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3177900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2698300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3109000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3581900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>3464400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1679,453 +1711,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>494100</v>
+        <v>533200</v>
       </c>
       <c r="E20" s="3">
-        <v>502600</v>
+        <v>493300</v>
       </c>
       <c r="F20" s="3">
-        <v>407700</v>
+        <v>501800</v>
       </c>
       <c r="G20" s="3">
-        <v>306100</v>
+        <v>407000</v>
       </c>
       <c r="H20" s="3">
-        <v>213200</v>
+        <v>305600</v>
       </c>
       <c r="I20" s="3">
-        <v>163100</v>
+        <v>212900</v>
       </c>
       <c r="J20" s="3">
+        <v>162800</v>
+      </c>
+      <c r="K20" s="3">
         <v>132600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>136100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>157500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>168900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>151600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>182600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>191200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>149800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>184900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>189900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>178600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>168900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>164700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>146400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>126000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>130500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>116900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>107200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>120000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>107600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>98400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>10726900</v>
+        <v>12299600</v>
       </c>
       <c r="E21" s="3">
-        <v>11227400</v>
+        <v>10709800</v>
       </c>
       <c r="F21" s="3">
-        <v>13991400</v>
+        <v>11209500</v>
       </c>
       <c r="G21" s="3">
-        <v>13357800</v>
+        <v>13969100</v>
       </c>
       <c r="H21" s="3">
-        <v>11998800</v>
+        <v>13336500</v>
       </c>
       <c r="I21" s="3">
-        <v>10678300</v>
+        <v>11979700</v>
       </c>
       <c r="J21" s="3">
+        <v>10661300</v>
+      </c>
+      <c r="K21" s="3">
         <v>9346400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9186000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8247900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8184800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8270900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8377700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6953200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7248400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7027400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6452500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5468200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5143700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6404700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5777700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5309100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5729000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5941400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5591600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4697800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>5178800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>5520800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>5391800</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>94400</v>
+        <v>97600</v>
       </c>
       <c r="E22" s="3">
-        <v>93100</v>
+        <v>94200</v>
       </c>
       <c r="F22" s="3">
-        <v>104700</v>
+        <v>92900</v>
       </c>
       <c r="G22" s="3">
-        <v>105800</v>
+        <v>104600</v>
       </c>
       <c r="H22" s="3">
-        <v>91200</v>
+        <v>105700</v>
       </c>
       <c r="I22" s="3">
-        <v>67200</v>
+        <v>91000</v>
       </c>
       <c r="J22" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K22" s="3">
         <v>68300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>36800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>30200</v>
       </c>
       <c r="T22" s="3">
         <v>30200</v>
       </c>
       <c r="U22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="V22" s="3">
         <v>31500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>29800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>24600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>20900</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>26900</v>
       </c>
       <c r="Z22" s="3">
         <v>26900</v>
       </c>
       <c r="AA22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="AB22" s="3">
         <v>27300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>27200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>26600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>26500</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>6740800</v>
+        <v>7584800</v>
       </c>
       <c r="E23" s="3">
-        <v>7670200</v>
+        <v>6730100</v>
       </c>
       <c r="F23" s="3">
-        <v>10508600</v>
+        <v>7658000</v>
       </c>
       <c r="G23" s="3">
-        <v>9944100</v>
+        <v>10491900</v>
       </c>
       <c r="H23" s="3">
-        <v>8352300</v>
+        <v>9928300</v>
       </c>
       <c r="I23" s="3">
-        <v>7122500</v>
+        <v>8339000</v>
       </c>
       <c r="J23" s="3">
+        <v>7111200</v>
+      </c>
+      <c r="K23" s="3">
         <v>5803300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5658900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4844800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4943500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5136100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5193600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4566600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4759900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4594900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4028400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2815100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2391800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3784600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3298200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2913200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3324100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3619400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3257800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2791100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3190000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3653900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>3530000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1034900</v>
+        <v>976400</v>
       </c>
       <c r="E24" s="3">
-        <v>1172000</v>
+        <v>1033200</v>
       </c>
       <c r="F24" s="3">
-        <v>1218000</v>
+        <v>1170200</v>
       </c>
       <c r="G24" s="3">
-        <v>1121700</v>
+        <v>1216100</v>
       </c>
       <c r="H24" s="3">
-        <v>904900</v>
+        <v>1119900</v>
       </c>
       <c r="I24" s="3">
-        <v>752300</v>
+        <v>903400</v>
       </c>
       <c r="J24" s="3">
+        <v>751100</v>
+      </c>
+      <c r="K24" s="3">
         <v>579200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>565500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>483500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>488600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>582900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>594100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>519100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>543300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>453300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>402800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>481200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>238300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>377400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>326800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>508700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>337800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>400900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>342500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>643200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>332700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>385400</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2213,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5705900</v>
+        <v>6608400</v>
       </c>
       <c r="E26" s="3">
-        <v>6498200</v>
+        <v>5696800</v>
       </c>
       <c r="F26" s="3">
-        <v>9290600</v>
+        <v>6487900</v>
       </c>
       <c r="G26" s="3">
-        <v>8822400</v>
+        <v>9275800</v>
       </c>
       <c r="H26" s="3">
-        <v>7447500</v>
+        <v>8808400</v>
       </c>
       <c r="I26" s="3">
-        <v>6370200</v>
+        <v>7435600</v>
       </c>
       <c r="J26" s="3">
+        <v>6360100</v>
+      </c>
+      <c r="K26" s="3">
         <v>5224100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5093400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4361200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4454900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4553200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4599400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4047500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4216600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4141700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3625500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2333800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2153500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3407200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2971400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2404500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2986300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3218500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2915300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2147800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2857300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>3268400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>3156300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5708500</v>
+        <v>6614800</v>
       </c>
       <c r="E27" s="3">
-        <v>6499400</v>
+        <v>5699400</v>
       </c>
       <c r="F27" s="3">
-        <v>9291400</v>
+        <v>6489000</v>
       </c>
       <c r="G27" s="3">
-        <v>8819200</v>
+        <v>9276600</v>
       </c>
       <c r="H27" s="3">
-        <v>7442700</v>
+        <v>8805100</v>
       </c>
       <c r="I27" s="3">
-        <v>6365800</v>
+        <v>7430800</v>
       </c>
       <c r="J27" s="3">
+        <v>6355700</v>
+      </c>
+      <c r="K27" s="3">
         <v>5219700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5086200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4357300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4453300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4551400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4597100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4045100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4213900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4140100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3624400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2333400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2153700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3406500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2970500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2404400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2986200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3217900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2914500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2147800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2857600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>3267500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2480,8 +2537,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2569,8 +2629,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2658,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2747,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-494100</v>
+        <v>-533200</v>
       </c>
       <c r="E32" s="3">
-        <v>-502600</v>
+        <v>-493300</v>
       </c>
       <c r="F32" s="3">
-        <v>-407700</v>
+        <v>-501800</v>
       </c>
       <c r="G32" s="3">
-        <v>-306100</v>
+        <v>-407000</v>
       </c>
       <c r="H32" s="3">
-        <v>-213200</v>
+        <v>-305600</v>
       </c>
       <c r="I32" s="3">
-        <v>-163100</v>
+        <v>-212900</v>
       </c>
       <c r="J32" s="3">
+        <v>-162800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-132600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-136100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-157500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-168900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-151600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-182600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-191200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-149800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-184900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-189900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-178600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-168900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-164700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-146400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-126000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-130500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-116900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-107200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-120000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-107600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-98400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-92400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5708500</v>
+        <v>6614800</v>
       </c>
       <c r="E33" s="3">
-        <v>6499400</v>
+        <v>5699400</v>
       </c>
       <c r="F33" s="3">
-        <v>9291400</v>
+        <v>6489000</v>
       </c>
       <c r="G33" s="3">
-        <v>8819200</v>
+        <v>9276600</v>
       </c>
       <c r="H33" s="3">
-        <v>7442700</v>
+        <v>8805100</v>
       </c>
       <c r="I33" s="3">
-        <v>6365800</v>
+        <v>7430800</v>
       </c>
       <c r="J33" s="3">
+        <v>6355700</v>
+      </c>
+      <c r="K33" s="3">
         <v>5219700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5086200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4357300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4453300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4551400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4597100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4045100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4213900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4140100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3624400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2333400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2153700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3406500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2970500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2404400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2986200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3217900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2914500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2147800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2857600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>3267500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3014,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5708500</v>
+        <v>6614800</v>
       </c>
       <c r="E35" s="3">
-        <v>6499400</v>
+        <v>5699400</v>
       </c>
       <c r="F35" s="3">
-        <v>9291400</v>
+        <v>6489000</v>
       </c>
       <c r="G35" s="3">
-        <v>8819200</v>
+        <v>9276600</v>
       </c>
       <c r="H35" s="3">
-        <v>7442700</v>
+        <v>8805100</v>
       </c>
       <c r="I35" s="3">
-        <v>6365800</v>
+        <v>7430800</v>
       </c>
       <c r="J35" s="3">
+        <v>6355700</v>
+      </c>
+      <c r="K35" s="3">
         <v>5219700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5086200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4357300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4453300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4551400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4597100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4045100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4213900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4140100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3624400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2333400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2153700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3406500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2970500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2404400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2986200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3217900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2914500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2147800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2857600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>3267500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3230,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3263,809 +3348,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>40089100</v>
+        <v>41125100</v>
       </c>
       <c r="E41" s="3">
-        <v>43496300</v>
+        <v>40025300</v>
       </c>
       <c r="F41" s="3">
-        <v>42164400</v>
+        <v>43427000</v>
       </c>
       <c r="G41" s="3">
-        <v>40694800</v>
+        <v>42097200</v>
       </c>
       <c r="H41" s="3">
-        <v>39350100</v>
+        <v>40630000</v>
       </c>
       <c r="I41" s="3">
-        <v>36159900</v>
+        <v>39287500</v>
       </c>
       <c r="J41" s="3">
+        <v>36102300</v>
+      </c>
+      <c r="K41" s="3">
         <v>33440700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27791600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24257100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21191500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21046200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20228500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15655700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15516600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16248600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16224200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>22706900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>22650100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19686100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>16299200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>21028000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>19217100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>17935400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13225800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>18488800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>18415700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>17650300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>15130100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>7474900</v>
+        <v>8352100</v>
       </c>
       <c r="E42" s="3">
-        <v>7193700</v>
+        <v>7489600</v>
       </c>
       <c r="F42" s="3">
-        <v>7651700</v>
+        <v>7209200</v>
       </c>
       <c r="G42" s="3">
-        <v>6999800</v>
+        <v>7669300</v>
       </c>
       <c r="H42" s="3">
-        <v>6187400</v>
+        <v>7136100</v>
       </c>
       <c r="I42" s="3">
-        <v>4573900</v>
+        <v>6184300</v>
       </c>
       <c r="J42" s="3">
+        <v>4590400</v>
+      </c>
+      <c r="K42" s="3">
         <v>4393600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4425000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4386000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4687500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4454400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4867200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4924400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5052000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4951600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5379600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4532100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4384600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4628600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4342600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4313700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3928700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3325800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3200600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2937600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3206500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3091300</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>1910300</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6077400</v>
+        <v>6988100</v>
       </c>
       <c r="E43" s="3">
-        <v>4651100</v>
+        <v>6067700</v>
       </c>
       <c r="F43" s="3">
-        <v>7266200</v>
+        <v>4643700</v>
       </c>
       <c r="G43" s="3">
-        <v>8214700</v>
+        <v>7254700</v>
       </c>
       <c r="H43" s="3">
-        <v>7052000</v>
+        <v>8201600</v>
       </c>
       <c r="I43" s="3">
-        <v>6703500</v>
+        <v>7040800</v>
       </c>
       <c r="J43" s="3">
+        <v>6692800</v>
+      </c>
+      <c r="K43" s="3">
         <v>6228600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6094700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5836500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5340900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4657300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5444500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5095000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5276200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4988900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5216800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4112700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3746200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4404000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4322300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3039400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3589100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3969900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3853300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3625400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3559800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>4221400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>4221000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>7358100</v>
+        <v>8216500</v>
       </c>
       <c r="E44" s="3">
-        <v>6784500</v>
+        <v>7346300</v>
       </c>
       <c r="F44" s="3">
-        <v>6944100</v>
+        <v>6773700</v>
       </c>
       <c r="G44" s="3">
-        <v>6855700</v>
+        <v>6933000</v>
       </c>
       <c r="H44" s="3">
-        <v>6827600</v>
+        <v>6844800</v>
       </c>
       <c r="I44" s="3">
-        <v>6283700</v>
+        <v>6816700</v>
       </c>
       <c r="J44" s="3">
+        <v>6273700</v>
+      </c>
+      <c r="K44" s="3">
         <v>6063400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5931700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5527300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4927600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4378800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3666400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2872200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2819600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2960800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3467200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3782700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3812600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3517100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3513000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3293800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2834300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2394500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2394900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1977400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1643200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1587500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1757100</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>543400</v>
+        <v>603800</v>
       </c>
       <c r="E45" s="3">
-        <v>540200</v>
+        <v>515900</v>
       </c>
       <c r="F45" s="3">
-        <v>434500</v>
+        <v>512400</v>
       </c>
       <c r="G45" s="3">
-        <v>481900</v>
+        <v>404100</v>
       </c>
       <c r="H45" s="3">
-        <v>427000</v>
+        <v>333600</v>
       </c>
       <c r="I45" s="3">
-        <v>357300</v>
+        <v>419600</v>
       </c>
       <c r="J45" s="3">
+        <v>332900</v>
+      </c>
+      <c r="K45" s="3">
         <v>335800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>371300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>242200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>188900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>282100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>267000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>246600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>240500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>201000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>172700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>171400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>182200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>187900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>178000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>222900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1333300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>156400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>170000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>132000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>99600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>115600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>61542900</v>
+        <v>65285700</v>
       </c>
       <c r="E46" s="3">
-        <v>62665800</v>
+        <v>61444900</v>
       </c>
       <c r="F46" s="3">
-        <v>64461000</v>
+        <v>62566100</v>
       </c>
       <c r="G46" s="3">
-        <v>63246900</v>
+        <v>64358300</v>
       </c>
       <c r="H46" s="3">
-        <v>59844200</v>
+        <v>63146200</v>
       </c>
       <c r="I46" s="3">
-        <v>54078300</v>
+        <v>59748900</v>
       </c>
       <c r="J46" s="3">
+        <v>53992100</v>
+      </c>
+      <c r="K46" s="3">
         <v>50462100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44614300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40249000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36336400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34818900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34473500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28793900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28905000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29350900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30460500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>35305800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34775700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>32423700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>28655100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>31897800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30902400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>27782000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>22844600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>27161200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>26924800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>26666100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>23139800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2970800</v>
+        <v>3647500</v>
       </c>
       <c r="E47" s="3">
-        <v>2195300</v>
+        <v>2966000</v>
       </c>
       <c r="F47" s="3">
-        <v>2164300</v>
+        <v>2191800</v>
       </c>
       <c r="G47" s="3">
-        <v>2380000</v>
+        <v>2160900</v>
       </c>
       <c r="H47" s="3">
-        <v>2023400</v>
+        <v>2376200</v>
       </c>
       <c r="I47" s="3">
-        <v>1436100</v>
+        <v>2020200</v>
       </c>
       <c r="J47" s="3">
+        <v>1433900</v>
+      </c>
+      <c r="K47" s="3">
         <v>922700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>902600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>942500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>928700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>884000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>887700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>767300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1117800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1076500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1080600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1024600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1053800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>998400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>993900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>959100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1143400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1347300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1325700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1420200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1451800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1505100</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1627600</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>93849200</v>
+        <v>99502400</v>
       </c>
       <c r="E48" s="3">
-        <v>90288000</v>
+        <v>93699800</v>
       </c>
       <c r="F48" s="3">
-        <v>85902600</v>
+        <v>90144300</v>
       </c>
       <c r="G48" s="3">
-        <v>77050600</v>
+        <v>85765800</v>
       </c>
       <c r="H48" s="3">
-        <v>71674000</v>
+        <v>76927900</v>
       </c>
       <c r="I48" s="3">
-        <v>67109700</v>
+        <v>71559900</v>
       </c>
       <c r="J48" s="3">
+        <v>67002900</v>
+      </c>
+      <c r="K48" s="3">
         <v>63046600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60603400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>56924300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>53903800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50476200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>51065800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50708700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>52586900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>48867700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>43586500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>40573900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>39524500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>36524800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>34968000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>34399800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>35101500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>34437000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>34541200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>34925900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>33828400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>32537500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>30488000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>748900</v>
+        <v>733900</v>
       </c>
       <c r="E49" s="3">
-        <v>762900</v>
+        <v>747700</v>
       </c>
       <c r="F49" s="3">
-        <v>816400</v>
+        <v>761700</v>
       </c>
       <c r="G49" s="3">
-        <v>838600</v>
+        <v>815100</v>
       </c>
       <c r="H49" s="3">
-        <v>854400</v>
+        <v>837300</v>
       </c>
       <c r="I49" s="3">
-        <v>804500</v>
+        <v>853000</v>
       </c>
       <c r="J49" s="3">
+        <v>803200</v>
+      </c>
+      <c r="K49" s="3">
         <v>842200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>834700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>860500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>797400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>821500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>881800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>917200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>980900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>736900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>648800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>611700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>630500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>579300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>466500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>458700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>454800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>459400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>481000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>457600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>465600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>476600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>477100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4153,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4242,97 +4358,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2581500</v>
+        <v>2771400</v>
       </c>
       <c r="E52" s="3">
-        <v>2527400</v>
+        <v>2577400</v>
       </c>
       <c r="F52" s="3">
-        <v>2549800</v>
+        <v>2523400</v>
       </c>
       <c r="G52" s="3">
-        <v>2283600</v>
+        <v>2545700</v>
       </c>
       <c r="H52" s="3">
-        <v>2066500</v>
+        <v>2280000</v>
       </c>
       <c r="I52" s="3">
-        <v>1941400</v>
+        <v>2063200</v>
       </c>
       <c r="J52" s="3">
+        <v>1938300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1707200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1511700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1323600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1095600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1011000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>930100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>794200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>814900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>776300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>757200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>749100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>750900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>684500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>612200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>581200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>552800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>530600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>488100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>415500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>418700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>332000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>313900</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4420,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>161693200</v>
+        <v>171940800</v>
       </c>
       <c r="E54" s="3">
-        <v>158439500</v>
+        <v>161435700</v>
       </c>
       <c r="F54" s="3">
-        <v>155894100</v>
+        <v>158187200</v>
       </c>
       <c r="G54" s="3">
-        <v>145799700</v>
+        <v>155645800</v>
       </c>
       <c r="H54" s="3">
-        <v>136462600</v>
+        <v>145567500</v>
       </c>
       <c r="I54" s="3">
-        <v>125370000</v>
+        <v>136245300</v>
       </c>
       <c r="J54" s="3">
+        <v>125170400</v>
+      </c>
+      <c r="K54" s="3">
         <v>116980800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108466800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100300000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>93061900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>88011500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>88239000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>81981300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>84405500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>80808200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76533600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>78265100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>76735300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>71210700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>65695800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>68296500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>68154900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>64556200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>59680600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>64380300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>63089400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>61517300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>56046400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4542,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4575,542 +4704,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1537700</v>
+        <v>1685800</v>
       </c>
       <c r="E57" s="3">
-        <v>1487800</v>
+        <v>1535300</v>
       </c>
       <c r="F57" s="3">
-        <v>1774800</v>
+        <v>1485400</v>
       </c>
       <c r="G57" s="3">
-        <v>1947400</v>
+        <v>1772000</v>
       </c>
       <c r="H57" s="3">
-        <v>1878300</v>
+        <v>1944300</v>
       </c>
       <c r="I57" s="3">
-        <v>1573300</v>
+        <v>1875300</v>
       </c>
       <c r="J57" s="3">
+        <v>1570800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1529900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1428600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1337100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1230500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1310100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1369100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1323600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1432700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1434500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1325300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1138300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>970400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1170600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1010700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1019900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>965900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>974500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>939500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>830100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>790900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>891100</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>338000</v>
+        <v>319600</v>
       </c>
       <c r="E58" s="3">
-        <v>335600</v>
+        <v>337400</v>
       </c>
       <c r="F58" s="3">
-        <v>688200</v>
+        <v>335100</v>
       </c>
       <c r="G58" s="3">
-        <v>816100</v>
+        <v>687100</v>
       </c>
       <c r="H58" s="3">
-        <v>4235400</v>
+        <v>814800</v>
       </c>
       <c r="I58" s="3">
-        <v>5134800</v>
+        <v>4228600</v>
       </c>
       <c r="J58" s="3">
+        <v>5126600</v>
+      </c>
+      <c r="K58" s="3">
         <v>3820300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3935900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4580500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4432000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2964400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5346700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6388800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5670400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5444700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4301600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4510200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4468900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4212900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3631000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1554400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3528500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3959500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3678600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4362700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3247200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3132800</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>2470500</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>23584300</v>
+        <v>28405200</v>
       </c>
       <c r="E59" s="3">
-        <v>25591600</v>
+        <v>23546700</v>
       </c>
       <c r="F59" s="3">
-        <v>27185700</v>
+        <v>25550900</v>
       </c>
       <c r="G59" s="3">
-        <v>22589900</v>
+        <v>27142400</v>
       </c>
       <c r="H59" s="3">
-        <v>20426900</v>
+        <v>22553900</v>
       </c>
       <c r="I59" s="3">
-        <v>19130000</v>
+        <v>20394400</v>
       </c>
       <c r="J59" s="3">
+        <v>19099500</v>
+      </c>
+      <c r="K59" s="3">
         <v>17870200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15976000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15088900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15430900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15400200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12978600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12870900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14129500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14198200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12116000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16099400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7830300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6218800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6084700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12825000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6888300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6691700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5057000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11774100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>6448700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>6354000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>5081300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>25460000</v>
+        <v>30410600</v>
       </c>
       <c r="E60" s="3">
-        <v>27415000</v>
+        <v>25419500</v>
       </c>
       <c r="F60" s="3">
-        <v>29648700</v>
+        <v>27371400</v>
       </c>
       <c r="G60" s="3">
-        <v>25353300</v>
+        <v>29601500</v>
       </c>
       <c r="H60" s="3">
-        <v>26540600</v>
+        <v>25313000</v>
       </c>
       <c r="I60" s="3">
-        <v>25838000</v>
+        <v>26498300</v>
       </c>
       <c r="J60" s="3">
+        <v>25796900</v>
+      </c>
+      <c r="K60" s="3">
         <v>23220400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21340500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21006500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21093400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19674800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19694300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20583400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21232600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21077400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17742900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21747900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13269600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11602300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10726400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15399300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11382700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11625700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9675100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>16966900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>10486700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>10377800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>8398900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>29423600</v>
+        <v>30312600</v>
       </c>
       <c r="E61" s="3">
-        <v>27781800</v>
+        <v>29376700</v>
       </c>
       <c r="F61" s="3">
-        <v>27282200</v>
+        <v>27737500</v>
       </c>
       <c r="G61" s="3">
-        <v>27494600</v>
+        <v>27238800</v>
       </c>
       <c r="H61" s="3">
-        <v>24483200</v>
+        <v>27450800</v>
       </c>
       <c r="I61" s="3">
-        <v>20529400</v>
+        <v>24444200</v>
       </c>
       <c r="J61" s="3">
+        <v>20496800</v>
+      </c>
+      <c r="K61" s="3">
         <v>19912100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15762600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14096200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9581100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8819100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8276500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3401700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2376100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1432300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1439100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1772200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1831400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1938600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1897600</v>
-      </c>
-      <c r="X61" s="3">
-        <v>2773900</v>
       </c>
       <c r="Y61" s="3">
         <v>2773900</v>
       </c>
       <c r="Z61" s="3">
+        <v>2773900</v>
+      </c>
+      <c r="AA61" s="3">
         <v>2975200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2975700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3218900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4376900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4993100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>6157900</v>
+        <v>5479800</v>
       </c>
       <c r="E62" s="3">
-        <v>6125700</v>
+        <v>6148100</v>
       </c>
       <c r="F62" s="3">
-        <v>6003800</v>
+        <v>6116000</v>
       </c>
       <c r="G62" s="3">
-        <v>6529000</v>
+        <v>5994200</v>
       </c>
       <c r="H62" s="3">
-        <v>6610300</v>
+        <v>6518600</v>
       </c>
       <c r="I62" s="3">
-        <v>6108400</v>
+        <v>6599800</v>
       </c>
       <c r="J62" s="3">
+        <v>6098700</v>
+      </c>
+      <c r="K62" s="3">
         <v>5687300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3714300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>532800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>508500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>519800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>396900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>370000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>390200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>422200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>424000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>418000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>471600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>517500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>517900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>544800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>562600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>602700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>637700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>688500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>735500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>816900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>817700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5198,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5287,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5376,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>61566400</v>
+        <v>66970100</v>
       </c>
       <c r="E66" s="3">
-        <v>61783000</v>
+        <v>61468400</v>
       </c>
       <c r="F66" s="3">
-        <v>63400500</v>
+        <v>61684600</v>
       </c>
       <c r="G66" s="3">
-        <v>59827300</v>
+        <v>63299600</v>
       </c>
       <c r="H66" s="3">
-        <v>58077100</v>
+        <v>59732000</v>
       </c>
       <c r="I66" s="3">
-        <v>52696900</v>
+        <v>57984600</v>
       </c>
       <c r="J66" s="3">
+        <v>52613000</v>
+      </c>
+      <c r="K66" s="3">
         <v>48896600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40892300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35706400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31248600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29044400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28398100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24383000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24026400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22956300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19629000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23959200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15596300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14081500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13163800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>18739100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>14742700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>15226400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13311000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>20896300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>15625100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>16213900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>14204100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5498,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5587,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5676,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5765,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5854,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>90347600</v>
+        <v>94380200</v>
       </c>
       <c r="E72" s="3">
-        <v>87081200</v>
+        <v>90203700</v>
       </c>
       <c r="F72" s="3">
-        <v>82818300</v>
+        <v>86942600</v>
       </c>
       <c r="G72" s="3">
-        <v>75761100</v>
+        <v>82686400</v>
       </c>
       <c r="H72" s="3">
-        <v>69178100</v>
+        <v>75640500</v>
       </c>
       <c r="I72" s="3">
-        <v>64001400</v>
+        <v>69068000</v>
       </c>
       <c r="J72" s="3">
+        <v>63899500</v>
+      </c>
+      <c r="K72" s="3">
         <v>59874500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>58957000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55984600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53025100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50647300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50687900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>48261200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>49905600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47573400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45969200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>43532900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>50443200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>46902400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>42612600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>39561800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>44059200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>39973300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>36763300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>33848900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>37815800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>34958200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>31721600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6032,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6121,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6210,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>100126800</v>
+        <v>104970800</v>
       </c>
       <c r="E76" s="3">
-        <v>96656500</v>
+        <v>99967300</v>
       </c>
       <c r="F76" s="3">
-        <v>92493500</v>
+        <v>96502600</v>
       </c>
       <c r="G76" s="3">
-        <v>85972400</v>
+        <v>92346200</v>
       </c>
       <c r="H76" s="3">
-        <v>78385500</v>
+        <v>85835500</v>
       </c>
       <c r="I76" s="3">
-        <v>72673100</v>
+        <v>78260700</v>
       </c>
       <c r="J76" s="3">
+        <v>72557400</v>
+      </c>
+      <c r="K76" s="3">
         <v>68084200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>67574500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>64593600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>61813300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>58967100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>59840800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>57598300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>60379100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>57851900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>56904700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>54305800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>61139000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>57129200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>52532000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>49557500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>53412200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>49329900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>46369500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>43484000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>47464300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>45303400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>41842300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6388,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5708500</v>
+        <v>6614800</v>
       </c>
       <c r="E81" s="3">
-        <v>6499400</v>
+        <v>5699400</v>
       </c>
       <c r="F81" s="3">
-        <v>9291400</v>
+        <v>6489000</v>
       </c>
       <c r="G81" s="3">
-        <v>8819200</v>
+        <v>9276600</v>
       </c>
       <c r="H81" s="3">
-        <v>7442700</v>
+        <v>8805100</v>
       </c>
       <c r="I81" s="3">
-        <v>6365800</v>
+        <v>7430800</v>
       </c>
       <c r="J81" s="3">
+        <v>6355700</v>
+      </c>
+      <c r="K81" s="3">
         <v>5219700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5086200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4357300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4453300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4551400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4597100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4045100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4213900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4140100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3624400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2333400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2153700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3406500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2970500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2404400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2986200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3217900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2914500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2147800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2857600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>3267500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>3155300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6604,97 +6801,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3891700</v>
+        <v>4617200</v>
       </c>
       <c r="E83" s="3">
-        <v>3464100</v>
+        <v>3885500</v>
       </c>
       <c r="F83" s="3">
-        <v>3378100</v>
+        <v>3458600</v>
       </c>
       <c r="G83" s="3">
-        <v>3307900</v>
+        <v>3372700</v>
       </c>
       <c r="H83" s="3">
-        <v>3555300</v>
+        <v>3302600</v>
       </c>
       <c r="I83" s="3">
-        <v>3488600</v>
+        <v>3549600</v>
       </c>
       <c r="J83" s="3">
+        <v>3483000</v>
+      </c>
+      <c r="K83" s="3">
         <v>3474800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3483700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3366400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3216700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3110300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3171700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2372900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2469300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2409500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2393900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2622900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2720400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2590300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2454900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2375100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2378000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2295100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2306400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1879500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1962200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1840400</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>1834900</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6782,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6871,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6960,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7049,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7138,97 +7351,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>5251600</v>
+        <v>9237100</v>
       </c>
       <c r="E89" s="3">
-        <v>12096700</v>
+        <v>5243200</v>
       </c>
       <c r="F89" s="3">
-        <v>15288100</v>
+        <v>12077400</v>
       </c>
       <c r="G89" s="3">
-        <v>12958700</v>
+        <v>15263700</v>
       </c>
       <c r="H89" s="3">
-        <v>10639900</v>
+        <v>12938100</v>
       </c>
       <c r="I89" s="3">
-        <v>11686100</v>
+        <v>10622900</v>
       </c>
       <c r="J89" s="3">
+        <v>11667500</v>
+      </c>
+      <c r="K89" s="3">
         <v>11875500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10373900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6078700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7262800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8261100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6366900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5702800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7313100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7241400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5083300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4115700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5355700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6451900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3137700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4316300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5345700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>6615700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3785000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3351200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>5250500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>6040000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>4122200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7260,97 +7479,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-227790400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-252469400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-302784400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-338327600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-267635800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-220945300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-262717700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-238919200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-190193800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5414900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7907200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2827000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3324800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4241900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6936000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6065900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3518500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4066500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2664000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3887600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2332800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1985000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2389600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1982800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2000200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3409200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3372600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-3710900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-3423400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7438,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7527,97 +7753,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-8142800</v>
+        <v>-7594300</v>
       </c>
       <c r="E94" s="3">
-        <v>-8548100</v>
+        <v>-8129900</v>
       </c>
       <c r="F94" s="3">
-        <v>-10755500</v>
+        <v>-8534500</v>
       </c>
       <c r="G94" s="3">
-        <v>-8929900</v>
+        <v>-10738400</v>
       </c>
       <c r="H94" s="3">
-        <v>-8664300</v>
+        <v>-8915600</v>
       </c>
       <c r="I94" s="3">
-        <v>-9045500</v>
+        <v>-8650500</v>
       </c>
       <c r="J94" s="3">
+        <v>-9031100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7703800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5762000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5505000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7786700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2899800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3216700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4344000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6807500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6122900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3883300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4009400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2251700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3995100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2116800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1998100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2443300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2043500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2128100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3183300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3562000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-4516500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-3485500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7649,59 +7881,60 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-2235500</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-2235500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-2235500</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-2235500</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-2235500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-2235500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-2235500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2239100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-2239100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-2239100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-2239100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2239100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2239100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2239100</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2110100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2102300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-2066700</v>
       </c>
       <c r="N96" s="3">
         <v>-2066700</v>
       </c>
       <c r="O96" s="3">
-        <v>-2170400</v>
+        <v>-2066700</v>
       </c>
       <c r="P96" s="3">
         <v>-2170400</v>
       </c>
       <c r="Q96" s="3">
+        <v>-2170400</v>
+      </c>
+      <c r="R96" s="3">
         <v>-2335000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1850400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7738,8 +7971,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7827,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7916,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8005,271 +8247,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-834900</v>
+        <v>-1205400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2024900</v>
+        <v>-833600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2192700</v>
+        <v>-2021700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4094800</v>
+        <v>-2189200</v>
       </c>
       <c r="H100" s="3">
-        <v>599100</v>
+        <v>-4088300</v>
       </c>
       <c r="I100" s="3">
-        <v>-599300</v>
+        <v>598200</v>
       </c>
       <c r="J100" s="3">
+        <v>-598400</v>
+      </c>
+      <c r="K100" s="3">
         <v>2583700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1149800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2433200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>466000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3226400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1588100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>197900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1468100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-613100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8216000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-32500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-786200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>486600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5750700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-976100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1916700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>312600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-6896600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-20700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-388400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>792500</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-5517300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>319000</v>
+        <v>662500</v>
       </c>
       <c r="E101" s="3">
-        <v>-191800</v>
+        <v>318500</v>
       </c>
       <c r="F101" s="3">
-        <v>-870300</v>
+        <v>-191500</v>
       </c>
       <c r="G101" s="3">
-        <v>1410600</v>
+        <v>-868900</v>
       </c>
       <c r="H101" s="3">
-        <v>615500</v>
+        <v>1408300</v>
       </c>
       <c r="I101" s="3">
-        <v>677900</v>
+        <v>614500</v>
       </c>
       <c r="J101" s="3">
+        <v>676800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-124400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-17300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-306900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>203200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-350400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-165500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-323400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>75600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-399500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-58000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>66900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>62700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>91600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-55800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>468800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-174600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-175200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-23200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>38900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-534700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>204200</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-284400</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-3407200</v>
+        <v>1099800</v>
       </c>
       <c r="E102" s="3">
-        <v>1331900</v>
+        <v>-3401800</v>
       </c>
       <c r="F102" s="3">
-        <v>1469600</v>
+        <v>1329800</v>
       </c>
       <c r="G102" s="3">
-        <v>1344700</v>
+        <v>1467200</v>
       </c>
       <c r="H102" s="3">
-        <v>3190200</v>
+        <v>1342500</v>
       </c>
       <c r="I102" s="3">
-        <v>2719200</v>
+        <v>3185100</v>
       </c>
       <c r="J102" s="3">
+        <v>2714900</v>
+      </c>
+      <c r="K102" s="3">
         <v>6631000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3444800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2699900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>145300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1784500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4572800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1233300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-886900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>105900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7074000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>140700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2380400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3035000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4785700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1810900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>811300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>4709600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-5263000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>186100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>765400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>2520200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-5165000</v>
       </c>
     </row>
